--- a/user-data/uganda-health-percent/uganda-health-percent.xlsx
+++ b/user-data/uganda-health-percent/uganda-health-percent.xlsx
@@ -1213,7 +1213,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>20.8236094524052</v>
+        <v>20.8236043881387</v>
       </c>
     </row>
     <row r="3">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>20.3785481175861</v>
+        <v>20.3785568091683</v>
       </c>
     </row>
     <row r="4">
@@ -1247,7 +1247,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>20.8070057127392</v>
+        <v>20.8070078020248</v>
       </c>
     </row>
     <row r="5">
@@ -1264,7 +1264,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>22.839349109477</v>
+        <v>22.8393627529595</v>
       </c>
     </row>
     <row r="6">
@@ -1281,7 +1281,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>26.025192712113</v>
+        <v>26.0251710469218</v>
       </c>
     </row>
     <row r="7">
@@ -1298,7 +1298,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>22.385220699359</v>
+        <v>22.3852289293728</v>
       </c>
     </row>
     <row r="8">
@@ -1315,7 +1315,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>29.5599247412101</v>
+        <v>29.5599234468198</v>
       </c>
     </row>
     <row r="9">
@@ -1332,7 +1332,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>25.4034293331608</v>
+        <v>25.4034385945596</v>
       </c>
     </row>
     <row r="10">
@@ -1349,7 +1349,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>32.2830233755231</v>
+        <v>32.2830180008751</v>
       </c>
     </row>
     <row r="11">
@@ -1366,7 +1366,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>33.3576310429734</v>
+        <v>33.3576212765979</v>
       </c>
     </row>
     <row r="12">
@@ -1383,7 +1383,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>16.9927428977773</v>
+        <v>16.9927470048244</v>
       </c>
     </row>
     <row r="13">
@@ -1400,7 +1400,7 @@
         <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>19.4916234919144</v>
+        <v>19.4916192147557</v>
       </c>
     </row>
     <row r="14">
@@ -1417,7 +1417,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>19.3345255221896</v>
+        <v>19.3345223927634</v>
       </c>
     </row>
     <row r="15">
@@ -1434,7 +1434,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>19.241566011785</v>
+        <v>19.2415745948154</v>
       </c>
     </row>
     <row r="16">
@@ -1451,7 +1451,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>13.5001789034033</v>
+        <v>13.500187491523</v>
       </c>
     </row>
     <row r="17">
@@ -1468,7 +1468,7 @@
         <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>14.6888200921494</v>
+        <v>14.688828048516</v>
       </c>
     </row>
     <row r="18">
@@ -1485,7 +1485,7 @@
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>14.1137518180038</v>
+        <v>14.1137514451931</v>
       </c>
     </row>
     <row r="19">
@@ -1502,7 +1502,7 @@
         <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>11.5188619658844</v>
+        <v>11.5188828383766</v>
       </c>
     </row>
     <row r="20">
@@ -1519,7 +1519,7 @@
         <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>13.5581331419945</v>
+        <v>13.5581202054816</v>
       </c>
     </row>
     <row r="21">
@@ -1536,7 +1536,7 @@
         <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>12.9565776062023</v>
+        <v>12.9565988874524</v>
       </c>
     </row>
     <row r="22">
@@ -1553,7 +1553,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>14.595993236015</v>
+        <v>14.5959916311596</v>
       </c>
     </row>
     <row r="23">
@@ -1570,7 +1570,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>13.0521650816385</v>
+        <v>13.0521513895459</v>
       </c>
     </row>
     <row r="24">
@@ -1587,7 +1587,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>13.880434202551</v>
+        <v>13.8804398621244</v>
       </c>
     </row>
     <row r="25">
@@ -1604,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>14.1709684584976</v>
+        <v>14.1709623289287</v>
       </c>
     </row>
     <row r="26">
@@ -1621,7 +1621,7 @@
         <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>14.7780994880296</v>
+        <v>14.7780806752883</v>
       </c>
     </row>
     <row r="27">
@@ -1638,7 +1638,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>19.570988719074</v>
+        <v>19.5709829816457</v>
       </c>
     </row>
     <row r="28">
@@ -1655,7 +1655,7 @@
         <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>19.0595282010241</v>
+        <v>19.059518106791</v>
       </c>
     </row>
     <row r="29">
@@ -1672,7 +1672,7 @@
         <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>19.8037333309643</v>
+        <v>19.8037197869036</v>
       </c>
     </row>
     <row r="30">
@@ -1689,7 +1689,7 @@
         <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>13.7048235465179</v>
+        <v>13.7048331249806</v>
       </c>
     </row>
     <row r="31">
@@ -1706,7 +1706,7 @@
         <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>15.4934012485184</v>
+        <v>15.4934044981666</v>
       </c>
     </row>
     <row r="32">
@@ -1723,7 +1723,7 @@
         <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>14.9075060336103</v>
+        <v>14.9075016256188</v>
       </c>
     </row>
     <row r="33">
@@ -1740,7 +1740,7 @@
         <v>7</v>
       </c>
       <c r="E33" t="n">
-        <v>14.8614062439463</v>
+        <v>14.861401751574</v>
       </c>
     </row>
     <row r="34">
@@ -1757,7 +1757,7 @@
         <v>7</v>
       </c>
       <c r="E34" t="n">
-        <v>15.0724548780752</v>
+        <v>15.0724736040008</v>
       </c>
     </row>
     <row r="35">
@@ -1774,7 +1774,7 @@
         <v>7</v>
       </c>
       <c r="E35" t="n">
-        <v>13.5536487427071</v>
+        <v>13.5536475349064</v>
       </c>
     </row>
     <row r="36">
@@ -1791,7 +1791,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="n">
-        <v>14.5970230914393</v>
+        <v>14.5970277562327</v>
       </c>
     </row>
     <row r="37">
@@ -1808,7 +1808,7 @@
         <v>7</v>
       </c>
       <c r="E37" t="n">
-        <v>16.1803236410764</v>
+        <v>16.1803329657692</v>
       </c>
     </row>
     <row r="38">
@@ -1825,7 +1825,7 @@
         <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>18.807009161352</v>
+        <v>18.8070098172495</v>
       </c>
     </row>
     <row r="39">
@@ -1842,7 +1842,7 @@
         <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>15.6624989948224</v>
+        <v>15.6625019788522</v>
       </c>
     </row>
     <row r="40">
@@ -1859,7 +1859,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>14.5249820642927</v>
+        <v>14.5249812212694</v>
       </c>
     </row>
     <row r="41">
@@ -1876,7 +1876,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>14.7783030188309</v>
+        <v>14.7782978296164</v>
       </c>
     </row>
     <row r="42">
@@ -1893,7 +1893,7 @@
         <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>17.3067109726107</v>
+        <v>17.3186091780589</v>
       </c>
     </row>
     <row r="43">
@@ -1910,7 +1910,7 @@
         <v>7</v>
       </c>
       <c r="E43" t="n">
-        <v>17.9140080152674</v>
+        <v>17.9262502560773</v>
       </c>
     </row>
     <row r="44">
@@ -1927,7 +1927,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>11.7725565181703</v>
+        <v>11.7725506825703</v>
       </c>
     </row>
     <row r="45">
@@ -1944,7 +1944,7 @@
         <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>10.0415308428229</v>
+        <v>10.0415310441762</v>
       </c>
     </row>
     <row r="46">
@@ -1961,7 +1961,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>9.285701213202</v>
+        <v>9.28570198639965</v>
       </c>
     </row>
     <row r="47">
@@ -1978,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="E47" t="n">
-        <v>10.6814397867822</v>
+        <v>10.6814431493391</v>
       </c>
     </row>
     <row r="48">
@@ -1995,7 +1995,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>11.048885213134</v>
+        <v>11.0488791969974</v>
       </c>
     </row>
     <row r="49">
@@ -2012,7 +2012,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>10.4246609329747</v>
+        <v>10.424662320561</v>
       </c>
     </row>
     <row r="50">
@@ -2029,7 +2029,7 @@
         <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>14.4932346799599</v>
+        <v>14.4932496224498</v>
       </c>
     </row>
     <row r="51">
@@ -2046,7 +2046,7 @@
         <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>14.4351287345844</v>
+        <v>14.4351216984462</v>
       </c>
     </row>
     <row r="52">
@@ -2063,7 +2063,7 @@
         <v>7</v>
       </c>
       <c r="E52" t="n">
-        <v>12.3427955071096</v>
+        <v>12.3427861749707</v>
       </c>
     </row>
     <row r="53">
@@ -2080,7 +2080,7 @@
         <v>7</v>
       </c>
       <c r="E53" t="n">
-        <v>12.9586527897498</v>
+        <v>12.9586508543042</v>
       </c>
     </row>
     <row r="54">
@@ -2097,7 +2097,7 @@
         <v>7</v>
       </c>
       <c r="E54" t="n">
-        <v>11.2917867901051</v>
+        <v>11.2917982944291</v>
       </c>
     </row>
     <row r="55">
@@ -2114,7 +2114,7 @@
         <v>7</v>
       </c>
       <c r="E55" t="n">
-        <v>14.5545131374495</v>
+        <v>14.5545271433091</v>
       </c>
     </row>
     <row r="56">
@@ -2131,7 +2131,7 @@
         <v>7</v>
       </c>
       <c r="E56" t="n">
-        <v>15.6655151515936</v>
+        <v>15.6654992323394</v>
       </c>
     </row>
     <row r="57">
@@ -2148,7 +2148,7 @@
         <v>7</v>
       </c>
       <c r="E57" t="n">
-        <v>17.4692485835378</v>
+        <v>17.469259992067</v>
       </c>
     </row>
     <row r="58">
@@ -2165,7 +2165,7 @@
         <v>7</v>
       </c>
       <c r="E58" t="n">
-        <v>17.2722314333763</v>
+        <v>17.2722444469249</v>
       </c>
     </row>
     <row r="59">
@@ -2182,7 +2182,7 @@
         <v>7</v>
       </c>
       <c r="E59" t="n">
-        <v>10.9697866142143</v>
+        <v>10.9697764013423</v>
       </c>
     </row>
     <row r="60">
@@ -2199,7 +2199,7 @@
         <v>7</v>
       </c>
       <c r="E60" t="n">
-        <v>13.2072036969845</v>
+        <v>13.207210772274</v>
       </c>
     </row>
     <row r="61">
@@ -2216,7 +2216,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>14.0831835537444</v>
+        <v>14.0831898385463</v>
       </c>
     </row>
     <row r="62">
@@ -2233,7 +2233,7 @@
         <v>7</v>
       </c>
       <c r="E62" t="n">
-        <v>12.904199436437</v>
+        <v>12.904210649942</v>
       </c>
     </row>
     <row r="63">
@@ -2250,7 +2250,7 @@
         <v>7</v>
       </c>
       <c r="E63" t="n">
-        <v>15.8484835747522</v>
+        <v>15.8484969473438</v>
       </c>
     </row>
     <row r="64">
@@ -2267,7 +2267,7 @@
         <v>7</v>
       </c>
       <c r="E64" t="n">
-        <v>11.263806927942</v>
+        <v>11.2638065468996</v>
       </c>
     </row>
     <row r="65">
@@ -2284,7 +2284,7 @@
         <v>7</v>
       </c>
       <c r="E65" t="n">
-        <v>11.6433379534376</v>
+        <v>11.6433467307362</v>
       </c>
     </row>
     <row r="66">
@@ -2301,7 +2301,7 @@
         <v>7</v>
       </c>
       <c r="E66" t="n">
-        <v>11.5025908138458</v>
+        <v>11.5025785053643</v>
       </c>
     </row>
     <row r="67">
@@ -2318,7 +2318,7 @@
         <v>7</v>
       </c>
       <c r="E67" t="n">
-        <v>10.7887607697201</v>
+        <v>10.7887460008189</v>
       </c>
     </row>
     <row r="68">
@@ -2335,7 +2335,7 @@
         <v>7</v>
       </c>
       <c r="E68" t="n">
-        <v>11.3472175476887</v>
+        <v>11.3472399812047</v>
       </c>
     </row>
     <row r="69">
@@ -2352,7 +2352,7 @@
         <v>7</v>
       </c>
       <c r="E69" t="n">
-        <v>10.7127397219872</v>
+        <v>10.7127334956716</v>
       </c>
     </row>
     <row r="70">
@@ -2369,7 +2369,7 @@
         <v>7</v>
       </c>
       <c r="E70" t="n">
-        <v>16.3767855797606</v>
+        <v>16.3767815842183</v>
       </c>
     </row>
     <row r="71">
@@ -2386,7 +2386,7 @@
         <v>7</v>
       </c>
       <c r="E71" t="n">
-        <v>15.3917103608451</v>
+        <v>15.3917095498204</v>
       </c>
     </row>
     <row r="72">
@@ -2403,7 +2403,7 @@
         <v>7</v>
       </c>
       <c r="E72" t="n">
-        <v>14.5595803633676</v>
+        <v>14.5595852095555</v>
       </c>
     </row>
     <row r="73">
@@ -2420,7 +2420,7 @@
         <v>7</v>
       </c>
       <c r="E73" t="n">
-        <v>14.9081744566411</v>
+        <v>14.9081738640337</v>
       </c>
     </row>
     <row r="74">
@@ -2437,7 +2437,7 @@
         <v>7</v>
       </c>
       <c r="E74" t="n">
-        <v>9.88554898131589</v>
+        <v>9.88553439706208</v>
       </c>
     </row>
     <row r="75">
@@ -2454,7 +2454,7 @@
         <v>7</v>
       </c>
       <c r="E75" t="n">
-        <v>10.0837507622396</v>
+        <v>10.0837470440013</v>
       </c>
     </row>
     <row r="76">
@@ -2471,7 +2471,7 @@
         <v>7</v>
       </c>
       <c r="E76" t="n">
-        <v>9.39242232232107</v>
+        <v>9.39242343089693</v>
       </c>
     </row>
     <row r="77">
@@ -2488,7 +2488,7 @@
         <v>7</v>
       </c>
       <c r="E77" t="n">
-        <v>8.77691670717153</v>
+        <v>8.77691427101447</v>
       </c>
     </row>
     <row r="78">
@@ -2505,7 +2505,7 @@
         <v>7</v>
       </c>
       <c r="E78" t="n">
-        <v>10.3911413306627</v>
+        <v>10.3911245584333</v>
       </c>
     </row>
     <row r="79">
@@ -2522,7 +2522,7 @@
         <v>7</v>
       </c>
       <c r="E79" t="n">
-        <v>7.66891790693495</v>
+        <v>7.66894553587313</v>
       </c>
     </row>
     <row r="80">
@@ -2539,7 +2539,7 @@
         <v>7</v>
       </c>
       <c r="E80" t="n">
-        <v>8.55799137041526</v>
+        <v>8.55799905530023</v>
       </c>
     </row>
     <row r="81">
@@ -2556,7 +2556,7 @@
         <v>7</v>
       </c>
       <c r="E81" t="n">
-        <v>13.0615793142544</v>
+        <v>13.0615850791359</v>
       </c>
     </row>
     <row r="82">
@@ -2573,7 +2573,7 @@
         <v>7</v>
       </c>
       <c r="E82" t="n">
-        <v>12.7050775888664</v>
+        <v>12.7050930427974</v>
       </c>
     </row>
     <row r="83">
@@ -2590,7 +2590,7 @@
         <v>7</v>
       </c>
       <c r="E83" t="n">
-        <v>13.0695571266868</v>
+        <v>13.0695519453711</v>
       </c>
     </row>
     <row r="84">
@@ -2607,7 +2607,7 @@
         <v>7</v>
       </c>
       <c r="E84" t="n">
-        <v>13.100435521889</v>
+        <v>13.1004362887909</v>
       </c>
     </row>
     <row r="85">
@@ -2624,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="E85" t="n">
-        <v>21.2068284836419</v>
+        <v>21.206825689398</v>
       </c>
     </row>
     <row r="86">
@@ -2641,7 +2641,7 @@
         <v>7</v>
       </c>
       <c r="E86" t="n">
-        <v>18.5390470551518</v>
+        <v>18.5390589742541</v>
       </c>
     </row>
     <row r="87">
@@ -2658,7 +2658,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>18.5543340721317</v>
+        <v>18.5543368709624</v>
       </c>
     </row>
     <row r="88">
@@ -2675,7 +2675,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>10.7113911462133</v>
+        <v>10.7113921281458</v>
       </c>
     </row>
     <row r="89">
@@ -2692,7 +2692,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>10.1125344750069</v>
+        <v>10.1125160441914</v>
       </c>
     </row>
     <row r="90">
@@ -2709,7 +2709,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>14.2281736649721</v>
+        <v>14.2281715283487</v>
       </c>
     </row>
     <row r="91">
@@ -2726,7 +2726,7 @@
         <v>7</v>
       </c>
       <c r="E91" t="n">
-        <v>15.171133108964</v>
+        <v>15.1711257164988</v>
       </c>
     </row>
     <row r="92">
@@ -2743,7 +2743,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>17.4462642795394</v>
+        <v>17.4462671658102</v>
       </c>
     </row>
     <row r="93">
@@ -2760,7 +2760,7 @@
         <v>7</v>
       </c>
       <c r="E93" t="n">
-        <v>10.1534912125265</v>
+        <v>10.1534823047714</v>
       </c>
     </row>
     <row r="94">
@@ -2777,7 +2777,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>9.51563867756464</v>
+        <v>9.51564092620514</v>
       </c>
     </row>
     <row r="95">
@@ -2794,7 +2794,7 @@
         <v>7</v>
       </c>
       <c r="E95" t="n">
-        <v>10.6980700236591</v>
+        <v>10.6980926332738</v>
       </c>
     </row>
     <row r="96">
@@ -2811,7 +2811,7 @@
         <v>7</v>
       </c>
       <c r="E96" t="n">
-        <v>16.181972102537</v>
+        <v>16.18196719177</v>
       </c>
     </row>
     <row r="97">
@@ -2828,7 +2828,7 @@
         <v>7</v>
       </c>
       <c r="E97" t="n">
-        <v>19.7984438263277</v>
+        <v>19.7984604736853</v>
       </c>
     </row>
     <row r="98">
@@ -2845,7 +2845,7 @@
         <v>7</v>
       </c>
       <c r="E98" t="n">
-        <v>18.7051766885851</v>
+        <v>18.7051753995574</v>
       </c>
     </row>
     <row r="99">
@@ -2862,7 +2862,7 @@
         <v>7</v>
       </c>
       <c r="E99" t="n">
-        <v>24.6513362534363</v>
+        <v>24.6513322517205</v>
       </c>
     </row>
     <row r="100">
@@ -2879,7 +2879,7 @@
         <v>7</v>
       </c>
       <c r="E100" t="n">
-        <v>22.6889825182836</v>
+        <v>22.6889876255371</v>
       </c>
     </row>
     <row r="101">
@@ -2896,7 +2896,7 @@
         <v>7</v>
       </c>
       <c r="E101" t="n">
-        <v>20.249828326463</v>
+        <v>20.2498226266635</v>
       </c>
     </row>
     <row r="102">
@@ -2913,7 +2913,7 @@
         <v>7</v>
       </c>
       <c r="E102" t="n">
-        <v>21.361913315394</v>
+        <v>21.3619192523769</v>
       </c>
     </row>
     <row r="103">
@@ -2930,7 +2930,7 @@
         <v>7</v>
       </c>
       <c r="E103" t="n">
-        <v>13.2873114012421</v>
+        <v>13.2873137110243</v>
       </c>
     </row>
     <row r="104">
@@ -2947,7 +2947,7 @@
         <v>7</v>
       </c>
       <c r="E104" t="n">
-        <v>13.36185680209</v>
+        <v>13.3618493107873</v>
       </c>
     </row>
     <row r="105">
@@ -2964,7 +2964,7 @@
         <v>7</v>
       </c>
       <c r="E105" t="n">
-        <v>20.0511781848673</v>
+        <v>20.0511776170199</v>
       </c>
     </row>
     <row r="106">
@@ -2981,7 +2981,7 @@
         <v>7</v>
       </c>
       <c r="E106" t="n">
-        <v>14.6985424080039</v>
+        <v>14.6985451401509</v>
       </c>
     </row>
     <row r="107">
@@ -2998,7 +2998,7 @@
         <v>7</v>
       </c>
       <c r="E107" t="n">
-        <v>14.3357877267612</v>
+        <v>14.335785940526</v>
       </c>
     </row>
     <row r="108">
@@ -3015,7 +3015,7 @@
         <v>7</v>
       </c>
       <c r="E108" t="n">
-        <v>10.3058561837758</v>
+        <v>10.3058611582057</v>
       </c>
     </row>
     <row r="109">
@@ -3032,7 +3032,7 @@
         <v>7</v>
       </c>
       <c r="E109" t="n">
-        <v>9.57085353997395</v>
+        <v>9.57085526967376</v>
       </c>
     </row>
     <row r="110">
@@ -3049,7 +3049,7 @@
         <v>7</v>
       </c>
       <c r="E110" t="n">
-        <v>8.74255381008474</v>
+        <v>8.74254638274821</v>
       </c>
     </row>
     <row r="111">
@@ -3066,7 +3066,7 @@
         <v>7</v>
       </c>
       <c r="E111" t="n">
-        <v>8.35046285219997</v>
+        <v>8.35047047343883</v>
       </c>
     </row>
     <row r="112">
@@ -3083,7 +3083,7 @@
         <v>7</v>
       </c>
       <c r="E112" t="n">
-        <v>9.7275627947316</v>
+        <v>9.72756855445081</v>
       </c>
     </row>
     <row r="113">
@@ -3100,7 +3100,7 @@
         <v>7</v>
       </c>
       <c r="E113" t="n">
-        <v>18.5283717440638</v>
+        <v>18.5283626190425</v>
       </c>
     </row>
     <row r="114">
@@ -3117,7 +3117,7 @@
         <v>7</v>
       </c>
       <c r="E114" t="n">
-        <v>14.8164635571935</v>
+        <v>14.8164639388583</v>
       </c>
     </row>
     <row r="115">
@@ -3134,7 +3134,7 @@
         <v>7</v>
       </c>
       <c r="E115" t="n">
-        <v>15.7166946512577</v>
+        <v>15.7166903688392</v>
       </c>
     </row>
     <row r="116">
@@ -3151,7 +3151,7 @@
         <v>7</v>
       </c>
       <c r="E116" t="n">
-        <v>14.4081686448082</v>
+        <v>14.4081580544364</v>
       </c>
     </row>
     <row r="117">
@@ -3168,7 +3168,7 @@
         <v>7</v>
       </c>
       <c r="E117" t="n">
-        <v>14.4710171831433</v>
+        <v>14.4710230842076</v>
       </c>
     </row>
     <row r="118">
@@ -3185,7 +3185,7 @@
         <v>7</v>
       </c>
       <c r="E118" t="n">
-        <v>11.8327833924222</v>
+        <v>11.8327961091103</v>
       </c>
     </row>
     <row r="119">
@@ -3202,7 +3202,7 @@
         <v>7</v>
       </c>
       <c r="E119" t="n">
-        <v>13.1046171871647</v>
+        <v>13.1046229342491</v>
       </c>
     </row>
     <row r="120">
@@ -3219,7 +3219,7 @@
         <v>7</v>
       </c>
       <c r="E120" t="n">
-        <v>13.8567076384643</v>
+        <v>13.856696165303</v>
       </c>
     </row>
     <row r="121">
@@ -3236,7 +3236,7 @@
         <v>7</v>
       </c>
       <c r="E121" t="n">
-        <v>12.3955570776202</v>
+        <v>12.3955657758862</v>
       </c>
     </row>
     <row r="122">
@@ -3253,7 +3253,7 @@
         <v>7</v>
       </c>
       <c r="E122" t="n">
-        <v>12.8493864803996</v>
+        <v>12.849397366001</v>
       </c>
     </row>
     <row r="123">
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E123" t="n">
-        <v>18.246336170109</v>
+        <v>18.2463799789038</v>
       </c>
     </row>
     <row r="124">
@@ -3287,7 +3287,7 @@
         <v>7</v>
       </c>
       <c r="E124" t="n">
-        <v>22.636805427594</v>
+        <v>22.6368075674061</v>
       </c>
     </row>
     <row r="125">
@@ -3304,7 +3304,7 @@
         <v>7</v>
       </c>
       <c r="E125" t="n">
-        <v>20.1268686156506</v>
+        <v>20.1269004892365</v>
       </c>
     </row>
     <row r="126">
@@ -3321,7 +3321,7 @@
         <v>7</v>
       </c>
       <c r="E126" t="n">
-        <v>24.1946745568153</v>
+        <v>24.1946424312717</v>
       </c>
     </row>
     <row r="127">
@@ -3338,7 +3338,7 @@
         <v>7</v>
       </c>
       <c r="E127" t="n">
-        <v>5.16025424582496</v>
+        <v>5.16024077164307</v>
       </c>
     </row>
     <row r="128">
@@ -3355,7 +3355,7 @@
         <v>7</v>
       </c>
       <c r="E128" t="n">
-        <v>8.04092403551955</v>
+        <v>8.04092065525031</v>
       </c>
     </row>
     <row r="129">
@@ -3372,7 +3372,7 @@
         <v>7</v>
       </c>
       <c r="E129" t="n">
-        <v>10.7344128392833</v>
+        <v>10.7344193914822</v>
       </c>
     </row>
     <row r="130">
@@ -3389,7 +3389,7 @@
         <v>7</v>
       </c>
       <c r="E130" t="n">
-        <v>10.9150692026195</v>
+        <v>10.9150494907214</v>
       </c>
     </row>
     <row r="131">
@@ -3406,7 +3406,7 @@
         <v>7</v>
       </c>
       <c r="E131" t="n">
-        <v>10.4825282916905</v>
+        <v>10.4825618022772</v>
       </c>
     </row>
     <row r="132">
@@ -3423,7 +3423,7 @@
         <v>7</v>
       </c>
       <c r="E132" t="n">
-        <v>8.94768369959297</v>
+        <v>8.94768305656597</v>
       </c>
     </row>
     <row r="133">
@@ -3440,7 +3440,7 @@
         <v>7</v>
       </c>
       <c r="E133" t="n">
-        <v>15.5763355340017</v>
+        <v>15.5763307945817</v>
       </c>
     </row>
     <row r="134">
@@ -3457,7 +3457,7 @@
         <v>7</v>
       </c>
       <c r="E134" t="n">
-        <v>15.0821645613324</v>
+        <v>15.082157705434</v>
       </c>
     </row>
     <row r="135">
@@ -3474,7 +3474,7 @@
         <v>7</v>
       </c>
       <c r="E135" t="n">
-        <v>15.580247180553</v>
+        <v>15.5802472806882</v>
       </c>
     </row>
     <row r="136">
@@ -3491,7 +3491,7 @@
         <v>7</v>
       </c>
       <c r="E136" t="n">
-        <v>8.50735628474616</v>
+        <v>8.50734883978079</v>
       </c>
     </row>
     <row r="137">
@@ -3508,7 +3508,7 @@
         <v>7</v>
       </c>
       <c r="E137" t="n">
-        <v>7.206436691789</v>
+        <v>7.2064433165605</v>
       </c>
     </row>
     <row r="138">
@@ -3525,7 +3525,7 @@
         <v>7</v>
       </c>
       <c r="E138" t="n">
-        <v>9.55605570924702</v>
+        <v>9.55606100760882</v>
       </c>
     </row>
     <row r="139">
@@ -3542,7 +3542,7 @@
         <v>7</v>
       </c>
       <c r="E139" t="n">
-        <v>8.69028162140586</v>
+        <v>8.69027017413599</v>
       </c>
     </row>
     <row r="140">
@@ -3559,7 +3559,7 @@
         <v>7</v>
       </c>
       <c r="E140" t="n">
-        <v>8.76562967346795</v>
+        <v>8.76562705193035</v>
       </c>
     </row>
     <row r="141">
@@ -3576,7 +3576,7 @@
         <v>7</v>
       </c>
       <c r="E141" t="n">
-        <v>17.5160588434165</v>
+        <v>17.5160603060224</v>
       </c>
     </row>
     <row r="142">
@@ -3593,7 +3593,7 @@
         <v>7</v>
       </c>
       <c r="E142" t="n">
-        <v>12.7648280416823</v>
+        <v>12.7654171276708</v>
       </c>
     </row>
     <row r="143">
@@ -3610,7 +3610,7 @@
         <v>7</v>
       </c>
       <c r="E143" t="n">
-        <v>13.5165644783091</v>
+        <v>13.5165634634266</v>
       </c>
     </row>
     <row r="144">
@@ -3627,7 +3627,7 @@
         <v>7</v>
       </c>
       <c r="E144" t="n">
-        <v>8.93843658208637</v>
+        <v>8.93843155361941</v>
       </c>
     </row>
     <row r="145">
@@ -3644,7 +3644,7 @@
         <v>7</v>
       </c>
       <c r="E145" t="n">
-        <v>10.9145389735727</v>
+        <v>10.9145411064341</v>
       </c>
     </row>
     <row r="146">
@@ -3661,7 +3661,7 @@
         <v>7</v>
       </c>
       <c r="E146" t="n">
-        <v>12.3176008441506</v>
+        <v>12.3176073783735</v>
       </c>
     </row>
     <row r="147">
@@ -3678,7 +3678,7 @@
         <v>7</v>
       </c>
       <c r="E147" t="n">
-        <v>16.4903434389269</v>
+        <v>16.4903371860489</v>
       </c>
     </row>
     <row r="148">
@@ -3695,7 +3695,7 @@
         <v>7</v>
       </c>
       <c r="E148" t="n">
-        <v>14.0729056822542</v>
+        <v>14.0729094990395</v>
       </c>
     </row>
     <row r="149">
@@ -3712,7 +3712,7 @@
         <v>7</v>
       </c>
       <c r="E149" t="n">
-        <v>11.4100606179807</v>
+        <v>11.4100542815049</v>
       </c>
     </row>
     <row r="150">
@@ -3729,7 +3729,7 @@
         <v>7</v>
       </c>
       <c r="E150" t="n">
-        <v>12.9795688586129</v>
+        <v>12.9795584527787</v>
       </c>
     </row>
     <row r="151">
@@ -3746,7 +3746,7 @@
         <v>7</v>
       </c>
       <c r="E151" t="n">
-        <v>10.5955626476278</v>
+        <v>10.5955544915991</v>
       </c>
     </row>
     <row r="152">
@@ -3763,7 +3763,7 @@
         <v>7</v>
       </c>
       <c r="E152" t="n">
-        <v>15.0531037849003</v>
+        <v>15.0530868113466</v>
       </c>
     </row>
     <row r="153">
@@ -3780,7 +3780,7 @@
         <v>7</v>
       </c>
       <c r="E153" t="n">
-        <v>14.7762290556093</v>
+        <v>14.7762403688211</v>
       </c>
     </row>
     <row r="154">
@@ -3797,7 +3797,7 @@
         <v>7</v>
       </c>
       <c r="E154" t="n">
-        <v>13.3941772972078</v>
+        <v>13.3941829766948</v>
       </c>
     </row>
     <row r="155">
@@ -3814,7 +3814,7 @@
         <v>7</v>
       </c>
       <c r="E155" t="n">
-        <v>14.1255117165078</v>
+        <v>14.1255030197138</v>
       </c>
     </row>
     <row r="156">
@@ -3831,7 +3831,7 @@
         <v>7</v>
       </c>
       <c r="E156" t="n">
-        <v>12.8765383007793</v>
+        <v>12.8765353903265</v>
       </c>
     </row>
     <row r="157">
@@ -3848,7 +3848,7 @@
         <v>7</v>
       </c>
       <c r="E157" t="n">
-        <v>15.8089399163381</v>
+        <v>15.8089383495567</v>
       </c>
     </row>
     <row r="158">
@@ -3865,7 +3865,7 @@
         <v>7</v>
       </c>
       <c r="E158" t="n">
-        <v>16.8107642060264</v>
+        <v>16.810767137475</v>
       </c>
     </row>
     <row r="159">
@@ -3882,7 +3882,7 @@
         <v>7</v>
       </c>
       <c r="E159" t="n">
-        <v>17.1545404689414</v>
+        <v>17.1545376948555</v>
       </c>
     </row>
     <row r="160">
@@ -3899,7 +3899,7 @@
         <v>7</v>
       </c>
       <c r="E160" t="n">
-        <v>14.7660951478116</v>
+        <v>14.7660995911556</v>
       </c>
     </row>
     <row r="161">
@@ -3916,7 +3916,7 @@
         <v>7</v>
       </c>
       <c r="E161" t="n">
-        <v>12.8157382686684</v>
+        <v>12.815745381143</v>
       </c>
     </row>
     <row r="162">
@@ -3933,7 +3933,7 @@
         <v>7</v>
       </c>
       <c r="E162" t="n">
-        <v>15.7410059589154</v>
+        <v>15.7410062536059</v>
       </c>
     </row>
     <row r="163">
@@ -3950,7 +3950,7 @@
         <v>7</v>
       </c>
       <c r="E163" t="n">
-        <v>12.377150011138</v>
+        <v>12.3771525419807</v>
       </c>
     </row>
     <row r="164">
@@ -3967,7 +3967,7 @@
         <v>7</v>
       </c>
       <c r="E164" t="n">
-        <v>12.7553304750929</v>
+        <v>12.7553211564365</v>
       </c>
     </row>
     <row r="165">
@@ -3984,7 +3984,7 @@
         <v>7</v>
       </c>
       <c r="E165" t="n">
-        <v>8.84026399872387</v>
+        <v>8.84026078986814</v>
       </c>
     </row>
     <row r="166">
@@ -4001,7 +4001,7 @@
         <v>7</v>
       </c>
       <c r="E166" t="n">
-        <v>14.6880015932179</v>
+        <v>14.6879930711115</v>
       </c>
     </row>
     <row r="167">
@@ -4018,7 +4018,7 @@
         <v>7</v>
       </c>
       <c r="E167" t="n">
-        <v>15.0573934190072</v>
+        <v>15.0574023145819</v>
       </c>
     </row>
     <row r="168">
@@ -4035,7 +4035,7 @@
         <v>7</v>
       </c>
       <c r="E168" t="n">
-        <v>18.3376928706586</v>
+        <v>18.3376908934541</v>
       </c>
     </row>
     <row r="169">
@@ -4052,7 +4052,7 @@
         <v>7</v>
       </c>
       <c r="E169" t="n">
-        <v>17.5209716008734</v>
+        <v>17.5209722283601</v>
       </c>
     </row>
     <row r="170">
@@ -4069,7 +4069,7 @@
         <v>7</v>
       </c>
       <c r="E170" t="n">
-        <v>15.6330111567289</v>
+        <v>15.6330157564283</v>
       </c>
     </row>
     <row r="171">
@@ -4086,7 +4086,7 @@
         <v>7</v>
       </c>
       <c r="E171" t="n">
-        <v>22.3861006542163</v>
+        <v>22.3861048867913</v>
       </c>
     </row>
     <row r="172">
@@ -4103,7 +4103,7 @@
         <v>7</v>
       </c>
       <c r="E172" t="n">
-        <v>19.4562692426535</v>
+        <v>19.4562634321297</v>
       </c>
     </row>
     <row r="173">
@@ -4120,7 +4120,7 @@
         <v>7</v>
       </c>
       <c r="E173" t="n">
-        <v>18.6423328966893</v>
+        <v>18.6423309304245</v>
       </c>
     </row>
     <row r="174">
@@ -4137,7 +4137,7 @@
         <v>7</v>
       </c>
       <c r="E174" t="n">
-        <v>11.7467491645862</v>
+        <v>11.746745121485</v>
       </c>
     </row>
     <row r="175">
@@ -4154,7 +4154,7 @@
         <v>7</v>
       </c>
       <c r="E175" t="n">
-        <v>15.2989816944551</v>
+        <v>15.298977264873</v>
       </c>
     </row>
     <row r="176">
@@ -4171,7 +4171,7 @@
         <v>7</v>
       </c>
       <c r="E176" t="n">
-        <v>11.6703932166231</v>
+        <v>11.6703921715328</v>
       </c>
     </row>
     <row r="177">
@@ -4188,7 +4188,7 @@
         <v>7</v>
       </c>
       <c r="E177" t="n">
-        <v>11.733506851348</v>
+        <v>11.7335005824887</v>
       </c>
     </row>
     <row r="178">
@@ -4205,7 +4205,7 @@
         <v>7</v>
       </c>
       <c r="E178" t="n">
-        <v>10.7547784716445</v>
+        <v>10.7547687966187</v>
       </c>
     </row>
     <row r="179">
@@ -4222,7 +4222,7 @@
         <v>7</v>
       </c>
       <c r="E179" t="n">
-        <v>10.4592936191671</v>
+        <v>10.4592843598912</v>
       </c>
     </row>
     <row r="180">
@@ -4239,7 +4239,7 @@
         <v>7</v>
       </c>
       <c r="E180" t="n">
-        <v>14.133213700889</v>
+        <v>14.1332238527562</v>
       </c>
     </row>
     <row r="181">
@@ -4256,7 +4256,7 @@
         <v>7</v>
       </c>
       <c r="E181" t="n">
-        <v>12.5772134399602</v>
+        <v>12.5772191525311</v>
       </c>
     </row>
     <row r="182">
@@ -4273,7 +4273,7 @@
         <v>7</v>
       </c>
       <c r="E182" t="n">
-        <v>13.9218780751428</v>
+        <v>13.9218787152125</v>
       </c>
     </row>
     <row r="183">
@@ -4290,7 +4290,7 @@
         <v>7</v>
       </c>
       <c r="E183" t="n">
-        <v>12.3043256094986</v>
+        <v>12.3043418834239</v>
       </c>
     </row>
     <row r="184">
@@ -4307,7 +4307,7 @@
         <v>7</v>
       </c>
       <c r="E184" t="n">
-        <v>16.5680314867878</v>
+        <v>16.5680361221972</v>
       </c>
     </row>
     <row r="185">
@@ -4324,7 +4324,7 @@
         <v>7</v>
       </c>
       <c r="E185" t="n">
-        <v>17.881602214476</v>
+        <v>17.8816197445903</v>
       </c>
     </row>
     <row r="186">
@@ -4341,7 +4341,7 @@
         <v>7</v>
       </c>
       <c r="E186" t="n">
-        <v>16.2485532281915</v>
+        <v>16.2485594082398</v>
       </c>
     </row>
     <row r="187">
@@ -4358,7 +4358,7 @@
         <v>7</v>
       </c>
       <c r="E187" t="n">
-        <v>16.5744257789488</v>
+        <v>16.5744367382408</v>
       </c>
     </row>
     <row r="188">
@@ -4375,7 +4375,7 @@
         <v>7</v>
       </c>
       <c r="E188" t="n">
-        <v>27.9128309721993</v>
+        <v>27.9128102619207</v>
       </c>
     </row>
     <row r="189">
@@ -4392,7 +4392,7 @@
         <v>7</v>
       </c>
       <c r="E189" t="n">
-        <v>33.5462396728027</v>
+        <v>33.5462561839243</v>
       </c>
     </row>
     <row r="190">
@@ -4409,7 +4409,7 @@
         <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>33.2839980839123</v>
+        <v>33.2840217718608</v>
       </c>
     </row>
     <row r="191">
@@ -4426,7 +4426,7 @@
         <v>7</v>
       </c>
       <c r="E191" t="n">
-        <v>34.1080326758092</v>
+        <v>34.1080351760558</v>
       </c>
     </row>
     <row r="192">
@@ -4443,7 +4443,7 @@
         <v>7</v>
       </c>
       <c r="E192" t="n">
-        <v>37.3582158404485</v>
+        <v>37.3582282408626</v>
       </c>
     </row>
     <row r="193">
@@ -4460,7 +4460,7 @@
         <v>7</v>
       </c>
       <c r="E193" t="n">
-        <v>10.512378603373</v>
+        <v>10.5123769495454</v>
       </c>
     </row>
     <row r="194">
@@ -4477,7 +4477,7 @@
         <v>7</v>
       </c>
       <c r="E194" t="n">
-        <v>11.8536209874771</v>
+        <v>11.8536174952135</v>
       </c>
     </row>
     <row r="195">
@@ -4494,7 +4494,7 @@
         <v>7</v>
       </c>
       <c r="E195" t="n">
-        <v>13.1475607725688</v>
+        <v>13.1475640935157</v>
       </c>
     </row>
     <row r="196">
@@ -4511,7 +4511,7 @@
         <v>7</v>
       </c>
       <c r="E196" t="n">
-        <v>14.9162588587485</v>
+        <v>14.916245933034</v>
       </c>
     </row>
     <row r="197">
@@ -4528,7 +4528,7 @@
         <v>7</v>
       </c>
       <c r="E197" t="n">
-        <v>15.3420319337469</v>
+        <v>15.3420453937649</v>
       </c>
     </row>
     <row r="198">
@@ -4545,7 +4545,7 @@
         <v>7</v>
       </c>
       <c r="E198" t="n">
-        <v>11.025775065544</v>
+        <v>11.0257767658335</v>
       </c>
     </row>
     <row r="199">
@@ -4562,7 +4562,7 @@
         <v>7</v>
       </c>
       <c r="E199" t="n">
-        <v>12.6038148578652</v>
+        <v>12.6038058257329</v>
       </c>
     </row>
     <row r="200">
@@ -4579,7 +4579,7 @@
         <v>7</v>
       </c>
       <c r="E200" t="n">
-        <v>16.3376115490431</v>
+        <v>16.3376005634699</v>
       </c>
     </row>
     <row r="201">
@@ -4596,7 +4596,7 @@
         <v>7</v>
       </c>
       <c r="E201" t="n">
-        <v>16.1485338439046</v>
+        <v>16.1485480742517</v>
       </c>
     </row>
     <row r="202">
@@ -4613,7 +4613,7 @@
         <v>7</v>
       </c>
       <c r="E202" t="n">
-        <v>16.7798035888735</v>
+        <v>16.7798166627477</v>
       </c>
     </row>
     <row r="203">
@@ -4630,7 +4630,7 @@
         <v>7</v>
       </c>
       <c r="E203" t="n">
-        <v>13.5495205368182</v>
+        <v>13.549524452272</v>
       </c>
     </row>
     <row r="204">
@@ -4647,7 +4647,7 @@
         <v>7</v>
       </c>
       <c r="E204" t="n">
-        <v>16.8417292085421</v>
+        <v>16.8417343021033</v>
       </c>
     </row>
     <row r="205">
@@ -4664,7 +4664,7 @@
         <v>7</v>
       </c>
       <c r="E205" t="n">
-        <v>17.0177441174092</v>
+        <v>17.0177456901635</v>
       </c>
     </row>
     <row r="206">
@@ -4681,7 +4681,7 @@
         <v>7</v>
       </c>
       <c r="E206" t="n">
-        <v>16.3042946209619</v>
+        <v>16.3042969379967</v>
       </c>
     </row>
     <row r="207">
@@ -4698,7 +4698,7 @@
         <v>7</v>
       </c>
       <c r="E207" t="n">
-        <v>14.111368224383</v>
+        <v>14.1113708666332</v>
       </c>
     </row>
     <row r="208">
@@ -4715,7 +4715,7 @@
         <v>7</v>
       </c>
       <c r="E208" t="n">
-        <v>12.8648933071183</v>
+        <v>12.8648853380037</v>
       </c>
     </row>
     <row r="209">
@@ -4732,7 +4732,7 @@
         <v>7</v>
       </c>
       <c r="E209" t="n">
-        <v>10.9895176173366</v>
+        <v>10.9895212799606</v>
       </c>
     </row>
     <row r="210">
@@ -4749,7 +4749,7 @@
         <v>7</v>
       </c>
       <c r="E210" t="n">
-        <v>13.6865474937174</v>
+        <v>13.6865458756192</v>
       </c>
     </row>
     <row r="211">
@@ -4766,7 +4766,7 @@
         <v>7</v>
       </c>
       <c r="E211" t="n">
-        <v>10.3450223710978</v>
+        <v>10.3450147811343</v>
       </c>
     </row>
     <row r="212">
@@ -4783,7 +4783,7 @@
         <v>7</v>
       </c>
       <c r="E212" t="n">
-        <v>11.2630535999966</v>
+        <v>11.2630590719112</v>
       </c>
     </row>
     <row r="213">
@@ -4800,7 +4800,7 @@
         <v>7</v>
       </c>
       <c r="E213" t="n">
-        <v>17.393931997762</v>
+        <v>17.3939352744671</v>
       </c>
     </row>
     <row r="214">
@@ -4817,7 +4817,7 @@
         <v>7</v>
       </c>
       <c r="E214" t="n">
-        <v>18.6920560950355</v>
+        <v>18.6920665998439</v>
       </c>
     </row>
     <row r="215">
@@ -4834,7 +4834,7 @@
         <v>7</v>
       </c>
       <c r="E215" t="n">
-        <v>21.8752512372934</v>
+        <v>21.8752550112569</v>
       </c>
     </row>
     <row r="216">
@@ -4851,7 +4851,7 @@
         <v>7</v>
       </c>
       <c r="E216" t="n">
-        <v>17.5215745334991</v>
+        <v>17.5215679824435</v>
       </c>
     </row>
     <row r="217">
@@ -4868,7 +4868,7 @@
         <v>7</v>
       </c>
       <c r="E217" t="n">
-        <v>18.0629765223286</v>
+        <v>18.0629793974387</v>
       </c>
     </row>
     <row r="218">
@@ -4885,7 +4885,7 @@
         <v>7</v>
       </c>
       <c r="E218" t="n">
-        <v>18.0426772604818</v>
+        <v>18.0426847357874</v>
       </c>
     </row>
     <row r="219">
@@ -4902,7 +4902,7 @@
         <v>7</v>
       </c>
       <c r="E219" t="n">
-        <v>19.1592665357182</v>
+        <v>19.1592619145652</v>
       </c>
     </row>
     <row r="220">
@@ -4919,7 +4919,7 @@
         <v>7</v>
       </c>
       <c r="E220" t="n">
-        <v>19.3296897303353</v>
+        <v>19.3296632511654</v>
       </c>
     </row>
     <row r="221">
@@ -4936,7 +4936,7 @@
         <v>7</v>
       </c>
       <c r="E221" t="n">
-        <v>24.5730200306166</v>
+        <v>24.5730325926529</v>
       </c>
     </row>
     <row r="222">
@@ -4953,7 +4953,7 @@
         <v>7</v>
       </c>
       <c r="E222" t="n">
-        <v>25.7735499420021</v>
+        <v>25.7735477297797</v>
       </c>
     </row>
     <row r="223">
@@ -4970,7 +4970,7 @@
         <v>7</v>
       </c>
       <c r="E223" t="n">
-        <v>11.0594308226148</v>
+        <v>11.059428047938</v>
       </c>
     </row>
     <row r="224">
@@ -4987,7 +4987,7 @@
         <v>7</v>
       </c>
       <c r="E224" t="n">
-        <v>13.1354569373687</v>
+        <v>13.1354528561519</v>
       </c>
     </row>
     <row r="225">
@@ -5004,7 +5004,7 @@
         <v>7</v>
       </c>
       <c r="E225" t="n">
-        <v>18.2891698180184</v>
+        <v>18.2891671284943</v>
       </c>
     </row>
     <row r="226">
@@ -5021,7 +5021,7 @@
         <v>7</v>
       </c>
       <c r="E226" t="n">
-        <v>20.0237064145713</v>
+        <v>20.0237010385746</v>
       </c>
     </row>
     <row r="227">
@@ -5038,7 +5038,7 @@
         <v>7</v>
       </c>
       <c r="E227" t="n">
-        <v>19.0731221079863</v>
+        <v>19.0731280883634</v>
       </c>
     </row>
     <row r="228">
@@ -5055,7 +5055,7 @@
         <v>7</v>
       </c>
       <c r="E228" t="n">
-        <v>14.9161714501707</v>
+        <v>14.9161801682885</v>
       </c>
     </row>
     <row r="229">
@@ -5072,7 +5072,7 @@
         <v>7</v>
       </c>
       <c r="E229" t="n">
-        <v>21.8982355389294</v>
+        <v>21.8982364256532</v>
       </c>
     </row>
     <row r="230">
@@ -5089,7 +5089,7 @@
         <v>7</v>
       </c>
       <c r="E230" t="n">
-        <v>18.9444611854356</v>
+        <v>18.9444634339119</v>
       </c>
     </row>
     <row r="231">
@@ -5106,7 +5106,7 @@
         <v>7</v>
       </c>
       <c r="E231" t="n">
-        <v>16.1780926243359</v>
+        <v>16.1780928389458</v>
       </c>
     </row>
     <row r="232">
@@ -5123,7 +5123,7 @@
         <v>7</v>
       </c>
       <c r="E232" t="n">
-        <v>17.607556863236</v>
+        <v>17.6075300276471</v>
       </c>
     </row>
     <row r="233">
@@ -5157,7 +5157,7 @@
         <v>7</v>
       </c>
       <c r="E234" t="n">
-        <v>15.9138770605111</v>
+        <v>15.913877624519</v>
       </c>
     </row>
     <row r="235">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="E235" t="n">
-        <v>16.5673541051179</v>
+        <v>16.5673555922447</v>
       </c>
     </row>
     <row r="236">
@@ -5191,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="E236" t="n">
-        <v>14.23483232495</v>
+        <v>14.2348428000474</v>
       </c>
     </row>
     <row r="237">
@@ -5208,7 +5208,7 @@
         <v>7</v>
       </c>
       <c r="E237" t="n">
-        <v>16.5630761614669</v>
+        <v>16.5630674700017</v>
       </c>
     </row>
     <row r="238">
@@ -5225,7 +5225,7 @@
         <v>7</v>
       </c>
       <c r="E238" t="n">
-        <v>12.1262131304741</v>
+        <v>12.1262153697122</v>
       </c>
     </row>
     <row r="239">
@@ -5242,7 +5242,7 @@
         <v>7</v>
       </c>
       <c r="E239" t="n">
-        <v>13.8816349311649</v>
+        <v>13.8816391494996</v>
       </c>
     </row>
     <row r="240">
@@ -5259,7 +5259,7 @@
         <v>7</v>
       </c>
       <c r="E240" t="n">
-        <v>12.4040061167933</v>
+        <v>12.4039989010687</v>
       </c>
     </row>
     <row r="241">
@@ -5276,7 +5276,7 @@
         <v>7</v>
       </c>
       <c r="E241" t="n">
-        <v>10.4184919896801</v>
+        <v>10.4184951075619</v>
       </c>
     </row>
     <row r="242">
@@ -5293,7 +5293,7 @@
         <v>7</v>
       </c>
       <c r="E242" t="n">
-        <v>10.917566826315</v>
+        <v>10.9175709255237</v>
       </c>
     </row>
     <row r="243">
@@ -5310,7 +5310,7 @@
         <v>7</v>
       </c>
       <c r="E243" t="n">
-        <v>16.6039062609248</v>
+        <v>16.6039112014672</v>
       </c>
     </row>
     <row r="244">
@@ -5327,7 +5327,7 @@
         <v>7</v>
       </c>
       <c r="E244" t="n">
-        <v>16.3715189540542</v>
+        <v>16.3715264298439</v>
       </c>
     </row>
     <row r="245">
@@ -5344,7 +5344,7 @@
         <v>7</v>
       </c>
       <c r="E245" t="n">
-        <v>14.8272612360767</v>
+        <v>14.8272584877988</v>
       </c>
     </row>
     <row r="246">
@@ -5361,7 +5361,7 @@
         <v>7</v>
       </c>
       <c r="E246" t="n">
-        <v>19.1114784536553</v>
+        <v>19.1114799007203</v>
       </c>
     </row>
     <row r="247">
@@ -5378,7 +5378,7 @@
         <v>7</v>
       </c>
       <c r="E247" t="n">
-        <v>16.8922375175553</v>
+        <v>16.892219006964</v>
       </c>
     </row>
     <row r="248">
@@ -5395,7 +5395,7 @@
         <v>7</v>
       </c>
       <c r="E248" t="n">
-        <v>9.12527465410815</v>
+        <v>9.12528468583407</v>
       </c>
     </row>
     <row r="249">
@@ -5412,7 +5412,7 @@
         <v>7</v>
       </c>
       <c r="E249" t="n">
-        <v>9.0368089043779</v>
+        <v>9.03681161680192</v>
       </c>
     </row>
     <row r="250">
@@ -5429,7 +5429,7 @@
         <v>7</v>
       </c>
       <c r="E250" t="n">
-        <v>10.9607530029502</v>
+        <v>10.9607676130633</v>
       </c>
     </row>
     <row r="251">
@@ -5446,7 +5446,7 @@
         <v>7</v>
       </c>
       <c r="E251" t="n">
-        <v>8.90571205158157</v>
+        <v>8.90572736367804</v>
       </c>
     </row>
     <row r="252">
@@ -5463,7 +5463,7 @@
         <v>7</v>
       </c>
       <c r="E252" t="n">
-        <v>9.70825427072146</v>
+        <v>9.70824519040648</v>
       </c>
     </row>
     <row r="253">
@@ -5480,7 +5480,7 @@
         <v>7</v>
       </c>
       <c r="E253" t="n">
-        <v>16.1815269119464</v>
+        <v>16.1815170383485</v>
       </c>
     </row>
     <row r="254">
@@ -5497,7 +5497,7 @@
         <v>7</v>
       </c>
       <c r="E254" t="n">
-        <v>14.6415903079726</v>
+        <v>14.6415825688273</v>
       </c>
     </row>
     <row r="255">
@@ -5514,7 +5514,7 @@
         <v>7</v>
       </c>
       <c r="E255" t="n">
-        <v>17.9138319163485</v>
+        <v>17.9138421328936</v>
       </c>
     </row>
     <row r="256">
@@ -5531,7 +5531,7 @@
         <v>7</v>
       </c>
       <c r="E256" t="n">
-        <v>17.8794890048116</v>
+        <v>17.8794747306881</v>
       </c>
     </row>
     <row r="257">
@@ -5548,7 +5548,7 @@
         <v>7</v>
       </c>
       <c r="E257" t="n">
-        <v>18.2632222273003</v>
+        <v>18.2632343707002</v>
       </c>
     </row>
     <row r="258">
@@ -5565,7 +5565,7 @@
         <v>7</v>
       </c>
       <c r="E258" t="n">
-        <v>16.5085921161903</v>
+        <v>16.5085886529131</v>
       </c>
     </row>
     <row r="259">
@@ -5582,7 +5582,7 @@
         <v>7</v>
       </c>
       <c r="E259" t="n">
-        <v>15.9726744899502</v>
+        <v>15.9726660688672</v>
       </c>
     </row>
     <row r="260">
@@ -5599,7 +5599,7 @@
         <v>7</v>
       </c>
       <c r="E260" t="n">
-        <v>15.1889373948248</v>
+        <v>15.1889347201098</v>
       </c>
     </row>
     <row r="261">
@@ -5616,7 +5616,7 @@
         <v>7</v>
       </c>
       <c r="E261" t="n">
-        <v>12.0880603283411</v>
+        <v>12.0880527922781</v>
       </c>
     </row>
     <row r="262">
@@ -5633,7 +5633,7 @@
         <v>7</v>
       </c>
       <c r="E262" t="n">
-        <v>13.3570209143429</v>
+        <v>13.357023640001</v>
       </c>
     </row>
     <row r="263">
@@ -5650,7 +5650,7 @@
         <v>7</v>
       </c>
       <c r="E263" t="n">
-        <v>18.8697068273253</v>
+        <v>18.8697006910186</v>
       </c>
     </row>
     <row r="264">
@@ -5667,7 +5667,7 @@
         <v>7</v>
       </c>
       <c r="E264" t="n">
-        <v>19.5691475417798</v>
+        <v>19.569147581204</v>
       </c>
     </row>
     <row r="265">
@@ -5684,7 +5684,7 @@
         <v>7</v>
       </c>
       <c r="E265" t="n">
-        <v>23.0305377705302</v>
+        <v>23.0305289341703</v>
       </c>
     </row>
     <row r="266">
@@ -5701,7 +5701,7 @@
         <v>7</v>
       </c>
       <c r="E266" t="n">
-        <v>21.0152906733322</v>
+        <v>21.0152897845473</v>
       </c>
     </row>
     <row r="267">
@@ -5718,7 +5718,7 @@
         <v>7</v>
       </c>
       <c r="E267" t="n">
-        <v>21.6379656157058</v>
+        <v>21.6379659105738</v>
       </c>
     </row>
     <row r="268">
@@ -5735,7 +5735,7 @@
         <v>7</v>
       </c>
       <c r="E268" t="n">
-        <v>15.8542435094002</v>
+        <v>15.8542416097201</v>
       </c>
     </row>
     <row r="269">
@@ -5752,7 +5752,7 @@
         <v>7</v>
       </c>
       <c r="E269" t="n">
-        <v>11.3675560393262</v>
+        <v>11.3675566279331</v>
       </c>
     </row>
     <row r="270">
@@ -5769,7 +5769,7 @@
         <v>7</v>
       </c>
       <c r="E270" t="n">
-        <v>16.7137398187949</v>
+        <v>16.7137378068043</v>
       </c>
     </row>
     <row r="271">
@@ -5786,7 +5786,7 @@
         <v>7</v>
       </c>
       <c r="E271" t="n">
-        <v>15.7341500284017</v>
+        <v>15.7341470809409</v>
       </c>
     </row>
     <row r="272">
@@ -5803,7 +5803,7 @@
         <v>7</v>
       </c>
       <c r="E272" t="n">
-        <v>15.8306681911068</v>
+        <v>15.8306717874969</v>
       </c>
     </row>
     <row r="273">
@@ -5820,7 +5820,7 @@
         <v>7</v>
       </c>
       <c r="E273" t="n">
-        <v>11.1215219432651</v>
+        <v>11.1215223713076</v>
       </c>
     </row>
     <row r="274">
@@ -5837,7 +5837,7 @@
         <v>7</v>
       </c>
       <c r="E274" t="n">
-        <v>13.1292569936601</v>
+        <v>13.1292600434414</v>
       </c>
     </row>
     <row r="275">
@@ -5854,7 +5854,7 @@
         <v>7</v>
       </c>
       <c r="E275" t="n">
-        <v>13.1972969855706</v>
+        <v>13.1972978105162</v>
       </c>
     </row>
     <row r="276">
@@ -5871,7 +5871,7 @@
         <v>7</v>
       </c>
       <c r="E276" t="n">
-        <v>12.7893374399787</v>
+        <v>12.7893473320125</v>
       </c>
     </row>
     <row r="277">
@@ -5888,7 +5888,7 @@
         <v>7</v>
       </c>
       <c r="E277" t="n">
-        <v>15.0217865368132</v>
+        <v>15.0217801729152</v>
       </c>
     </row>
     <row r="278">
@@ -5905,7 +5905,7 @@
         <v>7</v>
       </c>
       <c r="E278" t="n">
-        <v>5.87327068127207</v>
+        <v>5.87327657913158</v>
       </c>
     </row>
     <row r="279">
@@ -5922,7 +5922,7 @@
         <v>7</v>
       </c>
       <c r="E279" t="n">
-        <v>7.90350236144425</v>
+        <v>7.90350265663094</v>
       </c>
     </row>
     <row r="280">
@@ -5939,7 +5939,7 @@
         <v>7</v>
       </c>
       <c r="E280" t="n">
-        <v>9.72682097097909</v>
+        <v>9.7268073099489</v>
       </c>
     </row>
     <row r="281">
@@ -5956,7 +5956,7 @@
         <v>7</v>
       </c>
       <c r="E281" t="n">
-        <v>15.3669938465383</v>
+        <v>15.3669908403306</v>
       </c>
     </row>
     <row r="282">
@@ -5973,7 +5973,7 @@
         <v>7</v>
       </c>
       <c r="E282" t="n">
-        <v>15.7743302482298</v>
+        <v>15.7743276374174</v>
       </c>
     </row>
     <row r="283">
@@ -5990,7 +5990,7 @@
         <v>7</v>
       </c>
       <c r="E283" t="n">
-        <v>16.5649947463436</v>
+        <v>16.5649894782931</v>
       </c>
     </row>
     <row r="284">
@@ -6007,7 +6007,7 @@
         <v>7</v>
       </c>
       <c r="E284" t="n">
-        <v>20.0037833188983</v>
+        <v>20.0037837686971</v>
       </c>
     </row>
     <row r="285">
@@ -6024,7 +6024,7 @@
         <v>7</v>
       </c>
       <c r="E285" t="n">
-        <v>18.2498752287473</v>
+        <v>18.2498821905205</v>
       </c>
     </row>
     <row r="286">
@@ -6041,7 +6041,7 @@
         <v>7</v>
       </c>
       <c r="E286" t="n">
-        <v>18.6251169501324</v>
+        <v>18.6251295792695</v>
       </c>
     </row>
     <row r="287">
@@ -6058,7 +6058,7 @@
         <v>7</v>
       </c>
       <c r="E287" t="n">
-        <v>16.5453074983981</v>
+        <v>16.5452803925906</v>
       </c>
     </row>
     <row r="288">
@@ -6075,7 +6075,7 @@
         <v>7</v>
       </c>
       <c r="E288" t="n">
-        <v>17.1472649353974</v>
+        <v>17.147258683813</v>
       </c>
     </row>
     <row r="289">
@@ -6092,7 +6092,7 @@
         <v>7</v>
       </c>
       <c r="E289" t="n">
-        <v>16.6528546045794</v>
+        <v>16.6528527612084</v>
       </c>
     </row>
     <row r="290">
@@ -6109,7 +6109,7 @@
         <v>7</v>
       </c>
       <c r="E290" t="n">
-        <v>18.7150879057292</v>
+        <v>18.715085649516</v>
       </c>
     </row>
     <row r="291">
@@ -6126,7 +6126,7 @@
         <v>7</v>
       </c>
       <c r="E291" t="n">
-        <v>21.0958215627587</v>
+        <v>21.0958147553413</v>
       </c>
     </row>
     <row r="292">
@@ -6143,7 +6143,7 @@
         <v>7</v>
       </c>
       <c r="E292" t="n">
-        <v>19.6667898499296</v>
+        <v>19.6667814454054</v>
       </c>
     </row>
     <row r="293">
@@ -6160,7 +6160,7 @@
         <v>7</v>
       </c>
       <c r="E293" t="n">
-        <v>10.5521421397942</v>
+        <v>10.5521737776443</v>
       </c>
     </row>
     <row r="294">
@@ -6177,7 +6177,7 @@
         <v>7</v>
       </c>
       <c r="E294" t="n">
-        <v>10.8902004093625</v>
+        <v>10.890186421587</v>
       </c>
     </row>
     <row r="295">
@@ -6194,7 +6194,7 @@
         <v>7</v>
       </c>
       <c r="E295" t="n">
-        <v>15.5273871087291</v>
+        <v>15.5273828421561</v>
       </c>
     </row>
     <row r="296">
@@ -6211,7 +6211,7 @@
         <v>7</v>
       </c>
       <c r="E296" t="n">
-        <v>14.555466493976</v>
+        <v>14.5554762752333</v>
       </c>
     </row>
     <row r="297">
@@ -6228,7 +6228,7 @@
         <v>7</v>
       </c>
       <c r="E297" t="n">
-        <v>15.4710172494375</v>
+        <v>15.4710073897593</v>
       </c>
     </row>
     <row r="298">
@@ -6245,7 +6245,7 @@
         <v>7</v>
       </c>
       <c r="E298" t="n">
-        <v>5.15509785041807</v>
+        <v>5.15508335476822</v>
       </c>
     </row>
     <row r="299">
@@ -6262,7 +6262,7 @@
         <v>7</v>
       </c>
       <c r="E299" t="n">
-        <v>5.2092509831048</v>
+        <v>5.2092702905923</v>
       </c>
     </row>
     <row r="300">
@@ -6279,7 +6279,7 @@
         <v>7</v>
       </c>
       <c r="E300" t="n">
-        <v>10.7507777883506</v>
+        <v>10.7507724439668</v>
       </c>
     </row>
     <row r="301">
@@ -6296,7 +6296,7 @@
         <v>7</v>
       </c>
       <c r="E301" t="n">
-        <v>12.2304915913926</v>
+        <v>12.2304697051027</v>
       </c>
     </row>
     <row r="302">
@@ -6313,7 +6313,7 @@
         <v>7</v>
       </c>
       <c r="E302" t="n">
-        <v>12.3311230908297</v>
+        <v>12.3311152439818</v>
       </c>
     </row>
     <row r="303">
@@ -6330,7 +6330,7 @@
         <v>7</v>
       </c>
       <c r="E303" t="n">
-        <v>15.3294879553547</v>
+        <v>15.32949529591</v>
       </c>
     </row>
     <row r="304">
@@ -6347,7 +6347,7 @@
         <v>7</v>
       </c>
       <c r="E304" t="n">
-        <v>10.073179008055</v>
+        <v>10.0731819105228</v>
       </c>
     </row>
     <row r="305">
@@ -6364,7 +6364,7 @@
         <v>7</v>
       </c>
       <c r="E305" t="n">
-        <v>16.1931571321972</v>
+        <v>16.1931628898093</v>
       </c>
     </row>
     <row r="306">
@@ -6381,7 +6381,7 @@
         <v>7</v>
       </c>
       <c r="E306" t="n">
-        <v>16.400214954262</v>
+        <v>16.4001954639065</v>
       </c>
     </row>
     <row r="307">
@@ -6398,7 +6398,7 @@
         <v>7</v>
       </c>
       <c r="E307" t="n">
-        <v>17.2479841340257</v>
+        <v>17.2479856611771</v>
       </c>
     </row>
     <row r="308">
@@ -6415,7 +6415,7 @@
         <v>7</v>
       </c>
       <c r="E308" t="n">
-        <v>12.7481770874307</v>
+        <v>12.7481740973294</v>
       </c>
     </row>
     <row r="309">
@@ -6432,7 +6432,7 @@
         <v>7</v>
       </c>
       <c r="E309" t="n">
-        <v>16.9848484804613</v>
+        <v>16.9848503229105</v>
       </c>
     </row>
     <row r="310">
@@ -6449,7 +6449,7 @@
         <v>7</v>
       </c>
       <c r="E310" t="n">
-        <v>16.1478183590525</v>
+        <v>16.1478106367852</v>
       </c>
     </row>
     <row r="311">
@@ -6466,7 +6466,7 @@
         <v>7</v>
       </c>
       <c r="E311" t="n">
-        <v>13.6190928119629</v>
+        <v>13.6190847289204</v>
       </c>
     </row>
     <row r="312">
@@ -6483,7 +6483,7 @@
         <v>7</v>
       </c>
       <c r="E312" t="n">
-        <v>16.6912249489099</v>
+        <v>16.6912279035346</v>
       </c>
     </row>
     <row r="313">
@@ -6500,7 +6500,7 @@
         <v>7</v>
       </c>
       <c r="E313" t="n">
-        <v>12.4867830653437</v>
+        <v>12.4867805918517</v>
       </c>
     </row>
     <row r="314">
@@ -6517,7 +6517,7 @@
         <v>7</v>
       </c>
       <c r="E314" t="n">
-        <v>9.81612731901178</v>
+        <v>9.81613718072469</v>
       </c>
     </row>
     <row r="315">
@@ -6534,7 +6534,7 @@
         <v>7</v>
       </c>
       <c r="E315" t="n">
-        <v>21.6755528513538</v>
+        <v>21.6755635236991</v>
       </c>
     </row>
     <row r="316">
@@ -6551,7 +6551,7 @@
         <v>7</v>
       </c>
       <c r="E316" t="n">
-        <v>12.5658719264741</v>
+        <v>12.5658673708458</v>
       </c>
     </row>
     <row r="317">
@@ -6568,7 +6568,7 @@
         <v>7</v>
       </c>
       <c r="E317" t="n">
-        <v>17.8144253689934</v>
+        <v>17.8144466193526</v>
       </c>
     </row>
     <row r="318">
@@ -6585,7 +6585,7 @@
         <v>7</v>
       </c>
       <c r="E318" t="n">
-        <v>13.5931874060845</v>
+        <v>13.5931834883399</v>
       </c>
     </row>
     <row r="319">
@@ -6602,7 +6602,7 @@
         <v>7</v>
       </c>
       <c r="E319" t="n">
-        <v>9.35900120239742</v>
+        <v>9.35899831620724</v>
       </c>
     </row>
     <row r="320">
@@ -6619,7 +6619,7 @@
         <v>7</v>
       </c>
       <c r="E320" t="n">
-        <v>7.55496660955063</v>
+        <v>7.55496183056955</v>
       </c>
     </row>
     <row r="321">
@@ -6636,7 +6636,7 @@
         <v>7</v>
       </c>
       <c r="E321" t="n">
-        <v>8.37481641615247</v>
+        <v>8.37481320681182</v>
       </c>
     </row>
     <row r="322">
@@ -6653,7 +6653,7 @@
         <v>7</v>
       </c>
       <c r="E322" t="n">
-        <v>8.85887437802366</v>
+        <v>8.85886308302576</v>
       </c>
     </row>
     <row r="323">
@@ -6670,7 +6670,7 @@
         <v>7</v>
       </c>
       <c r="E323" t="n">
-        <v>9.24368982123262</v>
+        <v>9.24366138407922</v>
       </c>
     </row>
     <row r="324">
@@ -6687,7 +6687,7 @@
         <v>7</v>
       </c>
       <c r="E324" t="n">
-        <v>10.4257190506486</v>
+        <v>10.4257214246793</v>
       </c>
     </row>
     <row r="325">
@@ -6704,7 +6704,7 @@
         <v>7</v>
       </c>
       <c r="E325" t="n">
-        <v>8.41628922348717</v>
+        <v>8.41629922174581</v>
       </c>
     </row>
     <row r="326">
@@ -6721,7 +6721,7 @@
         <v>7</v>
       </c>
       <c r="E326" t="n">
-        <v>12.2385474875984</v>
+        <v>12.2385564240112</v>
       </c>
     </row>
     <row r="327">
@@ -6738,7 +6738,7 @@
         <v>7</v>
       </c>
       <c r="E327" t="n">
-        <v>14.7960199222805</v>
+        <v>14.7960260410696</v>
       </c>
     </row>
     <row r="328">
@@ -6755,7 +6755,7 @@
         <v>7</v>
       </c>
       <c r="E328" t="n">
-        <v>13.4123809845761</v>
+        <v>13.4123867043976</v>
       </c>
     </row>
     <row r="329">
@@ -6772,7 +6772,7 @@
         <v>7</v>
       </c>
       <c r="E329" t="n">
-        <v>12.6777022589984</v>
+        <v>12.6777077406636</v>
       </c>
     </row>
     <row r="330">
@@ -6789,7 +6789,7 @@
         <v>7</v>
       </c>
       <c r="E330" t="n">
-        <v>12.4042207220418</v>
+        <v>12.4042269604104</v>
       </c>
     </row>
     <row r="331">
@@ -6806,7 +6806,7 @@
         <v>7</v>
       </c>
       <c r="E331" t="n">
-        <v>8.34783824689106</v>
+        <v>8.34782949496747</v>
       </c>
     </row>
     <row r="332">
@@ -6823,7 +6823,7 @@
         <v>7</v>
       </c>
       <c r="E332" t="n">
-        <v>10.3891469337367</v>
+        <v>10.3891572140961</v>
       </c>
     </row>
     <row r="333">
@@ -6840,7 +6840,7 @@
         <v>7</v>
       </c>
       <c r="E333" t="n">
-        <v>11.4592167972755</v>
+        <v>11.4592301027255</v>
       </c>
     </row>
     <row r="334">
@@ -6857,7 +6857,7 @@
         <v>7</v>
       </c>
       <c r="E334" t="n">
-        <v>11.9548628685911</v>
+        <v>11.9548730112268</v>
       </c>
     </row>
     <row r="335">
@@ -6874,7 +6874,7 @@
         <v>7</v>
       </c>
       <c r="E335" t="n">
-        <v>11.6832942700755</v>
+        <v>11.6832970099295</v>
       </c>
     </row>
     <row r="336">
@@ -6891,7 +6891,7 @@
         <v>7</v>
       </c>
       <c r="E336" t="n">
-        <v>22.4612518869595</v>
+        <v>22.4612606530281</v>
       </c>
     </row>
     <row r="337">
@@ -6908,7 +6908,7 @@
         <v>7</v>
       </c>
       <c r="E337" t="n">
-        <v>23.4461818812848</v>
+        <v>23.4461613176459</v>
       </c>
     </row>
     <row r="338">
@@ -6925,7 +6925,7 @@
         <v>7</v>
       </c>
       <c r="E338" t="n">
-        <v>27.5578458464963</v>
+        <v>27.5578519245726</v>
       </c>
     </row>
     <row r="339">
@@ -6942,7 +6942,7 @@
         <v>7</v>
       </c>
       <c r="E339" t="n">
-        <v>23.8594255574979</v>
+        <v>23.8594080240003</v>
       </c>
     </row>
     <row r="340">
@@ -6959,7 +6959,7 @@
         <v>7</v>
       </c>
       <c r="E340" t="n">
-        <v>23.7234152703955</v>
+        <v>23.7233956479155</v>
       </c>
     </row>
     <row r="341">
@@ -6976,7 +6976,7 @@
         <v>7</v>
       </c>
       <c r="E341" t="n">
-        <v>13.5743336385563</v>
+        <v>13.5743261226621</v>
       </c>
     </row>
     <row r="342">
@@ -6993,7 +6993,7 @@
         <v>7</v>
       </c>
       <c r="E342" t="n">
-        <v>12.5396090358832</v>
+        <v>12.5396089104498</v>
       </c>
     </row>
     <row r="343">
@@ -7010,7 +7010,7 @@
         <v>7</v>
       </c>
       <c r="E343" t="n">
-        <v>13.3173293491972</v>
+        <v>13.317323225569</v>
       </c>
     </row>
     <row r="344">
@@ -7027,7 +7027,7 @@
         <v>7</v>
       </c>
       <c r="E344" t="n">
-        <v>11.0036909230463</v>
+        <v>11.0036759224022</v>
       </c>
     </row>
     <row r="345">
@@ -7044,7 +7044,7 @@
         <v>7</v>
       </c>
       <c r="E345" t="n">
-        <v>11.3616371821625</v>
+        <v>11.3616306398541</v>
       </c>
     </row>
     <row r="346">
@@ -7061,7 +7061,7 @@
         <v>7</v>
       </c>
       <c r="E346" t="n">
-        <v>15.2143561481048</v>
+        <v>15.2143605792038</v>
       </c>
     </row>
     <row r="347">
@@ -7078,7 +7078,7 @@
         <v>7</v>
       </c>
       <c r="E347" t="n">
-        <v>16.8718169094951</v>
+        <v>16.871821922201</v>
       </c>
     </row>
     <row r="348">
@@ -7095,7 +7095,7 @@
         <v>7</v>
       </c>
       <c r="E348" t="n">
-        <v>17.7946571698424</v>
+        <v>17.7946538107976</v>
       </c>
     </row>
     <row r="349">
@@ -7142,7 +7142,7 @@
         <v>7</v>
       </c>
       <c r="E351" t="n">
-        <v>11.9455522099079</v>
+        <v>11.9455617701446</v>
       </c>
     </row>
     <row r="352">
@@ -7159,7 +7159,7 @@
         <v>7</v>
       </c>
       <c r="E352" t="n">
-        <v>12.0396931819996</v>
+        <v>12.0396835266978</v>
       </c>
     </row>
     <row r="353">
@@ -7176,7 +7176,7 @@
         <v>7</v>
       </c>
       <c r="E353" t="n">
-        <v>9.24667126492665</v>
+        <v>9.24667196335913</v>
       </c>
     </row>
     <row r="354">
@@ -7193,7 +7193,7 @@
         <v>7</v>
       </c>
       <c r="E354" t="n">
-        <v>10.1851743180452</v>
+        <v>10.1851748546078</v>
       </c>
     </row>
     <row r="355">
@@ -7210,7 +7210,7 @@
         <v>7</v>
       </c>
       <c r="E355" t="n">
-        <v>13.7817225413982</v>
+        <v>13.7817361078015</v>
       </c>
     </row>
     <row r="356">
@@ -7227,7 +7227,7 @@
         <v>7</v>
       </c>
       <c r="E356" t="n">
-        <v>13.6433002140857</v>
+        <v>13.6433018248536</v>
       </c>
     </row>
     <row r="357">
@@ -7244,7 +7244,7 @@
         <v>7</v>
       </c>
       <c r="E357" t="n">
-        <v>13.5615470363353</v>
+        <v>13.5615456687444</v>
       </c>
     </row>
     <row r="358">
@@ -7261,7 +7261,7 @@
         <v>7</v>
       </c>
       <c r="E358" t="n">
-        <v>16.1713513278633</v>
+        <v>16.1713582674173</v>
       </c>
     </row>
     <row r="359">
@@ -7278,7 +7278,7 @@
         <v>7</v>
       </c>
       <c r="E359" t="n">
-        <v>9.741405324959</v>
+        <v>9.74140608450263</v>
       </c>
     </row>
     <row r="360">
@@ -7295,7 +7295,7 @@
         <v>7</v>
       </c>
       <c r="E360" t="n">
-        <v>10.4135982309355</v>
+        <v>10.4135912116067</v>
       </c>
     </row>
     <row r="361">
@@ -7312,7 +7312,7 @@
         <v>7</v>
       </c>
       <c r="E361" t="n">
-        <v>12.3542246937713</v>
+        <v>12.3542296611738</v>
       </c>
     </row>
     <row r="362">
@@ -7329,7 +7329,7 @@
         <v>7</v>
       </c>
       <c r="E362" t="n">
-        <v>10.2911334842107</v>
+        <v>10.2911186361062</v>
       </c>
     </row>
     <row r="363">
@@ -7346,7 +7346,7 @@
         <v>7</v>
       </c>
       <c r="E363" t="n">
-        <v>11.5703864190451</v>
+        <v>11.5703749585835</v>
       </c>
     </row>
     <row r="364">
@@ -7363,7 +7363,7 @@
         <v>7</v>
       </c>
       <c r="E364" t="n">
-        <v>11.0331112632772</v>
+        <v>11.0331078729458</v>
       </c>
     </row>
     <row r="365">
@@ -7380,7 +7380,7 @@
         <v>7</v>
       </c>
       <c r="E365" t="n">
-        <v>11.7251224206898</v>
+        <v>11.7251239091854</v>
       </c>
     </row>
     <row r="366">
@@ -7397,7 +7397,7 @@
         <v>7</v>
       </c>
       <c r="E366" t="n">
-        <v>11.8387993253959</v>
+        <v>11.8387895348061</v>
       </c>
     </row>
     <row r="367">
@@ -7414,7 +7414,7 @@
         <v>7</v>
       </c>
       <c r="E367" t="n">
-        <v>11.7052638106877</v>
+        <v>11.7052602915286</v>
       </c>
     </row>
     <row r="368">
@@ -7431,7 +7431,7 @@
         <v>7</v>
       </c>
       <c r="E368" t="n">
-        <v>8.15323752121868</v>
+        <v>8.15323095201882</v>
       </c>
     </row>
     <row r="369">
@@ -7448,7 +7448,7 @@
         <v>7</v>
       </c>
       <c r="E369" t="n">
-        <v>9.00153010447676</v>
+        <v>9.00153526320894</v>
       </c>
     </row>
     <row r="370">
@@ -7465,7 +7465,7 @@
         <v>7</v>
       </c>
       <c r="E370" t="n">
-        <v>7.5700427520376</v>
+        <v>7.57004966745058</v>
       </c>
     </row>
     <row r="371">
@@ -7482,7 +7482,7 @@
         <v>7</v>
       </c>
       <c r="E371" t="n">
-        <v>8.26097845508525</v>
+        <v>8.26097067297973</v>
       </c>
     </row>
     <row r="372">
@@ -7499,7 +7499,7 @@
         <v>7</v>
       </c>
       <c r="E372" t="n">
-        <v>7.40717110726916</v>
+        <v>7.40717026529346</v>
       </c>
     </row>
     <row r="373">
@@ -7516,7 +7516,7 @@
         <v>7</v>
       </c>
       <c r="E373" t="n">
-        <v>7.22920122717428</v>
+        <v>7.22918777026352</v>
       </c>
     </row>
     <row r="374">
@@ -7533,7 +7533,7 @@
         <v>7</v>
       </c>
       <c r="E374" t="n">
-        <v>8.8939899558805</v>
+        <v>8.89398423720308</v>
       </c>
     </row>
     <row r="375">
@@ -7550,7 +7550,7 @@
         <v>7</v>
       </c>
       <c r="E375" t="n">
-        <v>7.39328503750826</v>
+        <v>7.39328202846461</v>
       </c>
     </row>
     <row r="376">
@@ -7567,7 +7567,7 @@
         <v>7</v>
       </c>
       <c r="E376" t="n">
-        <v>7.90808351492042</v>
+        <v>7.9080642565719</v>
       </c>
     </row>
     <row r="377">
@@ -7584,7 +7584,7 @@
         <v>7</v>
       </c>
       <c r="E377" t="n">
-        <v>16.9404297930539</v>
+        <v>16.9404255361582</v>
       </c>
     </row>
     <row r="378">
@@ -7601,7 +7601,7 @@
         <v>7</v>
       </c>
       <c r="E378" t="n">
-        <v>17.8930046685168</v>
+        <v>17.8930030920445</v>
       </c>
     </row>
     <row r="379">
@@ -7618,7 +7618,7 @@
         <v>7</v>
       </c>
       <c r="E379" t="n">
-        <v>21.5601288129411</v>
+        <v>21.5641475165708</v>
       </c>
     </row>
     <row r="380">
@@ -7635,7 +7635,7 @@
         <v>7</v>
       </c>
       <c r="E380" t="n">
-        <v>20.7978563272313</v>
+        <v>20.797853855831</v>
       </c>
     </row>
     <row r="381">
@@ -7652,7 +7652,7 @@
         <v>7</v>
       </c>
       <c r="E381" t="n">
-        <v>21.4313174713954</v>
+        <v>21.4313088750265</v>
       </c>
     </row>
     <row r="382">
@@ -7669,7 +7669,7 @@
         <v>7</v>
       </c>
       <c r="E382" t="n">
-        <v>17.8338836189746</v>
+        <v>17.8338917167636</v>
       </c>
     </row>
     <row r="383">
@@ -7686,7 +7686,7 @@
         <v>7</v>
       </c>
       <c r="E383" t="n">
-        <v>13.9934475683356</v>
+        <v>13.9934597596235</v>
       </c>
     </row>
     <row r="384">
@@ -7703,7 +7703,7 @@
         <v>7</v>
       </c>
       <c r="E384" t="n">
-        <v>12.4265007003155</v>
+        <v>12.4265044970694</v>
       </c>
     </row>
     <row r="385">
@@ -7720,7 +7720,7 @@
         <v>7</v>
       </c>
       <c r="E385" t="n">
-        <v>24.4581394485093</v>
+        <v>24.4581325987948</v>
       </c>
     </row>
     <row r="386">
@@ -7737,7 +7737,7 @@
         <v>7</v>
       </c>
       <c r="E386" t="n">
-        <v>26.69935322422</v>
+        <v>26.6993523009872</v>
       </c>
     </row>
     <row r="387">
@@ -7754,7 +7754,7 @@
         <v>7</v>
       </c>
       <c r="E387" t="n">
-        <v>27.3446707404866</v>
+        <v>27.3446589245592</v>
       </c>
     </row>
     <row r="388">
@@ -7771,7 +7771,7 @@
         <v>7</v>
       </c>
       <c r="E388" t="n">
-        <v>23.323784609788</v>
+        <v>23.3237787949737</v>
       </c>
     </row>
     <row r="389">
@@ -7788,7 +7788,7 @@
         <v>7</v>
       </c>
       <c r="E389" t="n">
-        <v>23.3417197695033</v>
+        <v>23.3417025168878</v>
       </c>
     </row>
     <row r="390">
@@ -7805,7 +7805,7 @@
         <v>7</v>
       </c>
       <c r="E390" t="n">
-        <v>13.5135109593592</v>
+        <v>13.5135097742833</v>
       </c>
     </row>
     <row r="391">
@@ -7822,7 +7822,7 @@
         <v>7</v>
       </c>
       <c r="E391" t="n">
-        <v>14.631595538263</v>
+        <v>14.6316161501999</v>
       </c>
     </row>
     <row r="392">
@@ -7839,7 +7839,7 @@
         <v>7</v>
       </c>
       <c r="E392" t="n">
-        <v>14.1928098841946</v>
+        <v>14.1928162094059</v>
       </c>
     </row>
     <row r="393">
@@ -7856,7 +7856,7 @@
         <v>7</v>
       </c>
       <c r="E393" t="n">
-        <v>13.2275487990663</v>
+        <v>13.2275299369175</v>
       </c>
     </row>
     <row r="394">
@@ -7873,7 +7873,7 @@
         <v>7</v>
       </c>
       <c r="E394" t="n">
-        <v>13.6719012178678</v>
+        <v>13.6719099378947</v>
       </c>
     </row>
     <row r="395">
@@ -7890,7 +7890,7 @@
         <v>7</v>
       </c>
       <c r="E395" t="n">
-        <v>14.8529423493393</v>
+        <v>14.8529405254361</v>
       </c>
     </row>
     <row r="396">
@@ -7907,7 +7907,7 @@
         <v>7</v>
       </c>
       <c r="E396" t="n">
-        <v>12.3790972634884</v>
+        <v>12.3790974302411</v>
       </c>
     </row>
     <row r="397">
@@ -7924,7 +7924,7 @@
         <v>7</v>
       </c>
       <c r="E397" t="n">
-        <v>14.1337218365994</v>
+        <v>14.1337183406811</v>
       </c>
     </row>
     <row r="398">
@@ -7941,7 +7941,7 @@
         <v>7</v>
       </c>
       <c r="E398" t="n">
-        <v>12.7268793213597</v>
+        <v>12.7268848451635</v>
       </c>
     </row>
     <row r="399">
@@ -7958,7 +7958,7 @@
         <v>7</v>
       </c>
       <c r="E399" t="n">
-        <v>13.1983728426718</v>
+        <v>13.1983850246327</v>
       </c>
     </row>
     <row r="400">
@@ -7975,7 +7975,7 @@
         <v>7</v>
       </c>
       <c r="E400" t="n">
-        <v>8.38834238159808</v>
+        <v>8.38834214924189</v>
       </c>
     </row>
     <row r="401">
@@ -7992,7 +7992,7 @@
         <v>7</v>
       </c>
       <c r="E401" t="n">
-        <v>10.7332394284982</v>
+        <v>10.7332478326049</v>
       </c>
     </row>
     <row r="402">
@@ -8009,7 +8009,7 @@
         <v>7</v>
       </c>
       <c r="E402" t="n">
-        <v>3.05539719027581</v>
+        <v>3.05540424061351</v>
       </c>
     </row>
     <row r="403">
@@ -8026,7 +8026,7 @@
         <v>7</v>
       </c>
       <c r="E403" t="n">
-        <v>18.6660137620779</v>
+        <v>18.6660171152165</v>
       </c>
     </row>
     <row r="404">
@@ -8043,7 +8043,7 @@
         <v>7</v>
       </c>
       <c r="E404" t="n">
-        <v>15.6003837824281</v>
+        <v>15.600395297129</v>
       </c>
     </row>
     <row r="405">
@@ -8060,7 +8060,7 @@
         <v>7</v>
       </c>
       <c r="E405" t="n">
-        <v>15.6385648191451</v>
+        <v>15.6385656847067</v>
       </c>
     </row>
     <row r="406">
@@ -8077,7 +8077,7 @@
         <v>7</v>
       </c>
       <c r="E406" t="n">
-        <v>16.1720481784368</v>
+        <v>16.1720493682032</v>
       </c>
     </row>
     <row r="407">
@@ -8094,7 +8094,7 @@
         <v>7</v>
       </c>
       <c r="E407" t="n">
-        <v>15.5956419228182</v>
+        <v>15.5956617845138</v>
       </c>
     </row>
     <row r="408">
@@ -8111,7 +8111,7 @@
         <v>7</v>
       </c>
       <c r="E408" t="n">
-        <v>14.9969805751819</v>
+        <v>14.9969772284544</v>
       </c>
     </row>
     <row r="409">
@@ -8128,7 +8128,7 @@
         <v>7</v>
       </c>
       <c r="E409" t="n">
-        <v>16.7329384251212</v>
+        <v>16.732948386804</v>
       </c>
     </row>
     <row r="410">
@@ -8145,7 +8145,7 @@
         <v>7</v>
       </c>
       <c r="E410" t="n">
-        <v>15.6482015544985</v>
+        <v>15.6482086612669</v>
       </c>
     </row>
     <row r="411">
@@ -8162,7 +8162,7 @@
         <v>7</v>
       </c>
       <c r="E411" t="n">
-        <v>17.920607289003</v>
+        <v>17.9206099060223</v>
       </c>
     </row>
     <row r="412">
@@ -8179,7 +8179,7 @@
         <v>7</v>
       </c>
       <c r="E412" t="n">
-        <v>17.9966859845141</v>
+        <v>17.9966773881337</v>
       </c>
     </row>
     <row r="413">
@@ -8196,7 +8196,7 @@
         <v>7</v>
       </c>
       <c r="E413" t="n">
-        <v>17.1557562461452</v>
+        <v>17.1557645941934</v>
       </c>
     </row>
     <row r="414">
@@ -8213,7 +8213,7 @@
         <v>7</v>
       </c>
       <c r="E414" t="n">
-        <v>16.5722032133335</v>
+        <v>16.5722050798063</v>
       </c>
     </row>
     <row r="415">
@@ -8230,7 +8230,7 @@
         <v>7</v>
       </c>
       <c r="E415" t="n">
-        <v>14.9176348117454</v>
+        <v>14.9176424627498</v>
       </c>
     </row>
     <row r="416">
@@ -8247,7 +8247,7 @@
         <v>7</v>
       </c>
       <c r="E416" t="n">
-        <v>14.7105626181507</v>
+        <v>14.7105585036876</v>
       </c>
     </row>
     <row r="417">
@@ -8264,7 +8264,7 @@
         <v>7</v>
       </c>
       <c r="E417" t="n">
-        <v>5.30839585764368</v>
+        <v>5.30839189831027</v>
       </c>
     </row>
     <row r="418">
@@ -8281,7 +8281,7 @@
         <v>7</v>
       </c>
       <c r="E418" t="n">
-        <v>8.60903079727739</v>
+        <v>8.60901264888547</v>
       </c>
     </row>
     <row r="419">
@@ -8298,7 +8298,7 @@
         <v>7</v>
       </c>
       <c r="E419" t="n">
-        <v>11.0251889974124</v>
+        <v>11.025191114792</v>
       </c>
     </row>
     <row r="420">
@@ -8315,7 +8315,7 @@
         <v>7</v>
       </c>
       <c r="E420" t="n">
-        <v>11.7043329945361</v>
+        <v>11.7043136045255</v>
       </c>
     </row>
     <row r="421">
@@ -8332,7 +8332,7 @@
         <v>7</v>
       </c>
       <c r="E421" t="n">
-        <v>12.2943409963427</v>
+        <v>12.2943311364293</v>
       </c>
     </row>
     <row r="422">
@@ -8349,7 +8349,7 @@
         <v>7</v>
       </c>
       <c r="E422" t="n">
-        <v>11.1184928087217</v>
+        <v>11.1184979504387</v>
       </c>
     </row>
     <row r="423">
@@ -8366,7 +8366,7 @@
         <v>7</v>
       </c>
       <c r="E423" t="n">
-        <v>12.6682429428094</v>
+        <v>12.6682258983072</v>
       </c>
     </row>
     <row r="424">
@@ -8383,7 +8383,7 @@
         <v>7</v>
       </c>
       <c r="E424" t="n">
-        <v>13.9057871715704</v>
+        <v>13.905763762761</v>
       </c>
     </row>
     <row r="425">
@@ -8400,7 +8400,7 @@
         <v>7</v>
       </c>
       <c r="E425" t="n">
-        <v>10.8992772232614</v>
+        <v>10.8992920903459</v>
       </c>
     </row>
     <row r="426">
@@ -8417,7 +8417,7 @@
         <v>7</v>
       </c>
       <c r="E426" t="n">
-        <v>11.0728291600377</v>
+        <v>11.0728394688161</v>
       </c>
     </row>
     <row r="427">
@@ -8434,7 +8434,7 @@
         <v>7</v>
       </c>
       <c r="E427" t="n">
-        <v>29.0103420938298</v>
+        <v>29.0103477879272</v>
       </c>
     </row>
     <row r="428">
@@ -8451,7 +8451,7 @@
         <v>7</v>
       </c>
       <c r="E428" t="n">
-        <v>25.3953906162532</v>
+        <v>25.3954135613402</v>
       </c>
     </row>
     <row r="429">
@@ -8468,7 +8468,7 @@
         <v>7</v>
       </c>
       <c r="E429" t="n">
-        <v>26.4452594962212</v>
+        <v>26.4452301500064</v>
       </c>
     </row>
     <row r="430">
@@ -8485,7 +8485,7 @@
         <v>7</v>
       </c>
       <c r="E430" t="n">
-        <v>21.7128931323869</v>
+        <v>21.7129055622548</v>
       </c>
     </row>
     <row r="431">
@@ -8502,7 +8502,7 @@
         <v>7</v>
       </c>
       <c r="E431" t="n">
-        <v>24.0462748208885</v>
+        <v>24.0463017476271</v>
       </c>
     </row>
     <row r="432">
@@ -8519,7 +8519,7 @@
         <v>7</v>
       </c>
       <c r="E432" t="n">
-        <v>18.9750037033032</v>
+        <v>18.9750024023722</v>
       </c>
     </row>
     <row r="433">
@@ -8536,7 +8536,7 @@
         <v>7</v>
       </c>
       <c r="E433" t="n">
-        <v>12.279368080981</v>
+        <v>12.2793695886241</v>
       </c>
     </row>
     <row r="434">
@@ -8553,7 +8553,7 @@
         <v>7</v>
       </c>
       <c r="E434" t="n">
-        <v>14.9873813984016</v>
+        <v>14.9873795640973</v>
       </c>
     </row>
     <row r="435">
@@ -8570,7 +8570,7 @@
         <v>7</v>
       </c>
       <c r="E435" t="n">
-        <v>14.9873850065103</v>
+        <v>14.9873795640972</v>
       </c>
     </row>
     <row r="436">
@@ -8587,7 +8587,7 @@
         <v>7</v>
       </c>
       <c r="E436" t="n">
-        <v>15.0365301446985</v>
+        <v>15.0365322141107</v>
       </c>
     </row>
     <row r="437">
@@ -8604,7 +8604,7 @@
         <v>7</v>
       </c>
       <c r="E437" t="n">
-        <v>14.9616907284462</v>
+        <v>14.9616870096862</v>
       </c>
     </row>
     <row r="438">
@@ -8621,7 +8621,7 @@
         <v>7</v>
       </c>
       <c r="E438" t="n">
-        <v>13.5102383937113</v>
+        <v>13.5102338276122</v>
       </c>
     </row>
     <row r="439">
@@ -8638,7 +8638,7 @@
         <v>7</v>
       </c>
       <c r="E439" t="n">
-        <v>15.1781009833965</v>
+        <v>15.178108083668</v>
       </c>
     </row>
     <row r="440">
@@ -8655,7 +8655,7 @@
         <v>7</v>
       </c>
       <c r="E440" t="n">
-        <v>14.476133606739</v>
+        <v>14.4761382015575</v>
       </c>
     </row>
     <row r="441">
@@ -8672,7 +8672,7 @@
         <v>7</v>
       </c>
       <c r="E441" t="n">
-        <v>14.5702773093647</v>
+        <v>14.5702849322948</v>
       </c>
     </row>
     <row r="442">
@@ -8689,7 +8689,7 @@
         <v>7</v>
       </c>
       <c r="E442" t="n">
-        <v>9.93662379496208</v>
+        <v>9.93663204082215</v>
       </c>
     </row>
     <row r="443">
@@ -8706,7 +8706,7 @@
         <v>7</v>
       </c>
       <c r="E443" t="n">
-        <v>14.366849541534</v>
+        <v>14.3668656035695</v>
       </c>
     </row>
     <row r="444">
@@ -8723,7 +8723,7 @@
         <v>7</v>
       </c>
       <c r="E444" t="n">
-        <v>19.1390977443609</v>
+        <v>19.139068420494</v>
       </c>
     </row>
     <row r="445">
@@ -8740,7 +8740,7 @@
         <v>7</v>
       </c>
       <c r="E445" t="n">
-        <v>18.8832843027552</v>
+        <v>18.8833016041518</v>
       </c>
     </row>
     <row r="446">
@@ -8757,7 +8757,7 @@
         <v>7</v>
       </c>
       <c r="E446" t="n">
-        <v>19.4185671566095</v>
+        <v>19.4185625293497</v>
       </c>
     </row>
     <row r="447">
@@ -8774,7 +8774,7 @@
         <v>7</v>
       </c>
       <c r="E447" t="n">
-        <v>14.876546567953</v>
+        <v>14.8765406972868</v>
       </c>
     </row>
     <row r="448">
@@ -8791,7 +8791,7 @@
         <v>7</v>
       </c>
       <c r="E448" t="n">
-        <v>13.557079044609</v>
+        <v>13.5570773892402</v>
       </c>
     </row>
     <row r="449">
@@ -8808,7 +8808,7 @@
         <v>7</v>
       </c>
       <c r="E449" t="n">
-        <v>13.5547381121451</v>
+        <v>13.5547496597441</v>
       </c>
     </row>
     <row r="450">
@@ -8825,7 +8825,7 @@
         <v>7</v>
       </c>
       <c r="E450" t="n">
-        <v>17.3075594861023</v>
+        <v>17.3075399328412</v>
       </c>
     </row>
     <row r="451">
@@ -8842,7 +8842,7 @@
         <v>7</v>
       </c>
       <c r="E451" t="n">
-        <v>9.24095922506809</v>
+        <v>9.24095988920119</v>
       </c>
     </row>
     <row r="452">
@@ -8859,7 +8859,7 @@
         <v>7</v>
       </c>
       <c r="E452" t="n">
-        <v>16.2327786200598</v>
+        <v>16.232767725107</v>
       </c>
     </row>
     <row r="453">
@@ -8876,7 +8876,7 @@
         <v>7</v>
       </c>
       <c r="E453" t="n">
-        <v>18.9792472376964</v>
+        <v>18.9792637771467</v>
       </c>
     </row>
     <row r="454">
@@ -8893,7 +8893,7 @@
         <v>7</v>
       </c>
       <c r="E454" t="n">
-        <v>17.4292879220855</v>
+        <v>17.4292777192243</v>
       </c>
     </row>
     <row r="455">
@@ -8910,7 +8910,7 @@
         <v>7</v>
       </c>
       <c r="E455" t="n">
-        <v>17.1048464586583</v>
+        <v>17.1048621882015</v>
       </c>
     </row>
     <row r="456">
@@ -8927,7 +8927,7 @@
         <v>7</v>
       </c>
       <c r="E456" t="n">
-        <v>21.8449606194327</v>
+        <v>21.8449647904367</v>
       </c>
     </row>
     <row r="457">
@@ -8944,7 +8944,7 @@
         <v>7</v>
       </c>
       <c r="E457" t="n">
-        <v>17.1398419711157</v>
+        <v>17.1398285280993</v>
       </c>
     </row>
     <row r="458">
@@ -8961,7 +8961,7 @@
         <v>7</v>
       </c>
       <c r="E458" t="n">
-        <v>16.8888356735299</v>
+        <v>16.8888151673168</v>
       </c>
     </row>
     <row r="459">
@@ -8978,7 +8978,7 @@
         <v>7</v>
       </c>
       <c r="E459" t="n">
-        <v>11.9892110295567</v>
+        <v>11.9892042528621</v>
       </c>
     </row>
     <row r="460">
@@ -8995,7 +8995,7 @@
         <v>7</v>
       </c>
       <c r="E460" t="n">
-        <v>9.42962582732918</v>
+        <v>9.4296238021523</v>
       </c>
     </row>
     <row r="461">
@@ -9012,7 +9012,7 @@
         <v>7</v>
       </c>
       <c r="E461" t="n">
-        <v>11.4067744089093</v>
+        <v>11.4048519113855</v>
       </c>
     </row>
     <row r="462">
@@ -9029,7 +9029,7 @@
         <v>7</v>
       </c>
       <c r="E462" t="n">
-        <v>13.3251457693653</v>
+        <v>13.3251308190859</v>
       </c>
     </row>
     <row r="463">
@@ -9046,7 +9046,7 @@
         <v>7</v>
       </c>
       <c r="E463" t="n">
-        <v>12.2713143243301</v>
+        <v>12.2713193774718</v>
       </c>
     </row>
     <row r="464">
@@ -9063,7 +9063,7 @@
         <v>7</v>
       </c>
       <c r="E464" t="n">
-        <v>13.0707310093052</v>
+        <v>13.0707300870806</v>
       </c>
     </row>
     <row r="465">
@@ -9080,7 +9080,7 @@
         <v>7</v>
       </c>
       <c r="E465" t="n">
-        <v>12.5673903988984</v>
+        <v>12.567387526754</v>
       </c>
     </row>
     <row r="466">
@@ -9097,7 +9097,7 @@
         <v>7</v>
       </c>
       <c r="E466" t="n">
-        <v>14.5498512040185</v>
+        <v>14.549852998677</v>
       </c>
     </row>
     <row r="467">
@@ -9114,7 +9114,7 @@
         <v>7</v>
       </c>
       <c r="E467" t="n">
-        <v>17.2699535627344</v>
+        <v>17.269953490016</v>
       </c>
     </row>
     <row r="468">
@@ -9131,7 +9131,7 @@
         <v>7</v>
       </c>
       <c r="E468" t="n">
-        <v>17.5835694221699</v>
+        <v>17.5835653931462</v>
       </c>
     </row>
     <row r="469">
@@ -9148,7 +9148,7 @@
         <v>7</v>
       </c>
       <c r="E469" t="n">
-        <v>16.7735521641693</v>
+        <v>16.7735551437623</v>
       </c>
     </row>
     <row r="470">
@@ -9165,7 +9165,7 @@
         <v>7</v>
       </c>
       <c r="E470" t="n">
-        <v>15.0842045310705</v>
+        <v>15.0842185432727</v>
       </c>
     </row>
     <row r="471">
@@ -9182,7 +9182,7 @@
         <v>7</v>
       </c>
       <c r="E471" t="n">
-        <v>16.7933557494931</v>
+        <v>16.7933484511783</v>
       </c>
     </row>
     <row r="472">
@@ -9199,7 +9199,7 @@
         <v>7</v>
       </c>
       <c r="E472" t="n">
-        <v>15.750319990958</v>
+        <v>15.7503093526125</v>
       </c>
     </row>
     <row r="473">
@@ -9216,7 +9216,7 @@
         <v>7</v>
       </c>
       <c r="E473" t="n">
-        <v>16.4667725293354</v>
+        <v>16.4667752369946</v>
       </c>
     </row>
     <row r="474">
@@ -9233,7 +9233,7 @@
         <v>7</v>
       </c>
       <c r="E474" t="n">
-        <v>17.0512137450801</v>
+        <v>17.0512112990485</v>
       </c>
     </row>
     <row r="475">
@@ -9250,7 +9250,7 @@
         <v>7</v>
       </c>
       <c r="E475" t="n">
-        <v>18.7951034700439</v>
+        <v>18.7951029908148</v>
       </c>
     </row>
     <row r="476">
@@ -9267,7 +9267,7 @@
         <v>7</v>
       </c>
       <c r="E476" t="n">
-        <v>18.2557701135866</v>
+        <v>18.2557681473196</v>
       </c>
     </row>
     <row r="477">
@@ -9284,7 +9284,7 @@
         <v>7</v>
       </c>
       <c r="E477" t="n">
-        <v>18.8308424587786</v>
+        <v>18.8308499250178</v>
       </c>
     </row>
     <row r="478">
@@ -9301,7 +9301,7 @@
         <v>7</v>
       </c>
       <c r="E478" t="n">
-        <v>19.2868732498868</v>
+        <v>19.2868706743199</v>
       </c>
     </row>
     <row r="479">
@@ -9318,7 +9318,7 @@
         <v>7</v>
       </c>
       <c r="E479" t="n">
-        <v>8.14503529401746</v>
+        <v>8.14504902395534</v>
       </c>
     </row>
     <row r="480">
@@ -9335,7 +9335,7 @@
         <v>7</v>
       </c>
       <c r="E480" t="n">
-        <v>8.76864819792408</v>
+        <v>8.76868731409784</v>
       </c>
     </row>
     <row r="481">
@@ -9352,7 +9352,7 @@
         <v>7</v>
       </c>
       <c r="E481" t="n">
-        <v>11.0808773857486</v>
+        <v>11.0808553760017</v>
       </c>
     </row>
     <row r="482">
@@ -9369,7 +9369,7 @@
         <v>7</v>
       </c>
       <c r="E482" t="n">
-        <v>9.94855387644411</v>
+        <v>9.94853367185894</v>
       </c>
     </row>
     <row r="483">
@@ -9386,7 +9386,7 @@
         <v>7</v>
       </c>
       <c r="E483" t="n">
-        <v>10.3461538461538</v>
+        <v>10.3461533860562</v>
       </c>
     </row>
     <row r="484">
@@ -9403,7 +9403,7 @@
         <v>7</v>
       </c>
       <c r="E484" t="n">
-        <v>15.0086635705758</v>
+        <v>15.0086674413806</v>
       </c>
     </row>
     <row r="485">
@@ -9420,7 +9420,7 @@
         <v>7</v>
       </c>
       <c r="E485" t="n">
-        <v>16.4867357645375</v>
+        <v>16.4867291346585</v>
       </c>
     </row>
     <row r="486">
@@ -9437,7 +9437,7 @@
         <v>7</v>
       </c>
       <c r="E486" t="n">
-        <v>14.0201282438352</v>
+        <v>14.0201316564463</v>
       </c>
     </row>
     <row r="487">
@@ -9454,7 +9454,7 @@
         <v>7</v>
       </c>
       <c r="E487" t="n">
-        <v>14.2416496199476</v>
+        <v>14.241638705698</v>
       </c>
     </row>
     <row r="488">
@@ -9471,7 +9471,7 @@
         <v>7</v>
       </c>
       <c r="E488" t="n">
-        <v>9.58645779222715</v>
+        <v>9.58645355625238</v>
       </c>
     </row>
     <row r="489">
@@ -9488,7 +9488,7 @@
         <v>7</v>
       </c>
       <c r="E489" t="n">
-        <v>11.7544323521788</v>
+        <v>11.754424740197</v>
       </c>
     </row>
     <row r="490">
@@ -9505,7 +9505,7 @@
         <v>7</v>
       </c>
       <c r="E490" t="n">
-        <v>13.9663538335932</v>
+        <v>13.9663616139185</v>
       </c>
     </row>
     <row r="491">
@@ -9522,7 +9522,7 @@
         <v>7</v>
       </c>
       <c r="E491" t="n">
-        <v>12.287105923412</v>
+        <v>12.2871009613129</v>
       </c>
     </row>
     <row r="492">
@@ -9539,7 +9539,7 @@
         <v>7</v>
       </c>
       <c r="E492" t="n">
-        <v>12.5361112145605</v>
+        <v>12.5361209647074</v>
       </c>
     </row>
     <row r="493">
@@ -9556,7 +9556,7 @@
         <v>7</v>
       </c>
       <c r="E493" t="n">
-        <v>12.0978646999015</v>
+        <v>12.0978676696099</v>
       </c>
     </row>
     <row r="494">
@@ -9573,7 +9573,7 @@
         <v>7</v>
       </c>
       <c r="E494" t="n">
-        <v>11.6011927334103</v>
+        <v>11.6011857494973</v>
       </c>
     </row>
     <row r="495">
@@ -9590,7 +9590,7 @@
         <v>7</v>
       </c>
       <c r="E495" t="n">
-        <v>12.3012504702844</v>
+        <v>12.3012471993025</v>
       </c>
     </row>
     <row r="496">
@@ -9607,7 +9607,7 @@
         <v>7</v>
       </c>
       <c r="E496" t="n">
-        <v>12.3365042760913</v>
+        <v>12.3365102483874</v>
       </c>
     </row>
     <row r="497">
@@ -9624,7 +9624,7 @@
         <v>7</v>
       </c>
       <c r="E497" t="n">
-        <v>13.2157181284342</v>
+        <v>13.2157174630613</v>
       </c>
     </row>
     <row r="498">
@@ -9641,7 +9641,7 @@
         <v>7</v>
       </c>
       <c r="E498" t="n">
-        <v>14.7556921153354</v>
+        <v>14.7556900747179</v>
       </c>
     </row>
     <row r="499">
@@ -9658,7 +9658,7 @@
         <v>7</v>
       </c>
       <c r="E499" t="n">
-        <v>16.8507819184831</v>
+        <v>16.85079911164</v>
       </c>
     </row>
     <row r="500">
@@ -9675,7 +9675,7 @@
         <v>7</v>
       </c>
       <c r="E500" t="n">
-        <v>13.3626568725695</v>
+        <v>13.3626705860841</v>
       </c>
     </row>
     <row r="501">
@@ -9692,7 +9692,7 @@
         <v>7</v>
       </c>
       <c r="E501" t="n">
-        <v>13.9869143737389</v>
+        <v>13.9869096532251</v>
       </c>
     </row>
     <row r="502">
@@ -9709,7 +9709,7 @@
         <v>7</v>
       </c>
       <c r="E502" t="n">
-        <v>9.03627379577873</v>
+        <v>9.03627252283517</v>
       </c>
     </row>
     <row r="503">
@@ -9726,7 +9726,7 @@
         <v>7</v>
       </c>
       <c r="E503" t="n">
-        <v>8.21096120373561</v>
+        <v>8.21096245301199</v>
       </c>
     </row>
     <row r="504">
@@ -9743,7 +9743,7 @@
         <v>7</v>
       </c>
       <c r="E504" t="n">
-        <v>9.19012510142045</v>
+        <v>9.19012358329646</v>
       </c>
     </row>
     <row r="505">
@@ -9760,7 +9760,7 @@
         <v>7</v>
       </c>
       <c r="E505" t="n">
-        <v>7.85130913032012</v>
+        <v>7.85130696710074</v>
       </c>
     </row>
     <row r="506">
@@ -9777,7 +9777,7 @@
         <v>7</v>
       </c>
       <c r="E506" t="n">
-        <v>7.86223570297468</v>
+        <v>7.86223479756033</v>
       </c>
     </row>
     <row r="507">
@@ -9794,7 +9794,7 @@
         <v>7</v>
       </c>
       <c r="E507" t="n">
-        <v>11.2548346354265</v>
+        <v>11.2548437443098</v>
       </c>
     </row>
     <row r="508">
@@ -9811,7 +9811,7 @@
         <v>7</v>
       </c>
       <c r="E508" t="n">
-        <v>12.4109010232829</v>
+        <v>12.4108952849851</v>
       </c>
     </row>
     <row r="509">
@@ -9828,7 +9828,7 @@
         <v>7</v>
       </c>
       <c r="E509" t="n">
-        <v>12.0026328926036</v>
+        <v>12.0026429348298</v>
       </c>
     </row>
     <row r="510">
@@ -9845,7 +9845,7 @@
         <v>7</v>
       </c>
       <c r="E510" t="n">
-        <v>8.95037043222483</v>
+        <v>8.95037748372534</v>
       </c>
     </row>
     <row r="511">
@@ -9862,7 +9862,7 @@
         <v>7</v>
       </c>
       <c r="E511" t="n">
-        <v>9.32584589917925</v>
+        <v>9.32584100322198</v>
       </c>
     </row>
     <row r="512">
@@ -9879,7 +9879,7 @@
         <v>7</v>
       </c>
       <c r="E512" t="n">
-        <v>13.2798860589629</v>
+        <v>13.2798804843718</v>
       </c>
     </row>
     <row r="513">
@@ -9896,7 +9896,7 @@
         <v>7</v>
       </c>
       <c r="E513" t="n">
-        <v>16.5305732903249</v>
+        <v>16.5305775590853</v>
       </c>
     </row>
     <row r="514">
@@ -9913,7 +9913,7 @@
         <v>7</v>
       </c>
       <c r="E514" t="n">
-        <v>15.2676387709402</v>
+        <v>15.2676375907738</v>
       </c>
     </row>
     <row r="515">
@@ -9930,7 +9930,7 @@
         <v>7</v>
       </c>
       <c r="E515" t="n">
-        <v>12.6330992746439</v>
+        <v>12.6330922560453</v>
       </c>
     </row>
     <row r="516">
@@ -9947,7 +9947,7 @@
         <v>7</v>
       </c>
       <c r="E516" t="n">
-        <v>12.3439542101761</v>
+        <v>12.3439501989757</v>
       </c>
     </row>
     <row r="517">
@@ -9964,7 +9964,7 @@
         <v>7</v>
       </c>
       <c r="E517" t="n">
-        <v>10.962768059855</v>
+        <v>10.9627674452003</v>
       </c>
     </row>
     <row r="518">
@@ -9981,7 +9981,7 @@
         <v>7</v>
       </c>
       <c r="E518" t="n">
-        <v>12.4575129639058</v>
+        <v>12.457509071347</v>
       </c>
     </row>
     <row r="519">
@@ -9998,7 +9998,7 @@
         <v>7</v>
       </c>
       <c r="E519" t="n">
-        <v>12.4694777790261</v>
+        <v>12.4694801461711</v>
       </c>
     </row>
     <row r="520">
@@ -10015,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="E520" t="n">
-        <v>11.0889770001388</v>
+        <v>11.0889737028896</v>
       </c>
     </row>
     <row r="521">
@@ -10032,7 +10032,7 @@
         <v>7</v>
       </c>
       <c r="E521" t="n">
-        <v>11.2283833033505</v>
+        <v>11.2283767845868</v>
       </c>
     </row>
     <row r="522">
@@ -10049,7 +10049,7 @@
         <v>7</v>
       </c>
       <c r="E522" t="n">
-        <v>14.7996950232129</v>
+        <v>14.7997030537046</v>
       </c>
     </row>
     <row r="523">
@@ -10066,7 +10066,7 @@
         <v>7</v>
       </c>
       <c r="E523" t="n">
-        <v>18.0197099630206</v>
+        <v>18.019707570615</v>
       </c>
     </row>
     <row r="524">
@@ -10083,7 +10083,7 @@
         <v>7</v>
       </c>
       <c r="E524" t="n">
-        <v>17.7257130381162</v>
+        <v>17.7257110112121</v>
       </c>
     </row>
     <row r="525">
@@ -10100,7 +10100,7 @@
         <v>7</v>
       </c>
       <c r="E525" t="n">
-        <v>17.0394237586775</v>
+        <v>17.0394131151797</v>
       </c>
     </row>
     <row r="526">
@@ -10117,7 +10117,7 @@
         <v>7</v>
       </c>
       <c r="E526" t="n">
-        <v>19.3835507357356</v>
+        <v>19.3835648697832</v>
       </c>
     </row>
     <row r="527">
@@ -10134,7 +10134,7 @@
         <v>7</v>
       </c>
       <c r="E527" t="n">
-        <v>11.3072577194022</v>
+        <v>11.3072649099337</v>
       </c>
     </row>
     <row r="528">
@@ -10151,7 +10151,7 @@
         <v>7</v>
       </c>
       <c r="E528" t="n">
-        <v>16.0331489896596</v>
+        <v>16.0331423852696</v>
       </c>
     </row>
     <row r="529">
@@ -10168,7 +10168,7 @@
         <v>7</v>
       </c>
       <c r="E529" t="n">
-        <v>17.343040432001</v>
+        <v>17.343029339958</v>
       </c>
     </row>
     <row r="530">
@@ -10185,7 +10185,7 @@
         <v>7</v>
       </c>
       <c r="E530" t="n">
-        <v>16.2265929590742</v>
+        <v>16.2266028899259</v>
       </c>
     </row>
   </sheetData>
@@ -10233,19 +10233,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>20.8236094524052</v>
+        <v>20.8236043881387</v>
       </c>
       <c r="D2" t="n">
-        <v>20.3785481175861</v>
+        <v>20.3785568091683</v>
       </c>
       <c r="E2" t="n">
-        <v>20.8070057127392</v>
+        <v>20.8070078020248</v>
       </c>
       <c r="F2" t="n">
-        <v>22.839349109477</v>
+        <v>22.8393627529595</v>
       </c>
       <c r="G2" t="n">
-        <v>26.025192712113</v>
+        <v>26.0251710469218</v>
       </c>
     </row>
     <row r="3">
@@ -10256,19 +10256,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>22.385220699359</v>
+        <v>22.3852289293728</v>
       </c>
       <c r="D3" t="n">
-        <v>29.5599247412101</v>
+        <v>29.5599234468198</v>
       </c>
       <c r="E3" t="n">
-        <v>25.4034293331608</v>
+        <v>25.4034385945596</v>
       </c>
       <c r="F3" t="n">
-        <v>32.2830233755231</v>
+        <v>32.2830180008751</v>
       </c>
       <c r="G3" t="n">
-        <v>33.3576310429734</v>
+        <v>33.3576212765979</v>
       </c>
     </row>
     <row r="4">
@@ -10280,16 +10280,16 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>16.9927428977773</v>
+        <v>16.9927470048244</v>
       </c>
       <c r="E4" t="n">
-        <v>19.4916234919144</v>
+        <v>19.4916192147557</v>
       </c>
       <c r="F4" t="n">
-        <v>19.3345255221896</v>
+        <v>19.3345223927634</v>
       </c>
       <c r="G4" t="n">
-        <v>19.241566011785</v>
+        <v>19.2415745948154</v>
       </c>
     </row>
     <row r="5">
@@ -10300,19 +10300,19 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>13.5001789034033</v>
+        <v>13.500187491523</v>
       </c>
       <c r="D5" t="n">
-        <v>14.6888200921494</v>
+        <v>14.688828048516</v>
       </c>
       <c r="E5" t="n">
-        <v>14.1137518180038</v>
+        <v>14.1137514451931</v>
       </c>
       <c r="F5" t="n">
-        <v>11.5188619658844</v>
+        <v>11.5188828383766</v>
       </c>
       <c r="G5" t="n">
-        <v>13.5581331419945</v>
+        <v>13.5581202054816</v>
       </c>
     </row>
     <row r="6">
@@ -10323,19 +10323,19 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>12.9565776062023</v>
+        <v>12.9565988874524</v>
       </c>
       <c r="D6" t="n">
-        <v>14.595993236015</v>
+        <v>14.5959916311596</v>
       </c>
       <c r="E6" t="n">
-        <v>13.0521650816385</v>
+        <v>13.0521513895459</v>
       </c>
       <c r="F6" t="n">
-        <v>13.880434202551</v>
+        <v>13.8804398621244</v>
       </c>
       <c r="G6" t="n">
-        <v>14.1709684584976</v>
+        <v>14.1709623289287</v>
       </c>
     </row>
     <row r="7">
@@ -10347,16 +10347,16 @@
       </c>
       <c r="C7"/>
       <c r="D7" t="n">
-        <v>14.7780994880296</v>
+        <v>14.7780806752883</v>
       </c>
       <c r="E7" t="n">
-        <v>19.570988719074</v>
+        <v>19.5709829816457</v>
       </c>
       <c r="F7" t="n">
-        <v>19.0595282010241</v>
+        <v>19.059518106791</v>
       </c>
       <c r="G7" t="n">
-        <v>19.8037333309643</v>
+        <v>19.8037197869036</v>
       </c>
     </row>
     <row r="8">
@@ -10367,19 +10367,19 @@
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>13.7048235465179</v>
+        <v>13.7048331249806</v>
       </c>
       <c r="D8" t="n">
-        <v>15.4934012485184</v>
+        <v>15.4934044981666</v>
       </c>
       <c r="E8" t="n">
-        <v>14.9075060336103</v>
+        <v>14.9075016256188</v>
       </c>
       <c r="F8" t="n">
-        <v>14.8614062439463</v>
+        <v>14.861401751574</v>
       </c>
       <c r="G8" t="n">
-        <v>15.0724548780752</v>
+        <v>15.0724736040008</v>
       </c>
     </row>
     <row r="9">
@@ -10391,16 +10391,16 @@
       </c>
       <c r="C9"/>
       <c r="D9" t="n">
-        <v>13.5536487427071</v>
+        <v>13.5536475349064</v>
       </c>
       <c r="E9" t="n">
-        <v>14.5970230914393</v>
+        <v>14.5970277562327</v>
       </c>
       <c r="F9" t="n">
-        <v>16.1803236410764</v>
+        <v>16.1803329657692</v>
       </c>
       <c r="G9" t="n">
-        <v>18.807009161352</v>
+        <v>18.8070098172495</v>
       </c>
     </row>
     <row r="10">
@@ -10411,19 +10411,19 @@
         <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>15.6624989948224</v>
+        <v>15.6625019788522</v>
       </c>
       <c r="D10" t="n">
-        <v>14.5249820642927</v>
+        <v>14.5249812212694</v>
       </c>
       <c r="E10" t="n">
-        <v>14.7783030188309</v>
+        <v>14.7782978296164</v>
       </c>
       <c r="F10" t="n">
-        <v>17.3067109726107</v>
+        <v>17.3186091780589</v>
       </c>
       <c r="G10" t="n">
-        <v>17.9140080152674</v>
+        <v>17.9262502560773</v>
       </c>
     </row>
     <row r="11">
@@ -10434,19 +10434,19 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>11.7725565181703</v>
+        <v>11.7725506825703</v>
       </c>
       <c r="D11" t="n">
-        <v>10.0415308428229</v>
+        <v>10.0415310441762</v>
       </c>
       <c r="E11" t="n">
-        <v>9.285701213202</v>
+        <v>9.28570198639965</v>
       </c>
       <c r="F11" t="n">
-        <v>10.6814397867822</v>
+        <v>10.6814431493391</v>
       </c>
       <c r="G11" t="n">
-        <v>11.048885213134</v>
+        <v>11.0488791969974</v>
       </c>
     </row>
     <row r="12">
@@ -10457,19 +10457,19 @@
         <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>10.4246609329747</v>
+        <v>10.424662320561</v>
       </c>
       <c r="D12" t="n">
-        <v>14.4932346799599</v>
+        <v>14.4932496224498</v>
       </c>
       <c r="E12" t="n">
-        <v>14.4351287345844</v>
+        <v>14.4351216984462</v>
       </c>
       <c r="F12" t="n">
-        <v>12.3427955071096</v>
+        <v>12.3427861749707</v>
       </c>
       <c r="G12" t="n">
-        <v>12.9586527897498</v>
+        <v>12.9586508543042</v>
       </c>
     </row>
     <row r="13">
@@ -10480,19 +10480,19 @@
         <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>11.2917867901051</v>
+        <v>11.2917982944291</v>
       </c>
       <c r="D13" t="n">
-        <v>14.5545131374495</v>
+        <v>14.5545271433091</v>
       </c>
       <c r="E13" t="n">
-        <v>15.6655151515936</v>
+        <v>15.6654992323394</v>
       </c>
       <c r="F13" t="n">
-        <v>17.4692485835378</v>
+        <v>17.469259992067</v>
       </c>
       <c r="G13" t="n">
-        <v>17.2722314333763</v>
+        <v>17.2722444469249</v>
       </c>
     </row>
     <row r="14">
@@ -10503,19 +10503,19 @@
         <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>10.9697866142143</v>
+        <v>10.9697764013423</v>
       </c>
       <c r="D14" t="n">
-        <v>13.2072036969845</v>
+        <v>13.207210772274</v>
       </c>
       <c r="E14" t="n">
-        <v>14.0831835537444</v>
+        <v>14.0831898385463</v>
       </c>
       <c r="F14" t="n">
-        <v>12.904199436437</v>
+        <v>12.904210649942</v>
       </c>
       <c r="G14" t="n">
-        <v>15.8484835747522</v>
+        <v>15.8484969473438</v>
       </c>
     </row>
     <row r="15">
@@ -10526,19 +10526,19 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>11.263806927942</v>
+        <v>11.2638065468996</v>
       </c>
       <c r="D15" t="n">
-        <v>11.6433379534376</v>
+        <v>11.6433467307362</v>
       </c>
       <c r="E15" t="n">
-        <v>11.5025908138458</v>
+        <v>11.5025785053643</v>
       </c>
       <c r="F15" t="n">
-        <v>10.7887607697201</v>
+        <v>10.7887460008189</v>
       </c>
       <c r="G15" t="n">
-        <v>11.3472175476887</v>
+        <v>11.3472399812047</v>
       </c>
     </row>
     <row r="16">
@@ -10549,19 +10549,19 @@
         <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>10.7127397219872</v>
+        <v>10.7127334956716</v>
       </c>
       <c r="D16" t="n">
-        <v>16.3767855797606</v>
+        <v>16.3767815842183</v>
       </c>
       <c r="E16" t="n">
-        <v>15.3917103608451</v>
+        <v>15.3917095498204</v>
       </c>
       <c r="F16" t="n">
-        <v>14.5595803633676</v>
+        <v>14.5595852095555</v>
       </c>
       <c r="G16" t="n">
-        <v>14.9081744566411</v>
+        <v>14.9081738640337</v>
       </c>
     </row>
     <row r="17">
@@ -10572,19 +10572,19 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>9.88554898131589</v>
+        <v>9.88553439706208</v>
       </c>
       <c r="D17" t="n">
-        <v>10.0837507622396</v>
+        <v>10.0837470440013</v>
       </c>
       <c r="E17" t="n">
-        <v>9.39242232232107</v>
+        <v>9.39242343089693</v>
       </c>
       <c r="F17" t="n">
-        <v>8.77691670717153</v>
+        <v>8.77691427101447</v>
       </c>
       <c r="G17" t="n">
-        <v>10.3911413306627</v>
+        <v>10.3911245584333</v>
       </c>
     </row>
     <row r="18">
@@ -10595,16 +10595,16 @@
         <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>7.66891790693495</v>
+        <v>7.66894553587313</v>
       </c>
       <c r="D18" t="n">
-        <v>8.55799137041526</v>
+        <v>8.55799905530023</v>
       </c>
       <c r="E18" t="n">
-        <v>13.0615793142544</v>
+        <v>13.0615850791359</v>
       </c>
       <c r="F18" t="n">
-        <v>12.7050775888664</v>
+        <v>12.7050930427974</v>
       </c>
       <c r="G18"/>
     </row>
@@ -10616,19 +10616,19 @@
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>13.0695571266868</v>
+        <v>13.0695519453711</v>
       </c>
       <c r="D19" t="n">
-        <v>13.100435521889</v>
+        <v>13.1004362887909</v>
       </c>
       <c r="E19" t="n">
-        <v>21.2068284836419</v>
+        <v>21.206825689398</v>
       </c>
       <c r="F19" t="n">
-        <v>18.5390470551518</v>
+        <v>18.5390589742541</v>
       </c>
       <c r="G19" t="n">
-        <v>18.5543340721317</v>
+        <v>18.5543368709624</v>
       </c>
     </row>
     <row r="20">
@@ -10639,19 +10639,19 @@
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>10.7113911462133</v>
+        <v>10.7113921281458</v>
       </c>
       <c r="D20" t="n">
-        <v>10.1125344750069</v>
+        <v>10.1125160441914</v>
       </c>
       <c r="E20" t="n">
-        <v>14.2281736649721</v>
+        <v>14.2281715283487</v>
       </c>
       <c r="F20" t="n">
-        <v>15.171133108964</v>
+        <v>15.1711257164988</v>
       </c>
       <c r="G20" t="n">
-        <v>17.4462642795394</v>
+        <v>17.4462671658102</v>
       </c>
     </row>
     <row r="21">
@@ -10662,19 +10662,19 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>10.1534912125265</v>
+        <v>10.1534823047714</v>
       </c>
       <c r="D21" t="n">
-        <v>9.51563867756464</v>
+        <v>9.51564092620514</v>
       </c>
       <c r="E21" t="n">
-        <v>10.6980700236591</v>
+        <v>10.6980926332738</v>
       </c>
       <c r="F21" t="n">
-        <v>16.181972102537</v>
+        <v>16.18196719177</v>
       </c>
       <c r="G21" t="n">
-        <v>19.7984438263277</v>
+        <v>19.7984604736853</v>
       </c>
     </row>
     <row r="22">
@@ -10685,19 +10685,19 @@
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>18.7051766885851</v>
+        <v>18.7051753995574</v>
       </c>
       <c r="D22" t="n">
-        <v>24.6513362534363</v>
+        <v>24.6513322517205</v>
       </c>
       <c r="E22" t="n">
-        <v>22.6889825182836</v>
+        <v>22.6889876255371</v>
       </c>
       <c r="F22" t="n">
-        <v>20.249828326463</v>
+        <v>20.2498226266635</v>
       </c>
       <c r="G22" t="n">
-        <v>21.361913315394</v>
+        <v>21.3619192523769</v>
       </c>
     </row>
     <row r="23">
@@ -10708,19 +10708,19 @@
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>13.2873114012421</v>
+        <v>13.2873137110243</v>
       </c>
       <c r="D23" t="n">
-        <v>13.36185680209</v>
+        <v>13.3618493107873</v>
       </c>
       <c r="E23" t="n">
-        <v>20.0511781848673</v>
+        <v>20.0511776170199</v>
       </c>
       <c r="F23" t="n">
-        <v>14.6985424080039</v>
+        <v>14.6985451401509</v>
       </c>
       <c r="G23" t="n">
-        <v>14.3357877267612</v>
+        <v>14.335785940526</v>
       </c>
     </row>
     <row r="24">
@@ -10731,19 +10731,19 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>10.3058561837758</v>
+        <v>10.3058611582057</v>
       </c>
       <c r="D24" t="n">
-        <v>9.57085353997395</v>
+        <v>9.57085526967376</v>
       </c>
       <c r="E24" t="n">
-        <v>8.74255381008474</v>
+        <v>8.74254638274821</v>
       </c>
       <c r="F24" t="n">
-        <v>8.35046285219997</v>
+        <v>8.35047047343883</v>
       </c>
       <c r="G24" t="n">
-        <v>9.7275627947316</v>
+        <v>9.72756855445081</v>
       </c>
     </row>
     <row r="25">
@@ -10754,19 +10754,19 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>18.5283717440638</v>
+        <v>18.5283626190425</v>
       </c>
       <c r="D25" t="n">
-        <v>14.8164635571935</v>
+        <v>14.8164639388583</v>
       </c>
       <c r="E25" t="n">
-        <v>15.7166946512577</v>
+        <v>15.7166903688392</v>
       </c>
       <c r="F25" t="n">
-        <v>14.4081686448082</v>
+        <v>14.4081580544364</v>
       </c>
       <c r="G25" t="n">
-        <v>14.4710171831433</v>
+        <v>14.4710230842076</v>
       </c>
     </row>
     <row r="26">
@@ -10777,19 +10777,19 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>11.8327833924222</v>
+        <v>11.8327961091103</v>
       </c>
       <c r="D26" t="n">
-        <v>13.1046171871647</v>
+        <v>13.1046229342491</v>
       </c>
       <c r="E26" t="n">
-        <v>13.8567076384643</v>
+        <v>13.856696165303</v>
       </c>
       <c r="F26" t="n">
-        <v>12.3955570776202</v>
+        <v>12.3955657758862</v>
       </c>
       <c r="G26" t="n">
-        <v>12.8493864803996</v>
+        <v>12.849397366001</v>
       </c>
     </row>
     <row r="27">
@@ -10801,16 +10801,16 @@
       </c>
       <c r="C27"/>
       <c r="D27" t="n">
-        <v>18.246336170109</v>
+        <v>18.2463799789038</v>
       </c>
       <c r="E27" t="n">
-        <v>22.636805427594</v>
+        <v>22.6368075674061</v>
       </c>
       <c r="F27" t="n">
-        <v>20.1268686156506</v>
+        <v>20.1269004892365</v>
       </c>
       <c r="G27" t="n">
-        <v>24.1946745568153</v>
+        <v>24.1946424312717</v>
       </c>
     </row>
     <row r="28">
@@ -10821,19 +10821,19 @@
         <v>59</v>
       </c>
       <c r="C28" t="n">
-        <v>5.16025424582496</v>
+        <v>5.16024077164307</v>
       </c>
       <c r="D28" t="n">
-        <v>8.04092403551955</v>
+        <v>8.04092065525031</v>
       </c>
       <c r="E28" t="n">
-        <v>10.7344128392833</v>
+        <v>10.7344193914822</v>
       </c>
       <c r="F28" t="n">
-        <v>10.9150692026195</v>
+        <v>10.9150494907214</v>
       </c>
       <c r="G28" t="n">
-        <v>10.4825282916905</v>
+        <v>10.4825618022772</v>
       </c>
     </row>
     <row r="29">
@@ -10845,16 +10845,16 @@
       </c>
       <c r="C29"/>
       <c r="D29" t="n">
-        <v>8.94768369959297</v>
+        <v>8.94768305656597</v>
       </c>
       <c r="E29" t="n">
-        <v>15.5763355340017</v>
+        <v>15.5763307945817</v>
       </c>
       <c r="F29" t="n">
-        <v>15.0821645613324</v>
+        <v>15.082157705434</v>
       </c>
       <c r="G29" t="n">
-        <v>15.580247180553</v>
+        <v>15.5802472806882</v>
       </c>
     </row>
     <row r="30">
@@ -10865,19 +10865,19 @@
         <v>63</v>
       </c>
       <c r="C30" t="n">
-        <v>8.50735628474616</v>
+        <v>8.50734883978079</v>
       </c>
       <c r="D30" t="n">
-        <v>7.206436691789</v>
+        <v>7.2064433165605</v>
       </c>
       <c r="E30" t="n">
-        <v>9.55605570924702</v>
+        <v>9.55606100760882</v>
       </c>
       <c r="F30" t="n">
-        <v>8.69028162140586</v>
+        <v>8.69027017413599</v>
       </c>
       <c r="G30" t="n">
-        <v>8.76562967346795</v>
+        <v>8.76562705193035</v>
       </c>
     </row>
     <row r="31">
@@ -10888,19 +10888,19 @@
         <v>65</v>
       </c>
       <c r="C31" t="n">
-        <v>17.5160588434165</v>
+        <v>17.5160603060224</v>
       </c>
       <c r="D31" t="n">
-        <v>12.7648280416823</v>
+        <v>12.7654171276708</v>
       </c>
       <c r="E31" t="n">
-        <v>13.5165644783091</v>
+        <v>13.5165634634266</v>
       </c>
       <c r="F31" t="n">
-        <v>8.93843658208637</v>
+        <v>8.93843155361941</v>
       </c>
       <c r="G31" t="n">
-        <v>10.9145389735727</v>
+        <v>10.9145411064341</v>
       </c>
     </row>
     <row r="32">
@@ -10911,19 +10911,19 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>12.3176008441506</v>
+        <v>12.3176073783735</v>
       </c>
       <c r="D32" t="n">
-        <v>16.4903434389269</v>
+        <v>16.4903371860489</v>
       </c>
       <c r="E32" t="n">
-        <v>14.0729056822542</v>
+        <v>14.0729094990395</v>
       </c>
       <c r="F32" t="n">
-        <v>11.4100606179807</v>
+        <v>11.4100542815049</v>
       </c>
       <c r="G32" t="n">
-        <v>12.9795688586129</v>
+        <v>12.9795584527787</v>
       </c>
     </row>
     <row r="33">
@@ -10934,19 +10934,19 @@
         <v>69</v>
       </c>
       <c r="C33" t="n">
-        <v>10.5955626476278</v>
+        <v>10.5955544915991</v>
       </c>
       <c r="D33" t="n">
-        <v>15.0531037849003</v>
+        <v>15.0530868113466</v>
       </c>
       <c r="E33" t="n">
-        <v>14.7762290556093</v>
+        <v>14.7762403688211</v>
       </c>
       <c r="F33" t="n">
-        <v>13.3941772972078</v>
+        <v>13.3941829766948</v>
       </c>
       <c r="G33" t="n">
-        <v>14.1255117165078</v>
+        <v>14.1255030197138</v>
       </c>
     </row>
     <row r="34">
@@ -10957,17 +10957,17 @@
         <v>71</v>
       </c>
       <c r="C34" t="n">
-        <v>12.8765383007793</v>
+        <v>12.8765353903265</v>
       </c>
       <c r="D34" t="n">
-        <v>15.8089399163381</v>
+        <v>15.8089383495567</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="n">
-        <v>16.8107642060264</v>
+        <v>16.810767137475</v>
       </c>
       <c r="G34" t="n">
-        <v>17.1545404689414</v>
+        <v>17.1545376948555</v>
       </c>
     </row>
     <row r="35">
@@ -10978,19 +10978,19 @@
         <v>73</v>
       </c>
       <c r="C35" t="n">
-        <v>14.7660951478116</v>
+        <v>14.7660995911556</v>
       </c>
       <c r="D35" t="n">
-        <v>12.8157382686684</v>
+        <v>12.815745381143</v>
       </c>
       <c r="E35" t="n">
-        <v>15.7410059589154</v>
+        <v>15.7410062536059</v>
       </c>
       <c r="F35" t="n">
-        <v>12.377150011138</v>
+        <v>12.3771525419807</v>
       </c>
       <c r="G35" t="n">
-        <v>12.7553304750929</v>
+        <v>12.7553211564365</v>
       </c>
     </row>
     <row r="36">
@@ -11001,17 +11001,17 @@
         <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>8.84026399872387</v>
+        <v>8.84026078986814</v>
       </c>
       <c r="D36" t="n">
-        <v>14.6880015932179</v>
+        <v>14.6879930711115</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="n">
-        <v>15.0573934190072</v>
+        <v>15.0574023145819</v>
       </c>
       <c r="G36" t="n">
-        <v>18.3376928706586</v>
+        <v>18.3376908934541</v>
       </c>
     </row>
     <row r="37">
@@ -11022,19 +11022,19 @@
         <v>77</v>
       </c>
       <c r="C37" t="n">
-        <v>17.5209716008734</v>
+        <v>17.5209722283601</v>
       </c>
       <c r="D37" t="n">
-        <v>15.6330111567289</v>
+        <v>15.6330157564283</v>
       </c>
       <c r="E37" t="n">
-        <v>22.3861006542163</v>
+        <v>22.3861048867913</v>
       </c>
       <c r="F37" t="n">
-        <v>19.4562692426535</v>
+        <v>19.4562634321297</v>
       </c>
       <c r="G37" t="n">
-        <v>18.6423328966893</v>
+        <v>18.6423309304245</v>
       </c>
     </row>
     <row r="38">
@@ -11046,16 +11046,16 @@
       </c>
       <c r="C38"/>
       <c r="D38" t="n">
-        <v>11.7467491645862</v>
+        <v>11.746745121485</v>
       </c>
       <c r="E38" t="n">
-        <v>15.2989816944551</v>
+        <v>15.298977264873</v>
       </c>
       <c r="F38" t="n">
-        <v>11.6703932166231</v>
+        <v>11.6703921715328</v>
       </c>
       <c r="G38" t="n">
-        <v>11.733506851348</v>
+        <v>11.7335005824887</v>
       </c>
     </row>
     <row r="39">
@@ -11066,19 +11066,19 @@
         <v>81</v>
       </c>
       <c r="C39" t="n">
-        <v>10.7547784716445</v>
+        <v>10.7547687966187</v>
       </c>
       <c r="D39" t="n">
-        <v>10.4592936191671</v>
+        <v>10.4592843598912</v>
       </c>
       <c r="E39" t="n">
-        <v>14.133213700889</v>
+        <v>14.1332238527562</v>
       </c>
       <c r="F39" t="n">
-        <v>12.5772134399602</v>
+        <v>12.5772191525311</v>
       </c>
       <c r="G39" t="n">
-        <v>13.9218780751428</v>
+        <v>13.9218787152125</v>
       </c>
     </row>
     <row r="40">
@@ -11089,19 +11089,19 @@
         <v>83</v>
       </c>
       <c r="C40" t="n">
-        <v>12.3043256094986</v>
+        <v>12.3043418834239</v>
       </c>
       <c r="D40" t="n">
-        <v>16.5680314867878</v>
+        <v>16.5680361221972</v>
       </c>
       <c r="E40" t="n">
-        <v>17.881602214476</v>
+        <v>17.8816197445903</v>
       </c>
       <c r="F40" t="n">
-        <v>16.2485532281915</v>
+        <v>16.2485594082398</v>
       </c>
       <c r="G40" t="n">
-        <v>16.5744257789488</v>
+        <v>16.5744367382408</v>
       </c>
     </row>
     <row r="41">
@@ -11112,19 +11112,19 @@
         <v>85</v>
       </c>
       <c r="C41" t="n">
-        <v>27.9128309721993</v>
+        <v>27.9128102619207</v>
       </c>
       <c r="D41" t="n">
-        <v>33.5462396728027</v>
+        <v>33.5462561839243</v>
       </c>
       <c r="E41" t="n">
-        <v>33.2839980839123</v>
+        <v>33.2840217718608</v>
       </c>
       <c r="F41" t="n">
-        <v>34.1080326758092</v>
+        <v>34.1080351760558</v>
       </c>
       <c r="G41" t="n">
-        <v>37.3582158404485</v>
+        <v>37.3582282408626</v>
       </c>
     </row>
     <row r="42">
@@ -11135,19 +11135,19 @@
         <v>87</v>
       </c>
       <c r="C42" t="n">
-        <v>10.512378603373</v>
+        <v>10.5123769495454</v>
       </c>
       <c r="D42" t="n">
-        <v>11.8536209874771</v>
+        <v>11.8536174952135</v>
       </c>
       <c r="E42" t="n">
-        <v>13.1475607725688</v>
+        <v>13.1475640935157</v>
       </c>
       <c r="F42" t="n">
-        <v>14.9162588587485</v>
+        <v>14.916245933034</v>
       </c>
       <c r="G42" t="n">
-        <v>15.3420319337469</v>
+        <v>15.3420453937649</v>
       </c>
     </row>
     <row r="43">
@@ -11158,19 +11158,19 @@
         <v>89</v>
       </c>
       <c r="C43" t="n">
-        <v>11.025775065544</v>
+        <v>11.0257767658335</v>
       </c>
       <c r="D43" t="n">
-        <v>12.6038148578652</v>
+        <v>12.6038058257329</v>
       </c>
       <c r="E43" t="n">
-        <v>16.3376115490431</v>
+        <v>16.3376005634699</v>
       </c>
       <c r="F43" t="n">
-        <v>16.1485338439046</v>
+        <v>16.1485480742517</v>
       </c>
       <c r="G43" t="n">
-        <v>16.7798035888735</v>
+        <v>16.7798166627477</v>
       </c>
     </row>
     <row r="44">
@@ -11181,19 +11181,19 @@
         <v>91</v>
       </c>
       <c r="C44" t="n">
-        <v>13.5495205368182</v>
+        <v>13.549524452272</v>
       </c>
       <c r="D44" t="n">
-        <v>16.8417292085421</v>
+        <v>16.8417343021033</v>
       </c>
       <c r="E44" t="n">
-        <v>17.0177441174092</v>
+        <v>17.0177456901635</v>
       </c>
       <c r="F44" t="n">
-        <v>16.3042946209619</v>
+        <v>16.3042969379967</v>
       </c>
       <c r="G44" t="n">
-        <v>14.111368224383</v>
+        <v>14.1113708666332</v>
       </c>
     </row>
     <row r="45">
@@ -11204,19 +11204,19 @@
         <v>93</v>
       </c>
       <c r="C45" t="n">
-        <v>12.8648933071183</v>
+        <v>12.8648853380037</v>
       </c>
       <c r="D45" t="n">
-        <v>10.9895176173366</v>
+        <v>10.9895212799606</v>
       </c>
       <c r="E45" t="n">
-        <v>13.6865474937174</v>
+        <v>13.6865458756192</v>
       </c>
       <c r="F45" t="n">
-        <v>10.3450223710978</v>
+        <v>10.3450147811343</v>
       </c>
       <c r="G45" t="n">
-        <v>11.2630535999966</v>
+        <v>11.2630590719112</v>
       </c>
     </row>
     <row r="46">
@@ -11227,19 +11227,19 @@
         <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>17.393931997762</v>
+        <v>17.3939352744671</v>
       </c>
       <c r="D46" t="n">
-        <v>18.6920560950355</v>
+        <v>18.6920665998439</v>
       </c>
       <c r="E46" t="n">
-        <v>21.8752512372934</v>
+        <v>21.8752550112569</v>
       </c>
       <c r="F46" t="n">
-        <v>17.5215745334991</v>
+        <v>17.5215679824435</v>
       </c>
       <c r="G46" t="n">
-        <v>18.0629765223286</v>
+        <v>18.0629793974387</v>
       </c>
     </row>
     <row r="47">
@@ -11250,19 +11250,19 @@
         <v>97</v>
       </c>
       <c r="C47" t="n">
-        <v>18.0426772604818</v>
+        <v>18.0426847357874</v>
       </c>
       <c r="D47" t="n">
-        <v>19.1592665357182</v>
+        <v>19.1592619145652</v>
       </c>
       <c r="E47" t="n">
-        <v>19.3296897303353</v>
+        <v>19.3296632511654</v>
       </c>
       <c r="F47" t="n">
-        <v>24.5730200306166</v>
+        <v>24.5730325926529</v>
       </c>
       <c r="G47" t="n">
-        <v>25.7735499420021</v>
+        <v>25.7735477297797</v>
       </c>
     </row>
     <row r="48">
@@ -11273,19 +11273,19 @@
         <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>11.0594308226148</v>
+        <v>11.059428047938</v>
       </c>
       <c r="D48" t="n">
-        <v>13.1354569373687</v>
+        <v>13.1354528561519</v>
       </c>
       <c r="E48" t="n">
-        <v>18.2891698180184</v>
+        <v>18.2891671284943</v>
       </c>
       <c r="F48" t="n">
-        <v>20.0237064145713</v>
+        <v>20.0237010385746</v>
       </c>
       <c r="G48" t="n">
-        <v>19.0731221079863</v>
+        <v>19.0731280883634</v>
       </c>
     </row>
     <row r="49">
@@ -11296,19 +11296,19 @@
         <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>14.9161714501707</v>
+        <v>14.9161801682885</v>
       </c>
       <c r="D49" t="n">
-        <v>21.8982355389294</v>
+        <v>21.8982364256532</v>
       </c>
       <c r="E49" t="n">
-        <v>18.9444611854356</v>
+        <v>18.9444634339119</v>
       </c>
       <c r="F49" t="n">
-        <v>16.1780926243359</v>
+        <v>16.1780928389458</v>
       </c>
       <c r="G49" t="n">
-        <v>17.607556863236</v>
+        <v>17.6075300276471</v>
       </c>
     </row>
     <row r="50">
@@ -11322,16 +11322,16 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>15.9138770605111</v>
+        <v>15.913877624519</v>
       </c>
       <c r="E50" t="n">
-        <v>16.5673541051179</v>
+        <v>16.5673555922447</v>
       </c>
       <c r="F50" t="n">
-        <v>14.23483232495</v>
+        <v>14.2348428000474</v>
       </c>
       <c r="G50" t="n">
-        <v>16.5630761614669</v>
+        <v>16.5630674700017</v>
       </c>
     </row>
     <row r="51">
@@ -11342,19 +11342,19 @@
         <v>105</v>
       </c>
       <c r="C51" t="n">
-        <v>12.1262131304741</v>
+        <v>12.1262153697122</v>
       </c>
       <c r="D51" t="n">
-        <v>13.8816349311649</v>
+        <v>13.8816391494996</v>
       </c>
       <c r="E51" t="n">
-        <v>12.4040061167933</v>
+        <v>12.4039989010687</v>
       </c>
       <c r="F51" t="n">
-        <v>10.4184919896801</v>
+        <v>10.4184951075619</v>
       </c>
       <c r="G51" t="n">
-        <v>10.917566826315</v>
+        <v>10.9175709255237</v>
       </c>
     </row>
     <row r="52">
@@ -11365,19 +11365,19 @@
         <v>107</v>
       </c>
       <c r="C52" t="n">
-        <v>16.6039062609248</v>
+        <v>16.6039112014672</v>
       </c>
       <c r="D52" t="n">
-        <v>16.3715189540542</v>
+        <v>16.3715264298439</v>
       </c>
       <c r="E52" t="n">
-        <v>14.8272612360767</v>
+        <v>14.8272584877988</v>
       </c>
       <c r="F52" t="n">
-        <v>19.1114784536553</v>
+        <v>19.1114799007203</v>
       </c>
       <c r="G52" t="n">
-        <v>16.8922375175553</v>
+        <v>16.892219006964</v>
       </c>
     </row>
     <row r="53">
@@ -11388,19 +11388,19 @@
         <v>109</v>
       </c>
       <c r="C53" t="n">
-        <v>9.12527465410815</v>
+        <v>9.12528468583407</v>
       </c>
       <c r="D53" t="n">
-        <v>9.0368089043779</v>
+        <v>9.03681161680192</v>
       </c>
       <c r="E53" t="n">
-        <v>10.9607530029502</v>
+        <v>10.9607676130633</v>
       </c>
       <c r="F53" t="n">
-        <v>8.90571205158157</v>
+        <v>8.90572736367804</v>
       </c>
       <c r="G53" t="n">
-        <v>9.70825427072146</v>
+        <v>9.70824519040648</v>
       </c>
     </row>
     <row r="54">
@@ -11411,19 +11411,19 @@
         <v>111</v>
       </c>
       <c r="C54" t="n">
-        <v>16.1815269119464</v>
+        <v>16.1815170383485</v>
       </c>
       <c r="D54" t="n">
-        <v>14.6415903079726</v>
+        <v>14.6415825688273</v>
       </c>
       <c r="E54" t="n">
-        <v>17.9138319163485</v>
+        <v>17.9138421328936</v>
       </c>
       <c r="F54" t="n">
-        <v>17.8794890048116</v>
+        <v>17.8794747306881</v>
       </c>
       <c r="G54" t="n">
-        <v>18.2632222273003</v>
+        <v>18.2632343707002</v>
       </c>
     </row>
     <row r="55">
@@ -11434,19 +11434,19 @@
         <v>113</v>
       </c>
       <c r="C55" t="n">
-        <v>16.5085921161903</v>
+        <v>16.5085886529131</v>
       </c>
       <c r="D55" t="n">
-        <v>15.9726744899502</v>
+        <v>15.9726660688672</v>
       </c>
       <c r="E55" t="n">
-        <v>15.1889373948248</v>
+        <v>15.1889347201098</v>
       </c>
       <c r="F55" t="n">
-        <v>12.0880603283411</v>
+        <v>12.0880527922781</v>
       </c>
       <c r="G55" t="n">
-        <v>13.3570209143429</v>
+        <v>13.357023640001</v>
       </c>
     </row>
     <row r="56">
@@ -11457,19 +11457,19 @@
         <v>115</v>
       </c>
       <c r="C56" t="n">
-        <v>18.8697068273253</v>
+        <v>18.8697006910186</v>
       </c>
       <c r="D56" t="n">
-        <v>19.5691475417798</v>
+        <v>19.569147581204</v>
       </c>
       <c r="E56" t="n">
-        <v>23.0305377705302</v>
+        <v>23.0305289341703</v>
       </c>
       <c r="F56" t="n">
-        <v>21.0152906733322</v>
+        <v>21.0152897845473</v>
       </c>
       <c r="G56" t="n">
-        <v>21.6379656157058</v>
+        <v>21.6379659105738</v>
       </c>
     </row>
     <row r="57">
@@ -11480,19 +11480,19 @@
         <v>117</v>
       </c>
       <c r="C57" t="n">
-        <v>15.8542435094002</v>
+        <v>15.8542416097201</v>
       </c>
       <c r="D57" t="n">
-        <v>11.3675560393262</v>
+        <v>11.3675566279331</v>
       </c>
       <c r="E57" t="n">
-        <v>16.7137398187949</v>
+        <v>16.7137378068043</v>
       </c>
       <c r="F57" t="n">
-        <v>15.7341500284017</v>
+        <v>15.7341470809409</v>
       </c>
       <c r="G57" t="n">
-        <v>15.8306681911068</v>
+        <v>15.8306717874969</v>
       </c>
     </row>
     <row r="58">
@@ -11503,19 +11503,19 @@
         <v>119</v>
       </c>
       <c r="C58" t="n">
-        <v>11.1215219432651</v>
+        <v>11.1215223713076</v>
       </c>
       <c r="D58" t="n">
-        <v>13.1292569936601</v>
+        <v>13.1292600434414</v>
       </c>
       <c r="E58" t="n">
-        <v>13.1972969855706</v>
+        <v>13.1972978105162</v>
       </c>
       <c r="F58" t="n">
-        <v>12.7893374399787</v>
+        <v>12.7893473320125</v>
       </c>
       <c r="G58" t="n">
-        <v>15.0217865368132</v>
+        <v>15.0217801729152</v>
       </c>
     </row>
     <row r="59">
@@ -11526,19 +11526,19 @@
         <v>121</v>
       </c>
       <c r="C59" t="n">
-        <v>5.87327068127207</v>
+        <v>5.87327657913158</v>
       </c>
       <c r="D59" t="n">
-        <v>7.90350236144425</v>
+        <v>7.90350265663094</v>
       </c>
       <c r="E59" t="n">
-        <v>9.72682097097909</v>
+        <v>9.7268073099489</v>
       </c>
       <c r="F59" t="n">
-        <v>15.3669938465383</v>
+        <v>15.3669908403306</v>
       </c>
       <c r="G59" t="n">
-        <v>15.7743302482298</v>
+        <v>15.7743276374174</v>
       </c>
     </row>
     <row r="60">
@@ -11549,19 +11549,19 @@
         <v>123</v>
       </c>
       <c r="C60" t="n">
-        <v>16.5649947463436</v>
+        <v>16.5649894782931</v>
       </c>
       <c r="D60" t="n">
-        <v>20.0037833188983</v>
+        <v>20.0037837686971</v>
       </c>
       <c r="E60" t="n">
-        <v>18.2498752287473</v>
+        <v>18.2498821905205</v>
       </c>
       <c r="F60" t="n">
-        <v>18.6251169501324</v>
+        <v>18.6251295792695</v>
       </c>
       <c r="G60" t="n">
-        <v>16.5453074983981</v>
+        <v>16.5452803925906</v>
       </c>
     </row>
     <row r="61">
@@ -11572,19 +11572,19 @@
         <v>125</v>
       </c>
       <c r="C61" t="n">
-        <v>17.1472649353974</v>
+        <v>17.147258683813</v>
       </c>
       <c r="D61" t="n">
-        <v>16.6528546045794</v>
+        <v>16.6528527612084</v>
       </c>
       <c r="E61" t="n">
-        <v>18.7150879057292</v>
+        <v>18.715085649516</v>
       </c>
       <c r="F61" t="n">
-        <v>21.0958215627587</v>
+        <v>21.0958147553413</v>
       </c>
       <c r="G61" t="n">
-        <v>19.6667898499296</v>
+        <v>19.6667814454054</v>
       </c>
     </row>
     <row r="62">
@@ -11595,19 +11595,19 @@
         <v>127</v>
       </c>
       <c r="C62" t="n">
-        <v>10.5521421397942</v>
+        <v>10.5521737776443</v>
       </c>
       <c r="D62" t="n">
-        <v>10.8902004093625</v>
+        <v>10.890186421587</v>
       </c>
       <c r="E62" t="n">
-        <v>15.5273871087291</v>
+        <v>15.5273828421561</v>
       </c>
       <c r="F62" t="n">
-        <v>14.555466493976</v>
+        <v>14.5554762752333</v>
       </c>
       <c r="G62" t="n">
-        <v>15.4710172494375</v>
+        <v>15.4710073897593</v>
       </c>
     </row>
     <row r="63">
@@ -11618,19 +11618,19 @@
         <v>129</v>
       </c>
       <c r="C63" t="n">
-        <v>5.15509785041807</v>
+        <v>5.15508335476822</v>
       </c>
       <c r="D63" t="n">
-        <v>5.2092509831048</v>
+        <v>5.2092702905923</v>
       </c>
       <c r="E63" t="n">
-        <v>10.7507777883506</v>
+        <v>10.7507724439668</v>
       </c>
       <c r="F63" t="n">
-        <v>12.2304915913926</v>
+        <v>12.2304697051027</v>
       </c>
       <c r="G63" t="n">
-        <v>12.3311230908297</v>
+        <v>12.3311152439818</v>
       </c>
     </row>
     <row r="64">
@@ -11641,19 +11641,19 @@
         <v>131</v>
       </c>
       <c r="C64" t="n">
-        <v>15.3294879553547</v>
+        <v>15.32949529591</v>
       </c>
       <c r="D64" t="n">
-        <v>10.073179008055</v>
+        <v>10.0731819105228</v>
       </c>
       <c r="E64" t="n">
-        <v>16.1931571321972</v>
+        <v>16.1931628898093</v>
       </c>
       <c r="F64" t="n">
-        <v>16.400214954262</v>
+        <v>16.4001954639065</v>
       </c>
       <c r="G64" t="n">
-        <v>17.2479841340257</v>
+        <v>17.2479856611771</v>
       </c>
     </row>
     <row r="65">
@@ -11664,19 +11664,19 @@
         <v>133</v>
       </c>
       <c r="C65" t="n">
-        <v>12.7481770874307</v>
+        <v>12.7481740973294</v>
       </c>
       <c r="D65" t="n">
-        <v>16.9848484804613</v>
+        <v>16.9848503229105</v>
       </c>
       <c r="E65" t="n">
-        <v>16.1478183590525</v>
+        <v>16.1478106367852</v>
       </c>
       <c r="F65" t="n">
-        <v>13.6190928119629</v>
+        <v>13.6190847289204</v>
       </c>
       <c r="G65" t="n">
-        <v>16.6912249489099</v>
+        <v>16.6912279035346</v>
       </c>
     </row>
     <row r="66">
@@ -11687,19 +11687,19 @@
         <v>135</v>
       </c>
       <c r="C66" t="n">
-        <v>12.4867830653437</v>
+        <v>12.4867805918517</v>
       </c>
       <c r="D66" t="n">
-        <v>9.81612731901178</v>
+        <v>9.81613718072469</v>
       </c>
       <c r="E66" t="n">
-        <v>21.6755528513538</v>
+        <v>21.6755635236991</v>
       </c>
       <c r="F66" t="n">
-        <v>12.5658719264741</v>
+        <v>12.5658673708458</v>
       </c>
       <c r="G66" t="n">
-        <v>17.8144253689934</v>
+        <v>17.8144466193526</v>
       </c>
     </row>
     <row r="67">
@@ -11710,17 +11710,17 @@
         <v>137</v>
       </c>
       <c r="C67" t="n">
-        <v>13.5931874060845</v>
+        <v>13.5931834883399</v>
       </c>
       <c r="D67" t="n">
-        <v>9.35900120239742</v>
+        <v>9.35899831620724</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="n">
-        <v>7.55496660955063</v>
+        <v>7.55496183056955</v>
       </c>
       <c r="G67" t="n">
-        <v>8.37481641615247</v>
+        <v>8.37481320681182</v>
       </c>
     </row>
     <row r="68">
@@ -11731,16 +11731,16 @@
         <v>139</v>
       </c>
       <c r="C68" t="n">
-        <v>8.85887437802366</v>
+        <v>8.85886308302576</v>
       </c>
       <c r="D68" t="n">
-        <v>9.24368982123262</v>
+        <v>9.24366138407922</v>
       </c>
       <c r="E68" t="n">
-        <v>10.4257190506486</v>
+        <v>10.4257214246793</v>
       </c>
       <c r="F68" t="n">
-        <v>8.41628922348717</v>
+        <v>8.41629922174581</v>
       </c>
       <c r="G68"/>
     </row>
@@ -11752,19 +11752,19 @@
         <v>141</v>
       </c>
       <c r="C69" t="n">
-        <v>12.2385474875984</v>
+        <v>12.2385564240112</v>
       </c>
       <c r="D69" t="n">
-        <v>14.7960199222805</v>
+        <v>14.7960260410696</v>
       </c>
       <c r="E69" t="n">
-        <v>13.4123809845761</v>
+        <v>13.4123867043976</v>
       </c>
       <c r="F69" t="n">
-        <v>12.6777022589984</v>
+        <v>12.6777077406636</v>
       </c>
       <c r="G69" t="n">
-        <v>12.4042207220418</v>
+        <v>12.4042269604104</v>
       </c>
     </row>
     <row r="70">
@@ -11775,19 +11775,19 @@
         <v>143</v>
       </c>
       <c r="C70" t="n">
-        <v>8.34783824689106</v>
+        <v>8.34782949496747</v>
       </c>
       <c r="D70" t="n">
-        <v>10.3891469337367</v>
+        <v>10.3891572140961</v>
       </c>
       <c r="E70" t="n">
-        <v>11.4592167972755</v>
+        <v>11.4592301027255</v>
       </c>
       <c r="F70" t="n">
-        <v>11.9548628685911</v>
+        <v>11.9548730112268</v>
       </c>
       <c r="G70" t="n">
-        <v>11.6832942700755</v>
+        <v>11.6832970099295</v>
       </c>
     </row>
     <row r="71">
@@ -11798,19 +11798,19 @@
         <v>145</v>
       </c>
       <c r="C71" t="n">
-        <v>22.4612518869595</v>
+        <v>22.4612606530281</v>
       </c>
       <c r="D71" t="n">
-        <v>23.4461818812848</v>
+        <v>23.4461613176459</v>
       </c>
       <c r="E71" t="n">
-        <v>27.5578458464963</v>
+        <v>27.5578519245726</v>
       </c>
       <c r="F71" t="n">
-        <v>23.8594255574979</v>
+        <v>23.8594080240003</v>
       </c>
       <c r="G71" t="n">
-        <v>23.7234152703955</v>
+        <v>23.7233956479155</v>
       </c>
     </row>
     <row r="72">
@@ -11821,19 +11821,19 @@
         <v>147</v>
       </c>
       <c r="C72" t="n">
-        <v>13.5743336385563</v>
+        <v>13.5743261226621</v>
       </c>
       <c r="D72" t="n">
-        <v>12.5396090358832</v>
+        <v>12.5396089104498</v>
       </c>
       <c r="E72" t="n">
-        <v>13.3173293491972</v>
+        <v>13.317323225569</v>
       </c>
       <c r="F72" t="n">
-        <v>11.0036909230463</v>
+        <v>11.0036759224022</v>
       </c>
       <c r="G72" t="n">
-        <v>11.3616371821625</v>
+        <v>11.3616306398541</v>
       </c>
     </row>
     <row r="73">
@@ -11844,13 +11844,13 @@
         <v>149</v>
       </c>
       <c r="C73" t="n">
-        <v>15.2143561481048</v>
+        <v>15.2143605792038</v>
       </c>
       <c r="D73" t="n">
-        <v>16.8718169094951</v>
+        <v>16.871821922201</v>
       </c>
       <c r="E73" t="n">
-        <v>17.7946571698424</v>
+        <v>17.7946538107976</v>
       </c>
       <c r="F73"/>
       <c r="G73"/>
@@ -11863,17 +11863,17 @@
         <v>151</v>
       </c>
       <c r="C74" t="n">
-        <v>11.9455522099079</v>
+        <v>11.9455617701446</v>
       </c>
       <c r="D74" t="n">
-        <v>12.0396931819996</v>
+        <v>12.0396835266978</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="n">
-        <v>9.24667126492665</v>
+        <v>9.24667196335913</v>
       </c>
       <c r="G74" t="n">
-        <v>10.1851743180452</v>
+        <v>10.1851748546078</v>
       </c>
     </row>
     <row r="75">
@@ -11884,17 +11884,17 @@
         <v>153</v>
       </c>
       <c r="C75" t="n">
-        <v>13.7817225413982</v>
+        <v>13.7817361078015</v>
       </c>
       <c r="D75" t="n">
-        <v>13.6433002140857</v>
+        <v>13.6433018248536</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="n">
-        <v>13.5615470363353</v>
+        <v>13.5615456687444</v>
       </c>
       <c r="G75" t="n">
-        <v>16.1713513278633</v>
+        <v>16.1713582674173</v>
       </c>
     </row>
     <row r="76">
@@ -11905,19 +11905,19 @@
         <v>155</v>
       </c>
       <c r="C76" t="n">
-        <v>9.741405324959</v>
+        <v>9.74140608450263</v>
       </c>
       <c r="D76" t="n">
-        <v>10.4135982309355</v>
+        <v>10.4135912116067</v>
       </c>
       <c r="E76" t="n">
-        <v>12.3542246937713</v>
+        <v>12.3542296611738</v>
       </c>
       <c r="F76" t="n">
-        <v>10.2911334842107</v>
+        <v>10.2911186361062</v>
       </c>
       <c r="G76" t="n">
-        <v>11.5703864190451</v>
+        <v>11.5703749585835</v>
       </c>
     </row>
     <row r="77">
@@ -11928,17 +11928,17 @@
         <v>157</v>
       </c>
       <c r="C77" t="n">
-        <v>11.0331112632772</v>
+        <v>11.0331078729458</v>
       </c>
       <c r="D77" t="n">
-        <v>11.7251224206898</v>
+        <v>11.7251239091854</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="n">
-        <v>11.8387993253959</v>
+        <v>11.8387895348061</v>
       </c>
       <c r="G77" t="n">
-        <v>11.7052638106877</v>
+        <v>11.7052602915286</v>
       </c>
     </row>
     <row r="78">
@@ -11949,17 +11949,17 @@
         <v>159</v>
       </c>
       <c r="C78" t="n">
-        <v>8.15323752121868</v>
+        <v>8.15323095201882</v>
       </c>
       <c r="D78" t="n">
-        <v>9.00153010447676</v>
+        <v>9.00153526320894</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="n">
-        <v>7.5700427520376</v>
+        <v>7.57004966745058</v>
       </c>
       <c r="G78" t="n">
-        <v>8.26097845508525</v>
+        <v>8.26097067297973</v>
       </c>
     </row>
     <row r="79">
@@ -11970,19 +11970,19 @@
         <v>161</v>
       </c>
       <c r="C79" t="n">
-        <v>7.40717110726916</v>
+        <v>7.40717026529346</v>
       </c>
       <c r="D79" t="n">
-        <v>7.22920122717428</v>
+        <v>7.22918777026352</v>
       </c>
       <c r="E79" t="n">
-        <v>8.8939899558805</v>
+        <v>8.89398423720308</v>
       </c>
       <c r="F79" t="n">
-        <v>7.39328503750826</v>
+        <v>7.39328202846461</v>
       </c>
       <c r="G79" t="n">
-        <v>7.90808351492042</v>
+        <v>7.9080642565719</v>
       </c>
     </row>
     <row r="80">
@@ -11993,19 +11993,19 @@
         <v>163</v>
       </c>
       <c r="C80" t="n">
-        <v>16.9404297930539</v>
+        <v>16.9404255361582</v>
       </c>
       <c r="D80" t="n">
-        <v>17.8930046685168</v>
+        <v>17.8930030920445</v>
       </c>
       <c r="E80" t="n">
-        <v>21.5601288129411</v>
+        <v>21.5641475165708</v>
       </c>
       <c r="F80" t="n">
-        <v>20.7978563272313</v>
+        <v>20.797853855831</v>
       </c>
       <c r="G80" t="n">
-        <v>21.4313174713954</v>
+        <v>21.4313088750265</v>
       </c>
     </row>
     <row r="81">
@@ -12016,13 +12016,13 @@
         <v>165</v>
       </c>
       <c r="C81" t="n">
-        <v>17.8338836189746</v>
+        <v>17.8338917167636</v>
       </c>
       <c r="D81" t="n">
-        <v>13.9934475683356</v>
+        <v>13.9934597596235</v>
       </c>
       <c r="E81" t="n">
-        <v>12.4265007003155</v>
+        <v>12.4265044970694</v>
       </c>
       <c r="F81"/>
       <c r="G81"/>
@@ -12035,19 +12035,19 @@
         <v>167</v>
       </c>
       <c r="C82" t="n">
-        <v>24.4581394485093</v>
+        <v>24.4581325987948</v>
       </c>
       <c r="D82" t="n">
-        <v>26.69935322422</v>
+        <v>26.6993523009872</v>
       </c>
       <c r="E82" t="n">
-        <v>27.3446707404866</v>
+        <v>27.3446589245592</v>
       </c>
       <c r="F82" t="n">
-        <v>23.323784609788</v>
+        <v>23.3237787949737</v>
       </c>
       <c r="G82" t="n">
-        <v>23.3417197695033</v>
+        <v>23.3417025168878</v>
       </c>
     </row>
     <row r="83">
@@ -12058,19 +12058,19 @@
         <v>169</v>
       </c>
       <c r="C83" t="n">
-        <v>13.5135109593592</v>
+        <v>13.5135097742833</v>
       </c>
       <c r="D83" t="n">
-        <v>14.631595538263</v>
+        <v>14.6316161501999</v>
       </c>
       <c r="E83" t="n">
-        <v>14.1928098841946</v>
+        <v>14.1928162094059</v>
       </c>
       <c r="F83" t="n">
-        <v>13.2275487990663</v>
+        <v>13.2275299369175</v>
       </c>
       <c r="G83" t="n">
-        <v>13.6719012178678</v>
+        <v>13.6719099378947</v>
       </c>
     </row>
     <row r="84">
@@ -12081,19 +12081,19 @@
         <v>171</v>
       </c>
       <c r="C84" t="n">
-        <v>14.8529423493393</v>
+        <v>14.8529405254361</v>
       </c>
       <c r="D84" t="n">
-        <v>12.3790972634884</v>
+        <v>12.3790974302411</v>
       </c>
       <c r="E84" t="n">
-        <v>14.1337218365994</v>
+        <v>14.1337183406811</v>
       </c>
       <c r="F84" t="n">
-        <v>12.7268793213597</v>
+        <v>12.7268848451635</v>
       </c>
       <c r="G84" t="n">
-        <v>13.1983728426718</v>
+        <v>13.1983850246327</v>
       </c>
     </row>
     <row r="85">
@@ -12104,15 +12104,15 @@
         <v>173</v>
       </c>
       <c r="C85" t="n">
-        <v>8.38834238159808</v>
+        <v>8.38834214924189</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85" t="n">
-        <v>10.7332394284982</v>
+        <v>10.7332478326049</v>
       </c>
       <c r="G85" t="n">
-        <v>3.05539719027581</v>
+        <v>3.05540424061351</v>
       </c>
     </row>
     <row r="86">
@@ -12123,19 +12123,19 @@
         <v>175</v>
       </c>
       <c r="C86" t="n">
-        <v>18.6660137620779</v>
+        <v>18.6660171152165</v>
       </c>
       <c r="D86" t="n">
-        <v>15.6003837824281</v>
+        <v>15.600395297129</v>
       </c>
       <c r="E86" t="n">
-        <v>15.6385648191451</v>
+        <v>15.6385656847067</v>
       </c>
       <c r="F86" t="n">
-        <v>16.1720481784368</v>
+        <v>16.1720493682032</v>
       </c>
       <c r="G86" t="n">
-        <v>15.5956419228182</v>
+        <v>15.5956617845138</v>
       </c>
     </row>
     <row r="87">
@@ -12146,19 +12146,19 @@
         <v>177</v>
       </c>
       <c r="C87" t="n">
-        <v>14.9969805751819</v>
+        <v>14.9969772284544</v>
       </c>
       <c r="D87" t="n">
-        <v>16.7329384251212</v>
+        <v>16.732948386804</v>
       </c>
       <c r="E87" t="n">
-        <v>15.6482015544985</v>
+        <v>15.6482086612669</v>
       </c>
       <c r="F87" t="n">
-        <v>17.920607289003</v>
+        <v>17.9206099060223</v>
       </c>
       <c r="G87" t="n">
-        <v>17.9966859845141</v>
+        <v>17.9966773881337</v>
       </c>
     </row>
     <row r="88">
@@ -12169,17 +12169,17 @@
         <v>179</v>
       </c>
       <c r="C88" t="n">
-        <v>17.1557562461452</v>
+        <v>17.1557645941934</v>
       </c>
       <c r="D88" t="n">
-        <v>16.5722032133335</v>
+        <v>16.5722050798063</v>
       </c>
       <c r="E88"/>
       <c r="F88" t="n">
-        <v>14.9176348117454</v>
+        <v>14.9176424627498</v>
       </c>
       <c r="G88" t="n">
-        <v>14.7105626181507</v>
+        <v>14.7105585036876</v>
       </c>
     </row>
     <row r="89">
@@ -12190,19 +12190,19 @@
         <v>181</v>
       </c>
       <c r="C89" t="n">
-        <v>5.30839585764368</v>
+        <v>5.30839189831027</v>
       </c>
       <c r="D89" t="n">
-        <v>8.60903079727739</v>
+        <v>8.60901264888547</v>
       </c>
       <c r="E89" t="n">
-        <v>11.0251889974124</v>
+        <v>11.025191114792</v>
       </c>
       <c r="F89" t="n">
-        <v>11.7043329945361</v>
+        <v>11.7043136045255</v>
       </c>
       <c r="G89" t="n">
-        <v>12.2943409963427</v>
+        <v>12.2943311364293</v>
       </c>
     </row>
     <row r="90">
@@ -12213,19 +12213,19 @@
         <v>183</v>
       </c>
       <c r="C90" t="n">
-        <v>11.1184928087217</v>
+        <v>11.1184979504387</v>
       </c>
       <c r="D90" t="n">
-        <v>12.6682429428094</v>
+        <v>12.6682258983072</v>
       </c>
       <c r="E90" t="n">
-        <v>13.9057871715704</v>
+        <v>13.905763762761</v>
       </c>
       <c r="F90" t="n">
-        <v>10.8992772232614</v>
+        <v>10.8992920903459</v>
       </c>
       <c r="G90" t="n">
-        <v>11.0728291600377</v>
+        <v>11.0728394688161</v>
       </c>
     </row>
     <row r="91">
@@ -12236,19 +12236,19 @@
         <v>185</v>
       </c>
       <c r="C91" t="n">
-        <v>29.0103420938298</v>
+        <v>29.0103477879272</v>
       </c>
       <c r="D91" t="n">
-        <v>25.3953906162532</v>
+        <v>25.3954135613402</v>
       </c>
       <c r="E91" t="n">
-        <v>26.4452594962212</v>
+        <v>26.4452301500064</v>
       </c>
       <c r="F91" t="n">
-        <v>21.7128931323869</v>
+        <v>21.7129055622548</v>
       </c>
       <c r="G91" t="n">
-        <v>24.0462748208885</v>
+        <v>24.0463017476271</v>
       </c>
     </row>
     <row r="92">
@@ -12259,19 +12259,19 @@
         <v>187</v>
       </c>
       <c r="C92" t="n">
-        <v>18.9750037033032</v>
+        <v>18.9750024023722</v>
       </c>
       <c r="D92" t="n">
-        <v>12.279368080981</v>
+        <v>12.2793695886241</v>
       </c>
       <c r="E92" t="n">
-        <v>14.9873813984016</v>
+        <v>14.9873795640973</v>
       </c>
       <c r="F92" t="n">
-        <v>14.9873850065103</v>
+        <v>14.9873795640972</v>
       </c>
       <c r="G92" t="n">
-        <v>15.0365301446985</v>
+        <v>15.0365322141107</v>
       </c>
     </row>
     <row r="93">
@@ -12282,19 +12282,19 @@
         <v>189</v>
       </c>
       <c r="C93" t="n">
-        <v>14.9616907284462</v>
+        <v>14.9616870096862</v>
       </c>
       <c r="D93" t="n">
-        <v>13.5102383937113</v>
+        <v>13.5102338276122</v>
       </c>
       <c r="E93" t="n">
-        <v>15.1781009833965</v>
+        <v>15.178108083668</v>
       </c>
       <c r="F93" t="n">
-        <v>14.476133606739</v>
+        <v>14.4761382015575</v>
       </c>
       <c r="G93" t="n">
-        <v>14.5702773093647</v>
+        <v>14.5702849322948</v>
       </c>
     </row>
     <row r="94">
@@ -12305,19 +12305,19 @@
         <v>191</v>
       </c>
       <c r="C94" t="n">
-        <v>9.93662379496208</v>
+        <v>9.93663204082215</v>
       </c>
       <c r="D94" t="n">
-        <v>14.366849541534</v>
+        <v>14.3668656035695</v>
       </c>
       <c r="E94" t="n">
-        <v>19.1390977443609</v>
+        <v>19.139068420494</v>
       </c>
       <c r="F94" t="n">
-        <v>18.8832843027552</v>
+        <v>18.8833016041518</v>
       </c>
       <c r="G94" t="n">
-        <v>19.4185671566095</v>
+        <v>19.4185625293497</v>
       </c>
     </row>
     <row r="95">
@@ -12328,15 +12328,15 @@
         <v>193</v>
       </c>
       <c r="C95" t="n">
-        <v>14.876546567953</v>
+        <v>14.8765406972868</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95" t="n">
-        <v>13.557079044609</v>
+        <v>13.5570773892402</v>
       </c>
       <c r="G95" t="n">
-        <v>13.5547381121451</v>
+        <v>13.5547496597441</v>
       </c>
     </row>
     <row r="96">
@@ -12347,17 +12347,17 @@
         <v>195</v>
       </c>
       <c r="C96" t="n">
-        <v>17.3075594861023</v>
+        <v>17.3075399328412</v>
       </c>
       <c r="D96"/>
       <c r="E96" t="n">
-        <v>9.24095922506809</v>
+        <v>9.24095988920119</v>
       </c>
       <c r="F96" t="n">
-        <v>16.2327786200598</v>
+        <v>16.232767725107</v>
       </c>
       <c r="G96" t="n">
-        <v>18.9792472376964</v>
+        <v>18.9792637771467</v>
       </c>
     </row>
     <row r="97">
@@ -12368,19 +12368,19 @@
         <v>197</v>
       </c>
       <c r="C97" t="n">
-        <v>17.4292879220855</v>
+        <v>17.4292777192243</v>
       </c>
       <c r="D97" t="n">
-        <v>17.1048464586583</v>
+        <v>17.1048621882015</v>
       </c>
       <c r="E97" t="n">
-        <v>21.8449606194327</v>
+        <v>21.8449647904367</v>
       </c>
       <c r="F97" t="n">
-        <v>17.1398419711157</v>
+        <v>17.1398285280993</v>
       </c>
       <c r="G97" t="n">
-        <v>16.8888356735299</v>
+        <v>16.8888151673168</v>
       </c>
     </row>
     <row r="98">
@@ -12391,19 +12391,19 @@
         <v>199</v>
       </c>
       <c r="C98" t="n">
-        <v>11.9892110295567</v>
+        <v>11.9892042528621</v>
       </c>
       <c r="D98" t="n">
-        <v>9.42962582732918</v>
+        <v>9.4296238021523</v>
       </c>
       <c r="E98" t="n">
-        <v>11.4067744089093</v>
+        <v>11.4048519113855</v>
       </c>
       <c r="F98" t="n">
-        <v>13.3251457693653</v>
+        <v>13.3251308190859</v>
       </c>
       <c r="G98" t="n">
-        <v>12.2713143243301</v>
+        <v>12.2713193774718</v>
       </c>
     </row>
     <row r="99">
@@ -12414,19 +12414,19 @@
         <v>201</v>
       </c>
       <c r="C99" t="n">
-        <v>13.0707310093052</v>
+        <v>13.0707300870806</v>
       </c>
       <c r="D99" t="n">
-        <v>12.5673903988984</v>
+        <v>12.567387526754</v>
       </c>
       <c r="E99" t="n">
-        <v>14.5498512040185</v>
+        <v>14.549852998677</v>
       </c>
       <c r="F99" t="n">
-        <v>17.2699535627344</v>
+        <v>17.269953490016</v>
       </c>
       <c r="G99" t="n">
-        <v>17.5835694221699</v>
+        <v>17.5835653931462</v>
       </c>
     </row>
     <row r="100">
@@ -12437,19 +12437,19 @@
         <v>203</v>
       </c>
       <c r="C100" t="n">
-        <v>16.7735521641693</v>
+        <v>16.7735551437623</v>
       </c>
       <c r="D100" t="n">
-        <v>15.0842045310705</v>
+        <v>15.0842185432727</v>
       </c>
       <c r="E100" t="n">
-        <v>16.7933557494931</v>
+        <v>16.7933484511783</v>
       </c>
       <c r="F100" t="n">
-        <v>15.750319990958</v>
+        <v>15.7503093526125</v>
       </c>
       <c r="G100" t="n">
-        <v>16.4667725293354</v>
+        <v>16.4667752369946</v>
       </c>
     </row>
     <row r="101">
@@ -12460,19 +12460,19 @@
         <v>205</v>
       </c>
       <c r="C101" t="n">
-        <v>17.0512137450801</v>
+        <v>17.0512112990485</v>
       </c>
       <c r="D101" t="n">
-        <v>18.7951034700439</v>
+        <v>18.7951029908148</v>
       </c>
       <c r="E101" t="n">
-        <v>18.2557701135866</v>
+        <v>18.2557681473196</v>
       </c>
       <c r="F101" t="n">
-        <v>18.8308424587786</v>
+        <v>18.8308499250178</v>
       </c>
       <c r="G101" t="n">
-        <v>19.2868732498868</v>
+        <v>19.2868706743199</v>
       </c>
     </row>
     <row r="102">
@@ -12483,19 +12483,19 @@
         <v>207</v>
       </c>
       <c r="C102" t="n">
-        <v>8.14503529401746</v>
+        <v>8.14504902395534</v>
       </c>
       <c r="D102" t="n">
-        <v>8.76864819792408</v>
+        <v>8.76868731409784</v>
       </c>
       <c r="E102" t="n">
-        <v>11.0808773857486</v>
+        <v>11.0808553760017</v>
       </c>
       <c r="F102" t="n">
-        <v>9.94855387644411</v>
+        <v>9.94853367185894</v>
       </c>
       <c r="G102" t="n">
-        <v>10.3461538461538</v>
+        <v>10.3461533860562</v>
       </c>
     </row>
     <row r="103">
@@ -12506,17 +12506,17 @@
         <v>209</v>
       </c>
       <c r="C103" t="n">
-        <v>15.0086635705758</v>
+        <v>15.0086674413806</v>
       </c>
       <c r="D103" t="n">
-        <v>16.4867357645375</v>
+        <v>16.4867291346585</v>
       </c>
       <c r="E103"/>
       <c r="F103" t="n">
-        <v>14.0201282438352</v>
+        <v>14.0201316564463</v>
       </c>
       <c r="G103" t="n">
-        <v>14.2416496199476</v>
+        <v>14.241638705698</v>
       </c>
     </row>
     <row r="104">
@@ -12527,19 +12527,19 @@
         <v>211</v>
       </c>
       <c r="C104" t="n">
-        <v>9.58645779222715</v>
+        <v>9.58645355625238</v>
       </c>
       <c r="D104" t="n">
-        <v>11.7544323521788</v>
+        <v>11.754424740197</v>
       </c>
       <c r="E104" t="n">
-        <v>13.9663538335932</v>
+        <v>13.9663616139185</v>
       </c>
       <c r="F104" t="n">
-        <v>12.287105923412</v>
+        <v>12.2871009613129</v>
       </c>
       <c r="G104" t="n">
-        <v>12.5361112145605</v>
+        <v>12.5361209647074</v>
       </c>
     </row>
     <row r="105">
@@ -12550,17 +12550,17 @@
         <v>213</v>
       </c>
       <c r="C105" t="n">
-        <v>12.0978646999015</v>
+        <v>12.0978676696099</v>
       </c>
       <c r="D105" t="n">
-        <v>11.6011927334103</v>
+        <v>11.6011857494973</v>
       </c>
       <c r="E105"/>
       <c r="F105" t="n">
-        <v>12.3012504702844</v>
+        <v>12.3012471993025</v>
       </c>
       <c r="G105" t="n">
-        <v>12.3365042760913</v>
+        <v>12.3365102483874</v>
       </c>
     </row>
     <row r="106">
@@ -12571,19 +12571,19 @@
         <v>215</v>
       </c>
       <c r="C106" t="n">
-        <v>13.2157181284342</v>
+        <v>13.2157174630613</v>
       </c>
       <c r="D106" t="n">
-        <v>14.7556921153354</v>
+        <v>14.7556900747179</v>
       </c>
       <c r="E106" t="n">
-        <v>16.8507819184831</v>
+        <v>16.85079911164</v>
       </c>
       <c r="F106" t="n">
-        <v>13.3626568725695</v>
+        <v>13.3626705860841</v>
       </c>
       <c r="G106" t="n">
-        <v>13.9869143737389</v>
+        <v>13.9869096532251</v>
       </c>
     </row>
     <row r="107">
@@ -12594,19 +12594,19 @@
         <v>217</v>
       </c>
       <c r="C107" t="n">
-        <v>9.03627379577873</v>
+        <v>9.03627252283517</v>
       </c>
       <c r="D107" t="n">
-        <v>8.21096120373561</v>
+        <v>8.21096245301199</v>
       </c>
       <c r="E107" t="n">
-        <v>9.19012510142045</v>
+        <v>9.19012358329646</v>
       </c>
       <c r="F107" t="n">
-        <v>7.85130913032012</v>
+        <v>7.85130696710074</v>
       </c>
       <c r="G107" t="n">
-        <v>7.86223570297468</v>
+        <v>7.86223479756033</v>
       </c>
     </row>
     <row r="108">
@@ -12617,19 +12617,19 @@
         <v>219</v>
       </c>
       <c r="C108" t="n">
-        <v>11.2548346354265</v>
+        <v>11.2548437443098</v>
       </c>
       <c r="D108" t="n">
-        <v>12.4109010232829</v>
+        <v>12.4108952849851</v>
       </c>
       <c r="E108" t="n">
-        <v>12.0026328926036</v>
+        <v>12.0026429348298</v>
       </c>
       <c r="F108" t="n">
-        <v>8.95037043222483</v>
+        <v>8.95037748372534</v>
       </c>
       <c r="G108" t="n">
-        <v>9.32584589917925</v>
+        <v>9.32584100322198</v>
       </c>
     </row>
     <row r="109">
@@ -12640,19 +12640,19 @@
         <v>221</v>
       </c>
       <c r="C109" t="n">
-        <v>13.2798860589629</v>
+        <v>13.2798804843718</v>
       </c>
       <c r="D109" t="n">
-        <v>16.5305732903249</v>
+        <v>16.5305775590853</v>
       </c>
       <c r="E109" t="n">
-        <v>15.2676387709402</v>
+        <v>15.2676375907738</v>
       </c>
       <c r="F109" t="n">
-        <v>12.6330992746439</v>
+        <v>12.6330922560453</v>
       </c>
       <c r="G109" t="n">
-        <v>12.3439542101761</v>
+        <v>12.3439501989757</v>
       </c>
     </row>
     <row r="110">
@@ -12663,19 +12663,19 @@
         <v>223</v>
       </c>
       <c r="C110" t="n">
-        <v>10.962768059855</v>
+        <v>10.9627674452003</v>
       </c>
       <c r="D110" t="n">
-        <v>12.4575129639058</v>
+        <v>12.457509071347</v>
       </c>
       <c r="E110" t="n">
-        <v>12.4694777790261</v>
+        <v>12.4694801461711</v>
       </c>
       <c r="F110" t="n">
-        <v>11.0889770001388</v>
+        <v>11.0889737028896</v>
       </c>
       <c r="G110" t="n">
-        <v>11.2283833033505</v>
+        <v>11.2283767845868</v>
       </c>
     </row>
     <row r="111">
@@ -12686,19 +12686,19 @@
         <v>225</v>
       </c>
       <c r="C111" t="n">
-        <v>14.7996950232129</v>
+        <v>14.7997030537046</v>
       </c>
       <c r="D111" t="n">
-        <v>18.0197099630206</v>
+        <v>18.019707570615</v>
       </c>
       <c r="E111" t="n">
-        <v>17.7257130381162</v>
+        <v>17.7257110112121</v>
       </c>
       <c r="F111" t="n">
-        <v>17.0394237586775</v>
+        <v>17.0394131151797</v>
       </c>
       <c r="G111" t="n">
-        <v>19.3835507357356</v>
+        <v>19.3835648697832</v>
       </c>
     </row>
     <row r="112">
@@ -12710,16 +12710,16 @@
       </c>
       <c r="C112"/>
       <c r="D112" t="n">
-        <v>11.3072577194022</v>
+        <v>11.3072649099337</v>
       </c>
       <c r="E112" t="n">
-        <v>16.0331489896596</v>
+        <v>16.0331423852696</v>
       </c>
       <c r="F112" t="n">
-        <v>17.343040432001</v>
+        <v>17.343029339958</v>
       </c>
       <c r="G112" t="n">
-        <v>16.2265929590742</v>
+        <v>16.2266028899259</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-health-percent/uganda-health-percent.xlsx
+++ b/user-data/uganda-health-percent/uganda-health-percent.xlsx
@@ -724,7 +724,7 @@
     <t>Units of measure: percent</t>
   </si>
   <si>
-    <t>Source: Local Government Budgets - Ministry of Finance, Planning and Economic Development</t>
+    <t>Source: Local government budgets â€“ Ministry of Finance, Planning and Economic Development</t>
   </si>
   <si>
     <t>Source-link: http://www.budget.go.ug/</t>

--- a/user-data/uganda-health-percent/uganda-health-percent.xlsx
+++ b/user-data/uganda-health-percent/uganda-health-percent.xlsx
@@ -1213,7 +1213,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>20.8236043881387</v>
+        <v>20.8236043881</v>
       </c>
     </row>
     <row r="3">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>20.3785568091683</v>
+        <v>20.3785568092</v>
       </c>
     </row>
     <row r="4">
@@ -1247,7 +1247,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>20.8070078020248</v>
+        <v>20.807007802</v>
       </c>
     </row>
     <row r="5">
@@ -1264,7 +1264,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>22.8393627529595</v>
+        <v>22.839362753</v>
       </c>
     </row>
     <row r="6">
@@ -1281,7 +1281,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>26.0251710469218</v>
+        <v>26.0251710469</v>
       </c>
     </row>
     <row r="7">
@@ -1298,7 +1298,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>22.3852289293728</v>
+        <v>22.3852289294</v>
       </c>
     </row>
     <row r="8">
@@ -1315,7 +1315,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>29.5599234468198</v>
+        <v>29.5599234468</v>
       </c>
     </row>
     <row r="9">
@@ -1332,7 +1332,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>25.4034385945596</v>
+        <v>25.4034385946</v>
       </c>
     </row>
     <row r="10">
@@ -1349,7 +1349,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>32.2830180008751</v>
+        <v>32.2830180009</v>
       </c>
     </row>
     <row r="11">
@@ -1366,7 +1366,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>33.3576212765979</v>
+        <v>33.3576212766</v>
       </c>
     </row>
     <row r="12">
@@ -1383,7 +1383,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>16.9927470048244</v>
+        <v>16.9927470048</v>
       </c>
     </row>
     <row r="13">
@@ -1400,7 +1400,7 @@
         <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>19.4916192147557</v>
+        <v>19.4916192148</v>
       </c>
     </row>
     <row r="14">
@@ -1417,7 +1417,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>19.3345223927634</v>
+        <v>19.3345223928</v>
       </c>
     </row>
     <row r="15">
@@ -1434,7 +1434,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>19.2415745948154</v>
+        <v>19.2415745948</v>
       </c>
     </row>
     <row r="16">
@@ -1451,7 +1451,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>13.500187491523</v>
+        <v>13.5001874915</v>
       </c>
     </row>
     <row r="17">
@@ -1468,7 +1468,7 @@
         <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>14.688828048516</v>
+        <v>14.6888280485</v>
       </c>
     </row>
     <row r="18">
@@ -1485,7 +1485,7 @@
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>14.1137514451931</v>
+        <v>14.1137514452</v>
       </c>
     </row>
     <row r="19">
@@ -1502,7 +1502,7 @@
         <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>11.5188828383766</v>
+        <v>11.5188828384</v>
       </c>
     </row>
     <row r="20">
@@ -1519,7 +1519,7 @@
         <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>13.5581202054816</v>
+        <v>13.5581202055</v>
       </c>
     </row>
     <row r="21">
@@ -1536,7 +1536,7 @@
         <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>12.9565988874524</v>
+        <v>12.9565988875</v>
       </c>
     </row>
     <row r="22">
@@ -1553,7 +1553,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>14.5959916311596</v>
+        <v>14.5959916312</v>
       </c>
     </row>
     <row r="23">
@@ -1570,7 +1570,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>13.0521513895459</v>
+        <v>13.0521513895</v>
       </c>
     </row>
     <row r="24">
@@ -1587,7 +1587,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>13.8804398621244</v>
+        <v>13.8804398621</v>
       </c>
     </row>
     <row r="25">
@@ -1604,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>14.1709623289287</v>
+        <v>14.1709623289</v>
       </c>
     </row>
     <row r="26">
@@ -1621,7 +1621,7 @@
         <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>14.7780806752883</v>
+        <v>14.7780806753</v>
       </c>
     </row>
     <row r="27">
@@ -1638,7 +1638,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>19.5709829816457</v>
+        <v>19.5709829816</v>
       </c>
     </row>
     <row r="28">
@@ -1655,7 +1655,7 @@
         <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>19.059518106791</v>
+        <v>19.0595181068</v>
       </c>
     </row>
     <row r="29">
@@ -1672,7 +1672,7 @@
         <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>19.8037197869036</v>
+        <v>19.8037197869</v>
       </c>
     </row>
     <row r="30">
@@ -1689,7 +1689,7 @@
         <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>13.7048331249806</v>
+        <v>13.704833125</v>
       </c>
     </row>
     <row r="31">
@@ -1706,7 +1706,7 @@
         <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>15.4934044981666</v>
+        <v>15.4934044982</v>
       </c>
     </row>
     <row r="32">
@@ -1723,7 +1723,7 @@
         <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>14.9075016256188</v>
+        <v>14.9075016256</v>
       </c>
     </row>
     <row r="33">
@@ -1740,7 +1740,7 @@
         <v>7</v>
       </c>
       <c r="E33" t="n">
-        <v>14.861401751574</v>
+        <v>14.8614017516</v>
       </c>
     </row>
     <row r="34">
@@ -1757,7 +1757,7 @@
         <v>7</v>
       </c>
       <c r="E34" t="n">
-        <v>15.0724736040008</v>
+        <v>15.072473604</v>
       </c>
     </row>
     <row r="35">
@@ -1774,7 +1774,7 @@
         <v>7</v>
       </c>
       <c r="E35" t="n">
-        <v>13.5536475349064</v>
+        <v>13.5536475349</v>
       </c>
     </row>
     <row r="36">
@@ -1791,7 +1791,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="n">
-        <v>14.5970277562327</v>
+        <v>14.5970277562</v>
       </c>
     </row>
     <row r="37">
@@ -1808,7 +1808,7 @@
         <v>7</v>
       </c>
       <c r="E37" t="n">
-        <v>16.1803329657692</v>
+        <v>16.1803329658</v>
       </c>
     </row>
     <row r="38">
@@ -1825,7 +1825,7 @@
         <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>18.8070098172495</v>
+        <v>18.8070098172</v>
       </c>
     </row>
     <row r="39">
@@ -1842,7 +1842,7 @@
         <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>15.6625019788522</v>
+        <v>15.6625019789</v>
       </c>
     </row>
     <row r="40">
@@ -1859,7 +1859,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>14.5249812212694</v>
+        <v>14.5249812213</v>
       </c>
     </row>
     <row r="41">
@@ -1876,7 +1876,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>14.7782978296164</v>
+        <v>14.7782978296</v>
       </c>
     </row>
     <row r="42">
@@ -1893,7 +1893,7 @@
         <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>17.3186091780589</v>
+        <v>17.3186091781</v>
       </c>
     </row>
     <row r="43">
@@ -1910,7 +1910,7 @@
         <v>7</v>
       </c>
       <c r="E43" t="n">
-        <v>17.9262502560773</v>
+        <v>17.9262502561</v>
       </c>
     </row>
     <row r="44">
@@ -1927,7 +1927,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>11.7725506825703</v>
+        <v>11.7725506826</v>
       </c>
     </row>
     <row r="45">
@@ -1944,7 +1944,7 @@
         <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>10.0415310441762</v>
+        <v>10.0415310442</v>
       </c>
     </row>
     <row r="46">
@@ -1961,7 +1961,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>9.28570198639965</v>
+        <v>9.2857019864</v>
       </c>
     </row>
     <row r="47">
@@ -1978,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="E47" t="n">
-        <v>10.6814431493391</v>
+        <v>10.6814431493</v>
       </c>
     </row>
     <row r="48">
@@ -1995,7 +1995,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>11.0488791969974</v>
+        <v>11.048879197</v>
       </c>
     </row>
     <row r="49">
@@ -2012,7 +2012,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>10.424662320561</v>
+        <v>10.4246623206</v>
       </c>
     </row>
     <row r="50">
@@ -2029,7 +2029,7 @@
         <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>14.4932496224498</v>
+        <v>14.4932496224</v>
       </c>
     </row>
     <row r="51">
@@ -2046,7 +2046,7 @@
         <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>14.4351216984462</v>
+        <v>14.4351216984</v>
       </c>
     </row>
     <row r="52">
@@ -2063,7 +2063,7 @@
         <v>7</v>
       </c>
       <c r="E52" t="n">
-        <v>12.3427861749707</v>
+        <v>12.342786175</v>
       </c>
     </row>
     <row r="53">
@@ -2080,7 +2080,7 @@
         <v>7</v>
       </c>
       <c r="E53" t="n">
-        <v>12.9586508543042</v>
+        <v>12.9586508543</v>
       </c>
     </row>
     <row r="54">
@@ -2097,7 +2097,7 @@
         <v>7</v>
       </c>
       <c r="E54" t="n">
-        <v>11.2917982944291</v>
+        <v>11.2917982944</v>
       </c>
     </row>
     <row r="55">
@@ -2114,7 +2114,7 @@
         <v>7</v>
       </c>
       <c r="E55" t="n">
-        <v>14.5545271433091</v>
+        <v>14.5545271433</v>
       </c>
     </row>
     <row r="56">
@@ -2131,7 +2131,7 @@
         <v>7</v>
       </c>
       <c r="E56" t="n">
-        <v>15.6654992323394</v>
+        <v>15.6654992323</v>
       </c>
     </row>
     <row r="57">
@@ -2148,7 +2148,7 @@
         <v>7</v>
       </c>
       <c r="E57" t="n">
-        <v>17.469259992067</v>
+        <v>17.4692599921</v>
       </c>
     </row>
     <row r="58">
@@ -2165,7 +2165,7 @@
         <v>7</v>
       </c>
       <c r="E58" t="n">
-        <v>17.2722444469249</v>
+        <v>17.2722444469</v>
       </c>
     </row>
     <row r="59">
@@ -2182,7 +2182,7 @@
         <v>7</v>
       </c>
       <c r="E59" t="n">
-        <v>10.9697764013423</v>
+        <v>10.9697764013</v>
       </c>
     </row>
     <row r="60">
@@ -2199,7 +2199,7 @@
         <v>7</v>
       </c>
       <c r="E60" t="n">
-        <v>13.207210772274</v>
+        <v>13.2072107723</v>
       </c>
     </row>
     <row r="61">
@@ -2216,7 +2216,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>14.0831898385463</v>
+        <v>14.0831898385</v>
       </c>
     </row>
     <row r="62">
@@ -2233,7 +2233,7 @@
         <v>7</v>
       </c>
       <c r="E62" t="n">
-        <v>12.904210649942</v>
+        <v>12.9042106499</v>
       </c>
     </row>
     <row r="63">
@@ -2250,7 +2250,7 @@
         <v>7</v>
       </c>
       <c r="E63" t="n">
-        <v>15.8484969473438</v>
+        <v>15.8484969473</v>
       </c>
     </row>
     <row r="64">
@@ -2267,7 +2267,7 @@
         <v>7</v>
       </c>
       <c r="E64" t="n">
-        <v>11.2638065468996</v>
+        <v>11.2638065469</v>
       </c>
     </row>
     <row r="65">
@@ -2284,7 +2284,7 @@
         <v>7</v>
       </c>
       <c r="E65" t="n">
-        <v>11.6433467307362</v>
+        <v>11.6433467307</v>
       </c>
     </row>
     <row r="66">
@@ -2301,7 +2301,7 @@
         <v>7</v>
       </c>
       <c r="E66" t="n">
-        <v>11.5025785053643</v>
+        <v>11.5025785054</v>
       </c>
     </row>
     <row r="67">
@@ -2318,7 +2318,7 @@
         <v>7</v>
       </c>
       <c r="E67" t="n">
-        <v>10.7887460008189</v>
+        <v>10.7887460008</v>
       </c>
     </row>
     <row r="68">
@@ -2335,7 +2335,7 @@
         <v>7</v>
       </c>
       <c r="E68" t="n">
-        <v>11.3472399812047</v>
+        <v>11.3472399812</v>
       </c>
     </row>
     <row r="69">
@@ -2352,7 +2352,7 @@
         <v>7</v>
       </c>
       <c r="E69" t="n">
-        <v>10.7127334956716</v>
+        <v>10.7127334957</v>
       </c>
     </row>
     <row r="70">
@@ -2369,7 +2369,7 @@
         <v>7</v>
       </c>
       <c r="E70" t="n">
-        <v>16.3767815842183</v>
+        <v>16.3767815842</v>
       </c>
     </row>
     <row r="71">
@@ -2386,7 +2386,7 @@
         <v>7</v>
       </c>
       <c r="E71" t="n">
-        <v>15.3917095498204</v>
+        <v>15.3917095498</v>
       </c>
     </row>
     <row r="72">
@@ -2403,7 +2403,7 @@
         <v>7</v>
       </c>
       <c r="E72" t="n">
-        <v>14.5595852095555</v>
+        <v>14.5595852096</v>
       </c>
     </row>
     <row r="73">
@@ -2420,7 +2420,7 @@
         <v>7</v>
       </c>
       <c r="E73" t="n">
-        <v>14.9081738640337</v>
+        <v>14.908173864</v>
       </c>
     </row>
     <row r="74">
@@ -2437,7 +2437,7 @@
         <v>7</v>
       </c>
       <c r="E74" t="n">
-        <v>9.88553439706208</v>
+        <v>9.8855343971</v>
       </c>
     </row>
     <row r="75">
@@ -2454,7 +2454,7 @@
         <v>7</v>
       </c>
       <c r="E75" t="n">
-        <v>10.0837470440013</v>
+        <v>10.083747044</v>
       </c>
     </row>
     <row r="76">
@@ -2471,7 +2471,7 @@
         <v>7</v>
       </c>
       <c r="E76" t="n">
-        <v>9.39242343089693</v>
+        <v>9.3924234309</v>
       </c>
     </row>
     <row r="77">
@@ -2488,7 +2488,7 @@
         <v>7</v>
       </c>
       <c r="E77" t="n">
-        <v>8.77691427101447</v>
+        <v>8.776914271</v>
       </c>
     </row>
     <row r="78">
@@ -2505,7 +2505,7 @@
         <v>7</v>
       </c>
       <c r="E78" t="n">
-        <v>10.3911245584333</v>
+        <v>10.3911245584</v>
       </c>
     </row>
     <row r="79">
@@ -2522,7 +2522,7 @@
         <v>7</v>
       </c>
       <c r="E79" t="n">
-        <v>7.66894553587313</v>
+        <v>7.6689455359</v>
       </c>
     </row>
     <row r="80">
@@ -2539,7 +2539,7 @@
         <v>7</v>
       </c>
       <c r="E80" t="n">
-        <v>8.55799905530023</v>
+        <v>8.5579990553</v>
       </c>
     </row>
     <row r="81">
@@ -2556,7 +2556,7 @@
         <v>7</v>
       </c>
       <c r="E81" t="n">
-        <v>13.0615850791359</v>
+        <v>13.0615850791</v>
       </c>
     </row>
     <row r="82">
@@ -2573,7 +2573,7 @@
         <v>7</v>
       </c>
       <c r="E82" t="n">
-        <v>12.7050930427974</v>
+        <v>12.7050930428</v>
       </c>
     </row>
     <row r="83">
@@ -2590,7 +2590,7 @@
         <v>7</v>
       </c>
       <c r="E83" t="n">
-        <v>13.0695519453711</v>
+        <v>13.0695519454</v>
       </c>
     </row>
     <row r="84">
@@ -2607,7 +2607,7 @@
         <v>7</v>
       </c>
       <c r="E84" t="n">
-        <v>13.1004362887909</v>
+        <v>13.1004362888</v>
       </c>
     </row>
     <row r="85">
@@ -2624,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="E85" t="n">
-        <v>21.206825689398</v>
+        <v>21.2068256894</v>
       </c>
     </row>
     <row r="86">
@@ -2641,7 +2641,7 @@
         <v>7</v>
       </c>
       <c r="E86" t="n">
-        <v>18.5390589742541</v>
+        <v>18.5390589743</v>
       </c>
     </row>
     <row r="87">
@@ -2658,7 +2658,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>18.5543368709624</v>
+        <v>18.554336871</v>
       </c>
     </row>
     <row r="88">
@@ -2675,7 +2675,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>10.7113921281458</v>
+        <v>10.7113921281</v>
       </c>
     </row>
     <row r="89">
@@ -2692,7 +2692,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>10.1125160441914</v>
+        <v>10.1125160442</v>
       </c>
     </row>
     <row r="90">
@@ -2709,7 +2709,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>14.2281715283487</v>
+        <v>14.2281715283</v>
       </c>
     </row>
     <row r="91">
@@ -2726,7 +2726,7 @@
         <v>7</v>
       </c>
       <c r="E91" t="n">
-        <v>15.1711257164988</v>
+        <v>15.1711257165</v>
       </c>
     </row>
     <row r="92">
@@ -2743,7 +2743,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>17.4462671658102</v>
+        <v>17.4462671658</v>
       </c>
     </row>
     <row r="93">
@@ -2760,7 +2760,7 @@
         <v>7</v>
       </c>
       <c r="E93" t="n">
-        <v>10.1534823047714</v>
+        <v>10.1534823048</v>
       </c>
     </row>
     <row r="94">
@@ -2777,7 +2777,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>9.51564092620514</v>
+        <v>9.5156409262</v>
       </c>
     </row>
     <row r="95">
@@ -2794,7 +2794,7 @@
         <v>7</v>
       </c>
       <c r="E95" t="n">
-        <v>10.6980926332738</v>
+        <v>10.6980926333</v>
       </c>
     </row>
     <row r="96">
@@ -2811,7 +2811,7 @@
         <v>7</v>
       </c>
       <c r="E96" t="n">
-        <v>16.18196719177</v>
+        <v>16.1819671918</v>
       </c>
     </row>
     <row r="97">
@@ -2828,7 +2828,7 @@
         <v>7</v>
       </c>
       <c r="E97" t="n">
-        <v>19.7984604736853</v>
+        <v>19.7984604737</v>
       </c>
     </row>
     <row r="98">
@@ -2845,7 +2845,7 @@
         <v>7</v>
       </c>
       <c r="E98" t="n">
-        <v>18.7051753995574</v>
+        <v>18.7051753996</v>
       </c>
     </row>
     <row r="99">
@@ -2862,7 +2862,7 @@
         <v>7</v>
       </c>
       <c r="E99" t="n">
-        <v>24.6513322517205</v>
+        <v>24.6513322517</v>
       </c>
     </row>
     <row r="100">
@@ -2879,7 +2879,7 @@
         <v>7</v>
       </c>
       <c r="E100" t="n">
-        <v>22.6889876255371</v>
+        <v>22.6889876255</v>
       </c>
     </row>
     <row r="101">
@@ -2896,7 +2896,7 @@
         <v>7</v>
       </c>
       <c r="E101" t="n">
-        <v>20.2498226266635</v>
+        <v>20.2498226267</v>
       </c>
     </row>
     <row r="102">
@@ -2913,7 +2913,7 @@
         <v>7</v>
       </c>
       <c r="E102" t="n">
-        <v>21.3619192523769</v>
+        <v>21.3619192524</v>
       </c>
     </row>
     <row r="103">
@@ -2930,7 +2930,7 @@
         <v>7</v>
       </c>
       <c r="E103" t="n">
-        <v>13.2873137110243</v>
+        <v>13.287313711</v>
       </c>
     </row>
     <row r="104">
@@ -2947,7 +2947,7 @@
         <v>7</v>
       </c>
       <c r="E104" t="n">
-        <v>13.3618493107873</v>
+        <v>13.3618493108</v>
       </c>
     </row>
     <row r="105">
@@ -2964,7 +2964,7 @@
         <v>7</v>
       </c>
       <c r="E105" t="n">
-        <v>20.0511776170199</v>
+        <v>20.051177617</v>
       </c>
     </row>
     <row r="106">
@@ -2981,7 +2981,7 @@
         <v>7</v>
       </c>
       <c r="E106" t="n">
-        <v>14.6985451401509</v>
+        <v>14.6985451402</v>
       </c>
     </row>
     <row r="107">
@@ -2998,7 +2998,7 @@
         <v>7</v>
       </c>
       <c r="E107" t="n">
-        <v>14.335785940526</v>
+        <v>14.3357859405</v>
       </c>
     </row>
     <row r="108">
@@ -3015,7 +3015,7 @@
         <v>7</v>
       </c>
       <c r="E108" t="n">
-        <v>10.3058611582057</v>
+        <v>10.3058611582</v>
       </c>
     </row>
     <row r="109">
@@ -3032,7 +3032,7 @@
         <v>7</v>
       </c>
       <c r="E109" t="n">
-        <v>9.57085526967376</v>
+        <v>9.5708552697</v>
       </c>
     </row>
     <row r="110">
@@ -3049,7 +3049,7 @@
         <v>7</v>
       </c>
       <c r="E110" t="n">
-        <v>8.74254638274821</v>
+        <v>8.7425463827</v>
       </c>
     </row>
     <row r="111">
@@ -3066,7 +3066,7 @@
         <v>7</v>
       </c>
       <c r="E111" t="n">
-        <v>8.35047047343883</v>
+        <v>8.3504704734</v>
       </c>
     </row>
     <row r="112">
@@ -3083,7 +3083,7 @@
         <v>7</v>
       </c>
       <c r="E112" t="n">
-        <v>9.72756855445081</v>
+        <v>9.7275685545</v>
       </c>
     </row>
     <row r="113">
@@ -3100,7 +3100,7 @@
         <v>7</v>
       </c>
       <c r="E113" t="n">
-        <v>18.5283626190425</v>
+        <v>18.528362619</v>
       </c>
     </row>
     <row r="114">
@@ -3117,7 +3117,7 @@
         <v>7</v>
       </c>
       <c r="E114" t="n">
-        <v>14.8164639388583</v>
+        <v>14.8164639389</v>
       </c>
     </row>
     <row r="115">
@@ -3134,7 +3134,7 @@
         <v>7</v>
       </c>
       <c r="E115" t="n">
-        <v>15.7166903688392</v>
+        <v>15.7166903688</v>
       </c>
     </row>
     <row r="116">
@@ -3151,7 +3151,7 @@
         <v>7</v>
       </c>
       <c r="E116" t="n">
-        <v>14.4081580544364</v>
+        <v>14.4081580544</v>
       </c>
     </row>
     <row r="117">
@@ -3168,7 +3168,7 @@
         <v>7</v>
       </c>
       <c r="E117" t="n">
-        <v>14.4710230842076</v>
+        <v>14.4710230842</v>
       </c>
     </row>
     <row r="118">
@@ -3185,7 +3185,7 @@
         <v>7</v>
       </c>
       <c r="E118" t="n">
-        <v>11.8327961091103</v>
+        <v>11.8327961091</v>
       </c>
     </row>
     <row r="119">
@@ -3202,7 +3202,7 @@
         <v>7</v>
       </c>
       <c r="E119" t="n">
-        <v>13.1046229342491</v>
+        <v>13.1046229342</v>
       </c>
     </row>
     <row r="120">
@@ -3219,7 +3219,7 @@
         <v>7</v>
       </c>
       <c r="E120" t="n">
-        <v>13.856696165303</v>
+        <v>13.8566961653</v>
       </c>
     </row>
     <row r="121">
@@ -3236,7 +3236,7 @@
         <v>7</v>
       </c>
       <c r="E121" t="n">
-        <v>12.3955657758862</v>
+        <v>12.3955657759</v>
       </c>
     </row>
     <row r="122">
@@ -3253,7 +3253,7 @@
         <v>7</v>
       </c>
       <c r="E122" t="n">
-        <v>12.849397366001</v>
+        <v>12.849397366</v>
       </c>
     </row>
     <row r="123">
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E123" t="n">
-        <v>18.2463799789038</v>
+        <v>18.2463799789</v>
       </c>
     </row>
     <row r="124">
@@ -3287,7 +3287,7 @@
         <v>7</v>
       </c>
       <c r="E124" t="n">
-        <v>22.6368075674061</v>
+        <v>22.6368075674</v>
       </c>
     </row>
     <row r="125">
@@ -3304,7 +3304,7 @@
         <v>7</v>
       </c>
       <c r="E125" t="n">
-        <v>20.1269004892365</v>
+        <v>20.1269004892</v>
       </c>
     </row>
     <row r="126">
@@ -3321,7 +3321,7 @@
         <v>7</v>
       </c>
       <c r="E126" t="n">
-        <v>24.1946424312717</v>
+        <v>24.1946424313</v>
       </c>
     </row>
     <row r="127">
@@ -3338,7 +3338,7 @@
         <v>7</v>
       </c>
       <c r="E127" t="n">
-        <v>5.16024077164307</v>
+        <v>5.1602407716</v>
       </c>
     </row>
     <row r="128">
@@ -3355,7 +3355,7 @@
         <v>7</v>
       </c>
       <c r="E128" t="n">
-        <v>8.04092065525031</v>
+        <v>8.0409206553</v>
       </c>
     </row>
     <row r="129">
@@ -3372,7 +3372,7 @@
         <v>7</v>
       </c>
       <c r="E129" t="n">
-        <v>10.7344193914822</v>
+        <v>10.7344193915</v>
       </c>
     </row>
     <row r="130">
@@ -3389,7 +3389,7 @@
         <v>7</v>
       </c>
       <c r="E130" t="n">
-        <v>10.9150494907214</v>
+        <v>10.9150494907</v>
       </c>
     </row>
     <row r="131">
@@ -3406,7 +3406,7 @@
         <v>7</v>
       </c>
       <c r="E131" t="n">
-        <v>10.4825618022772</v>
+        <v>10.4825618023</v>
       </c>
     </row>
     <row r="132">
@@ -3423,7 +3423,7 @@
         <v>7</v>
       </c>
       <c r="E132" t="n">
-        <v>8.94768305656597</v>
+        <v>8.9476830566</v>
       </c>
     </row>
     <row r="133">
@@ -3440,7 +3440,7 @@
         <v>7</v>
       </c>
       <c r="E133" t="n">
-        <v>15.5763307945817</v>
+        <v>15.5763307946</v>
       </c>
     </row>
     <row r="134">
@@ -3457,7 +3457,7 @@
         <v>7</v>
       </c>
       <c r="E134" t="n">
-        <v>15.082157705434</v>
+        <v>15.0821577054</v>
       </c>
     </row>
     <row r="135">
@@ -3474,7 +3474,7 @@
         <v>7</v>
       </c>
       <c r="E135" t="n">
-        <v>15.5802472806882</v>
+        <v>15.5802472807</v>
       </c>
     </row>
     <row r="136">
@@ -3491,7 +3491,7 @@
         <v>7</v>
       </c>
       <c r="E136" t="n">
-        <v>8.50734883978079</v>
+        <v>8.5073488398</v>
       </c>
     </row>
     <row r="137">
@@ -3508,7 +3508,7 @@
         <v>7</v>
       </c>
       <c r="E137" t="n">
-        <v>7.2064433165605</v>
+        <v>7.2064433166</v>
       </c>
     </row>
     <row r="138">
@@ -3525,7 +3525,7 @@
         <v>7</v>
       </c>
       <c r="E138" t="n">
-        <v>9.55606100760882</v>
+        <v>9.5560610076</v>
       </c>
     </row>
     <row r="139">
@@ -3542,7 +3542,7 @@
         <v>7</v>
       </c>
       <c r="E139" t="n">
-        <v>8.69027017413599</v>
+        <v>8.6902701741</v>
       </c>
     </row>
     <row r="140">
@@ -3559,7 +3559,7 @@
         <v>7</v>
       </c>
       <c r="E140" t="n">
-        <v>8.76562705193035</v>
+        <v>8.7656270519</v>
       </c>
     </row>
     <row r="141">
@@ -3576,7 +3576,7 @@
         <v>7</v>
       </c>
       <c r="E141" t="n">
-        <v>17.5160603060224</v>
+        <v>17.516060306</v>
       </c>
     </row>
     <row r="142">
@@ -3593,7 +3593,7 @@
         <v>7</v>
       </c>
       <c r="E142" t="n">
-        <v>12.7654171276708</v>
+        <v>12.7654171277</v>
       </c>
     </row>
     <row r="143">
@@ -3610,7 +3610,7 @@
         <v>7</v>
       </c>
       <c r="E143" t="n">
-        <v>13.5165634634266</v>
+        <v>13.5165634634</v>
       </c>
     </row>
     <row r="144">
@@ -3627,7 +3627,7 @@
         <v>7</v>
       </c>
       <c r="E144" t="n">
-        <v>8.93843155361941</v>
+        <v>8.9384315536</v>
       </c>
     </row>
     <row r="145">
@@ -3644,7 +3644,7 @@
         <v>7</v>
       </c>
       <c r="E145" t="n">
-        <v>10.9145411064341</v>
+        <v>10.9145411064</v>
       </c>
     </row>
     <row r="146">
@@ -3661,7 +3661,7 @@
         <v>7</v>
       </c>
       <c r="E146" t="n">
-        <v>12.3176073783735</v>
+        <v>12.3176073784</v>
       </c>
     </row>
     <row r="147">
@@ -3678,7 +3678,7 @@
         <v>7</v>
       </c>
       <c r="E147" t="n">
-        <v>16.4903371860489</v>
+        <v>16.490337186</v>
       </c>
     </row>
     <row r="148">
@@ -3695,7 +3695,7 @@
         <v>7</v>
       </c>
       <c r="E148" t="n">
-        <v>14.0729094990395</v>
+        <v>14.072909499</v>
       </c>
     </row>
     <row r="149">
@@ -3712,7 +3712,7 @@
         <v>7</v>
       </c>
       <c r="E149" t="n">
-        <v>11.4100542815049</v>
+        <v>11.4100542815</v>
       </c>
     </row>
     <row r="150">
@@ -3729,7 +3729,7 @@
         <v>7</v>
       </c>
       <c r="E150" t="n">
-        <v>12.9795584527787</v>
+        <v>12.9795584528</v>
       </c>
     </row>
     <row r="151">
@@ -3746,7 +3746,7 @@
         <v>7</v>
       </c>
       <c r="E151" t="n">
-        <v>10.5955544915991</v>
+        <v>10.5955544916</v>
       </c>
     </row>
     <row r="152">
@@ -3763,7 +3763,7 @@
         <v>7</v>
       </c>
       <c r="E152" t="n">
-        <v>15.0530868113466</v>
+        <v>15.0530868113</v>
       </c>
     </row>
     <row r="153">
@@ -3780,7 +3780,7 @@
         <v>7</v>
       </c>
       <c r="E153" t="n">
-        <v>14.7762403688211</v>
+        <v>14.7762403688</v>
       </c>
     </row>
     <row r="154">
@@ -3797,7 +3797,7 @@
         <v>7</v>
       </c>
       <c r="E154" t="n">
-        <v>13.3941829766948</v>
+        <v>13.3941829767</v>
       </c>
     </row>
     <row r="155">
@@ -3814,7 +3814,7 @@
         <v>7</v>
       </c>
       <c r="E155" t="n">
-        <v>14.1255030197138</v>
+        <v>14.1255030197</v>
       </c>
     </row>
     <row r="156">
@@ -3831,7 +3831,7 @@
         <v>7</v>
       </c>
       <c r="E156" t="n">
-        <v>12.8765353903265</v>
+        <v>12.8765353903</v>
       </c>
     </row>
     <row r="157">
@@ -3848,7 +3848,7 @@
         <v>7</v>
       </c>
       <c r="E157" t="n">
-        <v>15.8089383495567</v>
+        <v>15.8089383496</v>
       </c>
     </row>
     <row r="158">
@@ -3865,7 +3865,7 @@
         <v>7</v>
       </c>
       <c r="E158" t="n">
-        <v>16.810767137475</v>
+        <v>16.8107671375</v>
       </c>
     </row>
     <row r="159">
@@ -3882,7 +3882,7 @@
         <v>7</v>
       </c>
       <c r="E159" t="n">
-        <v>17.1545376948555</v>
+        <v>17.1545376949</v>
       </c>
     </row>
     <row r="160">
@@ -3899,7 +3899,7 @@
         <v>7</v>
       </c>
       <c r="E160" t="n">
-        <v>14.7660995911556</v>
+        <v>14.7660995912</v>
       </c>
     </row>
     <row r="161">
@@ -3916,7 +3916,7 @@
         <v>7</v>
       </c>
       <c r="E161" t="n">
-        <v>12.815745381143</v>
+        <v>12.8157453811</v>
       </c>
     </row>
     <row r="162">
@@ -3933,7 +3933,7 @@
         <v>7</v>
       </c>
       <c r="E162" t="n">
-        <v>15.7410062536059</v>
+        <v>15.7410062536</v>
       </c>
     </row>
     <row r="163">
@@ -3950,7 +3950,7 @@
         <v>7</v>
       </c>
       <c r="E163" t="n">
-        <v>12.3771525419807</v>
+        <v>12.377152542</v>
       </c>
     </row>
     <row r="164">
@@ -3967,7 +3967,7 @@
         <v>7</v>
       </c>
       <c r="E164" t="n">
-        <v>12.7553211564365</v>
+        <v>12.7553211564</v>
       </c>
     </row>
     <row r="165">
@@ -3984,7 +3984,7 @@
         <v>7</v>
       </c>
       <c r="E165" t="n">
-        <v>8.84026078986814</v>
+        <v>8.8402607899</v>
       </c>
     </row>
     <row r="166">
@@ -4001,7 +4001,7 @@
         <v>7</v>
       </c>
       <c r="E166" t="n">
-        <v>14.6879930711115</v>
+        <v>14.6879930711</v>
       </c>
     </row>
     <row r="167">
@@ -4018,7 +4018,7 @@
         <v>7</v>
       </c>
       <c r="E167" t="n">
-        <v>15.0574023145819</v>
+        <v>15.0574023146</v>
       </c>
     </row>
     <row r="168">
@@ -4035,7 +4035,7 @@
         <v>7</v>
       </c>
       <c r="E168" t="n">
-        <v>18.3376908934541</v>
+        <v>18.3376908935</v>
       </c>
     </row>
     <row r="169">
@@ -4052,7 +4052,7 @@
         <v>7</v>
       </c>
       <c r="E169" t="n">
-        <v>17.5209722283601</v>
+        <v>17.5209722284</v>
       </c>
     </row>
     <row r="170">
@@ -4069,7 +4069,7 @@
         <v>7</v>
       </c>
       <c r="E170" t="n">
-        <v>15.6330157564283</v>
+        <v>15.6330157564</v>
       </c>
     </row>
     <row r="171">
@@ -4086,7 +4086,7 @@
         <v>7</v>
       </c>
       <c r="E171" t="n">
-        <v>22.3861048867913</v>
+        <v>22.3861048868</v>
       </c>
     </row>
     <row r="172">
@@ -4103,7 +4103,7 @@
         <v>7</v>
       </c>
       <c r="E172" t="n">
-        <v>19.4562634321297</v>
+        <v>19.4562634321</v>
       </c>
     </row>
     <row r="173">
@@ -4120,7 +4120,7 @@
         <v>7</v>
       </c>
       <c r="E173" t="n">
-        <v>18.6423309304245</v>
+        <v>18.6423309304</v>
       </c>
     </row>
     <row r="174">
@@ -4137,7 +4137,7 @@
         <v>7</v>
       </c>
       <c r="E174" t="n">
-        <v>11.746745121485</v>
+        <v>11.7467451215</v>
       </c>
     </row>
     <row r="175">
@@ -4154,7 +4154,7 @@
         <v>7</v>
       </c>
       <c r="E175" t="n">
-        <v>15.298977264873</v>
+        <v>15.2989772649</v>
       </c>
     </row>
     <row r="176">
@@ -4171,7 +4171,7 @@
         <v>7</v>
       </c>
       <c r="E176" t="n">
-        <v>11.6703921715328</v>
+        <v>11.6703921715</v>
       </c>
     </row>
     <row r="177">
@@ -4188,7 +4188,7 @@
         <v>7</v>
       </c>
       <c r="E177" t="n">
-        <v>11.7335005824887</v>
+        <v>11.7335005825</v>
       </c>
     </row>
     <row r="178">
@@ -4205,7 +4205,7 @@
         <v>7</v>
       </c>
       <c r="E178" t="n">
-        <v>10.7547687966187</v>
+        <v>10.7547687966</v>
       </c>
     </row>
     <row r="179">
@@ -4222,7 +4222,7 @@
         <v>7</v>
       </c>
       <c r="E179" t="n">
-        <v>10.4592843598912</v>
+        <v>10.4592843599</v>
       </c>
     </row>
     <row r="180">
@@ -4239,7 +4239,7 @@
         <v>7</v>
       </c>
       <c r="E180" t="n">
-        <v>14.1332238527562</v>
+        <v>14.1332238528</v>
       </c>
     </row>
     <row r="181">
@@ -4256,7 +4256,7 @@
         <v>7</v>
       </c>
       <c r="E181" t="n">
-        <v>12.5772191525311</v>
+        <v>12.5772191525</v>
       </c>
     </row>
     <row r="182">
@@ -4273,7 +4273,7 @@
         <v>7</v>
       </c>
       <c r="E182" t="n">
-        <v>13.9218787152125</v>
+        <v>13.9218787152</v>
       </c>
     </row>
     <row r="183">
@@ -4290,7 +4290,7 @@
         <v>7</v>
       </c>
       <c r="E183" t="n">
-        <v>12.3043418834239</v>
+        <v>12.3043418834</v>
       </c>
     </row>
     <row r="184">
@@ -4307,7 +4307,7 @@
         <v>7</v>
       </c>
       <c r="E184" t="n">
-        <v>16.5680361221972</v>
+        <v>16.5680361222</v>
       </c>
     </row>
     <row r="185">
@@ -4324,7 +4324,7 @@
         <v>7</v>
       </c>
       <c r="E185" t="n">
-        <v>17.8816197445903</v>
+        <v>17.8816197446</v>
       </c>
     </row>
     <row r="186">
@@ -4341,7 +4341,7 @@
         <v>7</v>
       </c>
       <c r="E186" t="n">
-        <v>16.2485594082398</v>
+        <v>16.2485594082</v>
       </c>
     </row>
     <row r="187">
@@ -4358,7 +4358,7 @@
         <v>7</v>
       </c>
       <c r="E187" t="n">
-        <v>16.5744367382408</v>
+        <v>16.5744367382</v>
       </c>
     </row>
     <row r="188">
@@ -4375,7 +4375,7 @@
         <v>7</v>
       </c>
       <c r="E188" t="n">
-        <v>27.9128102619207</v>
+        <v>27.9128102619</v>
       </c>
     </row>
     <row r="189">
@@ -4392,7 +4392,7 @@
         <v>7</v>
       </c>
       <c r="E189" t="n">
-        <v>33.5462561839243</v>
+        <v>33.5462561839</v>
       </c>
     </row>
     <row r="190">
@@ -4409,7 +4409,7 @@
         <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>33.2840217718608</v>
+        <v>33.2840217719</v>
       </c>
     </row>
     <row r="191">
@@ -4426,7 +4426,7 @@
         <v>7</v>
       </c>
       <c r="E191" t="n">
-        <v>34.1080351760558</v>
+        <v>34.1080351761</v>
       </c>
     </row>
     <row r="192">
@@ -4443,7 +4443,7 @@
         <v>7</v>
       </c>
       <c r="E192" t="n">
-        <v>37.3582282408626</v>
+        <v>37.3582282409</v>
       </c>
     </row>
     <row r="193">
@@ -4460,7 +4460,7 @@
         <v>7</v>
       </c>
       <c r="E193" t="n">
-        <v>10.5123769495454</v>
+        <v>10.5123769495</v>
       </c>
     </row>
     <row r="194">
@@ -4477,7 +4477,7 @@
         <v>7</v>
       </c>
       <c r="E194" t="n">
-        <v>11.8536174952135</v>
+        <v>11.8536174952</v>
       </c>
     </row>
     <row r="195">
@@ -4494,7 +4494,7 @@
         <v>7</v>
       </c>
       <c r="E195" t="n">
-        <v>13.1475640935157</v>
+        <v>13.1475640935</v>
       </c>
     </row>
     <row r="196">
@@ -4511,7 +4511,7 @@
         <v>7</v>
       </c>
       <c r="E196" t="n">
-        <v>14.916245933034</v>
+        <v>14.916245933</v>
       </c>
     </row>
     <row r="197">
@@ -4528,7 +4528,7 @@
         <v>7</v>
       </c>
       <c r="E197" t="n">
-        <v>15.3420453937649</v>
+        <v>15.3420453938</v>
       </c>
     </row>
     <row r="198">
@@ -4545,7 +4545,7 @@
         <v>7</v>
       </c>
       <c r="E198" t="n">
-        <v>11.0257767658335</v>
+        <v>11.0257767658</v>
       </c>
     </row>
     <row r="199">
@@ -4562,7 +4562,7 @@
         <v>7</v>
       </c>
       <c r="E199" t="n">
-        <v>12.6038058257329</v>
+        <v>12.6038058257</v>
       </c>
     </row>
     <row r="200">
@@ -4579,7 +4579,7 @@
         <v>7</v>
       </c>
       <c r="E200" t="n">
-        <v>16.3376005634699</v>
+        <v>16.3376005635</v>
       </c>
     </row>
     <row r="201">
@@ -4596,7 +4596,7 @@
         <v>7</v>
       </c>
       <c r="E201" t="n">
-        <v>16.1485480742517</v>
+        <v>16.1485480743</v>
       </c>
     </row>
     <row r="202">
@@ -4613,7 +4613,7 @@
         <v>7</v>
       </c>
       <c r="E202" t="n">
-        <v>16.7798166627477</v>
+        <v>16.7798166627</v>
       </c>
     </row>
     <row r="203">
@@ -4630,7 +4630,7 @@
         <v>7</v>
       </c>
       <c r="E203" t="n">
-        <v>13.549524452272</v>
+        <v>13.5495244523</v>
       </c>
     </row>
     <row r="204">
@@ -4647,7 +4647,7 @@
         <v>7</v>
       </c>
       <c r="E204" t="n">
-        <v>16.8417343021033</v>
+        <v>16.8417343021</v>
       </c>
     </row>
     <row r="205">
@@ -4664,7 +4664,7 @@
         <v>7</v>
       </c>
       <c r="E205" t="n">
-        <v>17.0177456901635</v>
+        <v>17.0177456902</v>
       </c>
     </row>
     <row r="206">
@@ -4681,7 +4681,7 @@
         <v>7</v>
       </c>
       <c r="E206" t="n">
-        <v>16.3042969379967</v>
+        <v>16.304296938</v>
       </c>
     </row>
     <row r="207">
@@ -4698,7 +4698,7 @@
         <v>7</v>
       </c>
       <c r="E207" t="n">
-        <v>14.1113708666332</v>
+        <v>14.1113708666</v>
       </c>
     </row>
     <row r="208">
@@ -4715,7 +4715,7 @@
         <v>7</v>
       </c>
       <c r="E208" t="n">
-        <v>12.8648853380037</v>
+        <v>12.864885338</v>
       </c>
     </row>
     <row r="209">
@@ -4732,7 +4732,7 @@
         <v>7</v>
       </c>
       <c r="E209" t="n">
-        <v>10.9895212799606</v>
+        <v>10.98952128</v>
       </c>
     </row>
     <row r="210">
@@ -4749,7 +4749,7 @@
         <v>7</v>
       </c>
       <c r="E210" t="n">
-        <v>13.6865458756192</v>
+        <v>13.6865458756</v>
       </c>
     </row>
     <row r="211">
@@ -4766,7 +4766,7 @@
         <v>7</v>
       </c>
       <c r="E211" t="n">
-        <v>10.3450147811343</v>
+        <v>10.3450147811</v>
       </c>
     </row>
     <row r="212">
@@ -4783,7 +4783,7 @@
         <v>7</v>
       </c>
       <c r="E212" t="n">
-        <v>11.2630590719112</v>
+        <v>11.2630590719</v>
       </c>
     </row>
     <row r="213">
@@ -4800,7 +4800,7 @@
         <v>7</v>
       </c>
       <c r="E213" t="n">
-        <v>17.3939352744671</v>
+        <v>17.3939352745</v>
       </c>
     </row>
     <row r="214">
@@ -4817,7 +4817,7 @@
         <v>7</v>
       </c>
       <c r="E214" t="n">
-        <v>18.6920665998439</v>
+        <v>18.6920665998</v>
       </c>
     </row>
     <row r="215">
@@ -4834,7 +4834,7 @@
         <v>7</v>
       </c>
       <c r="E215" t="n">
-        <v>21.8752550112569</v>
+        <v>21.8752550113</v>
       </c>
     </row>
     <row r="216">
@@ -4851,7 +4851,7 @@
         <v>7</v>
       </c>
       <c r="E216" t="n">
-        <v>17.5215679824435</v>
+        <v>17.5215679824</v>
       </c>
     </row>
     <row r="217">
@@ -4868,7 +4868,7 @@
         <v>7</v>
       </c>
       <c r="E217" t="n">
-        <v>18.0629793974387</v>
+        <v>18.0629793974</v>
       </c>
     </row>
     <row r="218">
@@ -4885,7 +4885,7 @@
         <v>7</v>
       </c>
       <c r="E218" t="n">
-        <v>18.0426847357874</v>
+        <v>18.0426847358</v>
       </c>
     </row>
     <row r="219">
@@ -4902,7 +4902,7 @@
         <v>7</v>
       </c>
       <c r="E219" t="n">
-        <v>19.1592619145652</v>
+        <v>19.1592619146</v>
       </c>
     </row>
     <row r="220">
@@ -4919,7 +4919,7 @@
         <v>7</v>
       </c>
       <c r="E220" t="n">
-        <v>19.3296632511654</v>
+        <v>19.3296632512</v>
       </c>
     </row>
     <row r="221">
@@ -4936,7 +4936,7 @@
         <v>7</v>
       </c>
       <c r="E221" t="n">
-        <v>24.5730325926529</v>
+        <v>24.5730325927</v>
       </c>
     </row>
     <row r="222">
@@ -4953,7 +4953,7 @@
         <v>7</v>
       </c>
       <c r="E222" t="n">
-        <v>25.7735477297797</v>
+        <v>25.7735477298</v>
       </c>
     </row>
     <row r="223">
@@ -4970,7 +4970,7 @@
         <v>7</v>
       </c>
       <c r="E223" t="n">
-        <v>11.059428047938</v>
+        <v>11.0594280479</v>
       </c>
     </row>
     <row r="224">
@@ -4987,7 +4987,7 @@
         <v>7</v>
       </c>
       <c r="E224" t="n">
-        <v>13.1354528561519</v>
+        <v>13.1354528562</v>
       </c>
     </row>
     <row r="225">
@@ -5004,7 +5004,7 @@
         <v>7</v>
       </c>
       <c r="E225" t="n">
-        <v>18.2891671284943</v>
+        <v>18.2891671285</v>
       </c>
     </row>
     <row r="226">
@@ -5021,7 +5021,7 @@
         <v>7</v>
       </c>
       <c r="E226" t="n">
-        <v>20.0237010385746</v>
+        <v>20.0237010386</v>
       </c>
     </row>
     <row r="227">
@@ -5038,7 +5038,7 @@
         <v>7</v>
       </c>
       <c r="E227" t="n">
-        <v>19.0731280883634</v>
+        <v>19.0731280884</v>
       </c>
     </row>
     <row r="228">
@@ -5055,7 +5055,7 @@
         <v>7</v>
       </c>
       <c r="E228" t="n">
-        <v>14.9161801682885</v>
+        <v>14.9161801683</v>
       </c>
     </row>
     <row r="229">
@@ -5072,7 +5072,7 @@
         <v>7</v>
       </c>
       <c r="E229" t="n">
-        <v>21.8982364256532</v>
+        <v>21.8982364257</v>
       </c>
     </row>
     <row r="230">
@@ -5089,7 +5089,7 @@
         <v>7</v>
       </c>
       <c r="E230" t="n">
-        <v>18.9444634339119</v>
+        <v>18.9444634339</v>
       </c>
     </row>
     <row r="231">
@@ -5106,7 +5106,7 @@
         <v>7</v>
       </c>
       <c r="E231" t="n">
-        <v>16.1780928389458</v>
+        <v>16.1780928389</v>
       </c>
     </row>
     <row r="232">
@@ -5123,7 +5123,7 @@
         <v>7</v>
       </c>
       <c r="E232" t="n">
-        <v>17.6075300276471</v>
+        <v>17.6075300276</v>
       </c>
     </row>
     <row r="233">
@@ -5157,7 +5157,7 @@
         <v>7</v>
       </c>
       <c r="E234" t="n">
-        <v>15.913877624519</v>
+        <v>15.9138776245</v>
       </c>
     </row>
     <row r="235">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="E235" t="n">
-        <v>16.5673555922447</v>
+        <v>16.5673555922</v>
       </c>
     </row>
     <row r="236">
@@ -5191,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="E236" t="n">
-        <v>14.2348428000474</v>
+        <v>14.2348428</v>
       </c>
     </row>
     <row r="237">
@@ -5208,7 +5208,7 @@
         <v>7</v>
       </c>
       <c r="E237" t="n">
-        <v>16.5630674700017</v>
+        <v>16.56306747</v>
       </c>
     </row>
     <row r="238">
@@ -5225,7 +5225,7 @@
         <v>7</v>
       </c>
       <c r="E238" t="n">
-        <v>12.1262153697122</v>
+        <v>12.1262153697</v>
       </c>
     </row>
     <row r="239">
@@ -5242,7 +5242,7 @@
         <v>7</v>
       </c>
       <c r="E239" t="n">
-        <v>13.8816391494996</v>
+        <v>13.8816391495</v>
       </c>
     </row>
     <row r="240">
@@ -5259,7 +5259,7 @@
         <v>7</v>
       </c>
       <c r="E240" t="n">
-        <v>12.4039989010687</v>
+        <v>12.4039989011</v>
       </c>
     </row>
     <row r="241">
@@ -5276,7 +5276,7 @@
         <v>7</v>
       </c>
       <c r="E241" t="n">
-        <v>10.4184951075619</v>
+        <v>10.4184951076</v>
       </c>
     </row>
     <row r="242">
@@ -5293,7 +5293,7 @@
         <v>7</v>
       </c>
       <c r="E242" t="n">
-        <v>10.9175709255237</v>
+        <v>10.9175709255</v>
       </c>
     </row>
     <row r="243">
@@ -5310,7 +5310,7 @@
         <v>7</v>
       </c>
       <c r="E243" t="n">
-        <v>16.6039112014672</v>
+        <v>16.6039112015</v>
       </c>
     </row>
     <row r="244">
@@ -5327,7 +5327,7 @@
         <v>7</v>
       </c>
       <c r="E244" t="n">
-        <v>16.3715264298439</v>
+        <v>16.3715264298</v>
       </c>
     </row>
     <row r="245">
@@ -5344,7 +5344,7 @@
         <v>7</v>
       </c>
       <c r="E245" t="n">
-        <v>14.8272584877988</v>
+        <v>14.8272584878</v>
       </c>
     </row>
     <row r="246">
@@ -5361,7 +5361,7 @@
         <v>7</v>
       </c>
       <c r="E246" t="n">
-        <v>19.1114799007203</v>
+        <v>19.1114799007</v>
       </c>
     </row>
     <row r="247">
@@ -5378,7 +5378,7 @@
         <v>7</v>
       </c>
       <c r="E247" t="n">
-        <v>16.892219006964</v>
+        <v>16.892219007</v>
       </c>
     </row>
     <row r="248">
@@ -5395,7 +5395,7 @@
         <v>7</v>
       </c>
       <c r="E248" t="n">
-        <v>9.12528468583407</v>
+        <v>9.1252846858</v>
       </c>
     </row>
     <row r="249">
@@ -5412,7 +5412,7 @@
         <v>7</v>
       </c>
       <c r="E249" t="n">
-        <v>9.03681161680192</v>
+        <v>9.0368116168</v>
       </c>
     </row>
     <row r="250">
@@ -5429,7 +5429,7 @@
         <v>7</v>
       </c>
       <c r="E250" t="n">
-        <v>10.9607676130633</v>
+        <v>10.9607676131</v>
       </c>
     </row>
     <row r="251">
@@ -5446,7 +5446,7 @@
         <v>7</v>
       </c>
       <c r="E251" t="n">
-        <v>8.90572736367804</v>
+        <v>8.9057273637</v>
       </c>
     </row>
     <row r="252">
@@ -5463,7 +5463,7 @@
         <v>7</v>
       </c>
       <c r="E252" t="n">
-        <v>9.70824519040648</v>
+        <v>9.7082451904</v>
       </c>
     </row>
     <row r="253">
@@ -5480,7 +5480,7 @@
         <v>7</v>
       </c>
       <c r="E253" t="n">
-        <v>16.1815170383485</v>
+        <v>16.1815170383</v>
       </c>
     </row>
     <row r="254">
@@ -5497,7 +5497,7 @@
         <v>7</v>
       </c>
       <c r="E254" t="n">
-        <v>14.6415825688273</v>
+        <v>14.6415825688</v>
       </c>
     </row>
     <row r="255">
@@ -5514,7 +5514,7 @@
         <v>7</v>
       </c>
       <c r="E255" t="n">
-        <v>17.9138421328936</v>
+        <v>17.9138421329</v>
       </c>
     </row>
     <row r="256">
@@ -5531,7 +5531,7 @@
         <v>7</v>
       </c>
       <c r="E256" t="n">
-        <v>17.8794747306881</v>
+        <v>17.8794747307</v>
       </c>
     </row>
     <row r="257">
@@ -5548,7 +5548,7 @@
         <v>7</v>
       </c>
       <c r="E257" t="n">
-        <v>18.2632343707002</v>
+        <v>18.2632343707</v>
       </c>
     </row>
     <row r="258">
@@ -5565,7 +5565,7 @@
         <v>7</v>
       </c>
       <c r="E258" t="n">
-        <v>16.5085886529131</v>
+        <v>16.5085886529</v>
       </c>
     </row>
     <row r="259">
@@ -5582,7 +5582,7 @@
         <v>7</v>
       </c>
       <c r="E259" t="n">
-        <v>15.9726660688672</v>
+        <v>15.9726660689</v>
       </c>
     </row>
     <row r="260">
@@ -5599,7 +5599,7 @@
         <v>7</v>
       </c>
       <c r="E260" t="n">
-        <v>15.1889347201098</v>
+        <v>15.1889347201</v>
       </c>
     </row>
     <row r="261">
@@ -5616,7 +5616,7 @@
         <v>7</v>
       </c>
       <c r="E261" t="n">
-        <v>12.0880527922781</v>
+        <v>12.0880527923</v>
       </c>
     </row>
     <row r="262">
@@ -5633,7 +5633,7 @@
         <v>7</v>
       </c>
       <c r="E262" t="n">
-        <v>13.357023640001</v>
+        <v>13.35702364</v>
       </c>
     </row>
     <row r="263">
@@ -5650,7 +5650,7 @@
         <v>7</v>
       </c>
       <c r="E263" t="n">
-        <v>18.8697006910186</v>
+        <v>18.869700691</v>
       </c>
     </row>
     <row r="264">
@@ -5667,7 +5667,7 @@
         <v>7</v>
       </c>
       <c r="E264" t="n">
-        <v>19.569147581204</v>
+        <v>19.5691475812</v>
       </c>
     </row>
     <row r="265">
@@ -5684,7 +5684,7 @@
         <v>7</v>
       </c>
       <c r="E265" t="n">
-        <v>23.0305289341703</v>
+        <v>23.0305289342</v>
       </c>
     </row>
     <row r="266">
@@ -5701,7 +5701,7 @@
         <v>7</v>
       </c>
       <c r="E266" t="n">
-        <v>21.0152897845473</v>
+        <v>21.0152897845</v>
       </c>
     </row>
     <row r="267">
@@ -5718,7 +5718,7 @@
         <v>7</v>
       </c>
       <c r="E267" t="n">
-        <v>21.6379659105738</v>
+        <v>21.6379659106</v>
       </c>
     </row>
     <row r="268">
@@ -5735,7 +5735,7 @@
         <v>7</v>
       </c>
       <c r="E268" t="n">
-        <v>15.8542416097201</v>
+        <v>15.8542416097</v>
       </c>
     </row>
     <row r="269">
@@ -5752,7 +5752,7 @@
         <v>7</v>
       </c>
       <c r="E269" t="n">
-        <v>11.3675566279331</v>
+        <v>11.3675566279</v>
       </c>
     </row>
     <row r="270">
@@ -5769,7 +5769,7 @@
         <v>7</v>
       </c>
       <c r="E270" t="n">
-        <v>16.7137378068043</v>
+        <v>16.7137378068</v>
       </c>
     </row>
     <row r="271">
@@ -5786,7 +5786,7 @@
         <v>7</v>
       </c>
       <c r="E271" t="n">
-        <v>15.7341470809409</v>
+        <v>15.7341470809</v>
       </c>
     </row>
     <row r="272">
@@ -5803,7 +5803,7 @@
         <v>7</v>
       </c>
       <c r="E272" t="n">
-        <v>15.8306717874969</v>
+        <v>15.8306717875</v>
       </c>
     </row>
     <row r="273">
@@ -5820,7 +5820,7 @@
         <v>7</v>
       </c>
       <c r="E273" t="n">
-        <v>11.1215223713076</v>
+        <v>11.1215223713</v>
       </c>
     </row>
     <row r="274">
@@ -5837,7 +5837,7 @@
         <v>7</v>
       </c>
       <c r="E274" t="n">
-        <v>13.1292600434414</v>
+        <v>13.1292600434</v>
       </c>
     </row>
     <row r="275">
@@ -5854,7 +5854,7 @@
         <v>7</v>
       </c>
       <c r="E275" t="n">
-        <v>13.1972978105162</v>
+        <v>13.1972978105</v>
       </c>
     </row>
     <row r="276">
@@ -5871,7 +5871,7 @@
         <v>7</v>
       </c>
       <c r="E276" t="n">
-        <v>12.7893473320125</v>
+        <v>12.789347332</v>
       </c>
     </row>
     <row r="277">
@@ -5888,7 +5888,7 @@
         <v>7</v>
       </c>
       <c r="E277" t="n">
-        <v>15.0217801729152</v>
+        <v>15.0217801729</v>
       </c>
     </row>
     <row r="278">
@@ -5905,7 +5905,7 @@
         <v>7</v>
       </c>
       <c r="E278" t="n">
-        <v>5.87327657913158</v>
+        <v>5.8732765791</v>
       </c>
     </row>
     <row r="279">
@@ -5922,7 +5922,7 @@
         <v>7</v>
       </c>
       <c r="E279" t="n">
-        <v>7.90350265663094</v>
+        <v>7.9035026566</v>
       </c>
     </row>
     <row r="280">
@@ -5939,7 +5939,7 @@
         <v>7</v>
       </c>
       <c r="E280" t="n">
-        <v>9.7268073099489</v>
+        <v>9.7268073099</v>
       </c>
     </row>
     <row r="281">
@@ -5956,7 +5956,7 @@
         <v>7</v>
       </c>
       <c r="E281" t="n">
-        <v>15.3669908403306</v>
+        <v>15.3669908403</v>
       </c>
     </row>
     <row r="282">
@@ -5973,7 +5973,7 @@
         <v>7</v>
       </c>
       <c r="E282" t="n">
-        <v>15.7743276374174</v>
+        <v>15.7743276374</v>
       </c>
     </row>
     <row r="283">
@@ -5990,7 +5990,7 @@
         <v>7</v>
       </c>
       <c r="E283" t="n">
-        <v>16.5649894782931</v>
+        <v>16.5649894783</v>
       </c>
     </row>
     <row r="284">
@@ -6007,7 +6007,7 @@
         <v>7</v>
       </c>
       <c r="E284" t="n">
-        <v>20.0037837686971</v>
+        <v>20.0037837687</v>
       </c>
     </row>
     <row r="285">
@@ -6024,7 +6024,7 @@
         <v>7</v>
       </c>
       <c r="E285" t="n">
-        <v>18.2498821905205</v>
+        <v>18.2498821905</v>
       </c>
     </row>
     <row r="286">
@@ -6041,7 +6041,7 @@
         <v>7</v>
       </c>
       <c r="E286" t="n">
-        <v>18.6251295792695</v>
+        <v>18.6251295793</v>
       </c>
     </row>
     <row r="287">
@@ -6058,7 +6058,7 @@
         <v>7</v>
       </c>
       <c r="E287" t="n">
-        <v>16.5452803925906</v>
+        <v>16.5452803926</v>
       </c>
     </row>
     <row r="288">
@@ -6075,7 +6075,7 @@
         <v>7</v>
       </c>
       <c r="E288" t="n">
-        <v>17.147258683813</v>
+        <v>17.1472586838</v>
       </c>
     </row>
     <row r="289">
@@ -6092,7 +6092,7 @@
         <v>7</v>
       </c>
       <c r="E289" t="n">
-        <v>16.6528527612084</v>
+        <v>16.6528527612</v>
       </c>
     </row>
     <row r="290">
@@ -6109,7 +6109,7 @@
         <v>7</v>
       </c>
       <c r="E290" t="n">
-        <v>18.715085649516</v>
+        <v>18.7150856495</v>
       </c>
     </row>
     <row r="291">
@@ -6126,7 +6126,7 @@
         <v>7</v>
       </c>
       <c r="E291" t="n">
-        <v>21.0958147553413</v>
+        <v>21.0958147553</v>
       </c>
     </row>
     <row r="292">
@@ -6143,7 +6143,7 @@
         <v>7</v>
       </c>
       <c r="E292" t="n">
-        <v>19.6667814454054</v>
+        <v>19.6667814454</v>
       </c>
     </row>
     <row r="293">
@@ -6160,7 +6160,7 @@
         <v>7</v>
       </c>
       <c r="E293" t="n">
-        <v>10.5521737776443</v>
+        <v>10.5521737776</v>
       </c>
     </row>
     <row r="294">
@@ -6177,7 +6177,7 @@
         <v>7</v>
       </c>
       <c r="E294" t="n">
-        <v>10.890186421587</v>
+        <v>10.8901864216</v>
       </c>
     </row>
     <row r="295">
@@ -6194,7 +6194,7 @@
         <v>7</v>
       </c>
       <c r="E295" t="n">
-        <v>15.5273828421561</v>
+        <v>15.5273828422</v>
       </c>
     </row>
     <row r="296">
@@ -6211,7 +6211,7 @@
         <v>7</v>
       </c>
       <c r="E296" t="n">
-        <v>14.5554762752333</v>
+        <v>14.5554762752</v>
       </c>
     </row>
     <row r="297">
@@ -6228,7 +6228,7 @@
         <v>7</v>
       </c>
       <c r="E297" t="n">
-        <v>15.4710073897593</v>
+        <v>15.4710073898</v>
       </c>
     </row>
     <row r="298">
@@ -6245,7 +6245,7 @@
         <v>7</v>
       </c>
       <c r="E298" t="n">
-        <v>5.15508335476822</v>
+        <v>5.1550833548</v>
       </c>
     </row>
     <row r="299">
@@ -6262,7 +6262,7 @@
         <v>7</v>
       </c>
       <c r="E299" t="n">
-        <v>5.2092702905923</v>
+        <v>5.2092702906</v>
       </c>
     </row>
     <row r="300">
@@ -6279,7 +6279,7 @@
         <v>7</v>
       </c>
       <c r="E300" t="n">
-        <v>10.7507724439668</v>
+        <v>10.750772444</v>
       </c>
     </row>
     <row r="301">
@@ -6296,7 +6296,7 @@
         <v>7</v>
       </c>
       <c r="E301" t="n">
-        <v>12.2304697051027</v>
+        <v>12.2304697051</v>
       </c>
     </row>
     <row r="302">
@@ -6313,7 +6313,7 @@
         <v>7</v>
       </c>
       <c r="E302" t="n">
-        <v>12.3311152439818</v>
+        <v>12.331115244</v>
       </c>
     </row>
     <row r="303">
@@ -6330,7 +6330,7 @@
         <v>7</v>
       </c>
       <c r="E303" t="n">
-        <v>15.32949529591</v>
+        <v>15.3294952959</v>
       </c>
     </row>
     <row r="304">
@@ -6347,7 +6347,7 @@
         <v>7</v>
       </c>
       <c r="E304" t="n">
-        <v>10.0731819105228</v>
+        <v>10.0731819105</v>
       </c>
     </row>
     <row r="305">
@@ -6364,7 +6364,7 @@
         <v>7</v>
       </c>
       <c r="E305" t="n">
-        <v>16.1931628898093</v>
+        <v>16.1931628898</v>
       </c>
     </row>
     <row r="306">
@@ -6381,7 +6381,7 @@
         <v>7</v>
       </c>
       <c r="E306" t="n">
-        <v>16.4001954639065</v>
+        <v>16.4001954639</v>
       </c>
     </row>
     <row r="307">
@@ -6398,7 +6398,7 @@
         <v>7</v>
       </c>
       <c r="E307" t="n">
-        <v>17.2479856611771</v>
+        <v>17.2479856612</v>
       </c>
     </row>
     <row r="308">
@@ -6415,7 +6415,7 @@
         <v>7</v>
       </c>
       <c r="E308" t="n">
-        <v>12.7481740973294</v>
+        <v>12.7481740973</v>
       </c>
     </row>
     <row r="309">
@@ -6432,7 +6432,7 @@
         <v>7</v>
       </c>
       <c r="E309" t="n">
-        <v>16.9848503229105</v>
+        <v>16.9848503229</v>
       </c>
     </row>
     <row r="310">
@@ -6449,7 +6449,7 @@
         <v>7</v>
       </c>
       <c r="E310" t="n">
-        <v>16.1478106367852</v>
+        <v>16.1478106368</v>
       </c>
     </row>
     <row r="311">
@@ -6466,7 +6466,7 @@
         <v>7</v>
       </c>
       <c r="E311" t="n">
-        <v>13.6190847289204</v>
+        <v>13.6190847289</v>
       </c>
     </row>
     <row r="312">
@@ -6483,7 +6483,7 @@
         <v>7</v>
       </c>
       <c r="E312" t="n">
-        <v>16.6912279035346</v>
+        <v>16.6912279035</v>
       </c>
     </row>
     <row r="313">
@@ -6500,7 +6500,7 @@
         <v>7</v>
       </c>
       <c r="E313" t="n">
-        <v>12.4867805918517</v>
+        <v>12.4867805919</v>
       </c>
     </row>
     <row r="314">
@@ -6517,7 +6517,7 @@
         <v>7</v>
       </c>
       <c r="E314" t="n">
-        <v>9.81613718072469</v>
+        <v>9.8161371807</v>
       </c>
     </row>
     <row r="315">
@@ -6534,7 +6534,7 @@
         <v>7</v>
       </c>
       <c r="E315" t="n">
-        <v>21.6755635236991</v>
+        <v>21.6755635237</v>
       </c>
     </row>
     <row r="316">
@@ -6551,7 +6551,7 @@
         <v>7</v>
       </c>
       <c r="E316" t="n">
-        <v>12.5658673708458</v>
+        <v>12.5658673708</v>
       </c>
     </row>
     <row r="317">
@@ -6568,7 +6568,7 @@
         <v>7</v>
       </c>
       <c r="E317" t="n">
-        <v>17.8144466193526</v>
+        <v>17.8144466194</v>
       </c>
     </row>
     <row r="318">
@@ -6585,7 +6585,7 @@
         <v>7</v>
       </c>
       <c r="E318" t="n">
-        <v>13.5931834883399</v>
+        <v>13.5931834883</v>
       </c>
     </row>
     <row r="319">
@@ -6602,7 +6602,7 @@
         <v>7</v>
       </c>
       <c r="E319" t="n">
-        <v>9.35899831620724</v>
+        <v>9.3589983162</v>
       </c>
     </row>
     <row r="320">
@@ -6619,7 +6619,7 @@
         <v>7</v>
       </c>
       <c r="E320" t="n">
-        <v>7.55496183056955</v>
+        <v>7.5549618306</v>
       </c>
     </row>
     <row r="321">
@@ -6636,7 +6636,7 @@
         <v>7</v>
       </c>
       <c r="E321" t="n">
-        <v>8.37481320681182</v>
+        <v>8.3748132068</v>
       </c>
     </row>
     <row r="322">
@@ -6653,7 +6653,7 @@
         <v>7</v>
       </c>
       <c r="E322" t="n">
-        <v>8.85886308302576</v>
+        <v>8.858863083</v>
       </c>
     </row>
     <row r="323">
@@ -6670,7 +6670,7 @@
         <v>7</v>
       </c>
       <c r="E323" t="n">
-        <v>9.24366138407922</v>
+        <v>9.2436613841</v>
       </c>
     </row>
     <row r="324">
@@ -6687,7 +6687,7 @@
         <v>7</v>
       </c>
       <c r="E324" t="n">
-        <v>10.4257214246793</v>
+        <v>10.4257214247</v>
       </c>
     </row>
     <row r="325">
@@ -6704,7 +6704,7 @@
         <v>7</v>
       </c>
       <c r="E325" t="n">
-        <v>8.41629922174581</v>
+        <v>8.4162992217</v>
       </c>
     </row>
     <row r="326">
@@ -6721,7 +6721,7 @@
         <v>7</v>
       </c>
       <c r="E326" t="n">
-        <v>12.2385564240112</v>
+        <v>12.238556424</v>
       </c>
     </row>
     <row r="327">
@@ -6738,7 +6738,7 @@
         <v>7</v>
       </c>
       <c r="E327" t="n">
-        <v>14.7960260410696</v>
+        <v>14.7960260411</v>
       </c>
     </row>
     <row r="328">
@@ -6755,7 +6755,7 @@
         <v>7</v>
       </c>
       <c r="E328" t="n">
-        <v>13.4123867043976</v>
+        <v>13.4123867044</v>
       </c>
     </row>
     <row r="329">
@@ -6772,7 +6772,7 @@
         <v>7</v>
       </c>
       <c r="E329" t="n">
-        <v>12.6777077406636</v>
+        <v>12.6777077407</v>
       </c>
     </row>
     <row r="330">
@@ -6789,7 +6789,7 @@
         <v>7</v>
       </c>
       <c r="E330" t="n">
-        <v>12.4042269604104</v>
+        <v>12.4042269604</v>
       </c>
     </row>
     <row r="331">
@@ -6806,7 +6806,7 @@
         <v>7</v>
       </c>
       <c r="E331" t="n">
-        <v>8.34782949496747</v>
+        <v>8.347829495</v>
       </c>
     </row>
     <row r="332">
@@ -6823,7 +6823,7 @@
         <v>7</v>
       </c>
       <c r="E332" t="n">
-        <v>10.3891572140961</v>
+        <v>10.3891572141</v>
       </c>
     </row>
     <row r="333">
@@ -6840,7 +6840,7 @@
         <v>7</v>
       </c>
       <c r="E333" t="n">
-        <v>11.4592301027255</v>
+        <v>11.4592301027</v>
       </c>
     </row>
     <row r="334">
@@ -6857,7 +6857,7 @@
         <v>7</v>
       </c>
       <c r="E334" t="n">
-        <v>11.9548730112268</v>
+        <v>11.9548730112</v>
       </c>
     </row>
     <row r="335">
@@ -6874,7 +6874,7 @@
         <v>7</v>
       </c>
       <c r="E335" t="n">
-        <v>11.6832970099295</v>
+        <v>11.6832970099</v>
       </c>
     </row>
     <row r="336">
@@ -6891,7 +6891,7 @@
         <v>7</v>
       </c>
       <c r="E336" t="n">
-        <v>22.4612606530281</v>
+        <v>22.461260653</v>
       </c>
     </row>
     <row r="337">
@@ -6908,7 +6908,7 @@
         <v>7</v>
       </c>
       <c r="E337" t="n">
-        <v>23.4461613176459</v>
+        <v>23.4461613176</v>
       </c>
     </row>
     <row r="338">
@@ -6925,7 +6925,7 @@
         <v>7</v>
       </c>
       <c r="E338" t="n">
-        <v>27.5578519245726</v>
+        <v>27.5578519246</v>
       </c>
     </row>
     <row r="339">
@@ -6942,7 +6942,7 @@
         <v>7</v>
       </c>
       <c r="E339" t="n">
-        <v>23.8594080240003</v>
+        <v>23.859408024</v>
       </c>
     </row>
     <row r="340">
@@ -6959,7 +6959,7 @@
         <v>7</v>
       </c>
       <c r="E340" t="n">
-        <v>23.7233956479155</v>
+        <v>23.7233956479</v>
       </c>
     </row>
     <row r="341">
@@ -6976,7 +6976,7 @@
         <v>7</v>
       </c>
       <c r="E341" t="n">
-        <v>13.5743261226621</v>
+        <v>13.5743261227</v>
       </c>
     </row>
     <row r="342">
@@ -6993,7 +6993,7 @@
         <v>7</v>
       </c>
       <c r="E342" t="n">
-        <v>12.5396089104498</v>
+        <v>12.5396089104</v>
       </c>
     </row>
     <row r="343">
@@ -7010,7 +7010,7 @@
         <v>7</v>
       </c>
       <c r="E343" t="n">
-        <v>13.317323225569</v>
+        <v>13.3173232256</v>
       </c>
     </row>
     <row r="344">
@@ -7027,7 +7027,7 @@
         <v>7</v>
       </c>
       <c r="E344" t="n">
-        <v>11.0036759224022</v>
+        <v>11.0036759224</v>
       </c>
     </row>
     <row r="345">
@@ -7044,7 +7044,7 @@
         <v>7</v>
       </c>
       <c r="E345" t="n">
-        <v>11.3616306398541</v>
+        <v>11.3616306399</v>
       </c>
     </row>
     <row r="346">
@@ -7061,7 +7061,7 @@
         <v>7</v>
       </c>
       <c r="E346" t="n">
-        <v>15.2143605792038</v>
+        <v>15.2143605792</v>
       </c>
     </row>
     <row r="347">
@@ -7078,7 +7078,7 @@
         <v>7</v>
       </c>
       <c r="E347" t="n">
-        <v>16.871821922201</v>
+        <v>16.8718219222</v>
       </c>
     </row>
     <row r="348">
@@ -7095,7 +7095,7 @@
         <v>7</v>
       </c>
       <c r="E348" t="n">
-        <v>17.7946538107976</v>
+        <v>17.7946538108</v>
       </c>
     </row>
     <row r="349">
@@ -7142,7 +7142,7 @@
         <v>7</v>
       </c>
       <c r="E351" t="n">
-        <v>11.9455617701446</v>
+        <v>11.9455617701</v>
       </c>
     </row>
     <row r="352">
@@ -7159,7 +7159,7 @@
         <v>7</v>
       </c>
       <c r="E352" t="n">
-        <v>12.0396835266978</v>
+        <v>12.0396835267</v>
       </c>
     </row>
     <row r="353">
@@ -7176,7 +7176,7 @@
         <v>7</v>
       </c>
       <c r="E353" t="n">
-        <v>9.24667196335913</v>
+        <v>9.2466719634</v>
       </c>
     </row>
     <row r="354">
@@ -7193,7 +7193,7 @@
         <v>7</v>
       </c>
       <c r="E354" t="n">
-        <v>10.1851748546078</v>
+        <v>10.1851748546</v>
       </c>
     </row>
     <row r="355">
@@ -7210,7 +7210,7 @@
         <v>7</v>
       </c>
       <c r="E355" t="n">
-        <v>13.7817361078015</v>
+        <v>13.7817361078</v>
       </c>
     </row>
     <row r="356">
@@ -7227,7 +7227,7 @@
         <v>7</v>
       </c>
       <c r="E356" t="n">
-        <v>13.6433018248536</v>
+        <v>13.6433018249</v>
       </c>
     </row>
     <row r="357">
@@ -7244,7 +7244,7 @@
         <v>7</v>
       </c>
       <c r="E357" t="n">
-        <v>13.5615456687444</v>
+        <v>13.5615456687</v>
       </c>
     </row>
     <row r="358">
@@ -7261,7 +7261,7 @@
         <v>7</v>
       </c>
       <c r="E358" t="n">
-        <v>16.1713582674173</v>
+        <v>16.1713582674</v>
       </c>
     </row>
     <row r="359">
@@ -7278,7 +7278,7 @@
         <v>7</v>
       </c>
       <c r="E359" t="n">
-        <v>9.74140608450263</v>
+        <v>9.7414060845</v>
       </c>
     </row>
     <row r="360">
@@ -7295,7 +7295,7 @@
         <v>7</v>
       </c>
       <c r="E360" t="n">
-        <v>10.4135912116067</v>
+        <v>10.4135912116</v>
       </c>
     </row>
     <row r="361">
@@ -7312,7 +7312,7 @@
         <v>7</v>
       </c>
       <c r="E361" t="n">
-        <v>12.3542296611738</v>
+        <v>12.3542296612</v>
       </c>
     </row>
     <row r="362">
@@ -7329,7 +7329,7 @@
         <v>7</v>
       </c>
       <c r="E362" t="n">
-        <v>10.2911186361062</v>
+        <v>10.2911186361</v>
       </c>
     </row>
     <row r="363">
@@ -7346,7 +7346,7 @@
         <v>7</v>
       </c>
       <c r="E363" t="n">
-        <v>11.5703749585835</v>
+        <v>11.5703749586</v>
       </c>
     </row>
     <row r="364">
@@ -7363,7 +7363,7 @@
         <v>7</v>
       </c>
       <c r="E364" t="n">
-        <v>11.0331078729458</v>
+        <v>11.0331078729</v>
       </c>
     </row>
     <row r="365">
@@ -7380,7 +7380,7 @@
         <v>7</v>
       </c>
       <c r="E365" t="n">
-        <v>11.7251239091854</v>
+        <v>11.7251239092</v>
       </c>
     </row>
     <row r="366">
@@ -7397,7 +7397,7 @@
         <v>7</v>
       </c>
       <c r="E366" t="n">
-        <v>11.8387895348061</v>
+        <v>11.8387895348</v>
       </c>
     </row>
     <row r="367">
@@ -7414,7 +7414,7 @@
         <v>7</v>
       </c>
       <c r="E367" t="n">
-        <v>11.7052602915286</v>
+        <v>11.7052602915</v>
       </c>
     </row>
     <row r="368">
@@ -7431,7 +7431,7 @@
         <v>7</v>
       </c>
       <c r="E368" t="n">
-        <v>8.15323095201882</v>
+        <v>8.153230952</v>
       </c>
     </row>
     <row r="369">
@@ -7448,7 +7448,7 @@
         <v>7</v>
       </c>
       <c r="E369" t="n">
-        <v>9.00153526320894</v>
+        <v>9.0015352632</v>
       </c>
     </row>
     <row r="370">
@@ -7465,7 +7465,7 @@
         <v>7</v>
       </c>
       <c r="E370" t="n">
-        <v>7.57004966745058</v>
+        <v>7.5700496675</v>
       </c>
     </row>
     <row r="371">
@@ -7482,7 +7482,7 @@
         <v>7</v>
       </c>
       <c r="E371" t="n">
-        <v>8.26097067297973</v>
+        <v>8.260970673</v>
       </c>
     </row>
     <row r="372">
@@ -7499,7 +7499,7 @@
         <v>7</v>
       </c>
       <c r="E372" t="n">
-        <v>7.40717026529346</v>
+        <v>7.4071702653</v>
       </c>
     </row>
     <row r="373">
@@ -7516,7 +7516,7 @@
         <v>7</v>
       </c>
       <c r="E373" t="n">
-        <v>7.22918777026352</v>
+        <v>7.2291877703</v>
       </c>
     </row>
     <row r="374">
@@ -7533,7 +7533,7 @@
         <v>7</v>
       </c>
       <c r="E374" t="n">
-        <v>8.89398423720308</v>
+        <v>8.8939842372</v>
       </c>
     </row>
     <row r="375">
@@ -7550,7 +7550,7 @@
         <v>7</v>
       </c>
       <c r="E375" t="n">
-        <v>7.39328202846461</v>
+        <v>7.3932820285</v>
       </c>
     </row>
     <row r="376">
@@ -7567,7 +7567,7 @@
         <v>7</v>
       </c>
       <c r="E376" t="n">
-        <v>7.9080642565719</v>
+        <v>7.9080642566</v>
       </c>
     </row>
     <row r="377">
@@ -7584,7 +7584,7 @@
         <v>7</v>
       </c>
       <c r="E377" t="n">
-        <v>16.9404255361582</v>
+        <v>16.9404255362</v>
       </c>
     </row>
     <row r="378">
@@ -7601,7 +7601,7 @@
         <v>7</v>
       </c>
       <c r="E378" t="n">
-        <v>17.8930030920445</v>
+        <v>17.893003092</v>
       </c>
     </row>
     <row r="379">
@@ -7618,7 +7618,7 @@
         <v>7</v>
       </c>
       <c r="E379" t="n">
-        <v>21.5641475165708</v>
+        <v>21.5641475166</v>
       </c>
     </row>
     <row r="380">
@@ -7635,7 +7635,7 @@
         <v>7</v>
       </c>
       <c r="E380" t="n">
-        <v>20.797853855831</v>
+        <v>20.7978538558</v>
       </c>
     </row>
     <row r="381">
@@ -7652,7 +7652,7 @@
         <v>7</v>
       </c>
       <c r="E381" t="n">
-        <v>21.4313088750265</v>
+        <v>21.431308875</v>
       </c>
     </row>
     <row r="382">
@@ -7669,7 +7669,7 @@
         <v>7</v>
       </c>
       <c r="E382" t="n">
-        <v>17.8338917167636</v>
+        <v>17.8338917168</v>
       </c>
     </row>
     <row r="383">
@@ -7686,7 +7686,7 @@
         <v>7</v>
       </c>
       <c r="E383" t="n">
-        <v>13.9934597596235</v>
+        <v>13.9934597596</v>
       </c>
     </row>
     <row r="384">
@@ -7703,7 +7703,7 @@
         <v>7</v>
       </c>
       <c r="E384" t="n">
-        <v>12.4265044970694</v>
+        <v>12.4265044971</v>
       </c>
     </row>
     <row r="385">
@@ -7720,7 +7720,7 @@
         <v>7</v>
       </c>
       <c r="E385" t="n">
-        <v>24.4581325987948</v>
+        <v>24.4581325988</v>
       </c>
     </row>
     <row r="386">
@@ -7737,7 +7737,7 @@
         <v>7</v>
       </c>
       <c r="E386" t="n">
-        <v>26.6993523009872</v>
+        <v>26.699352301</v>
       </c>
     </row>
     <row r="387">
@@ -7754,7 +7754,7 @@
         <v>7</v>
       </c>
       <c r="E387" t="n">
-        <v>27.3446589245592</v>
+        <v>27.3446589246</v>
       </c>
     </row>
     <row r="388">
@@ -7771,7 +7771,7 @@
         <v>7</v>
       </c>
       <c r="E388" t="n">
-        <v>23.3237787949737</v>
+        <v>23.323778795</v>
       </c>
     </row>
     <row r="389">
@@ -7788,7 +7788,7 @@
         <v>7</v>
       </c>
       <c r="E389" t="n">
-        <v>23.3417025168878</v>
+        <v>23.3417025169</v>
       </c>
     </row>
     <row r="390">
@@ -7805,7 +7805,7 @@
         <v>7</v>
       </c>
       <c r="E390" t="n">
-        <v>13.5135097742833</v>
+        <v>13.5135097743</v>
       </c>
     </row>
     <row r="391">
@@ -7822,7 +7822,7 @@
         <v>7</v>
       </c>
       <c r="E391" t="n">
-        <v>14.6316161501999</v>
+        <v>14.6316161502</v>
       </c>
     </row>
     <row r="392">
@@ -7839,7 +7839,7 @@
         <v>7</v>
       </c>
       <c r="E392" t="n">
-        <v>14.1928162094059</v>
+        <v>14.1928162094</v>
       </c>
     </row>
     <row r="393">
@@ -7856,7 +7856,7 @@
         <v>7</v>
       </c>
       <c r="E393" t="n">
-        <v>13.2275299369175</v>
+        <v>13.2275299369</v>
       </c>
     </row>
     <row r="394">
@@ -7873,7 +7873,7 @@
         <v>7</v>
       </c>
       <c r="E394" t="n">
-        <v>13.6719099378947</v>
+        <v>13.6719099379</v>
       </c>
     </row>
     <row r="395">
@@ -7890,7 +7890,7 @@
         <v>7</v>
       </c>
       <c r="E395" t="n">
-        <v>14.8529405254361</v>
+        <v>14.8529405254</v>
       </c>
     </row>
     <row r="396">
@@ -7907,7 +7907,7 @@
         <v>7</v>
       </c>
       <c r="E396" t="n">
-        <v>12.3790974302411</v>
+        <v>12.3790974302</v>
       </c>
     </row>
     <row r="397">
@@ -7924,7 +7924,7 @@
         <v>7</v>
       </c>
       <c r="E397" t="n">
-        <v>14.1337183406811</v>
+        <v>14.1337183407</v>
       </c>
     </row>
     <row r="398">
@@ -7941,7 +7941,7 @@
         <v>7</v>
       </c>
       <c r="E398" t="n">
-        <v>12.7268848451635</v>
+        <v>12.7268848452</v>
       </c>
     </row>
     <row r="399">
@@ -7958,7 +7958,7 @@
         <v>7</v>
       </c>
       <c r="E399" t="n">
-        <v>13.1983850246327</v>
+        <v>13.1983850246</v>
       </c>
     </row>
     <row r="400">
@@ -7975,7 +7975,7 @@
         <v>7</v>
       </c>
       <c r="E400" t="n">
-        <v>8.38834214924189</v>
+        <v>8.3883421492</v>
       </c>
     </row>
     <row r="401">
@@ -7992,7 +7992,7 @@
         <v>7</v>
       </c>
       <c r="E401" t="n">
-        <v>10.7332478326049</v>
+        <v>10.7332478326</v>
       </c>
     </row>
     <row r="402">
@@ -8009,7 +8009,7 @@
         <v>7</v>
       </c>
       <c r="E402" t="n">
-        <v>3.05540424061351</v>
+        <v>3.0554042406</v>
       </c>
     </row>
     <row r="403">
@@ -8026,7 +8026,7 @@
         <v>7</v>
       </c>
       <c r="E403" t="n">
-        <v>18.6660171152165</v>
+        <v>18.6660171152</v>
       </c>
     </row>
     <row r="404">
@@ -8043,7 +8043,7 @@
         <v>7</v>
       </c>
       <c r="E404" t="n">
-        <v>15.600395297129</v>
+        <v>15.6003952971</v>
       </c>
     </row>
     <row r="405">
@@ -8060,7 +8060,7 @@
         <v>7</v>
       </c>
       <c r="E405" t="n">
-        <v>15.6385656847067</v>
+        <v>15.6385656847</v>
       </c>
     </row>
     <row r="406">
@@ -8077,7 +8077,7 @@
         <v>7</v>
       </c>
       <c r="E406" t="n">
-        <v>16.1720493682032</v>
+        <v>16.1720493682</v>
       </c>
     </row>
     <row r="407">
@@ -8094,7 +8094,7 @@
         <v>7</v>
       </c>
       <c r="E407" t="n">
-        <v>15.5956617845138</v>
+        <v>15.5956617845</v>
       </c>
     </row>
     <row r="408">
@@ -8111,7 +8111,7 @@
         <v>7</v>
       </c>
       <c r="E408" t="n">
-        <v>14.9969772284544</v>
+        <v>14.9969772285</v>
       </c>
     </row>
     <row r="409">
@@ -8128,7 +8128,7 @@
         <v>7</v>
       </c>
       <c r="E409" t="n">
-        <v>16.732948386804</v>
+        <v>16.7329483868</v>
       </c>
     </row>
     <row r="410">
@@ -8145,7 +8145,7 @@
         <v>7</v>
       </c>
       <c r="E410" t="n">
-        <v>15.6482086612669</v>
+        <v>15.6482086613</v>
       </c>
     </row>
     <row r="411">
@@ -8162,7 +8162,7 @@
         <v>7</v>
       </c>
       <c r="E411" t="n">
-        <v>17.9206099060223</v>
+        <v>17.920609906</v>
       </c>
     </row>
     <row r="412">
@@ -8179,7 +8179,7 @@
         <v>7</v>
       </c>
       <c r="E412" t="n">
-        <v>17.9966773881337</v>
+        <v>17.9966773881</v>
       </c>
     </row>
     <row r="413">
@@ -8196,7 +8196,7 @@
         <v>7</v>
       </c>
       <c r="E413" t="n">
-        <v>17.1557645941934</v>
+        <v>17.1557645942</v>
       </c>
     </row>
     <row r="414">
@@ -8213,7 +8213,7 @@
         <v>7</v>
       </c>
       <c r="E414" t="n">
-        <v>16.5722050798063</v>
+        <v>16.5722050798</v>
       </c>
     </row>
     <row r="415">
@@ -8230,7 +8230,7 @@
         <v>7</v>
       </c>
       <c r="E415" t="n">
-        <v>14.9176424627498</v>
+        <v>14.9176424627</v>
       </c>
     </row>
     <row r="416">
@@ -8247,7 +8247,7 @@
         <v>7</v>
       </c>
       <c r="E416" t="n">
-        <v>14.7105585036876</v>
+        <v>14.7105585037</v>
       </c>
     </row>
     <row r="417">
@@ -8264,7 +8264,7 @@
         <v>7</v>
       </c>
       <c r="E417" t="n">
-        <v>5.30839189831027</v>
+        <v>5.3083918983</v>
       </c>
     </row>
     <row r="418">
@@ -8281,7 +8281,7 @@
         <v>7</v>
       </c>
       <c r="E418" t="n">
-        <v>8.60901264888547</v>
+        <v>8.6090126489</v>
       </c>
     </row>
     <row r="419">
@@ -8298,7 +8298,7 @@
         <v>7</v>
       </c>
       <c r="E419" t="n">
-        <v>11.025191114792</v>
+        <v>11.0251911148</v>
       </c>
     </row>
     <row r="420">
@@ -8315,7 +8315,7 @@
         <v>7</v>
       </c>
       <c r="E420" t="n">
-        <v>11.7043136045255</v>
+        <v>11.7043136045</v>
       </c>
     </row>
     <row r="421">
@@ -8332,7 +8332,7 @@
         <v>7</v>
       </c>
       <c r="E421" t="n">
-        <v>12.2943311364293</v>
+        <v>12.2943311364</v>
       </c>
     </row>
     <row r="422">
@@ -8349,7 +8349,7 @@
         <v>7</v>
       </c>
       <c r="E422" t="n">
-        <v>11.1184979504387</v>
+        <v>11.1184979504</v>
       </c>
     </row>
     <row r="423">
@@ -8366,7 +8366,7 @@
         <v>7</v>
       </c>
       <c r="E423" t="n">
-        <v>12.6682258983072</v>
+        <v>12.6682258983</v>
       </c>
     </row>
     <row r="424">
@@ -8383,7 +8383,7 @@
         <v>7</v>
       </c>
       <c r="E424" t="n">
-        <v>13.905763762761</v>
+        <v>13.9057637628</v>
       </c>
     </row>
     <row r="425">
@@ -8400,7 +8400,7 @@
         <v>7</v>
       </c>
       <c r="E425" t="n">
-        <v>10.8992920903459</v>
+        <v>10.8992920903</v>
       </c>
     </row>
     <row r="426">
@@ -8417,7 +8417,7 @@
         <v>7</v>
       </c>
       <c r="E426" t="n">
-        <v>11.0728394688161</v>
+        <v>11.0728394688</v>
       </c>
     </row>
     <row r="427">
@@ -8434,7 +8434,7 @@
         <v>7</v>
       </c>
       <c r="E427" t="n">
-        <v>29.0103477879272</v>
+        <v>29.0103477879</v>
       </c>
     </row>
     <row r="428">
@@ -8451,7 +8451,7 @@
         <v>7</v>
       </c>
       <c r="E428" t="n">
-        <v>25.3954135613402</v>
+        <v>25.3954135613</v>
       </c>
     </row>
     <row r="429">
@@ -8468,7 +8468,7 @@
         <v>7</v>
       </c>
       <c r="E429" t="n">
-        <v>26.4452301500064</v>
+        <v>26.44523015</v>
       </c>
     </row>
     <row r="430">
@@ -8485,7 +8485,7 @@
         <v>7</v>
       </c>
       <c r="E430" t="n">
-        <v>21.7129055622548</v>
+        <v>21.7129055623</v>
       </c>
     </row>
     <row r="431">
@@ -8502,7 +8502,7 @@
         <v>7</v>
       </c>
       <c r="E431" t="n">
-        <v>24.0463017476271</v>
+        <v>24.0463017476</v>
       </c>
     </row>
     <row r="432">
@@ -8519,7 +8519,7 @@
         <v>7</v>
       </c>
       <c r="E432" t="n">
-        <v>18.9750024023722</v>
+        <v>18.9750024024</v>
       </c>
     </row>
     <row r="433">
@@ -8536,7 +8536,7 @@
         <v>7</v>
       </c>
       <c r="E433" t="n">
-        <v>12.2793695886241</v>
+        <v>12.2793695886</v>
       </c>
     </row>
     <row r="434">
@@ -8553,7 +8553,7 @@
         <v>7</v>
       </c>
       <c r="E434" t="n">
-        <v>14.9873795640973</v>
+        <v>14.9873795641</v>
       </c>
     </row>
     <row r="435">
@@ -8570,7 +8570,7 @@
         <v>7</v>
       </c>
       <c r="E435" t="n">
-        <v>14.9873795640972</v>
+        <v>14.9873795641</v>
       </c>
     </row>
     <row r="436">
@@ -8587,7 +8587,7 @@
         <v>7</v>
       </c>
       <c r="E436" t="n">
-        <v>15.0365322141107</v>
+        <v>15.0365322141</v>
       </c>
     </row>
     <row r="437">
@@ -8604,7 +8604,7 @@
         <v>7</v>
       </c>
       <c r="E437" t="n">
-        <v>14.9616870096862</v>
+        <v>14.9616870097</v>
       </c>
     </row>
     <row r="438">
@@ -8621,7 +8621,7 @@
         <v>7</v>
       </c>
       <c r="E438" t="n">
-        <v>13.5102338276122</v>
+        <v>13.5102338276</v>
       </c>
     </row>
     <row r="439">
@@ -8638,7 +8638,7 @@
         <v>7</v>
       </c>
       <c r="E439" t="n">
-        <v>15.178108083668</v>
+        <v>15.1781080837</v>
       </c>
     </row>
     <row r="440">
@@ -8655,7 +8655,7 @@
         <v>7</v>
       </c>
       <c r="E440" t="n">
-        <v>14.4761382015575</v>
+        <v>14.4761382016</v>
       </c>
     </row>
     <row r="441">
@@ -8672,7 +8672,7 @@
         <v>7</v>
       </c>
       <c r="E441" t="n">
-        <v>14.5702849322948</v>
+        <v>14.5702849323</v>
       </c>
     </row>
     <row r="442">
@@ -8689,7 +8689,7 @@
         <v>7</v>
       </c>
       <c r="E442" t="n">
-        <v>9.93663204082215</v>
+        <v>9.9366320408</v>
       </c>
     </row>
     <row r="443">
@@ -8706,7 +8706,7 @@
         <v>7</v>
       </c>
       <c r="E443" t="n">
-        <v>14.3668656035695</v>
+        <v>14.3668656036</v>
       </c>
     </row>
     <row r="444">
@@ -8723,7 +8723,7 @@
         <v>7</v>
       </c>
       <c r="E444" t="n">
-        <v>19.139068420494</v>
+        <v>19.1390684205</v>
       </c>
     </row>
     <row r="445">
@@ -8740,7 +8740,7 @@
         <v>7</v>
       </c>
       <c r="E445" t="n">
-        <v>18.8833016041518</v>
+        <v>18.8833016042</v>
       </c>
     </row>
     <row r="446">
@@ -8757,7 +8757,7 @@
         <v>7</v>
       </c>
       <c r="E446" t="n">
-        <v>19.4185625293497</v>
+        <v>19.4185625293</v>
       </c>
     </row>
     <row r="447">
@@ -8774,7 +8774,7 @@
         <v>7</v>
       </c>
       <c r="E447" t="n">
-        <v>14.8765406972868</v>
+        <v>14.8765406973</v>
       </c>
     </row>
     <row r="448">
@@ -8791,7 +8791,7 @@
         <v>7</v>
       </c>
       <c r="E448" t="n">
-        <v>13.5570773892402</v>
+        <v>13.5570773892</v>
       </c>
     </row>
     <row r="449">
@@ -8808,7 +8808,7 @@
         <v>7</v>
       </c>
       <c r="E449" t="n">
-        <v>13.5547496597441</v>
+        <v>13.5547496597</v>
       </c>
     </row>
     <row r="450">
@@ -8825,7 +8825,7 @@
         <v>7</v>
       </c>
       <c r="E450" t="n">
-        <v>17.3075399328412</v>
+        <v>17.3075399328</v>
       </c>
     </row>
     <row r="451">
@@ -8842,7 +8842,7 @@
         <v>7</v>
       </c>
       <c r="E451" t="n">
-        <v>9.24095988920119</v>
+        <v>9.2409598892</v>
       </c>
     </row>
     <row r="452">
@@ -8859,7 +8859,7 @@
         <v>7</v>
       </c>
       <c r="E452" t="n">
-        <v>16.232767725107</v>
+        <v>16.2327677251</v>
       </c>
     </row>
     <row r="453">
@@ -8876,7 +8876,7 @@
         <v>7</v>
       </c>
       <c r="E453" t="n">
-        <v>18.9792637771467</v>
+        <v>18.9792637771</v>
       </c>
     </row>
     <row r="454">
@@ -8893,7 +8893,7 @@
         <v>7</v>
       </c>
       <c r="E454" t="n">
-        <v>17.4292777192243</v>
+        <v>17.4292777192</v>
       </c>
     </row>
     <row r="455">
@@ -8910,7 +8910,7 @@
         <v>7</v>
       </c>
       <c r="E455" t="n">
-        <v>17.1048621882015</v>
+        <v>17.1048621882</v>
       </c>
     </row>
     <row r="456">
@@ -8927,7 +8927,7 @@
         <v>7</v>
       </c>
       <c r="E456" t="n">
-        <v>21.8449647904367</v>
+        <v>21.8449647904</v>
       </c>
     </row>
     <row r="457">
@@ -8944,7 +8944,7 @@
         <v>7</v>
       </c>
       <c r="E457" t="n">
-        <v>17.1398285280993</v>
+        <v>17.1398285281</v>
       </c>
     </row>
     <row r="458">
@@ -8961,7 +8961,7 @@
         <v>7</v>
       </c>
       <c r="E458" t="n">
-        <v>16.8888151673168</v>
+        <v>16.8888151673</v>
       </c>
     </row>
     <row r="459">
@@ -8978,7 +8978,7 @@
         <v>7</v>
       </c>
       <c r="E459" t="n">
-        <v>11.9892042528621</v>
+        <v>11.9892042529</v>
       </c>
     </row>
     <row r="460">
@@ -8995,7 +8995,7 @@
         <v>7</v>
       </c>
       <c r="E460" t="n">
-        <v>9.4296238021523</v>
+        <v>9.4296238022</v>
       </c>
     </row>
     <row r="461">
@@ -9012,7 +9012,7 @@
         <v>7</v>
       </c>
       <c r="E461" t="n">
-        <v>11.4048519113855</v>
+        <v>11.4048519114</v>
       </c>
     </row>
     <row r="462">
@@ -9029,7 +9029,7 @@
         <v>7</v>
       </c>
       <c r="E462" t="n">
-        <v>13.3251308190859</v>
+        <v>13.3251308191</v>
       </c>
     </row>
     <row r="463">
@@ -9046,7 +9046,7 @@
         <v>7</v>
       </c>
       <c r="E463" t="n">
-        <v>12.2713193774718</v>
+        <v>12.2713193775</v>
       </c>
     </row>
     <row r="464">
@@ -9063,7 +9063,7 @@
         <v>7</v>
       </c>
       <c r="E464" t="n">
-        <v>13.0707300870806</v>
+        <v>13.0707300871</v>
       </c>
     </row>
     <row r="465">
@@ -9080,7 +9080,7 @@
         <v>7</v>
       </c>
       <c r="E465" t="n">
-        <v>12.567387526754</v>
+        <v>12.5673875268</v>
       </c>
     </row>
     <row r="466">
@@ -9097,7 +9097,7 @@
         <v>7</v>
       </c>
       <c r="E466" t="n">
-        <v>14.549852998677</v>
+        <v>14.5498529987</v>
       </c>
     </row>
     <row r="467">
@@ -9114,7 +9114,7 @@
         <v>7</v>
       </c>
       <c r="E467" t="n">
-        <v>17.269953490016</v>
+        <v>17.26995349</v>
       </c>
     </row>
     <row r="468">
@@ -9131,7 +9131,7 @@
         <v>7</v>
       </c>
       <c r="E468" t="n">
-        <v>17.5835653931462</v>
+        <v>17.5835653931</v>
       </c>
     </row>
     <row r="469">
@@ -9148,7 +9148,7 @@
         <v>7</v>
       </c>
       <c r="E469" t="n">
-        <v>16.7735551437623</v>
+        <v>16.7735551438</v>
       </c>
     </row>
     <row r="470">
@@ -9165,7 +9165,7 @@
         <v>7</v>
       </c>
       <c r="E470" t="n">
-        <v>15.0842185432727</v>
+        <v>15.0842185433</v>
       </c>
     </row>
     <row r="471">
@@ -9182,7 +9182,7 @@
         <v>7</v>
       </c>
       <c r="E471" t="n">
-        <v>16.7933484511783</v>
+        <v>16.7933484512</v>
       </c>
     </row>
     <row r="472">
@@ -9199,7 +9199,7 @@
         <v>7</v>
       </c>
       <c r="E472" t="n">
-        <v>15.7503093526125</v>
+        <v>15.7503093526</v>
       </c>
     </row>
     <row r="473">
@@ -9216,7 +9216,7 @@
         <v>7</v>
       </c>
       <c r="E473" t="n">
-        <v>16.4667752369946</v>
+        <v>16.466775237</v>
       </c>
     </row>
     <row r="474">
@@ -9233,7 +9233,7 @@
         <v>7</v>
       </c>
       <c r="E474" t="n">
-        <v>17.0512112990485</v>
+        <v>17.051211299</v>
       </c>
     </row>
     <row r="475">
@@ -9250,7 +9250,7 @@
         <v>7</v>
       </c>
       <c r="E475" t="n">
-        <v>18.7951029908148</v>
+        <v>18.7951029908</v>
       </c>
     </row>
     <row r="476">
@@ -9267,7 +9267,7 @@
         <v>7</v>
       </c>
       <c r="E476" t="n">
-        <v>18.2557681473196</v>
+        <v>18.2557681473</v>
       </c>
     </row>
     <row r="477">
@@ -9284,7 +9284,7 @@
         <v>7</v>
       </c>
       <c r="E477" t="n">
-        <v>18.8308499250178</v>
+        <v>18.830849925</v>
       </c>
     </row>
     <row r="478">
@@ -9301,7 +9301,7 @@
         <v>7</v>
       </c>
       <c r="E478" t="n">
-        <v>19.2868706743199</v>
+        <v>19.2868706743</v>
       </c>
     </row>
     <row r="479">
@@ -9318,7 +9318,7 @@
         <v>7</v>
       </c>
       <c r="E479" t="n">
-        <v>8.14504902395534</v>
+        <v>8.145049024</v>
       </c>
     </row>
     <row r="480">
@@ -9335,7 +9335,7 @@
         <v>7</v>
       </c>
       <c r="E480" t="n">
-        <v>8.76868731409784</v>
+        <v>8.7686873141</v>
       </c>
     </row>
     <row r="481">
@@ -9352,7 +9352,7 @@
         <v>7</v>
       </c>
       <c r="E481" t="n">
-        <v>11.0808553760017</v>
+        <v>11.080855376</v>
       </c>
     </row>
     <row r="482">
@@ -9369,7 +9369,7 @@
         <v>7</v>
       </c>
       <c r="E482" t="n">
-        <v>9.94853367185894</v>
+        <v>9.9485336719</v>
       </c>
     </row>
     <row r="483">
@@ -9386,7 +9386,7 @@
         <v>7</v>
       </c>
       <c r="E483" t="n">
-        <v>10.3461533860562</v>
+        <v>10.3461533861</v>
       </c>
     </row>
     <row r="484">
@@ -9403,7 +9403,7 @@
         <v>7</v>
       </c>
       <c r="E484" t="n">
-        <v>15.0086674413806</v>
+        <v>15.0086674414</v>
       </c>
     </row>
     <row r="485">
@@ -9420,7 +9420,7 @@
         <v>7</v>
       </c>
       <c r="E485" t="n">
-        <v>16.4867291346585</v>
+        <v>16.4867291347</v>
       </c>
     </row>
     <row r="486">
@@ -9437,7 +9437,7 @@
         <v>7</v>
       </c>
       <c r="E486" t="n">
-        <v>14.0201316564463</v>
+        <v>14.0201316564</v>
       </c>
     </row>
     <row r="487">
@@ -9454,7 +9454,7 @@
         <v>7</v>
       </c>
       <c r="E487" t="n">
-        <v>14.241638705698</v>
+        <v>14.2416387057</v>
       </c>
     </row>
     <row r="488">
@@ -9471,7 +9471,7 @@
         <v>7</v>
       </c>
       <c r="E488" t="n">
-        <v>9.58645355625238</v>
+        <v>9.5864535563</v>
       </c>
     </row>
     <row r="489">
@@ -9488,7 +9488,7 @@
         <v>7</v>
       </c>
       <c r="E489" t="n">
-        <v>11.754424740197</v>
+        <v>11.7544247402</v>
       </c>
     </row>
     <row r="490">
@@ -9505,7 +9505,7 @@
         <v>7</v>
       </c>
       <c r="E490" t="n">
-        <v>13.9663616139185</v>
+        <v>13.9663616139</v>
       </c>
     </row>
     <row r="491">
@@ -9522,7 +9522,7 @@
         <v>7</v>
       </c>
       <c r="E491" t="n">
-        <v>12.2871009613129</v>
+        <v>12.2871009613</v>
       </c>
     </row>
     <row r="492">
@@ -9539,7 +9539,7 @@
         <v>7</v>
       </c>
       <c r="E492" t="n">
-        <v>12.5361209647074</v>
+        <v>12.5361209647</v>
       </c>
     </row>
     <row r="493">
@@ -9556,7 +9556,7 @@
         <v>7</v>
       </c>
       <c r="E493" t="n">
-        <v>12.0978676696099</v>
+        <v>12.0978676696</v>
       </c>
     </row>
     <row r="494">
@@ -9573,7 +9573,7 @@
         <v>7</v>
       </c>
       <c r="E494" t="n">
-        <v>11.6011857494973</v>
+        <v>11.6011857495</v>
       </c>
     </row>
     <row r="495">
@@ -9590,7 +9590,7 @@
         <v>7</v>
       </c>
       <c r="E495" t="n">
-        <v>12.3012471993025</v>
+        <v>12.3012471993</v>
       </c>
     </row>
     <row r="496">
@@ -9607,7 +9607,7 @@
         <v>7</v>
       </c>
       <c r="E496" t="n">
-        <v>12.3365102483874</v>
+        <v>12.3365102484</v>
       </c>
     </row>
     <row r="497">
@@ -9624,7 +9624,7 @@
         <v>7</v>
       </c>
       <c r="E497" t="n">
-        <v>13.2157174630613</v>
+        <v>13.2157174631</v>
       </c>
     </row>
     <row r="498">
@@ -9641,7 +9641,7 @@
         <v>7</v>
       </c>
       <c r="E498" t="n">
-        <v>14.7556900747179</v>
+        <v>14.7556900747</v>
       </c>
     </row>
     <row r="499">
@@ -9658,7 +9658,7 @@
         <v>7</v>
       </c>
       <c r="E499" t="n">
-        <v>16.85079911164</v>
+        <v>16.8507991116</v>
       </c>
     </row>
     <row r="500">
@@ -9675,7 +9675,7 @@
         <v>7</v>
       </c>
       <c r="E500" t="n">
-        <v>13.3626705860841</v>
+        <v>13.3626705861</v>
       </c>
     </row>
     <row r="501">
@@ -9692,7 +9692,7 @@
         <v>7</v>
       </c>
       <c r="E501" t="n">
-        <v>13.9869096532251</v>
+        <v>13.9869096532</v>
       </c>
     </row>
     <row r="502">
@@ -9709,7 +9709,7 @@
         <v>7</v>
       </c>
       <c r="E502" t="n">
-        <v>9.03627252283517</v>
+        <v>9.0362725228</v>
       </c>
     </row>
     <row r="503">
@@ -9726,7 +9726,7 @@
         <v>7</v>
       </c>
       <c r="E503" t="n">
-        <v>8.21096245301199</v>
+        <v>8.210962453</v>
       </c>
     </row>
     <row r="504">
@@ -9743,7 +9743,7 @@
         <v>7</v>
       </c>
       <c r="E504" t="n">
-        <v>9.19012358329646</v>
+        <v>9.1901235833</v>
       </c>
     </row>
     <row r="505">
@@ -9760,7 +9760,7 @@
         <v>7</v>
       </c>
       <c r="E505" t="n">
-        <v>7.85130696710074</v>
+        <v>7.8513069671</v>
       </c>
     </row>
     <row r="506">
@@ -9777,7 +9777,7 @@
         <v>7</v>
       </c>
       <c r="E506" t="n">
-        <v>7.86223479756033</v>
+        <v>7.8622347976</v>
       </c>
     </row>
     <row r="507">
@@ -9794,7 +9794,7 @@
         <v>7</v>
       </c>
       <c r="E507" t="n">
-        <v>11.2548437443098</v>
+        <v>11.2548437443</v>
       </c>
     </row>
     <row r="508">
@@ -9811,7 +9811,7 @@
         <v>7</v>
       </c>
       <c r="E508" t="n">
-        <v>12.4108952849851</v>
+        <v>12.410895285</v>
       </c>
     </row>
     <row r="509">
@@ -9828,7 +9828,7 @@
         <v>7</v>
       </c>
       <c r="E509" t="n">
-        <v>12.0026429348298</v>
+        <v>12.0026429348</v>
       </c>
     </row>
     <row r="510">
@@ -9845,7 +9845,7 @@
         <v>7</v>
       </c>
       <c r="E510" t="n">
-        <v>8.95037748372534</v>
+        <v>8.9503774837</v>
       </c>
     </row>
     <row r="511">
@@ -9862,7 +9862,7 @@
         <v>7</v>
       </c>
       <c r="E511" t="n">
-        <v>9.32584100322198</v>
+        <v>9.3258410032</v>
       </c>
     </row>
     <row r="512">
@@ -9879,7 +9879,7 @@
         <v>7</v>
       </c>
       <c r="E512" t="n">
-        <v>13.2798804843718</v>
+        <v>13.2798804844</v>
       </c>
     </row>
     <row r="513">
@@ -9896,7 +9896,7 @@
         <v>7</v>
       </c>
       <c r="E513" t="n">
-        <v>16.5305775590853</v>
+        <v>16.5305775591</v>
       </c>
     </row>
     <row r="514">
@@ -9913,7 +9913,7 @@
         <v>7</v>
       </c>
       <c r="E514" t="n">
-        <v>15.2676375907738</v>
+        <v>15.2676375908</v>
       </c>
     </row>
     <row r="515">
@@ -9930,7 +9930,7 @@
         <v>7</v>
       </c>
       <c r="E515" t="n">
-        <v>12.6330922560453</v>
+        <v>12.633092256</v>
       </c>
     </row>
     <row r="516">
@@ -9947,7 +9947,7 @@
         <v>7</v>
       </c>
       <c r="E516" t="n">
-        <v>12.3439501989757</v>
+        <v>12.343950199</v>
       </c>
     </row>
     <row r="517">
@@ -9964,7 +9964,7 @@
         <v>7</v>
       </c>
       <c r="E517" t="n">
-        <v>10.9627674452003</v>
+        <v>10.9627674452</v>
       </c>
     </row>
     <row r="518">
@@ -9981,7 +9981,7 @@
         <v>7</v>
       </c>
       <c r="E518" t="n">
-        <v>12.457509071347</v>
+        <v>12.4575090713</v>
       </c>
     </row>
     <row r="519">
@@ -9998,7 +9998,7 @@
         <v>7</v>
       </c>
       <c r="E519" t="n">
-        <v>12.4694801461711</v>
+        <v>12.4694801462</v>
       </c>
     </row>
     <row r="520">
@@ -10015,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="E520" t="n">
-        <v>11.0889737028896</v>
+        <v>11.0889737029</v>
       </c>
     </row>
     <row r="521">
@@ -10032,7 +10032,7 @@
         <v>7</v>
       </c>
       <c r="E521" t="n">
-        <v>11.2283767845868</v>
+        <v>11.2283767846</v>
       </c>
     </row>
     <row r="522">
@@ -10049,7 +10049,7 @@
         <v>7</v>
       </c>
       <c r="E522" t="n">
-        <v>14.7997030537046</v>
+        <v>14.7997030537</v>
       </c>
     </row>
     <row r="523">
@@ -10066,7 +10066,7 @@
         <v>7</v>
       </c>
       <c r="E523" t="n">
-        <v>18.019707570615</v>
+        <v>18.0197075706</v>
       </c>
     </row>
     <row r="524">
@@ -10083,7 +10083,7 @@
         <v>7</v>
       </c>
       <c r="E524" t="n">
-        <v>17.7257110112121</v>
+        <v>17.7257110112</v>
       </c>
     </row>
     <row r="525">
@@ -10100,7 +10100,7 @@
         <v>7</v>
       </c>
       <c r="E525" t="n">
-        <v>17.0394131151797</v>
+        <v>17.0394131152</v>
       </c>
     </row>
     <row r="526">
@@ -10117,7 +10117,7 @@
         <v>7</v>
       </c>
       <c r="E526" t="n">
-        <v>19.3835648697832</v>
+        <v>19.3835648698</v>
       </c>
     </row>
     <row r="527">
@@ -10134,7 +10134,7 @@
         <v>7</v>
       </c>
       <c r="E527" t="n">
-        <v>11.3072649099337</v>
+        <v>11.3072649099</v>
       </c>
     </row>
     <row r="528">
@@ -10151,7 +10151,7 @@
         <v>7</v>
       </c>
       <c r="E528" t="n">
-        <v>16.0331423852696</v>
+        <v>16.0331423853</v>
       </c>
     </row>
     <row r="529">
@@ -10168,7 +10168,7 @@
         <v>7</v>
       </c>
       <c r="E529" t="n">
-        <v>17.343029339958</v>
+        <v>17.34302934</v>
       </c>
     </row>
     <row r="530">
@@ -10185,7 +10185,7 @@
         <v>7</v>
       </c>
       <c r="E530" t="n">
-        <v>16.2266028899259</v>
+        <v>16.2266028899</v>
       </c>
     </row>
   </sheetData>
@@ -10233,19 +10233,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>20.8236043881387</v>
+        <v>20.8236043881</v>
       </c>
       <c r="D2" t="n">
-        <v>20.3785568091683</v>
+        <v>20.3785568092</v>
       </c>
       <c r="E2" t="n">
-        <v>20.8070078020248</v>
+        <v>20.807007802</v>
       </c>
       <c r="F2" t="n">
-        <v>22.8393627529595</v>
+        <v>22.839362753</v>
       </c>
       <c r="G2" t="n">
-        <v>26.0251710469218</v>
+        <v>26.0251710469</v>
       </c>
     </row>
     <row r="3">
@@ -10256,19 +10256,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>22.3852289293728</v>
+        <v>22.3852289294</v>
       </c>
       <c r="D3" t="n">
-        <v>29.5599234468198</v>
+        <v>29.5599234468</v>
       </c>
       <c r="E3" t="n">
-        <v>25.4034385945596</v>
+        <v>25.4034385946</v>
       </c>
       <c r="F3" t="n">
-        <v>32.2830180008751</v>
+        <v>32.2830180009</v>
       </c>
       <c r="G3" t="n">
-        <v>33.3576212765979</v>
+        <v>33.3576212766</v>
       </c>
     </row>
     <row r="4">
@@ -10280,16 +10280,16 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>16.9927470048244</v>
+        <v>16.9927470048</v>
       </c>
       <c r="E4" t="n">
-        <v>19.4916192147557</v>
+        <v>19.4916192148</v>
       </c>
       <c r="F4" t="n">
-        <v>19.3345223927634</v>
+        <v>19.3345223928</v>
       </c>
       <c r="G4" t="n">
-        <v>19.2415745948154</v>
+        <v>19.2415745948</v>
       </c>
     </row>
     <row r="5">
@@ -10300,19 +10300,19 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>13.500187491523</v>
+        <v>13.5001874915</v>
       </c>
       <c r="D5" t="n">
-        <v>14.688828048516</v>
+        <v>14.6888280485</v>
       </c>
       <c r="E5" t="n">
-        <v>14.1137514451931</v>
+        <v>14.1137514452</v>
       </c>
       <c r="F5" t="n">
-        <v>11.5188828383766</v>
+        <v>11.5188828384</v>
       </c>
       <c r="G5" t="n">
-        <v>13.5581202054816</v>
+        <v>13.5581202055</v>
       </c>
     </row>
     <row r="6">
@@ -10323,19 +10323,19 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>12.9565988874524</v>
+        <v>12.9565988875</v>
       </c>
       <c r="D6" t="n">
-        <v>14.5959916311596</v>
+        <v>14.5959916312</v>
       </c>
       <c r="E6" t="n">
-        <v>13.0521513895459</v>
+        <v>13.0521513895</v>
       </c>
       <c r="F6" t="n">
-        <v>13.8804398621244</v>
+        <v>13.8804398621</v>
       </c>
       <c r="G6" t="n">
-        <v>14.1709623289287</v>
+        <v>14.1709623289</v>
       </c>
     </row>
     <row r="7">
@@ -10347,16 +10347,16 @@
       </c>
       <c r="C7"/>
       <c r="D7" t="n">
-        <v>14.7780806752883</v>
+        <v>14.7780806753</v>
       </c>
       <c r="E7" t="n">
-        <v>19.5709829816457</v>
+        <v>19.5709829816</v>
       </c>
       <c r="F7" t="n">
-        <v>19.059518106791</v>
+        <v>19.0595181068</v>
       </c>
       <c r="G7" t="n">
-        <v>19.8037197869036</v>
+        <v>19.8037197869</v>
       </c>
     </row>
     <row r="8">
@@ -10367,19 +10367,19 @@
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>13.7048331249806</v>
+        <v>13.704833125</v>
       </c>
       <c r="D8" t="n">
-        <v>15.4934044981666</v>
+        <v>15.4934044982</v>
       </c>
       <c r="E8" t="n">
-        <v>14.9075016256188</v>
+        <v>14.9075016256</v>
       </c>
       <c r="F8" t="n">
-        <v>14.861401751574</v>
+        <v>14.8614017516</v>
       </c>
       <c r="G8" t="n">
-        <v>15.0724736040008</v>
+        <v>15.072473604</v>
       </c>
     </row>
     <row r="9">
@@ -10391,16 +10391,16 @@
       </c>
       <c r="C9"/>
       <c r="D9" t="n">
-        <v>13.5536475349064</v>
+        <v>13.5536475349</v>
       </c>
       <c r="E9" t="n">
-        <v>14.5970277562327</v>
+        <v>14.5970277562</v>
       </c>
       <c r="F9" t="n">
-        <v>16.1803329657692</v>
+        <v>16.1803329658</v>
       </c>
       <c r="G9" t="n">
-        <v>18.8070098172495</v>
+        <v>18.8070098172</v>
       </c>
     </row>
     <row r="10">
@@ -10411,19 +10411,19 @@
         <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>15.6625019788522</v>
+        <v>15.6625019789</v>
       </c>
       <c r="D10" t="n">
-        <v>14.5249812212694</v>
+        <v>14.5249812213</v>
       </c>
       <c r="E10" t="n">
-        <v>14.7782978296164</v>
+        <v>14.7782978296</v>
       </c>
       <c r="F10" t="n">
-        <v>17.3186091780589</v>
+        <v>17.3186091781</v>
       </c>
       <c r="G10" t="n">
-        <v>17.9262502560773</v>
+        <v>17.9262502561</v>
       </c>
     </row>
     <row r="11">
@@ -10434,19 +10434,19 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>11.7725506825703</v>
+        <v>11.7725506826</v>
       </c>
       <c r="D11" t="n">
-        <v>10.0415310441762</v>
+        <v>10.0415310442</v>
       </c>
       <c r="E11" t="n">
-        <v>9.28570198639965</v>
+        <v>9.2857019864</v>
       </c>
       <c r="F11" t="n">
-        <v>10.6814431493391</v>
+        <v>10.6814431493</v>
       </c>
       <c r="G11" t="n">
-        <v>11.0488791969974</v>
+        <v>11.048879197</v>
       </c>
     </row>
     <row r="12">
@@ -10457,19 +10457,19 @@
         <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>10.424662320561</v>
+        <v>10.4246623206</v>
       </c>
       <c r="D12" t="n">
-        <v>14.4932496224498</v>
+        <v>14.4932496224</v>
       </c>
       <c r="E12" t="n">
-        <v>14.4351216984462</v>
+        <v>14.4351216984</v>
       </c>
       <c r="F12" t="n">
-        <v>12.3427861749707</v>
+        <v>12.342786175</v>
       </c>
       <c r="G12" t="n">
-        <v>12.9586508543042</v>
+        <v>12.9586508543</v>
       </c>
     </row>
     <row r="13">
@@ -10480,19 +10480,19 @@
         <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>11.2917982944291</v>
+        <v>11.2917982944</v>
       </c>
       <c r="D13" t="n">
-        <v>14.5545271433091</v>
+        <v>14.5545271433</v>
       </c>
       <c r="E13" t="n">
-        <v>15.6654992323394</v>
+        <v>15.6654992323</v>
       </c>
       <c r="F13" t="n">
-        <v>17.469259992067</v>
+        <v>17.4692599921</v>
       </c>
       <c r="G13" t="n">
-        <v>17.2722444469249</v>
+        <v>17.2722444469</v>
       </c>
     </row>
     <row r="14">
@@ -10503,19 +10503,19 @@
         <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>10.9697764013423</v>
+        <v>10.9697764013</v>
       </c>
       <c r="D14" t="n">
-        <v>13.207210772274</v>
+        <v>13.2072107723</v>
       </c>
       <c r="E14" t="n">
-        <v>14.0831898385463</v>
+        <v>14.0831898385</v>
       </c>
       <c r="F14" t="n">
-        <v>12.904210649942</v>
+        <v>12.9042106499</v>
       </c>
       <c r="G14" t="n">
-        <v>15.8484969473438</v>
+        <v>15.8484969473</v>
       </c>
     </row>
     <row r="15">
@@ -10526,19 +10526,19 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>11.2638065468996</v>
+        <v>11.2638065469</v>
       </c>
       <c r="D15" t="n">
-        <v>11.6433467307362</v>
+        <v>11.6433467307</v>
       </c>
       <c r="E15" t="n">
-        <v>11.5025785053643</v>
+        <v>11.5025785054</v>
       </c>
       <c r="F15" t="n">
-        <v>10.7887460008189</v>
+        <v>10.7887460008</v>
       </c>
       <c r="G15" t="n">
-        <v>11.3472399812047</v>
+        <v>11.3472399812</v>
       </c>
     </row>
     <row r="16">
@@ -10549,19 +10549,19 @@
         <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>10.7127334956716</v>
+        <v>10.7127334957</v>
       </c>
       <c r="D16" t="n">
-        <v>16.3767815842183</v>
+        <v>16.3767815842</v>
       </c>
       <c r="E16" t="n">
-        <v>15.3917095498204</v>
+        <v>15.3917095498</v>
       </c>
       <c r="F16" t="n">
-        <v>14.5595852095555</v>
+        <v>14.5595852096</v>
       </c>
       <c r="G16" t="n">
-        <v>14.9081738640337</v>
+        <v>14.908173864</v>
       </c>
     </row>
     <row r="17">
@@ -10572,19 +10572,19 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>9.88553439706208</v>
+        <v>9.8855343971</v>
       </c>
       <c r="D17" t="n">
-        <v>10.0837470440013</v>
+        <v>10.083747044</v>
       </c>
       <c r="E17" t="n">
-        <v>9.39242343089693</v>
+        <v>9.3924234309</v>
       </c>
       <c r="F17" t="n">
-        <v>8.77691427101447</v>
+        <v>8.776914271</v>
       </c>
       <c r="G17" t="n">
-        <v>10.3911245584333</v>
+        <v>10.3911245584</v>
       </c>
     </row>
     <row r="18">
@@ -10595,16 +10595,16 @@
         <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>7.66894553587313</v>
+        <v>7.6689455359</v>
       </c>
       <c r="D18" t="n">
-        <v>8.55799905530023</v>
+        <v>8.5579990553</v>
       </c>
       <c r="E18" t="n">
-        <v>13.0615850791359</v>
+        <v>13.0615850791</v>
       </c>
       <c r="F18" t="n">
-        <v>12.7050930427974</v>
+        <v>12.7050930428</v>
       </c>
       <c r="G18"/>
     </row>
@@ -10616,19 +10616,19 @@
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>13.0695519453711</v>
+        <v>13.0695519454</v>
       </c>
       <c r="D19" t="n">
-        <v>13.1004362887909</v>
+        <v>13.1004362888</v>
       </c>
       <c r="E19" t="n">
-        <v>21.206825689398</v>
+        <v>21.2068256894</v>
       </c>
       <c r="F19" t="n">
-        <v>18.5390589742541</v>
+        <v>18.5390589743</v>
       </c>
       <c r="G19" t="n">
-        <v>18.5543368709624</v>
+        <v>18.554336871</v>
       </c>
     </row>
     <row r="20">
@@ -10639,19 +10639,19 @@
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>10.7113921281458</v>
+        <v>10.7113921281</v>
       </c>
       <c r="D20" t="n">
-        <v>10.1125160441914</v>
+        <v>10.1125160442</v>
       </c>
       <c r="E20" t="n">
-        <v>14.2281715283487</v>
+        <v>14.2281715283</v>
       </c>
       <c r="F20" t="n">
-        <v>15.1711257164988</v>
+        <v>15.1711257165</v>
       </c>
       <c r="G20" t="n">
-        <v>17.4462671658102</v>
+        <v>17.4462671658</v>
       </c>
     </row>
     <row r="21">
@@ -10662,19 +10662,19 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>10.1534823047714</v>
+        <v>10.1534823048</v>
       </c>
       <c r="D21" t="n">
-        <v>9.51564092620514</v>
+        <v>9.5156409262</v>
       </c>
       <c r="E21" t="n">
-        <v>10.6980926332738</v>
+        <v>10.6980926333</v>
       </c>
       <c r="F21" t="n">
-        <v>16.18196719177</v>
+        <v>16.1819671918</v>
       </c>
       <c r="G21" t="n">
-        <v>19.7984604736853</v>
+        <v>19.7984604737</v>
       </c>
     </row>
     <row r="22">
@@ -10685,19 +10685,19 @@
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>18.7051753995574</v>
+        <v>18.7051753996</v>
       </c>
       <c r="D22" t="n">
-        <v>24.6513322517205</v>
+        <v>24.6513322517</v>
       </c>
       <c r="E22" t="n">
-        <v>22.6889876255371</v>
+        <v>22.6889876255</v>
       </c>
       <c r="F22" t="n">
-        <v>20.2498226266635</v>
+        <v>20.2498226267</v>
       </c>
       <c r="G22" t="n">
-        <v>21.3619192523769</v>
+        <v>21.3619192524</v>
       </c>
     </row>
     <row r="23">
@@ -10708,19 +10708,19 @@
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>13.2873137110243</v>
+        <v>13.287313711</v>
       </c>
       <c r="D23" t="n">
-        <v>13.3618493107873</v>
+        <v>13.3618493108</v>
       </c>
       <c r="E23" t="n">
-        <v>20.0511776170199</v>
+        <v>20.051177617</v>
       </c>
       <c r="F23" t="n">
-        <v>14.6985451401509</v>
+        <v>14.6985451402</v>
       </c>
       <c r="G23" t="n">
-        <v>14.335785940526</v>
+        <v>14.3357859405</v>
       </c>
     </row>
     <row r="24">
@@ -10731,19 +10731,19 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>10.3058611582057</v>
+        <v>10.3058611582</v>
       </c>
       <c r="D24" t="n">
-        <v>9.57085526967376</v>
+        <v>9.5708552697</v>
       </c>
       <c r="E24" t="n">
-        <v>8.74254638274821</v>
+        <v>8.7425463827</v>
       </c>
       <c r="F24" t="n">
-        <v>8.35047047343883</v>
+        <v>8.3504704734</v>
       </c>
       <c r="G24" t="n">
-        <v>9.72756855445081</v>
+        <v>9.7275685545</v>
       </c>
     </row>
     <row r="25">
@@ -10754,19 +10754,19 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>18.5283626190425</v>
+        <v>18.528362619</v>
       </c>
       <c r="D25" t="n">
-        <v>14.8164639388583</v>
+        <v>14.8164639389</v>
       </c>
       <c r="E25" t="n">
-        <v>15.7166903688392</v>
+        <v>15.7166903688</v>
       </c>
       <c r="F25" t="n">
-        <v>14.4081580544364</v>
+        <v>14.4081580544</v>
       </c>
       <c r="G25" t="n">
-        <v>14.4710230842076</v>
+        <v>14.4710230842</v>
       </c>
     </row>
     <row r="26">
@@ -10777,19 +10777,19 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>11.8327961091103</v>
+        <v>11.8327961091</v>
       </c>
       <c r="D26" t="n">
-        <v>13.1046229342491</v>
+        <v>13.1046229342</v>
       </c>
       <c r="E26" t="n">
-        <v>13.856696165303</v>
+        <v>13.8566961653</v>
       </c>
       <c r="F26" t="n">
-        <v>12.3955657758862</v>
+        <v>12.3955657759</v>
       </c>
       <c r="G26" t="n">
-        <v>12.849397366001</v>
+        <v>12.849397366</v>
       </c>
     </row>
     <row r="27">
@@ -10801,16 +10801,16 @@
       </c>
       <c r="C27"/>
       <c r="D27" t="n">
-        <v>18.2463799789038</v>
+        <v>18.2463799789</v>
       </c>
       <c r="E27" t="n">
-        <v>22.6368075674061</v>
+        <v>22.6368075674</v>
       </c>
       <c r="F27" t="n">
-        <v>20.1269004892365</v>
+        <v>20.1269004892</v>
       </c>
       <c r="G27" t="n">
-        <v>24.1946424312717</v>
+        <v>24.1946424313</v>
       </c>
     </row>
     <row r="28">
@@ -10821,19 +10821,19 @@
         <v>59</v>
       </c>
       <c r="C28" t="n">
-        <v>5.16024077164307</v>
+        <v>5.1602407716</v>
       </c>
       <c r="D28" t="n">
-        <v>8.04092065525031</v>
+        <v>8.0409206553</v>
       </c>
       <c r="E28" t="n">
-        <v>10.7344193914822</v>
+        <v>10.7344193915</v>
       </c>
       <c r="F28" t="n">
-        <v>10.9150494907214</v>
+        <v>10.9150494907</v>
       </c>
       <c r="G28" t="n">
-        <v>10.4825618022772</v>
+        <v>10.4825618023</v>
       </c>
     </row>
     <row r="29">
@@ -10845,16 +10845,16 @@
       </c>
       <c r="C29"/>
       <c r="D29" t="n">
-        <v>8.94768305656597</v>
+        <v>8.9476830566</v>
       </c>
       <c r="E29" t="n">
-        <v>15.5763307945817</v>
+        <v>15.5763307946</v>
       </c>
       <c r="F29" t="n">
-        <v>15.082157705434</v>
+        <v>15.0821577054</v>
       </c>
       <c r="G29" t="n">
-        <v>15.5802472806882</v>
+        <v>15.5802472807</v>
       </c>
     </row>
     <row r="30">
@@ -10865,19 +10865,19 @@
         <v>63</v>
       </c>
       <c r="C30" t="n">
-        <v>8.50734883978079</v>
+        <v>8.5073488398</v>
       </c>
       <c r="D30" t="n">
-        <v>7.2064433165605</v>
+        <v>7.2064433166</v>
       </c>
       <c r="E30" t="n">
-        <v>9.55606100760882</v>
+        <v>9.5560610076</v>
       </c>
       <c r="F30" t="n">
-        <v>8.69027017413599</v>
+        <v>8.6902701741</v>
       </c>
       <c r="G30" t="n">
-        <v>8.76562705193035</v>
+        <v>8.7656270519</v>
       </c>
     </row>
     <row r="31">
@@ -10888,19 +10888,19 @@
         <v>65</v>
       </c>
       <c r="C31" t="n">
-        <v>17.5160603060224</v>
+        <v>17.516060306</v>
       </c>
       <c r="D31" t="n">
-        <v>12.7654171276708</v>
+        <v>12.7654171277</v>
       </c>
       <c r="E31" t="n">
-        <v>13.5165634634266</v>
+        <v>13.5165634634</v>
       </c>
       <c r="F31" t="n">
-        <v>8.93843155361941</v>
+        <v>8.9384315536</v>
       </c>
       <c r="G31" t="n">
-        <v>10.9145411064341</v>
+        <v>10.9145411064</v>
       </c>
     </row>
     <row r="32">
@@ -10911,19 +10911,19 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>12.3176073783735</v>
+        <v>12.3176073784</v>
       </c>
       <c r="D32" t="n">
-        <v>16.4903371860489</v>
+        <v>16.490337186</v>
       </c>
       <c r="E32" t="n">
-        <v>14.0729094990395</v>
+        <v>14.072909499</v>
       </c>
       <c r="F32" t="n">
-        <v>11.4100542815049</v>
+        <v>11.4100542815</v>
       </c>
       <c r="G32" t="n">
-        <v>12.9795584527787</v>
+        <v>12.9795584528</v>
       </c>
     </row>
     <row r="33">
@@ -10934,19 +10934,19 @@
         <v>69</v>
       </c>
       <c r="C33" t="n">
-        <v>10.5955544915991</v>
+        <v>10.5955544916</v>
       </c>
       <c r="D33" t="n">
-        <v>15.0530868113466</v>
+        <v>15.0530868113</v>
       </c>
       <c r="E33" t="n">
-        <v>14.7762403688211</v>
+        <v>14.7762403688</v>
       </c>
       <c r="F33" t="n">
-        <v>13.3941829766948</v>
+        <v>13.3941829767</v>
       </c>
       <c r="G33" t="n">
-        <v>14.1255030197138</v>
+        <v>14.1255030197</v>
       </c>
     </row>
     <row r="34">
@@ -10957,17 +10957,17 @@
         <v>71</v>
       </c>
       <c r="C34" t="n">
-        <v>12.8765353903265</v>
+        <v>12.8765353903</v>
       </c>
       <c r="D34" t="n">
-        <v>15.8089383495567</v>
+        <v>15.8089383496</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="n">
-        <v>16.810767137475</v>
+        <v>16.8107671375</v>
       </c>
       <c r="G34" t="n">
-        <v>17.1545376948555</v>
+        <v>17.1545376949</v>
       </c>
     </row>
     <row r="35">
@@ -10978,19 +10978,19 @@
         <v>73</v>
       </c>
       <c r="C35" t="n">
-        <v>14.7660995911556</v>
+        <v>14.7660995912</v>
       </c>
       <c r="D35" t="n">
-        <v>12.815745381143</v>
+        <v>12.8157453811</v>
       </c>
       <c r="E35" t="n">
-        <v>15.7410062536059</v>
+        <v>15.7410062536</v>
       </c>
       <c r="F35" t="n">
-        <v>12.3771525419807</v>
+        <v>12.377152542</v>
       </c>
       <c r="G35" t="n">
-        <v>12.7553211564365</v>
+        <v>12.7553211564</v>
       </c>
     </row>
     <row r="36">
@@ -11001,17 +11001,17 @@
         <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>8.84026078986814</v>
+        <v>8.8402607899</v>
       </c>
       <c r="D36" t="n">
-        <v>14.6879930711115</v>
+        <v>14.6879930711</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="n">
-        <v>15.0574023145819</v>
+        <v>15.0574023146</v>
       </c>
       <c r="G36" t="n">
-        <v>18.3376908934541</v>
+        <v>18.3376908935</v>
       </c>
     </row>
     <row r="37">
@@ -11022,19 +11022,19 @@
         <v>77</v>
       </c>
       <c r="C37" t="n">
-        <v>17.5209722283601</v>
+        <v>17.5209722284</v>
       </c>
       <c r="D37" t="n">
-        <v>15.6330157564283</v>
+        <v>15.6330157564</v>
       </c>
       <c r="E37" t="n">
-        <v>22.3861048867913</v>
+        <v>22.3861048868</v>
       </c>
       <c r="F37" t="n">
-        <v>19.4562634321297</v>
+        <v>19.4562634321</v>
       </c>
       <c r="G37" t="n">
-        <v>18.6423309304245</v>
+        <v>18.6423309304</v>
       </c>
     </row>
     <row r="38">
@@ -11046,16 +11046,16 @@
       </c>
       <c r="C38"/>
       <c r="D38" t="n">
-        <v>11.746745121485</v>
+        <v>11.7467451215</v>
       </c>
       <c r="E38" t="n">
-        <v>15.298977264873</v>
+        <v>15.2989772649</v>
       </c>
       <c r="F38" t="n">
-        <v>11.6703921715328</v>
+        <v>11.6703921715</v>
       </c>
       <c r="G38" t="n">
-        <v>11.7335005824887</v>
+        <v>11.7335005825</v>
       </c>
     </row>
     <row r="39">
@@ -11066,19 +11066,19 @@
         <v>81</v>
       </c>
       <c r="C39" t="n">
-        <v>10.7547687966187</v>
+        <v>10.7547687966</v>
       </c>
       <c r="D39" t="n">
-        <v>10.4592843598912</v>
+        <v>10.4592843599</v>
       </c>
       <c r="E39" t="n">
-        <v>14.1332238527562</v>
+        <v>14.1332238528</v>
       </c>
       <c r="F39" t="n">
-        <v>12.5772191525311</v>
+        <v>12.5772191525</v>
       </c>
       <c r="G39" t="n">
-        <v>13.9218787152125</v>
+        <v>13.9218787152</v>
       </c>
     </row>
     <row r="40">
@@ -11089,19 +11089,19 @@
         <v>83</v>
       </c>
       <c r="C40" t="n">
-        <v>12.3043418834239</v>
+        <v>12.3043418834</v>
       </c>
       <c r="D40" t="n">
-        <v>16.5680361221972</v>
+        <v>16.5680361222</v>
       </c>
       <c r="E40" t="n">
-        <v>17.8816197445903</v>
+        <v>17.8816197446</v>
       </c>
       <c r="F40" t="n">
-        <v>16.2485594082398</v>
+        <v>16.2485594082</v>
       </c>
       <c r="G40" t="n">
-        <v>16.5744367382408</v>
+        <v>16.5744367382</v>
       </c>
     </row>
     <row r="41">
@@ -11112,19 +11112,19 @@
         <v>85</v>
       </c>
       <c r="C41" t="n">
-        <v>27.9128102619207</v>
+        <v>27.9128102619</v>
       </c>
       <c r="D41" t="n">
-        <v>33.5462561839243</v>
+        <v>33.5462561839</v>
       </c>
       <c r="E41" t="n">
-        <v>33.2840217718608</v>
+        <v>33.2840217719</v>
       </c>
       <c r="F41" t="n">
-        <v>34.1080351760558</v>
+        <v>34.1080351761</v>
       </c>
       <c r="G41" t="n">
-        <v>37.3582282408626</v>
+        <v>37.3582282409</v>
       </c>
     </row>
     <row r="42">
@@ -11135,19 +11135,19 @@
         <v>87</v>
       </c>
       <c r="C42" t="n">
-        <v>10.5123769495454</v>
+        <v>10.5123769495</v>
       </c>
       <c r="D42" t="n">
-        <v>11.8536174952135</v>
+        <v>11.8536174952</v>
       </c>
       <c r="E42" t="n">
-        <v>13.1475640935157</v>
+        <v>13.1475640935</v>
       </c>
       <c r="F42" t="n">
-        <v>14.916245933034</v>
+        <v>14.916245933</v>
       </c>
       <c r="G42" t="n">
-        <v>15.3420453937649</v>
+        <v>15.3420453938</v>
       </c>
     </row>
     <row r="43">
@@ -11158,19 +11158,19 @@
         <v>89</v>
       </c>
       <c r="C43" t="n">
-        <v>11.0257767658335</v>
+        <v>11.0257767658</v>
       </c>
       <c r="D43" t="n">
-        <v>12.6038058257329</v>
+        <v>12.6038058257</v>
       </c>
       <c r="E43" t="n">
-        <v>16.3376005634699</v>
+        <v>16.3376005635</v>
       </c>
       <c r="F43" t="n">
-        <v>16.1485480742517</v>
+        <v>16.1485480743</v>
       </c>
       <c r="G43" t="n">
-        <v>16.7798166627477</v>
+        <v>16.7798166627</v>
       </c>
     </row>
     <row r="44">
@@ -11181,19 +11181,19 @@
         <v>91</v>
       </c>
       <c r="C44" t="n">
-        <v>13.549524452272</v>
+        <v>13.5495244523</v>
       </c>
       <c r="D44" t="n">
-        <v>16.8417343021033</v>
+        <v>16.8417343021</v>
       </c>
       <c r="E44" t="n">
-        <v>17.0177456901635</v>
+        <v>17.0177456902</v>
       </c>
       <c r="F44" t="n">
-        <v>16.3042969379967</v>
+        <v>16.304296938</v>
       </c>
       <c r="G44" t="n">
-        <v>14.1113708666332</v>
+        <v>14.1113708666</v>
       </c>
     </row>
     <row r="45">
@@ -11204,19 +11204,19 @@
         <v>93</v>
       </c>
       <c r="C45" t="n">
-        <v>12.8648853380037</v>
+        <v>12.864885338</v>
       </c>
       <c r="D45" t="n">
-        <v>10.9895212799606</v>
+        <v>10.98952128</v>
       </c>
       <c r="E45" t="n">
-        <v>13.6865458756192</v>
+        <v>13.6865458756</v>
       </c>
       <c r="F45" t="n">
-        <v>10.3450147811343</v>
+        <v>10.3450147811</v>
       </c>
       <c r="G45" t="n">
-        <v>11.2630590719112</v>
+        <v>11.2630590719</v>
       </c>
     </row>
     <row r="46">
@@ -11227,19 +11227,19 @@
         <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>17.3939352744671</v>
+        <v>17.3939352745</v>
       </c>
       <c r="D46" t="n">
-        <v>18.6920665998439</v>
+        <v>18.6920665998</v>
       </c>
       <c r="E46" t="n">
-        <v>21.8752550112569</v>
+        <v>21.8752550113</v>
       </c>
       <c r="F46" t="n">
-        <v>17.5215679824435</v>
+        <v>17.5215679824</v>
       </c>
       <c r="G46" t="n">
-        <v>18.0629793974387</v>
+        <v>18.0629793974</v>
       </c>
     </row>
     <row r="47">
@@ -11250,19 +11250,19 @@
         <v>97</v>
       </c>
       <c r="C47" t="n">
-        <v>18.0426847357874</v>
+        <v>18.0426847358</v>
       </c>
       <c r="D47" t="n">
-        <v>19.1592619145652</v>
+        <v>19.1592619146</v>
       </c>
       <c r="E47" t="n">
-        <v>19.3296632511654</v>
+        <v>19.3296632512</v>
       </c>
       <c r="F47" t="n">
-        <v>24.5730325926529</v>
+        <v>24.5730325927</v>
       </c>
       <c r="G47" t="n">
-        <v>25.7735477297797</v>
+        <v>25.7735477298</v>
       </c>
     </row>
     <row r="48">
@@ -11273,19 +11273,19 @@
         <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>11.059428047938</v>
+        <v>11.0594280479</v>
       </c>
       <c r="D48" t="n">
-        <v>13.1354528561519</v>
+        <v>13.1354528562</v>
       </c>
       <c r="E48" t="n">
-        <v>18.2891671284943</v>
+        <v>18.2891671285</v>
       </c>
       <c r="F48" t="n">
-        <v>20.0237010385746</v>
+        <v>20.0237010386</v>
       </c>
       <c r="G48" t="n">
-        <v>19.0731280883634</v>
+        <v>19.0731280884</v>
       </c>
     </row>
     <row r="49">
@@ -11296,19 +11296,19 @@
         <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>14.9161801682885</v>
+        <v>14.9161801683</v>
       </c>
       <c r="D49" t="n">
-        <v>21.8982364256532</v>
+        <v>21.8982364257</v>
       </c>
       <c r="E49" t="n">
-        <v>18.9444634339119</v>
+        <v>18.9444634339</v>
       </c>
       <c r="F49" t="n">
-        <v>16.1780928389458</v>
+        <v>16.1780928389</v>
       </c>
       <c r="G49" t="n">
-        <v>17.6075300276471</v>
+        <v>17.6075300276</v>
       </c>
     </row>
     <row r="50">
@@ -11322,16 +11322,16 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>15.913877624519</v>
+        <v>15.9138776245</v>
       </c>
       <c r="E50" t="n">
-        <v>16.5673555922447</v>
+        <v>16.5673555922</v>
       </c>
       <c r="F50" t="n">
-        <v>14.2348428000474</v>
+        <v>14.2348428</v>
       </c>
       <c r="G50" t="n">
-        <v>16.5630674700017</v>
+        <v>16.56306747</v>
       </c>
     </row>
     <row r="51">
@@ -11342,19 +11342,19 @@
         <v>105</v>
       </c>
       <c r="C51" t="n">
-        <v>12.1262153697122</v>
+        <v>12.1262153697</v>
       </c>
       <c r="D51" t="n">
-        <v>13.8816391494996</v>
+        <v>13.8816391495</v>
       </c>
       <c r="E51" t="n">
-        <v>12.4039989010687</v>
+        <v>12.4039989011</v>
       </c>
       <c r="F51" t="n">
-        <v>10.4184951075619</v>
+        <v>10.4184951076</v>
       </c>
       <c r="G51" t="n">
-        <v>10.9175709255237</v>
+        <v>10.9175709255</v>
       </c>
     </row>
     <row r="52">
@@ -11365,19 +11365,19 @@
         <v>107</v>
       </c>
       <c r="C52" t="n">
-        <v>16.6039112014672</v>
+        <v>16.6039112015</v>
       </c>
       <c r="D52" t="n">
-        <v>16.3715264298439</v>
+        <v>16.3715264298</v>
       </c>
       <c r="E52" t="n">
-        <v>14.8272584877988</v>
+        <v>14.8272584878</v>
       </c>
       <c r="F52" t="n">
-        <v>19.1114799007203</v>
+        <v>19.1114799007</v>
       </c>
       <c r="G52" t="n">
-        <v>16.892219006964</v>
+        <v>16.892219007</v>
       </c>
     </row>
     <row r="53">
@@ -11388,19 +11388,19 @@
         <v>109</v>
       </c>
       <c r="C53" t="n">
-        <v>9.12528468583407</v>
+        <v>9.1252846858</v>
       </c>
       <c r="D53" t="n">
-        <v>9.03681161680192</v>
+        <v>9.0368116168</v>
       </c>
       <c r="E53" t="n">
-        <v>10.9607676130633</v>
+        <v>10.9607676131</v>
       </c>
       <c r="F53" t="n">
-        <v>8.90572736367804</v>
+        <v>8.9057273637</v>
       </c>
       <c r="G53" t="n">
-        <v>9.70824519040648</v>
+        <v>9.7082451904</v>
       </c>
     </row>
     <row r="54">
@@ -11411,19 +11411,19 @@
         <v>111</v>
       </c>
       <c r="C54" t="n">
-        <v>16.1815170383485</v>
+        <v>16.1815170383</v>
       </c>
       <c r="D54" t="n">
-        <v>14.6415825688273</v>
+        <v>14.6415825688</v>
       </c>
       <c r="E54" t="n">
-        <v>17.9138421328936</v>
+        <v>17.9138421329</v>
       </c>
       <c r="F54" t="n">
-        <v>17.8794747306881</v>
+        <v>17.8794747307</v>
       </c>
       <c r="G54" t="n">
-        <v>18.2632343707002</v>
+        <v>18.2632343707</v>
       </c>
     </row>
     <row r="55">
@@ -11434,19 +11434,19 @@
         <v>113</v>
       </c>
       <c r="C55" t="n">
-        <v>16.5085886529131</v>
+        <v>16.5085886529</v>
       </c>
       <c r="D55" t="n">
-        <v>15.9726660688672</v>
+        <v>15.9726660689</v>
       </c>
       <c r="E55" t="n">
-        <v>15.1889347201098</v>
+        <v>15.1889347201</v>
       </c>
       <c r="F55" t="n">
-        <v>12.0880527922781</v>
+        <v>12.0880527923</v>
       </c>
       <c r="G55" t="n">
-        <v>13.357023640001</v>
+        <v>13.35702364</v>
       </c>
     </row>
     <row r="56">
@@ -11457,19 +11457,19 @@
         <v>115</v>
       </c>
       <c r="C56" t="n">
-        <v>18.8697006910186</v>
+        <v>18.869700691</v>
       </c>
       <c r="D56" t="n">
-        <v>19.569147581204</v>
+        <v>19.5691475812</v>
       </c>
       <c r="E56" t="n">
-        <v>23.0305289341703</v>
+        <v>23.0305289342</v>
       </c>
       <c r="F56" t="n">
-        <v>21.0152897845473</v>
+        <v>21.0152897845</v>
       </c>
       <c r="G56" t="n">
-        <v>21.6379659105738</v>
+        <v>21.6379659106</v>
       </c>
     </row>
     <row r="57">
@@ -11480,19 +11480,19 @@
         <v>117</v>
       </c>
       <c r="C57" t="n">
-        <v>15.8542416097201</v>
+        <v>15.8542416097</v>
       </c>
       <c r="D57" t="n">
-        <v>11.3675566279331</v>
+        <v>11.3675566279</v>
       </c>
       <c r="E57" t="n">
-        <v>16.7137378068043</v>
+        <v>16.7137378068</v>
       </c>
       <c r="F57" t="n">
-        <v>15.7341470809409</v>
+        <v>15.7341470809</v>
       </c>
       <c r="G57" t="n">
-        <v>15.8306717874969</v>
+        <v>15.8306717875</v>
       </c>
     </row>
     <row r="58">
@@ -11503,19 +11503,19 @@
         <v>119</v>
       </c>
       <c r="C58" t="n">
-        <v>11.1215223713076</v>
+        <v>11.1215223713</v>
       </c>
       <c r="D58" t="n">
-        <v>13.1292600434414</v>
+        <v>13.1292600434</v>
       </c>
       <c r="E58" t="n">
-        <v>13.1972978105162</v>
+        <v>13.1972978105</v>
       </c>
       <c r="F58" t="n">
-        <v>12.7893473320125</v>
+        <v>12.789347332</v>
       </c>
       <c r="G58" t="n">
-        <v>15.0217801729152</v>
+        <v>15.0217801729</v>
       </c>
     </row>
     <row r="59">
@@ -11526,19 +11526,19 @@
         <v>121</v>
       </c>
       <c r="C59" t="n">
-        <v>5.87327657913158</v>
+        <v>5.8732765791</v>
       </c>
       <c r="D59" t="n">
-        <v>7.90350265663094</v>
+        <v>7.9035026566</v>
       </c>
       <c r="E59" t="n">
-        <v>9.7268073099489</v>
+        <v>9.7268073099</v>
       </c>
       <c r="F59" t="n">
-        <v>15.3669908403306</v>
+        <v>15.3669908403</v>
       </c>
       <c r="G59" t="n">
-        <v>15.7743276374174</v>
+        <v>15.7743276374</v>
       </c>
     </row>
     <row r="60">
@@ -11549,19 +11549,19 @@
         <v>123</v>
       </c>
       <c r="C60" t="n">
-        <v>16.5649894782931</v>
+        <v>16.5649894783</v>
       </c>
       <c r="D60" t="n">
-        <v>20.0037837686971</v>
+        <v>20.0037837687</v>
       </c>
       <c r="E60" t="n">
-        <v>18.2498821905205</v>
+        <v>18.2498821905</v>
       </c>
       <c r="F60" t="n">
-        <v>18.6251295792695</v>
+        <v>18.6251295793</v>
       </c>
       <c r="G60" t="n">
-        <v>16.5452803925906</v>
+        <v>16.5452803926</v>
       </c>
     </row>
     <row r="61">
@@ -11572,19 +11572,19 @@
         <v>125</v>
       </c>
       <c r="C61" t="n">
-        <v>17.147258683813</v>
+        <v>17.1472586838</v>
       </c>
       <c r="D61" t="n">
-        <v>16.6528527612084</v>
+        <v>16.6528527612</v>
       </c>
       <c r="E61" t="n">
-        <v>18.715085649516</v>
+        <v>18.7150856495</v>
       </c>
       <c r="F61" t="n">
-        <v>21.0958147553413</v>
+        <v>21.0958147553</v>
       </c>
       <c r="G61" t="n">
-        <v>19.6667814454054</v>
+        <v>19.6667814454</v>
       </c>
     </row>
     <row r="62">
@@ -11595,19 +11595,19 @@
         <v>127</v>
       </c>
       <c r="C62" t="n">
-        <v>10.5521737776443</v>
+        <v>10.5521737776</v>
       </c>
       <c r="D62" t="n">
-        <v>10.890186421587</v>
+        <v>10.8901864216</v>
       </c>
       <c r="E62" t="n">
-        <v>15.5273828421561</v>
+        <v>15.5273828422</v>
       </c>
       <c r="F62" t="n">
-        <v>14.5554762752333</v>
+        <v>14.5554762752</v>
       </c>
       <c r="G62" t="n">
-        <v>15.4710073897593</v>
+        <v>15.4710073898</v>
       </c>
     </row>
     <row r="63">
@@ -11618,19 +11618,19 @@
         <v>129</v>
       </c>
       <c r="C63" t="n">
-        <v>5.15508335476822</v>
+        <v>5.1550833548</v>
       </c>
       <c r="D63" t="n">
-        <v>5.2092702905923</v>
+        <v>5.2092702906</v>
       </c>
       <c r="E63" t="n">
-        <v>10.7507724439668</v>
+        <v>10.750772444</v>
       </c>
       <c r="F63" t="n">
-        <v>12.2304697051027</v>
+        <v>12.2304697051</v>
       </c>
       <c r="G63" t="n">
-        <v>12.3311152439818</v>
+        <v>12.331115244</v>
       </c>
     </row>
     <row r="64">
@@ -11641,19 +11641,19 @@
         <v>131</v>
       </c>
       <c r="C64" t="n">
-        <v>15.32949529591</v>
+        <v>15.3294952959</v>
       </c>
       <c r="D64" t="n">
-        <v>10.0731819105228</v>
+        <v>10.0731819105</v>
       </c>
       <c r="E64" t="n">
-        <v>16.1931628898093</v>
+        <v>16.1931628898</v>
       </c>
       <c r="F64" t="n">
-        <v>16.4001954639065</v>
+        <v>16.4001954639</v>
       </c>
       <c r="G64" t="n">
-        <v>17.2479856611771</v>
+        <v>17.2479856612</v>
       </c>
     </row>
     <row r="65">
@@ -11664,19 +11664,19 @@
         <v>133</v>
       </c>
       <c r="C65" t="n">
-        <v>12.7481740973294</v>
+        <v>12.7481740973</v>
       </c>
       <c r="D65" t="n">
-        <v>16.9848503229105</v>
+        <v>16.9848503229</v>
       </c>
       <c r="E65" t="n">
-        <v>16.1478106367852</v>
+        <v>16.1478106368</v>
       </c>
       <c r="F65" t="n">
-        <v>13.6190847289204</v>
+        <v>13.6190847289</v>
       </c>
       <c r="G65" t="n">
-        <v>16.6912279035346</v>
+        <v>16.6912279035</v>
       </c>
     </row>
     <row r="66">
@@ -11687,19 +11687,19 @@
         <v>135</v>
       </c>
       <c r="C66" t="n">
-        <v>12.4867805918517</v>
+        <v>12.4867805919</v>
       </c>
       <c r="D66" t="n">
-        <v>9.81613718072469</v>
+        <v>9.8161371807</v>
       </c>
       <c r="E66" t="n">
-        <v>21.6755635236991</v>
+        <v>21.6755635237</v>
       </c>
       <c r="F66" t="n">
-        <v>12.5658673708458</v>
+        <v>12.5658673708</v>
       </c>
       <c r="G66" t="n">
-        <v>17.8144466193526</v>
+        <v>17.8144466194</v>
       </c>
     </row>
     <row r="67">
@@ -11710,17 +11710,17 @@
         <v>137</v>
       </c>
       <c r="C67" t="n">
-        <v>13.5931834883399</v>
+        <v>13.5931834883</v>
       </c>
       <c r="D67" t="n">
-        <v>9.35899831620724</v>
+        <v>9.3589983162</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="n">
-        <v>7.55496183056955</v>
+        <v>7.5549618306</v>
       </c>
       <c r="G67" t="n">
-        <v>8.37481320681182</v>
+        <v>8.3748132068</v>
       </c>
     </row>
     <row r="68">
@@ -11731,16 +11731,16 @@
         <v>139</v>
       </c>
       <c r="C68" t="n">
-        <v>8.85886308302576</v>
+        <v>8.858863083</v>
       </c>
       <c r="D68" t="n">
-        <v>9.24366138407922</v>
+        <v>9.2436613841</v>
       </c>
       <c r="E68" t="n">
-        <v>10.4257214246793</v>
+        <v>10.4257214247</v>
       </c>
       <c r="F68" t="n">
-        <v>8.41629922174581</v>
+        <v>8.4162992217</v>
       </c>
       <c r="G68"/>
     </row>
@@ -11752,19 +11752,19 @@
         <v>141</v>
       </c>
       <c r="C69" t="n">
-        <v>12.2385564240112</v>
+        <v>12.238556424</v>
       </c>
       <c r="D69" t="n">
-        <v>14.7960260410696</v>
+        <v>14.7960260411</v>
       </c>
       <c r="E69" t="n">
-        <v>13.4123867043976</v>
+        <v>13.4123867044</v>
       </c>
       <c r="F69" t="n">
-        <v>12.6777077406636</v>
+        <v>12.6777077407</v>
       </c>
       <c r="G69" t="n">
-        <v>12.4042269604104</v>
+        <v>12.4042269604</v>
       </c>
     </row>
     <row r="70">
@@ -11775,19 +11775,19 @@
         <v>143</v>
       </c>
       <c r="C70" t="n">
-        <v>8.34782949496747</v>
+        <v>8.347829495</v>
       </c>
       <c r="D70" t="n">
-        <v>10.3891572140961</v>
+        <v>10.3891572141</v>
       </c>
       <c r="E70" t="n">
-        <v>11.4592301027255</v>
+        <v>11.4592301027</v>
       </c>
       <c r="F70" t="n">
-        <v>11.9548730112268</v>
+        <v>11.9548730112</v>
       </c>
       <c r="G70" t="n">
-        <v>11.6832970099295</v>
+        <v>11.6832970099</v>
       </c>
     </row>
     <row r="71">
@@ -11798,19 +11798,19 @@
         <v>145</v>
       </c>
       <c r="C71" t="n">
-        <v>22.4612606530281</v>
+        <v>22.461260653</v>
       </c>
       <c r="D71" t="n">
-        <v>23.4461613176459</v>
+        <v>23.4461613176</v>
       </c>
       <c r="E71" t="n">
-        <v>27.5578519245726</v>
+        <v>27.5578519246</v>
       </c>
       <c r="F71" t="n">
-        <v>23.8594080240003</v>
+        <v>23.859408024</v>
       </c>
       <c r="G71" t="n">
-        <v>23.7233956479155</v>
+        <v>23.7233956479</v>
       </c>
     </row>
     <row r="72">
@@ -11821,19 +11821,19 @@
         <v>147</v>
       </c>
       <c r="C72" t="n">
-        <v>13.5743261226621</v>
+        <v>13.5743261227</v>
       </c>
       <c r="D72" t="n">
-        <v>12.5396089104498</v>
+        <v>12.5396089104</v>
       </c>
       <c r="E72" t="n">
-        <v>13.317323225569</v>
+        <v>13.3173232256</v>
       </c>
       <c r="F72" t="n">
-        <v>11.0036759224022</v>
+        <v>11.0036759224</v>
       </c>
       <c r="G72" t="n">
-        <v>11.3616306398541</v>
+        <v>11.3616306399</v>
       </c>
     </row>
     <row r="73">
@@ -11844,13 +11844,13 @@
         <v>149</v>
       </c>
       <c r="C73" t="n">
-        <v>15.2143605792038</v>
+        <v>15.2143605792</v>
       </c>
       <c r="D73" t="n">
-        <v>16.871821922201</v>
+        <v>16.8718219222</v>
       </c>
       <c r="E73" t="n">
-        <v>17.7946538107976</v>
+        <v>17.7946538108</v>
       </c>
       <c r="F73"/>
       <c r="G73"/>
@@ -11863,17 +11863,17 @@
         <v>151</v>
       </c>
       <c r="C74" t="n">
-        <v>11.9455617701446</v>
+        <v>11.9455617701</v>
       </c>
       <c r="D74" t="n">
-        <v>12.0396835266978</v>
+        <v>12.0396835267</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="n">
-        <v>9.24667196335913</v>
+        <v>9.2466719634</v>
       </c>
       <c r="G74" t="n">
-        <v>10.1851748546078</v>
+        <v>10.1851748546</v>
       </c>
     </row>
     <row r="75">
@@ -11884,17 +11884,17 @@
         <v>153</v>
       </c>
       <c r="C75" t="n">
-        <v>13.7817361078015</v>
+        <v>13.7817361078</v>
       </c>
       <c r="D75" t="n">
-        <v>13.6433018248536</v>
+        <v>13.6433018249</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="n">
-        <v>13.5615456687444</v>
+        <v>13.5615456687</v>
       </c>
       <c r="G75" t="n">
-        <v>16.1713582674173</v>
+        <v>16.1713582674</v>
       </c>
     </row>
     <row r="76">
@@ -11905,19 +11905,19 @@
         <v>155</v>
       </c>
       <c r="C76" t="n">
-        <v>9.74140608450263</v>
+        <v>9.7414060845</v>
       </c>
       <c r="D76" t="n">
-        <v>10.4135912116067</v>
+        <v>10.4135912116</v>
       </c>
       <c r="E76" t="n">
-        <v>12.3542296611738</v>
+        <v>12.3542296612</v>
       </c>
       <c r="F76" t="n">
-        <v>10.2911186361062</v>
+        <v>10.2911186361</v>
       </c>
       <c r="G76" t="n">
-        <v>11.5703749585835</v>
+        <v>11.5703749586</v>
       </c>
     </row>
     <row r="77">
@@ -11928,17 +11928,17 @@
         <v>157</v>
       </c>
       <c r="C77" t="n">
-        <v>11.0331078729458</v>
+        <v>11.0331078729</v>
       </c>
       <c r="D77" t="n">
-        <v>11.7251239091854</v>
+        <v>11.7251239092</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="n">
-        <v>11.8387895348061</v>
+        <v>11.8387895348</v>
       </c>
       <c r="G77" t="n">
-        <v>11.7052602915286</v>
+        <v>11.7052602915</v>
       </c>
     </row>
     <row r="78">
@@ -11949,17 +11949,17 @@
         <v>159</v>
       </c>
       <c r="C78" t="n">
-        <v>8.15323095201882</v>
+        <v>8.153230952</v>
       </c>
       <c r="D78" t="n">
-        <v>9.00153526320894</v>
+        <v>9.0015352632</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="n">
-        <v>7.57004966745058</v>
+        <v>7.5700496675</v>
       </c>
       <c r="G78" t="n">
-        <v>8.26097067297973</v>
+        <v>8.260970673</v>
       </c>
     </row>
     <row r="79">
@@ -11970,19 +11970,19 @@
         <v>161</v>
       </c>
       <c r="C79" t="n">
-        <v>7.40717026529346</v>
+        <v>7.4071702653</v>
       </c>
       <c r="D79" t="n">
-        <v>7.22918777026352</v>
+        <v>7.2291877703</v>
       </c>
       <c r="E79" t="n">
-        <v>8.89398423720308</v>
+        <v>8.8939842372</v>
       </c>
       <c r="F79" t="n">
-        <v>7.39328202846461</v>
+        <v>7.3932820285</v>
       </c>
       <c r="G79" t="n">
-        <v>7.9080642565719</v>
+        <v>7.9080642566</v>
       </c>
     </row>
     <row r="80">
@@ -11993,19 +11993,19 @@
         <v>163</v>
       </c>
       <c r="C80" t="n">
-        <v>16.9404255361582</v>
+        <v>16.9404255362</v>
       </c>
       <c r="D80" t="n">
-        <v>17.8930030920445</v>
+        <v>17.893003092</v>
       </c>
       <c r="E80" t="n">
-        <v>21.5641475165708</v>
+        <v>21.5641475166</v>
       </c>
       <c r="F80" t="n">
-        <v>20.797853855831</v>
+        <v>20.7978538558</v>
       </c>
       <c r="G80" t="n">
-        <v>21.4313088750265</v>
+        <v>21.431308875</v>
       </c>
     </row>
     <row r="81">
@@ -12016,13 +12016,13 @@
         <v>165</v>
       </c>
       <c r="C81" t="n">
-        <v>17.8338917167636</v>
+        <v>17.8338917168</v>
       </c>
       <c r="D81" t="n">
-        <v>13.9934597596235</v>
+        <v>13.9934597596</v>
       </c>
       <c r="E81" t="n">
-        <v>12.4265044970694</v>
+        <v>12.4265044971</v>
       </c>
       <c r="F81"/>
       <c r="G81"/>
@@ -12035,19 +12035,19 @@
         <v>167</v>
       </c>
       <c r="C82" t="n">
-        <v>24.4581325987948</v>
+        <v>24.4581325988</v>
       </c>
       <c r="D82" t="n">
-        <v>26.6993523009872</v>
+        <v>26.699352301</v>
       </c>
       <c r="E82" t="n">
-        <v>27.3446589245592</v>
+        <v>27.3446589246</v>
       </c>
       <c r="F82" t="n">
-        <v>23.3237787949737</v>
+        <v>23.323778795</v>
       </c>
       <c r="G82" t="n">
-        <v>23.3417025168878</v>
+        <v>23.3417025169</v>
       </c>
     </row>
     <row r="83">
@@ -12058,19 +12058,19 @@
         <v>169</v>
       </c>
       <c r="C83" t="n">
-        <v>13.5135097742833</v>
+        <v>13.5135097743</v>
       </c>
       <c r="D83" t="n">
-        <v>14.6316161501999</v>
+        <v>14.6316161502</v>
       </c>
       <c r="E83" t="n">
-        <v>14.1928162094059</v>
+        <v>14.1928162094</v>
       </c>
       <c r="F83" t="n">
-        <v>13.2275299369175</v>
+        <v>13.2275299369</v>
       </c>
       <c r="G83" t="n">
-        <v>13.6719099378947</v>
+        <v>13.6719099379</v>
       </c>
     </row>
     <row r="84">
@@ -12081,19 +12081,19 @@
         <v>171</v>
       </c>
       <c r="C84" t="n">
-        <v>14.8529405254361</v>
+        <v>14.8529405254</v>
       </c>
       <c r="D84" t="n">
-        <v>12.3790974302411</v>
+        <v>12.3790974302</v>
       </c>
       <c r="E84" t="n">
-        <v>14.1337183406811</v>
+        <v>14.1337183407</v>
       </c>
       <c r="F84" t="n">
-        <v>12.7268848451635</v>
+        <v>12.7268848452</v>
       </c>
       <c r="G84" t="n">
-        <v>13.1983850246327</v>
+        <v>13.1983850246</v>
       </c>
     </row>
     <row r="85">
@@ -12104,15 +12104,15 @@
         <v>173</v>
       </c>
       <c r="C85" t="n">
-        <v>8.38834214924189</v>
+        <v>8.3883421492</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85" t="n">
-        <v>10.7332478326049</v>
+        <v>10.7332478326</v>
       </c>
       <c r="G85" t="n">
-        <v>3.05540424061351</v>
+        <v>3.0554042406</v>
       </c>
     </row>
     <row r="86">
@@ -12123,19 +12123,19 @@
         <v>175</v>
       </c>
       <c r="C86" t="n">
-        <v>18.6660171152165</v>
+        <v>18.6660171152</v>
       </c>
       <c r="D86" t="n">
-        <v>15.600395297129</v>
+        <v>15.6003952971</v>
       </c>
       <c r="E86" t="n">
-        <v>15.6385656847067</v>
+        <v>15.6385656847</v>
       </c>
       <c r="F86" t="n">
-        <v>16.1720493682032</v>
+        <v>16.1720493682</v>
       </c>
       <c r="G86" t="n">
-        <v>15.5956617845138</v>
+        <v>15.5956617845</v>
       </c>
     </row>
     <row r="87">
@@ -12146,19 +12146,19 @@
         <v>177</v>
       </c>
       <c r="C87" t="n">
-        <v>14.9969772284544</v>
+        <v>14.9969772285</v>
       </c>
       <c r="D87" t="n">
-        <v>16.732948386804</v>
+        <v>16.7329483868</v>
       </c>
       <c r="E87" t="n">
-        <v>15.6482086612669</v>
+        <v>15.6482086613</v>
       </c>
       <c r="F87" t="n">
-        <v>17.9206099060223</v>
+        <v>17.920609906</v>
       </c>
       <c r="G87" t="n">
-        <v>17.9966773881337</v>
+        <v>17.9966773881</v>
       </c>
     </row>
     <row r="88">
@@ -12169,17 +12169,17 @@
         <v>179</v>
       </c>
       <c r="C88" t="n">
-        <v>17.1557645941934</v>
+        <v>17.1557645942</v>
       </c>
       <c r="D88" t="n">
-        <v>16.5722050798063</v>
+        <v>16.5722050798</v>
       </c>
       <c r="E88"/>
       <c r="F88" t="n">
-        <v>14.9176424627498</v>
+        <v>14.9176424627</v>
       </c>
       <c r="G88" t="n">
-        <v>14.7105585036876</v>
+        <v>14.7105585037</v>
       </c>
     </row>
     <row r="89">
@@ -12190,19 +12190,19 @@
         <v>181</v>
       </c>
       <c r="C89" t="n">
-        <v>5.30839189831027</v>
+        <v>5.3083918983</v>
       </c>
       <c r="D89" t="n">
-        <v>8.60901264888547</v>
+        <v>8.6090126489</v>
       </c>
       <c r="E89" t="n">
-        <v>11.025191114792</v>
+        <v>11.0251911148</v>
       </c>
       <c r="F89" t="n">
-        <v>11.7043136045255</v>
+        <v>11.7043136045</v>
       </c>
       <c r="G89" t="n">
-        <v>12.2943311364293</v>
+        <v>12.2943311364</v>
       </c>
     </row>
     <row r="90">
@@ -12213,19 +12213,19 @@
         <v>183</v>
       </c>
       <c r="C90" t="n">
-        <v>11.1184979504387</v>
+        <v>11.1184979504</v>
       </c>
       <c r="D90" t="n">
-        <v>12.6682258983072</v>
+        <v>12.6682258983</v>
       </c>
       <c r="E90" t="n">
-        <v>13.905763762761</v>
+        <v>13.9057637628</v>
       </c>
       <c r="F90" t="n">
-        <v>10.8992920903459</v>
+        <v>10.8992920903</v>
       </c>
       <c r="G90" t="n">
-        <v>11.0728394688161</v>
+        <v>11.0728394688</v>
       </c>
     </row>
     <row r="91">
@@ -12236,19 +12236,19 @@
         <v>185</v>
       </c>
       <c r="C91" t="n">
-        <v>29.0103477879272</v>
+        <v>29.0103477879</v>
       </c>
       <c r="D91" t="n">
-        <v>25.3954135613402</v>
+        <v>25.3954135613</v>
       </c>
       <c r="E91" t="n">
-        <v>26.4452301500064</v>
+        <v>26.44523015</v>
       </c>
       <c r="F91" t="n">
-        <v>21.7129055622548</v>
+        <v>21.7129055623</v>
       </c>
       <c r="G91" t="n">
-        <v>24.0463017476271</v>
+        <v>24.0463017476</v>
       </c>
     </row>
     <row r="92">
@@ -12259,19 +12259,19 @@
         <v>187</v>
       </c>
       <c r="C92" t="n">
-        <v>18.9750024023722</v>
+        <v>18.9750024024</v>
       </c>
       <c r="D92" t="n">
-        <v>12.2793695886241</v>
+        <v>12.2793695886</v>
       </c>
       <c r="E92" t="n">
-        <v>14.9873795640973</v>
+        <v>14.9873795641</v>
       </c>
       <c r="F92" t="n">
-        <v>14.9873795640972</v>
+        <v>14.9873795641</v>
       </c>
       <c r="G92" t="n">
-        <v>15.0365322141107</v>
+        <v>15.0365322141</v>
       </c>
     </row>
     <row r="93">
@@ -12282,19 +12282,19 @@
         <v>189</v>
       </c>
       <c r="C93" t="n">
-        <v>14.9616870096862</v>
+        <v>14.9616870097</v>
       </c>
       <c r="D93" t="n">
-        <v>13.5102338276122</v>
+        <v>13.5102338276</v>
       </c>
       <c r="E93" t="n">
-        <v>15.178108083668</v>
+        <v>15.1781080837</v>
       </c>
       <c r="F93" t="n">
-        <v>14.4761382015575</v>
+        <v>14.4761382016</v>
       </c>
       <c r="G93" t="n">
-        <v>14.5702849322948</v>
+        <v>14.5702849323</v>
       </c>
     </row>
     <row r="94">
@@ -12305,19 +12305,19 @@
         <v>191</v>
       </c>
       <c r="C94" t="n">
-        <v>9.93663204082215</v>
+        <v>9.9366320408</v>
       </c>
       <c r="D94" t="n">
-        <v>14.3668656035695</v>
+        <v>14.3668656036</v>
       </c>
       <c r="E94" t="n">
-        <v>19.139068420494</v>
+        <v>19.1390684205</v>
       </c>
       <c r="F94" t="n">
-        <v>18.8833016041518</v>
+        <v>18.8833016042</v>
       </c>
       <c r="G94" t="n">
-        <v>19.4185625293497</v>
+        <v>19.4185625293</v>
       </c>
     </row>
     <row r="95">
@@ -12328,15 +12328,15 @@
         <v>193</v>
       </c>
       <c r="C95" t="n">
-        <v>14.8765406972868</v>
+        <v>14.8765406973</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95" t="n">
-        <v>13.5570773892402</v>
+        <v>13.5570773892</v>
       </c>
       <c r="G95" t="n">
-        <v>13.5547496597441</v>
+        <v>13.5547496597</v>
       </c>
     </row>
     <row r="96">
@@ -12347,17 +12347,17 @@
         <v>195</v>
       </c>
       <c r="C96" t="n">
-        <v>17.3075399328412</v>
+        <v>17.3075399328</v>
       </c>
       <c r="D96"/>
       <c r="E96" t="n">
-        <v>9.24095988920119</v>
+        <v>9.2409598892</v>
       </c>
       <c r="F96" t="n">
-        <v>16.232767725107</v>
+        <v>16.2327677251</v>
       </c>
       <c r="G96" t="n">
-        <v>18.9792637771467</v>
+        <v>18.9792637771</v>
       </c>
     </row>
     <row r="97">
@@ -12368,19 +12368,19 @@
         <v>197</v>
       </c>
       <c r="C97" t="n">
-        <v>17.4292777192243</v>
+        <v>17.4292777192</v>
       </c>
       <c r="D97" t="n">
-        <v>17.1048621882015</v>
+        <v>17.1048621882</v>
       </c>
       <c r="E97" t="n">
-        <v>21.8449647904367</v>
+        <v>21.8449647904</v>
       </c>
       <c r="F97" t="n">
-        <v>17.1398285280993</v>
+        <v>17.1398285281</v>
       </c>
       <c r="G97" t="n">
-        <v>16.8888151673168</v>
+        <v>16.8888151673</v>
       </c>
     </row>
     <row r="98">
@@ -12391,19 +12391,19 @@
         <v>199</v>
       </c>
       <c r="C98" t="n">
-        <v>11.9892042528621</v>
+        <v>11.9892042529</v>
       </c>
       <c r="D98" t="n">
-        <v>9.4296238021523</v>
+        <v>9.4296238022</v>
       </c>
       <c r="E98" t="n">
-        <v>11.4048519113855</v>
+        <v>11.4048519114</v>
       </c>
       <c r="F98" t="n">
-        <v>13.3251308190859</v>
+        <v>13.3251308191</v>
       </c>
       <c r="G98" t="n">
-        <v>12.2713193774718</v>
+        <v>12.2713193775</v>
       </c>
     </row>
     <row r="99">
@@ -12414,19 +12414,19 @@
         <v>201</v>
       </c>
       <c r="C99" t="n">
-        <v>13.0707300870806</v>
+        <v>13.0707300871</v>
       </c>
       <c r="D99" t="n">
-        <v>12.567387526754</v>
+        <v>12.5673875268</v>
       </c>
       <c r="E99" t="n">
-        <v>14.549852998677</v>
+        <v>14.5498529987</v>
       </c>
       <c r="F99" t="n">
-        <v>17.269953490016</v>
+        <v>17.26995349</v>
       </c>
       <c r="G99" t="n">
-        <v>17.5835653931462</v>
+        <v>17.5835653931</v>
       </c>
     </row>
     <row r="100">
@@ -12437,19 +12437,19 @@
         <v>203</v>
       </c>
       <c r="C100" t="n">
-        <v>16.7735551437623</v>
+        <v>16.7735551438</v>
       </c>
       <c r="D100" t="n">
-        <v>15.0842185432727</v>
+        <v>15.0842185433</v>
       </c>
       <c r="E100" t="n">
-        <v>16.7933484511783</v>
+        <v>16.7933484512</v>
       </c>
       <c r="F100" t="n">
-        <v>15.7503093526125</v>
+        <v>15.7503093526</v>
       </c>
       <c r="G100" t="n">
-        <v>16.4667752369946</v>
+        <v>16.466775237</v>
       </c>
     </row>
     <row r="101">
@@ -12460,19 +12460,19 @@
         <v>205</v>
       </c>
       <c r="C101" t="n">
-        <v>17.0512112990485</v>
+        <v>17.051211299</v>
       </c>
       <c r="D101" t="n">
-        <v>18.7951029908148</v>
+        <v>18.7951029908</v>
       </c>
       <c r="E101" t="n">
-        <v>18.2557681473196</v>
+        <v>18.2557681473</v>
       </c>
       <c r="F101" t="n">
-        <v>18.8308499250178</v>
+        <v>18.830849925</v>
       </c>
       <c r="G101" t="n">
-        <v>19.2868706743199</v>
+        <v>19.2868706743</v>
       </c>
     </row>
     <row r="102">
@@ -12483,19 +12483,19 @@
         <v>207</v>
       </c>
       <c r="C102" t="n">
-        <v>8.14504902395534</v>
+        <v>8.145049024</v>
       </c>
       <c r="D102" t="n">
-        <v>8.76868731409784</v>
+        <v>8.7686873141</v>
       </c>
       <c r="E102" t="n">
-        <v>11.0808553760017</v>
+        <v>11.080855376</v>
       </c>
       <c r="F102" t="n">
-        <v>9.94853367185894</v>
+        <v>9.9485336719</v>
       </c>
       <c r="G102" t="n">
-        <v>10.3461533860562</v>
+        <v>10.3461533861</v>
       </c>
     </row>
     <row r="103">
@@ -12506,17 +12506,17 @@
         <v>209</v>
       </c>
       <c r="C103" t="n">
-        <v>15.0086674413806</v>
+        <v>15.0086674414</v>
       </c>
       <c r="D103" t="n">
-        <v>16.4867291346585</v>
+        <v>16.4867291347</v>
       </c>
       <c r="E103"/>
       <c r="F103" t="n">
-        <v>14.0201316564463</v>
+        <v>14.0201316564</v>
       </c>
       <c r="G103" t="n">
-        <v>14.241638705698</v>
+        <v>14.2416387057</v>
       </c>
     </row>
     <row r="104">
@@ -12527,19 +12527,19 @@
         <v>211</v>
       </c>
       <c r="C104" t="n">
-        <v>9.58645355625238</v>
+        <v>9.5864535563</v>
       </c>
       <c r="D104" t="n">
-        <v>11.754424740197</v>
+        <v>11.7544247402</v>
       </c>
       <c r="E104" t="n">
-        <v>13.9663616139185</v>
+        <v>13.9663616139</v>
       </c>
       <c r="F104" t="n">
-        <v>12.2871009613129</v>
+        <v>12.2871009613</v>
       </c>
       <c r="G104" t="n">
-        <v>12.5361209647074</v>
+        <v>12.5361209647</v>
       </c>
     </row>
     <row r="105">
@@ -12550,17 +12550,17 @@
         <v>213</v>
       </c>
       <c r="C105" t="n">
-        <v>12.0978676696099</v>
+        <v>12.0978676696</v>
       </c>
       <c r="D105" t="n">
-        <v>11.6011857494973</v>
+        <v>11.6011857495</v>
       </c>
       <c r="E105"/>
       <c r="F105" t="n">
-        <v>12.3012471993025</v>
+        <v>12.3012471993</v>
       </c>
       <c r="G105" t="n">
-        <v>12.3365102483874</v>
+        <v>12.3365102484</v>
       </c>
     </row>
     <row r="106">
@@ -12571,19 +12571,19 @@
         <v>215</v>
       </c>
       <c r="C106" t="n">
-        <v>13.2157174630613</v>
+        <v>13.2157174631</v>
       </c>
       <c r="D106" t="n">
-        <v>14.7556900747179</v>
+        <v>14.7556900747</v>
       </c>
       <c r="E106" t="n">
-        <v>16.85079911164</v>
+        <v>16.8507991116</v>
       </c>
       <c r="F106" t="n">
-        <v>13.3626705860841</v>
+        <v>13.3626705861</v>
       </c>
       <c r="G106" t="n">
-        <v>13.9869096532251</v>
+        <v>13.9869096532</v>
       </c>
     </row>
     <row r="107">
@@ -12594,19 +12594,19 @@
         <v>217</v>
       </c>
       <c r="C107" t="n">
-        <v>9.03627252283517</v>
+        <v>9.0362725228</v>
       </c>
       <c r="D107" t="n">
-        <v>8.21096245301199</v>
+        <v>8.210962453</v>
       </c>
       <c r="E107" t="n">
-        <v>9.19012358329646</v>
+        <v>9.1901235833</v>
       </c>
       <c r="F107" t="n">
-        <v>7.85130696710074</v>
+        <v>7.8513069671</v>
       </c>
       <c r="G107" t="n">
-        <v>7.86223479756033</v>
+        <v>7.8622347976</v>
       </c>
     </row>
     <row r="108">
@@ -12617,19 +12617,19 @@
         <v>219</v>
       </c>
       <c r="C108" t="n">
-        <v>11.2548437443098</v>
+        <v>11.2548437443</v>
       </c>
       <c r="D108" t="n">
-        <v>12.4108952849851</v>
+        <v>12.410895285</v>
       </c>
       <c r="E108" t="n">
-        <v>12.0026429348298</v>
+        <v>12.0026429348</v>
       </c>
       <c r="F108" t="n">
-        <v>8.95037748372534</v>
+        <v>8.9503774837</v>
       </c>
       <c r="G108" t="n">
-        <v>9.32584100322198</v>
+        <v>9.3258410032</v>
       </c>
     </row>
     <row r="109">
@@ -12640,19 +12640,19 @@
         <v>221</v>
       </c>
       <c r="C109" t="n">
-        <v>13.2798804843718</v>
+        <v>13.2798804844</v>
       </c>
       <c r="D109" t="n">
-        <v>16.5305775590853</v>
+        <v>16.5305775591</v>
       </c>
       <c r="E109" t="n">
-        <v>15.2676375907738</v>
+        <v>15.2676375908</v>
       </c>
       <c r="F109" t="n">
-        <v>12.6330922560453</v>
+        <v>12.633092256</v>
       </c>
       <c r="G109" t="n">
-        <v>12.3439501989757</v>
+        <v>12.343950199</v>
       </c>
     </row>
     <row r="110">
@@ -12663,19 +12663,19 @@
         <v>223</v>
       </c>
       <c r="C110" t="n">
-        <v>10.9627674452003</v>
+        <v>10.9627674452</v>
       </c>
       <c r="D110" t="n">
-        <v>12.457509071347</v>
+        <v>12.4575090713</v>
       </c>
       <c r="E110" t="n">
-        <v>12.4694801461711</v>
+        <v>12.4694801462</v>
       </c>
       <c r="F110" t="n">
-        <v>11.0889737028896</v>
+        <v>11.0889737029</v>
       </c>
       <c r="G110" t="n">
-        <v>11.2283767845868</v>
+        <v>11.2283767846</v>
       </c>
     </row>
     <row r="111">
@@ -12686,19 +12686,19 @@
         <v>225</v>
       </c>
       <c r="C111" t="n">
-        <v>14.7997030537046</v>
+        <v>14.7997030537</v>
       </c>
       <c r="D111" t="n">
-        <v>18.019707570615</v>
+        <v>18.0197075706</v>
       </c>
       <c r="E111" t="n">
-        <v>17.7257110112121</v>
+        <v>17.7257110112</v>
       </c>
       <c r="F111" t="n">
-        <v>17.0394131151797</v>
+        <v>17.0394131152</v>
       </c>
       <c r="G111" t="n">
-        <v>19.3835648697832</v>
+        <v>19.3835648698</v>
       </c>
     </row>
     <row r="112">
@@ -12710,16 +12710,16 @@
       </c>
       <c r="C112"/>
       <c r="D112" t="n">
-        <v>11.3072649099337</v>
+        <v>11.3072649099</v>
       </c>
       <c r="E112" t="n">
-        <v>16.0331423852696</v>
+        <v>16.0331423853</v>
       </c>
       <c r="F112" t="n">
-        <v>17.343029339958</v>
+        <v>17.34302934</v>
       </c>
       <c r="G112" t="n">
-        <v>16.2266028899259</v>
+        <v>16.2266028899</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-health-percent/uganda-health-percent.xlsx
+++ b/user-data/uganda-health-percent/uganda-health-percent.xlsx
@@ -751,7 +751,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>

--- a/user-data/uganda-health-percent/uganda-health-percent.xlsx
+++ b/user-data/uganda-health-percent/uganda-health-percent.xlsx
@@ -7708,36 +7708,36 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B385" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C385" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D385" t="s">
         <v>7</v>
       </c>
       <c r="E385" t="n">
-        <v>24.4581325987948</v>
+        <v>16.8844573476295</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B386" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C386" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D386" t="s">
         <v>7</v>
       </c>
       <c r="E386" t="n">
-        <v>26.6993523009872</v>
+        <v>18.1295702053655</v>
       </c>
     </row>
     <row r="387">
@@ -7748,13 +7748,13 @@
         <v>167</v>
       </c>
       <c r="C387" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D387" t="s">
         <v>7</v>
       </c>
       <c r="E387" t="n">
-        <v>27.3446589245592</v>
+        <v>24.4581325987948</v>
       </c>
     </row>
     <row r="388">
@@ -7765,13 +7765,13 @@
         <v>167</v>
       </c>
       <c r="C388" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D388" t="s">
         <v>7</v>
       </c>
       <c r="E388" t="n">
-        <v>23.3237787949737</v>
+        <v>26.6993523009872</v>
       </c>
     </row>
     <row r="389">
@@ -7782,47 +7782,47 @@
         <v>167</v>
       </c>
       <c r="C389" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D389" t="s">
         <v>7</v>
       </c>
       <c r="E389" t="n">
-        <v>23.3417025168878</v>
+        <v>27.3446589245592</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B390" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C390" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D390" t="s">
         <v>7</v>
       </c>
       <c r="E390" t="n">
-        <v>13.5135097742833</v>
+        <v>23.3237787949737</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B391" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C391" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D391" t="s">
         <v>7</v>
       </c>
       <c r="E391" t="n">
-        <v>14.6316161501999</v>
+        <v>23.3417025168878</v>
       </c>
     </row>
     <row r="392">
@@ -7833,13 +7833,13 @@
         <v>169</v>
       </c>
       <c r="C392" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D392" t="s">
         <v>7</v>
       </c>
       <c r="E392" t="n">
-        <v>14.1928162094059</v>
+        <v>13.5135097742833</v>
       </c>
     </row>
     <row r="393">
@@ -7850,13 +7850,13 @@
         <v>169</v>
       </c>
       <c r="C393" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D393" t="s">
         <v>7</v>
       </c>
       <c r="E393" t="n">
-        <v>13.2275299369175</v>
+        <v>14.6316161501999</v>
       </c>
     </row>
     <row r="394">
@@ -7867,47 +7867,47 @@
         <v>169</v>
       </c>
       <c r="C394" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D394" t="s">
         <v>7</v>
       </c>
       <c r="E394" t="n">
-        <v>13.6719099378947</v>
+        <v>14.1928162094059</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B395" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C395" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D395" t="s">
         <v>7</v>
       </c>
       <c r="E395" t="n">
-        <v>14.8529405254361</v>
+        <v>13.2275299369175</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B396" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C396" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D396" t="s">
         <v>7</v>
       </c>
       <c r="E396" t="n">
-        <v>12.3790974302411</v>
+        <v>13.6719099378947</v>
       </c>
     </row>
     <row r="397">
@@ -7918,13 +7918,13 @@
         <v>171</v>
       </c>
       <c r="C397" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D397" t="s">
         <v>7</v>
       </c>
       <c r="E397" t="n">
-        <v>14.1337183406811</v>
+        <v>14.8529405254361</v>
       </c>
     </row>
     <row r="398">
@@ -7935,13 +7935,13 @@
         <v>171</v>
       </c>
       <c r="C398" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D398" t="s">
         <v>7</v>
       </c>
       <c r="E398" t="n">
-        <v>12.7268848451635</v>
+        <v>12.3790974302411</v>
       </c>
     </row>
     <row r="399">
@@ -7952,47 +7952,47 @@
         <v>171</v>
       </c>
       <c r="C399" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D399" t="s">
         <v>7</v>
       </c>
       <c r="E399" t="n">
-        <v>13.1983850246327</v>
+        <v>14.1337183406811</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B400" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C400" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D400" t="s">
         <v>7</v>
       </c>
       <c r="E400" t="n">
-        <v>8.38834214924189</v>
+        <v>12.7268848451635</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B401" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C401" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D401" t="s">
         <v>7</v>
       </c>
       <c r="E401" t="n">
-        <v>10.7332478326049</v>
+        <v>13.1983850246327</v>
       </c>
     </row>
     <row r="402">
@@ -8003,47 +8003,47 @@
         <v>173</v>
       </c>
       <c r="C402" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D402" t="s">
         <v>7</v>
       </c>
       <c r="E402" t="n">
-        <v>3.05540424061351</v>
+        <v>8.38834214924189</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B403" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C403" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D403" t="s">
         <v>7</v>
       </c>
       <c r="E403" t="n">
-        <v>18.6660171152165</v>
+        <v>10.7332478326049</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B404" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C404" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D404" t="s">
         <v>7</v>
       </c>
       <c r="E404" t="n">
-        <v>15.600395297129</v>
+        <v>3.05540424061351</v>
       </c>
     </row>
     <row r="405">
@@ -8054,13 +8054,13 @@
         <v>175</v>
       </c>
       <c r="C405" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D405" t="s">
         <v>7</v>
       </c>
       <c r="E405" t="n">
-        <v>15.6385656847067</v>
+        <v>18.6660171152165</v>
       </c>
     </row>
     <row r="406">
@@ -8071,13 +8071,13 @@
         <v>175</v>
       </c>
       <c r="C406" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D406" t="s">
         <v>7</v>
       </c>
       <c r="E406" t="n">
-        <v>16.1720493682032</v>
+        <v>15.600395297129</v>
       </c>
     </row>
     <row r="407">
@@ -8088,47 +8088,47 @@
         <v>175</v>
       </c>
       <c r="C407" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D407" t="s">
         <v>7</v>
       </c>
       <c r="E407" t="n">
-        <v>15.5956617845138</v>
+        <v>15.6385656847067</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B408" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C408" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D408" t="s">
         <v>7</v>
       </c>
       <c r="E408" t="n">
-        <v>14.9969772284544</v>
+        <v>16.1720493682032</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B409" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C409" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D409" t="s">
         <v>7</v>
       </c>
       <c r="E409" t="n">
-        <v>16.732948386804</v>
+        <v>15.5956617845138</v>
       </c>
     </row>
     <row r="410">
@@ -8139,13 +8139,13 @@
         <v>177</v>
       </c>
       <c r="C410" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D410" t="s">
         <v>7</v>
       </c>
       <c r="E410" t="n">
-        <v>15.6482086612669</v>
+        <v>14.9969772284544</v>
       </c>
     </row>
     <row r="411">
@@ -8156,13 +8156,13 @@
         <v>177</v>
       </c>
       <c r="C411" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D411" t="s">
         <v>7</v>
       </c>
       <c r="E411" t="n">
-        <v>17.9206099060223</v>
+        <v>16.732948386804</v>
       </c>
     </row>
     <row r="412">
@@ -8173,47 +8173,47 @@
         <v>177</v>
       </c>
       <c r="C412" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D412" t="s">
         <v>7</v>
       </c>
       <c r="E412" t="n">
-        <v>17.9966773881337</v>
+        <v>15.6482086612669</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B413" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C413" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D413" t="s">
         <v>7</v>
       </c>
       <c r="E413" t="n">
-        <v>17.1557645941934</v>
+        <v>17.9206099060223</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B414" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C414" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D414" t="s">
         <v>7</v>
       </c>
       <c r="E414" t="n">
-        <v>16.5722050798063</v>
+        <v>17.9966773881337</v>
       </c>
     </row>
     <row r="415">
@@ -8224,13 +8224,13 @@
         <v>179</v>
       </c>
       <c r="C415" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D415" t="s">
         <v>7</v>
       </c>
       <c r="E415" t="n">
-        <v>14.9176424627498</v>
+        <v>17.1557645941934</v>
       </c>
     </row>
     <row r="416">
@@ -8241,47 +8241,47 @@
         <v>179</v>
       </c>
       <c r="C416" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D416" t="s">
         <v>7</v>
       </c>
       <c r="E416" t="n">
-        <v>14.7105585036876</v>
+        <v>16.5722050798063</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B417" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C417" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D417" t="s">
         <v>7</v>
       </c>
       <c r="E417" t="n">
-        <v>5.30839189831027</v>
+        <v>14.9176424627498</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B418" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C418" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D418" t="s">
         <v>7</v>
       </c>
       <c r="E418" t="n">
-        <v>8.60901264888547</v>
+        <v>14.7105585036876</v>
       </c>
     </row>
     <row r="419">
@@ -8292,13 +8292,13 @@
         <v>181</v>
       </c>
       <c r="C419" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D419" t="s">
         <v>7</v>
       </c>
       <c r="E419" t="n">
-        <v>11.025191114792</v>
+        <v>5.30839189831027</v>
       </c>
     </row>
     <row r="420">
@@ -8309,13 +8309,13 @@
         <v>181</v>
       </c>
       <c r="C420" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D420" t="s">
         <v>7</v>
       </c>
       <c r="E420" t="n">
-        <v>11.7043136045255</v>
+        <v>8.60901264888547</v>
       </c>
     </row>
     <row r="421">
@@ -8326,47 +8326,47 @@
         <v>181</v>
       </c>
       <c r="C421" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D421" t="s">
         <v>7</v>
       </c>
       <c r="E421" t="n">
-        <v>12.2943311364293</v>
+        <v>11.025191114792</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B422" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C422" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D422" t="s">
         <v>7</v>
       </c>
       <c r="E422" t="n">
-        <v>11.1184979504387</v>
+        <v>11.7043136045255</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B423" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C423" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D423" t="s">
         <v>7</v>
       </c>
       <c r="E423" t="n">
-        <v>12.6682258983072</v>
+        <v>12.2943311364293</v>
       </c>
     </row>
     <row r="424">
@@ -8377,13 +8377,13 @@
         <v>183</v>
       </c>
       <c r="C424" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D424" t="s">
         <v>7</v>
       </c>
       <c r="E424" t="n">
-        <v>13.905763762761</v>
+        <v>11.1184979504387</v>
       </c>
     </row>
     <row r="425">
@@ -8394,13 +8394,13 @@
         <v>183</v>
       </c>
       <c r="C425" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D425" t="s">
         <v>7</v>
       </c>
       <c r="E425" t="n">
-        <v>10.8992920903459</v>
+        <v>12.6682258983072</v>
       </c>
     </row>
     <row r="426">
@@ -8411,47 +8411,47 @@
         <v>183</v>
       </c>
       <c r="C426" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D426" t="s">
         <v>7</v>
       </c>
       <c r="E426" t="n">
-        <v>11.0728394688161</v>
+        <v>13.905763762761</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B427" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C427" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D427" t="s">
         <v>7</v>
       </c>
       <c r="E427" t="n">
-        <v>29.0103477879272</v>
+        <v>10.8992920903459</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B428" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C428" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D428" t="s">
         <v>7</v>
       </c>
       <c r="E428" t="n">
-        <v>25.3954135613402</v>
+        <v>11.0728394688161</v>
       </c>
     </row>
     <row r="429">
@@ -8462,13 +8462,13 @@
         <v>185</v>
       </c>
       <c r="C429" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D429" t="s">
         <v>7</v>
       </c>
       <c r="E429" t="n">
-        <v>26.4452301500064</v>
+        <v>29.0103477879272</v>
       </c>
     </row>
     <row r="430">
@@ -8479,13 +8479,13 @@
         <v>185</v>
       </c>
       <c r="C430" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D430" t="s">
         <v>7</v>
       </c>
       <c r="E430" t="n">
-        <v>21.7129055622548</v>
+        <v>25.3954135613402</v>
       </c>
     </row>
     <row r="431">
@@ -8496,47 +8496,47 @@
         <v>185</v>
       </c>
       <c r="C431" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D431" t="s">
         <v>7</v>
       </c>
       <c r="E431" t="n">
-        <v>24.0463017476271</v>
+        <v>26.4452301500064</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B432" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C432" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D432" t="s">
         <v>7</v>
       </c>
       <c r="E432" t="n">
-        <v>18.9750024023722</v>
+        <v>21.7129055622548</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B433" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C433" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D433" t="s">
         <v>7</v>
       </c>
       <c r="E433" t="n">
-        <v>12.2793695886241</v>
+        <v>24.0463017476271</v>
       </c>
     </row>
     <row r="434">
@@ -8547,13 +8547,13 @@
         <v>187</v>
       </c>
       <c r="C434" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D434" t="s">
         <v>7</v>
       </c>
       <c r="E434" t="n">
-        <v>14.9873795640973</v>
+        <v>18.9750024023722</v>
       </c>
     </row>
     <row r="435">
@@ -8564,13 +8564,13 @@
         <v>187</v>
       </c>
       <c r="C435" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D435" t="s">
         <v>7</v>
       </c>
       <c r="E435" t="n">
-        <v>14.9873795640972</v>
+        <v>12.2793695886241</v>
       </c>
     </row>
     <row r="436">
@@ -8581,47 +8581,47 @@
         <v>187</v>
       </c>
       <c r="C436" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D436" t="s">
         <v>7</v>
       </c>
       <c r="E436" t="n">
-        <v>15.0365322141107</v>
+        <v>14.9873795640973</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B437" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C437" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D437" t="s">
         <v>7</v>
       </c>
       <c r="E437" t="n">
-        <v>14.9616870096862</v>
+        <v>14.9873795640972</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B438" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C438" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D438" t="s">
         <v>7</v>
       </c>
       <c r="E438" t="n">
-        <v>13.5102338276122</v>
+        <v>15.0365322141107</v>
       </c>
     </row>
     <row r="439">
@@ -8632,13 +8632,13 @@
         <v>189</v>
       </c>
       <c r="C439" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D439" t="s">
         <v>7</v>
       </c>
       <c r="E439" t="n">
-        <v>15.178108083668</v>
+        <v>14.9616870096862</v>
       </c>
     </row>
     <row r="440">
@@ -8649,13 +8649,13 @@
         <v>189</v>
       </c>
       <c r="C440" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D440" t="s">
         <v>7</v>
       </c>
       <c r="E440" t="n">
-        <v>14.4761382015575</v>
+        <v>13.5102338276122</v>
       </c>
     </row>
     <row r="441">
@@ -8666,47 +8666,47 @@
         <v>189</v>
       </c>
       <c r="C441" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D441" t="s">
         <v>7</v>
       </c>
       <c r="E441" t="n">
-        <v>14.5702849322948</v>
+        <v>15.178108083668</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B442" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C442" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D442" t="s">
         <v>7</v>
       </c>
       <c r="E442" t="n">
-        <v>9.93663204082215</v>
+        <v>14.4761382015575</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B443" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C443" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D443" t="s">
         <v>7</v>
       </c>
       <c r="E443" t="n">
-        <v>14.3668656035695</v>
+        <v>14.5702849322948</v>
       </c>
     </row>
     <row r="444">
@@ -8717,13 +8717,13 @@
         <v>191</v>
       </c>
       <c r="C444" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D444" t="s">
         <v>7</v>
       </c>
       <c r="E444" t="n">
-        <v>19.139068420494</v>
+        <v>9.93663204082215</v>
       </c>
     </row>
     <row r="445">
@@ -8734,13 +8734,13 @@
         <v>191</v>
       </c>
       <c r="C445" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D445" t="s">
         <v>7</v>
       </c>
       <c r="E445" t="n">
-        <v>18.8833016041518</v>
+        <v>14.3668656035695</v>
       </c>
     </row>
     <row r="446">
@@ -8751,47 +8751,47 @@
         <v>191</v>
       </c>
       <c r="C446" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D446" t="s">
         <v>7</v>
       </c>
       <c r="E446" t="n">
-        <v>19.4185625293497</v>
+        <v>19.139068420494</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B447" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C447" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D447" t="s">
         <v>7</v>
       </c>
       <c r="E447" t="n">
-        <v>14.8765406972868</v>
+        <v>18.8833016041518</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B448" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C448" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D448" t="s">
         <v>7</v>
       </c>
       <c r="E448" t="n">
-        <v>13.5570773892402</v>
+        <v>19.4185625293497</v>
       </c>
     </row>
     <row r="449">
@@ -8802,47 +8802,47 @@
         <v>193</v>
       </c>
       <c r="C449" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D449" t="s">
         <v>7</v>
       </c>
       <c r="E449" t="n">
-        <v>13.5547496597441</v>
+        <v>14.8765406972868</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B450" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C450" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D450" t="s">
         <v>7</v>
       </c>
       <c r="E450" t="n">
-        <v>17.3075399328412</v>
+        <v>13.5570773892402</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B451" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C451" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D451" t="s">
         <v>7</v>
       </c>
       <c r="E451" t="n">
-        <v>9.24095988920119</v>
+        <v>13.5547496597441</v>
       </c>
     </row>
     <row r="452">
@@ -8853,13 +8853,13 @@
         <v>195</v>
       </c>
       <c r="C452" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D452" t="s">
         <v>7</v>
       </c>
       <c r="E452" t="n">
-        <v>16.232767725107</v>
+        <v>17.3075399328412</v>
       </c>
     </row>
     <row r="453">
@@ -8870,47 +8870,47 @@
         <v>195</v>
       </c>
       <c r="C453" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D453" t="s">
         <v>7</v>
       </c>
       <c r="E453" t="n">
-        <v>18.9792637771467</v>
+        <v>9.24095988920119</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B454" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C454" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D454" t="s">
         <v>7</v>
       </c>
       <c r="E454" t="n">
-        <v>17.4292777192243</v>
+        <v>16.232767725107</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B455" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C455" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D455" t="s">
         <v>7</v>
       </c>
       <c r="E455" t="n">
-        <v>17.1048621882015</v>
+        <v>18.9792637771467</v>
       </c>
     </row>
     <row r="456">
@@ -8921,13 +8921,13 @@
         <v>197</v>
       </c>
       <c r="C456" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D456" t="s">
         <v>7</v>
       </c>
       <c r="E456" t="n">
-        <v>21.8449647904367</v>
+        <v>17.4292777192243</v>
       </c>
     </row>
     <row r="457">
@@ -8938,13 +8938,13 @@
         <v>197</v>
       </c>
       <c r="C457" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D457" t="s">
         <v>7</v>
       </c>
       <c r="E457" t="n">
-        <v>17.1398285280993</v>
+        <v>17.1048621882015</v>
       </c>
     </row>
     <row r="458">
@@ -8955,47 +8955,47 @@
         <v>197</v>
       </c>
       <c r="C458" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D458" t="s">
         <v>7</v>
       </c>
       <c r="E458" t="n">
-        <v>16.8888151673168</v>
+        <v>21.8449647904367</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B459" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C459" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D459" t="s">
         <v>7</v>
       </c>
       <c r="E459" t="n">
-        <v>11.9892042528621</v>
+        <v>17.1398285280993</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B460" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C460" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D460" t="s">
         <v>7</v>
       </c>
       <c r="E460" t="n">
-        <v>9.4296238021523</v>
+        <v>16.8888151673168</v>
       </c>
     </row>
     <row r="461">
@@ -9006,13 +9006,13 @@
         <v>199</v>
       </c>
       <c r="C461" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D461" t="s">
         <v>7</v>
       </c>
       <c r="E461" t="n">
-        <v>11.4048519113855</v>
+        <v>11.9892042528621</v>
       </c>
     </row>
     <row r="462">
@@ -9023,13 +9023,13 @@
         <v>199</v>
       </c>
       <c r="C462" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D462" t="s">
         <v>7</v>
       </c>
       <c r="E462" t="n">
-        <v>13.3251308190859</v>
+        <v>9.4296238021523</v>
       </c>
     </row>
     <row r="463">
@@ -9040,47 +9040,47 @@
         <v>199</v>
       </c>
       <c r="C463" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D463" t="s">
         <v>7</v>
       </c>
       <c r="E463" t="n">
-        <v>12.2713193774718</v>
+        <v>11.4048519113855</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B464" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C464" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D464" t="s">
         <v>7</v>
       </c>
       <c r="E464" t="n">
-        <v>13.0707300870806</v>
+        <v>13.3251308190859</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B465" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C465" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D465" t="s">
         <v>7</v>
       </c>
       <c r="E465" t="n">
-        <v>12.567387526754</v>
+        <v>12.2713193774718</v>
       </c>
     </row>
     <row r="466">
@@ -9091,13 +9091,13 @@
         <v>201</v>
       </c>
       <c r="C466" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D466" t="s">
         <v>7</v>
       </c>
       <c r="E466" t="n">
-        <v>14.549852998677</v>
+        <v>13.0707300870806</v>
       </c>
     </row>
     <row r="467">
@@ -9108,13 +9108,13 @@
         <v>201</v>
       </c>
       <c r="C467" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D467" t="s">
         <v>7</v>
       </c>
       <c r="E467" t="n">
-        <v>17.269953490016</v>
+        <v>12.567387526754</v>
       </c>
     </row>
     <row r="468">
@@ -9125,47 +9125,47 @@
         <v>201</v>
       </c>
       <c r="C468" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D468" t="s">
         <v>7</v>
       </c>
       <c r="E468" t="n">
-        <v>17.5835653931462</v>
+        <v>14.549852998677</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B469" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C469" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D469" t="s">
         <v>7</v>
       </c>
       <c r="E469" t="n">
-        <v>16.7735551437623</v>
+        <v>17.269953490016</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B470" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C470" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D470" t="s">
         <v>7</v>
       </c>
       <c r="E470" t="n">
-        <v>15.0842185432727</v>
+        <v>17.5835653931462</v>
       </c>
     </row>
     <row r="471">
@@ -9176,13 +9176,13 @@
         <v>203</v>
       </c>
       <c r="C471" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D471" t="s">
         <v>7</v>
       </c>
       <c r="E471" t="n">
-        <v>16.7933484511783</v>
+        <v>16.7735551437623</v>
       </c>
     </row>
     <row r="472">
@@ -9193,13 +9193,13 @@
         <v>203</v>
       </c>
       <c r="C472" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D472" t="s">
         <v>7</v>
       </c>
       <c r="E472" t="n">
-        <v>15.7503093526125</v>
+        <v>15.0842185432727</v>
       </c>
     </row>
     <row r="473">
@@ -9210,47 +9210,47 @@
         <v>203</v>
       </c>
       <c r="C473" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D473" t="s">
         <v>7</v>
       </c>
       <c r="E473" t="n">
-        <v>16.4667752369946</v>
+        <v>16.7933484511783</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B474" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C474" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D474" t="s">
         <v>7</v>
       </c>
       <c r="E474" t="n">
-        <v>17.0512112990485</v>
+        <v>15.7503093526125</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B475" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C475" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D475" t="s">
         <v>7</v>
       </c>
       <c r="E475" t="n">
-        <v>18.7951029908148</v>
+        <v>16.4667752369946</v>
       </c>
     </row>
     <row r="476">
@@ -9261,13 +9261,13 @@
         <v>205</v>
       </c>
       <c r="C476" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D476" t="s">
         <v>7</v>
       </c>
       <c r="E476" t="n">
-        <v>18.2557681473196</v>
+        <v>17.0512112990485</v>
       </c>
     </row>
     <row r="477">
@@ -9278,13 +9278,13 @@
         <v>205</v>
       </c>
       <c r="C477" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D477" t="s">
         <v>7</v>
       </c>
       <c r="E477" t="n">
-        <v>18.8308499250178</v>
+        <v>18.7951029908148</v>
       </c>
     </row>
     <row r="478">
@@ -9295,47 +9295,47 @@
         <v>205</v>
       </c>
       <c r="C478" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D478" t="s">
         <v>7</v>
       </c>
       <c r="E478" t="n">
-        <v>19.2868706743199</v>
+        <v>18.2557681473196</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B479" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C479" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D479" t="s">
         <v>7</v>
       </c>
       <c r="E479" t="n">
-        <v>8.14504902395534</v>
+        <v>18.8308499250178</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B480" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C480" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D480" t="s">
         <v>7</v>
       </c>
       <c r="E480" t="n">
-        <v>8.76868731409784</v>
+        <v>19.2868706743199</v>
       </c>
     </row>
     <row r="481">
@@ -9346,13 +9346,13 @@
         <v>207</v>
       </c>
       <c r="C481" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D481" t="s">
         <v>7</v>
       </c>
       <c r="E481" t="n">
-        <v>11.0808553760017</v>
+        <v>8.14504902395534</v>
       </c>
     </row>
     <row r="482">
@@ -9363,13 +9363,13 @@
         <v>207</v>
       </c>
       <c r="C482" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D482" t="s">
         <v>7</v>
       </c>
       <c r="E482" t="n">
-        <v>9.94853367185894</v>
+        <v>8.76868731409784</v>
       </c>
     </row>
     <row r="483">
@@ -9380,47 +9380,47 @@
         <v>207</v>
       </c>
       <c r="C483" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D483" t="s">
         <v>7</v>
       </c>
       <c r="E483" t="n">
-        <v>10.3461533860562</v>
+        <v>11.0808553760017</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B484" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C484" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D484" t="s">
         <v>7</v>
       </c>
       <c r="E484" t="n">
-        <v>15.0086674413806</v>
+        <v>9.94853367185894</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B485" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C485" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D485" t="s">
         <v>7</v>
       </c>
       <c r="E485" t="n">
-        <v>16.4867291346585</v>
+        <v>10.3461533860562</v>
       </c>
     </row>
     <row r="486">
@@ -9431,13 +9431,13 @@
         <v>209</v>
       </c>
       <c r="C486" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D486" t="s">
         <v>7</v>
       </c>
       <c r="E486" t="n">
-        <v>14.0201316564463</v>
+        <v>15.0086674413806</v>
       </c>
     </row>
     <row r="487">
@@ -9448,47 +9448,47 @@
         <v>209</v>
       </c>
       <c r="C487" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D487" t="s">
         <v>7</v>
       </c>
       <c r="E487" t="n">
-        <v>14.241638705698</v>
+        <v>16.4867291346585</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B488" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C488" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D488" t="s">
         <v>7</v>
       </c>
       <c r="E488" t="n">
-        <v>9.58645355625238</v>
+        <v>14.0201316564463</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B489" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C489" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D489" t="s">
         <v>7</v>
       </c>
       <c r="E489" t="n">
-        <v>11.754424740197</v>
+        <v>14.241638705698</v>
       </c>
     </row>
     <row r="490">
@@ -9499,13 +9499,13 @@
         <v>211</v>
       </c>
       <c r="C490" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D490" t="s">
         <v>7</v>
       </c>
       <c r="E490" t="n">
-        <v>13.9663616139185</v>
+        <v>9.58645355625238</v>
       </c>
     </row>
     <row r="491">
@@ -9516,13 +9516,13 @@
         <v>211</v>
       </c>
       <c r="C491" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D491" t="s">
         <v>7</v>
       </c>
       <c r="E491" t="n">
-        <v>12.2871009613129</v>
+        <v>11.754424740197</v>
       </c>
     </row>
     <row r="492">
@@ -9533,47 +9533,47 @@
         <v>211</v>
       </c>
       <c r="C492" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D492" t="s">
         <v>7</v>
       </c>
       <c r="E492" t="n">
-        <v>12.5361209647074</v>
+        <v>13.9663616139185</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B493" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C493" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D493" t="s">
         <v>7</v>
       </c>
       <c r="E493" t="n">
-        <v>12.0978676696099</v>
+        <v>12.2871009613129</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B494" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C494" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D494" t="s">
         <v>7</v>
       </c>
       <c r="E494" t="n">
-        <v>11.6011857494973</v>
+        <v>12.5361209647074</v>
       </c>
     </row>
     <row r="495">
@@ -9584,13 +9584,13 @@
         <v>213</v>
       </c>
       <c r="C495" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D495" t="s">
         <v>7</v>
       </c>
       <c r="E495" t="n">
-        <v>12.3012471993025</v>
+        <v>12.0978676696099</v>
       </c>
     </row>
     <row r="496">
@@ -9601,47 +9601,47 @@
         <v>213</v>
       </c>
       <c r="C496" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D496" t="s">
         <v>7</v>
       </c>
       <c r="E496" t="n">
-        <v>12.3365102483874</v>
+        <v>11.6011857494973</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B497" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C497" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D497" t="s">
         <v>7</v>
       </c>
       <c r="E497" t="n">
-        <v>13.2157174630613</v>
+        <v>12.3012471993025</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B498" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C498" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D498" t="s">
         <v>7</v>
       </c>
       <c r="E498" t="n">
-        <v>14.7556900747179</v>
+        <v>12.3365102483874</v>
       </c>
     </row>
     <row r="499">
@@ -9652,13 +9652,13 @@
         <v>215</v>
       </c>
       <c r="C499" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D499" t="s">
         <v>7</v>
       </c>
       <c r="E499" t="n">
-        <v>16.85079911164</v>
+        <v>13.2157174630613</v>
       </c>
     </row>
     <row r="500">
@@ -9669,13 +9669,13 @@
         <v>215</v>
       </c>
       <c r="C500" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D500" t="s">
         <v>7</v>
       </c>
       <c r="E500" t="n">
-        <v>13.3626705860841</v>
+        <v>14.7556900747179</v>
       </c>
     </row>
     <row r="501">
@@ -9686,47 +9686,47 @@
         <v>215</v>
       </c>
       <c r="C501" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D501" t="s">
         <v>7</v>
       </c>
       <c r="E501" t="n">
-        <v>13.9869096532251</v>
+        <v>16.85079911164</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B502" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C502" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D502" t="s">
         <v>7</v>
       </c>
       <c r="E502" t="n">
-        <v>9.03627252283517</v>
+        <v>13.3626705860841</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B503" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C503" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D503" t="s">
         <v>7</v>
       </c>
       <c r="E503" t="n">
-        <v>8.21096245301199</v>
+        <v>13.9869096532251</v>
       </c>
     </row>
     <row r="504">
@@ -9737,13 +9737,13 @@
         <v>217</v>
       </c>
       <c r="C504" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D504" t="s">
         <v>7</v>
       </c>
       <c r="E504" t="n">
-        <v>9.19012358329646</v>
+        <v>9.03627252283517</v>
       </c>
     </row>
     <row r="505">
@@ -9754,13 +9754,13 @@
         <v>217</v>
       </c>
       <c r="C505" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D505" t="s">
         <v>7</v>
       </c>
       <c r="E505" t="n">
-        <v>7.85130696710074</v>
+        <v>8.21096245301199</v>
       </c>
     </row>
     <row r="506">
@@ -9771,47 +9771,47 @@
         <v>217</v>
       </c>
       <c r="C506" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D506" t="s">
         <v>7</v>
       </c>
       <c r="E506" t="n">
-        <v>7.86223479756033</v>
+        <v>9.19012358329646</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B507" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C507" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D507" t="s">
         <v>7</v>
       </c>
       <c r="E507" t="n">
-        <v>11.2548437443098</v>
+        <v>7.85130696710074</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B508" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C508" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D508" t="s">
         <v>7</v>
       </c>
       <c r="E508" t="n">
-        <v>12.4108952849851</v>
+        <v>7.86223479756033</v>
       </c>
     </row>
     <row r="509">
@@ -9822,13 +9822,13 @@
         <v>219</v>
       </c>
       <c r="C509" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D509" t="s">
         <v>7</v>
       </c>
       <c r="E509" t="n">
-        <v>12.0026429348298</v>
+        <v>11.2548437443098</v>
       </c>
     </row>
     <row r="510">
@@ -9839,13 +9839,13 @@
         <v>219</v>
       </c>
       <c r="C510" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D510" t="s">
         <v>7</v>
       </c>
       <c r="E510" t="n">
-        <v>8.95037748372534</v>
+        <v>12.4108952849851</v>
       </c>
     </row>
     <row r="511">
@@ -9856,47 +9856,47 @@
         <v>219</v>
       </c>
       <c r="C511" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D511" t="s">
         <v>7</v>
       </c>
       <c r="E511" t="n">
-        <v>9.32584100322198</v>
+        <v>12.0026429348298</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B512" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C512" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D512" t="s">
         <v>7</v>
       </c>
       <c r="E512" t="n">
-        <v>13.2798804843718</v>
+        <v>8.95037748372534</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B513" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C513" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D513" t="s">
         <v>7</v>
       </c>
       <c r="E513" t="n">
-        <v>16.5305775590853</v>
+        <v>9.32584100322198</v>
       </c>
     </row>
     <row r="514">
@@ -9907,13 +9907,13 @@
         <v>221</v>
       </c>
       <c r="C514" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D514" t="s">
         <v>7</v>
       </c>
       <c r="E514" t="n">
-        <v>15.2676375907738</v>
+        <v>13.2798804843718</v>
       </c>
     </row>
     <row r="515">
@@ -9924,13 +9924,13 @@
         <v>221</v>
       </c>
       <c r="C515" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D515" t="s">
         <v>7</v>
       </c>
       <c r="E515" t="n">
-        <v>12.6330922560453</v>
+        <v>16.5305775590853</v>
       </c>
     </row>
     <row r="516">
@@ -9941,47 +9941,47 @@
         <v>221</v>
       </c>
       <c r="C516" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D516" t="s">
         <v>7</v>
       </c>
       <c r="E516" t="n">
-        <v>12.3439501989757</v>
+        <v>15.2676375907738</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B517" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C517" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D517" t="s">
         <v>7</v>
       </c>
       <c r="E517" t="n">
-        <v>10.9627674452003</v>
+        <v>12.6330922560453</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B518" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C518" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D518" t="s">
         <v>7</v>
       </c>
       <c r="E518" t="n">
-        <v>12.457509071347</v>
+        <v>12.3439501989757</v>
       </c>
     </row>
     <row r="519">
@@ -9992,13 +9992,13 @@
         <v>223</v>
       </c>
       <c r="C519" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D519" t="s">
         <v>7</v>
       </c>
       <c r="E519" t="n">
-        <v>12.4694801461711</v>
+        <v>10.9627674452003</v>
       </c>
     </row>
     <row r="520">
@@ -10009,13 +10009,13 @@
         <v>223</v>
       </c>
       <c r="C520" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D520" t="s">
         <v>7</v>
       </c>
       <c r="E520" t="n">
-        <v>11.0889737028896</v>
+        <v>12.457509071347</v>
       </c>
     </row>
     <row r="521">
@@ -10026,47 +10026,47 @@
         <v>223</v>
       </c>
       <c r="C521" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D521" t="s">
         <v>7</v>
       </c>
       <c r="E521" t="n">
-        <v>11.2283767845868</v>
+        <v>12.4694801461711</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B522" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C522" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D522" t="s">
         <v>7</v>
       </c>
       <c r="E522" t="n">
-        <v>14.7997030537046</v>
+        <v>11.0889737028896</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B523" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C523" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D523" t="s">
         <v>7</v>
       </c>
       <c r="E523" t="n">
-        <v>18.019707570615</v>
+        <v>11.2283767845868</v>
       </c>
     </row>
     <row r="524">
@@ -10077,13 +10077,13 @@
         <v>225</v>
       </c>
       <c r="C524" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D524" t="s">
         <v>7</v>
       </c>
       <c r="E524" t="n">
-        <v>17.7257110112121</v>
+        <v>14.7997030537046</v>
       </c>
     </row>
     <row r="525">
@@ -10094,13 +10094,13 @@
         <v>225</v>
       </c>
       <c r="C525" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D525" t="s">
         <v>7</v>
       </c>
       <c r="E525" t="n">
-        <v>17.0394131151797</v>
+        <v>18.019707570615</v>
       </c>
     </row>
     <row r="526">
@@ -10111,47 +10111,47 @@
         <v>225</v>
       </c>
       <c r="C526" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D526" t="s">
         <v>7</v>
       </c>
       <c r="E526" t="n">
-        <v>19.3835648697832</v>
+        <v>17.7257110112121</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B527" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C527" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D527" t="s">
         <v>7</v>
       </c>
       <c r="E527" t="n">
-        <v>11.3072649099337</v>
+        <v>17.0394131151797</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B528" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C528" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D528" t="s">
         <v>7</v>
       </c>
       <c r="E528" t="n">
-        <v>16.0331423852696</v>
+        <v>19.3835648697832</v>
       </c>
     </row>
     <row r="529">
@@ -10162,13 +10162,13 @@
         <v>227</v>
       </c>
       <c r="C529" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D529" t="s">
         <v>7</v>
       </c>
       <c r="E529" t="n">
-        <v>17.343029339958</v>
+        <v>11.3072649099337</v>
       </c>
     </row>
     <row r="530">
@@ -10179,12 +10179,46 @@
         <v>227</v>
       </c>
       <c r="C530" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D530" t="s">
+        <v>7</v>
+      </c>
+      <c r="E530" t="n">
+        <v>16.0331423852696</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>226</v>
+      </c>
+      <c r="B531" t="s">
+        <v>227</v>
+      </c>
+      <c r="C531" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D531" t="s">
+        <v>7</v>
+      </c>
+      <c r="E531" t="n">
+        <v>17.343029339958</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>226</v>
+      </c>
+      <c r="B532" t="s">
+        <v>227</v>
+      </c>
+      <c r="C532" t="n">
         <v>2016</v>
       </c>
-      <c r="D530" t="s">
-        <v>7</v>
-      </c>
-      <c r="E530" t="n">
+      <c r="D532" t="s">
+        <v>7</v>
+      </c>
+      <c r="E532" t="n">
         <v>16.2266028899259</v>
       </c>
     </row>
@@ -12024,8 +12058,12 @@
       <c r="E81" t="n">
         <v>12.4265044970694</v>
       </c>
-      <c r="F81"/>
-      <c r="G81"/>
+      <c r="F81" t="n">
+        <v>16.8844573476295</v>
+      </c>
+      <c r="G81" t="n">
+        <v>18.1295702053655</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">

--- a/user-data/uganda-health-percent/uganda-health-percent.xlsx
+++ b/user-data/uganda-health-percent/uganda-health-percent.xlsx
@@ -8812,18 +8812,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>117</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>119</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>120</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8831,19 +8834,22 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
         <v>27.9128102619</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>33.5462561839</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>33.2840217719</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>34.1080351761</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>37.3582282409</v>
       </c>
     </row>
@@ -8851,19 +8857,22 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
         <v>16.6039112015</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>16.3715264298</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>14.8272584878</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>19.1114799007</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>16.892219007</v>
       </c>
     </row>
@@ -8871,19 +8880,22 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
         <v>12.238556424</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>14.7960260411</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>13.4123867044</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>12.6777077407</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>12.4042269604</v>
       </c>
     </row>
@@ -8891,17 +8903,20 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
         <v>11.9455617701</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>12.0396835267</v>
       </c>
-      <c r="D5"/>
-      <c r="E5" t="n">
+      <c r="E5"/>
+      <c r="F5" t="n">
         <v>9.2466719634</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>10.1851748546</v>
       </c>
     </row>
@@ -8909,19 +8924,22 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
         <v>13.5135097743</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>14.6316161502</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>14.1928162094</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>13.2275299369</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>13.6719099379</v>
       </c>
     </row>
@@ -8929,19 +8947,22 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
         <v>14.8529405254</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>12.3790974302</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>14.1337183407</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>12.7268848452</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>13.1983850246</v>
       </c>
     </row>
@@ -8949,15 +8970,18 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
         <v>8.3883421492</v>
       </c>
-      <c r="C8"/>
       <c r="D8"/>
-      <c r="E8" t="n">
+      <c r="E8"/>
+      <c r="F8" t="n">
         <v>10.7332478326</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>3.0554042406</v>
       </c>
     </row>
@@ -8965,17 +8989,20 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
         <v>17.1557645942</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>16.5722050798</v>
       </c>
-      <c r="D9"/>
-      <c r="E9" t="n">
+      <c r="E9"/>
+      <c r="F9" t="n">
         <v>14.9176424627</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>14.7105585037</v>
       </c>
     </row>
@@ -8983,19 +9010,22 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
         <v>17.051211299</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>18.7951029908</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>18.2557681473</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>18.830849925</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>19.2868706743</v>
       </c>
     </row>
@@ -9003,19 +9033,22 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
         <v>11.2548437443</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>12.410895285</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>12.0026429348</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>8.9503774837</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>9.3258410032</v>
       </c>
     </row>
@@ -9023,19 +9056,22 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>15.9138776245</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>16.5673555922</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>14.2348428</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>16.56306747</v>
       </c>
     </row>
@@ -9043,19 +9079,22 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
         <v>10.9627674452</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>12.4575090713</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>12.4694801462</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>11.0889737029</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>11.2283767846</v>
       </c>
     </row>
@@ -9063,19 +9102,22 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
         <v>22.461260653</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>23.4461613176</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>27.5578519246</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>23.859408024</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>23.7233956479</v>
       </c>
     </row>
@@ -9083,19 +9125,22 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
         <v>16.9404255362</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>17.893003092</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>21.5641475166</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>20.7978538558</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>21.431308875</v>
       </c>
     </row>
@@ -9103,19 +9148,22 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
         <v>14.9969772285</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>16.7329483868</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>15.6482086613</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>17.920609906</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>17.9966773881</v>
       </c>
     </row>
@@ -9123,19 +9171,22 @@
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
         <v>10.7127334957</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>16.3767815842</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>15.3917095498</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>14.5595852096</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>14.908173864</v>
       </c>
     </row>
@@ -9143,37 +9194,43 @@
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
         <v>7.6689455359</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>8.5579990553</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>13.0615850791</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>12.7050930428</v>
       </c>
-      <c r="F18"/>
+      <c r="G18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
         <v>11.8327961091</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>13.1046229342</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>13.8566961653</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>12.3955657759</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>12.849397366</v>
       </c>
     </row>
@@ -9181,17 +9238,20 @@
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20"/>
-      <c r="C20" t="n">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20" t="n">
         <v>18.2463799789</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>22.6368075674</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>20.1269004892</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>24.1946424313</v>
       </c>
     </row>
@@ -9199,19 +9259,22 @@
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
         <v>8.5073488398</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>7.2064433166</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>9.5560610076</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>8.6902701741</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>8.7656270519</v>
       </c>
     </row>
@@ -9219,19 +9282,22 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="n">
         <v>11.0257767658</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>12.6038058257</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>16.3376005635</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>16.1485480743</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>16.7798166627</v>
       </c>
     </row>
@@ -9239,19 +9305,22 @@
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="n">
         <v>5.1550833548</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>5.2092702906</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>10.750772444</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>12.2304697051</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>12.331115244</v>
       </c>
     </row>
@@ -9259,19 +9328,22 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="n">
         <v>8.347829495</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>10.3891572141</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>11.4592301027</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>11.9548730112</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>11.6832970099</v>
       </c>
     </row>
@@ -9279,19 +9351,22 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="n">
         <v>10.9697764013</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>13.2072107723</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>14.0831898385</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>12.9042106499</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>15.8484969473</v>
       </c>
     </row>
@@ -9299,19 +9374,22 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="n">
         <v>10.3058611582</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>9.5708552697</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>8.7425463827</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>8.3504704734</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>9.7275685545</v>
       </c>
     </row>
@@ -9319,17 +9397,20 @@
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="n">
         <v>12.8765353903</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>15.8089383496</v>
       </c>
-      <c r="D27"/>
-      <c r="E27" t="n">
+      <c r="E27"/>
+      <c r="F27" t="n">
         <v>16.8107671375</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>17.1545376949</v>
       </c>
     </row>
@@ -9337,17 +9418,20 @@
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="n">
         <v>8.8402607899</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>14.6879930711</v>
       </c>
-      <c r="D28"/>
-      <c r="E28" t="n">
+      <c r="E28"/>
+      <c r="F28" t="n">
         <v>15.0574023146</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>18.3376908935</v>
       </c>
     </row>
@@ -9355,19 +9439,22 @@
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="n">
         <v>13.5495244523</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>16.8417343021</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>17.0177456902</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>16.304296938</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>14.1113708666</v>
       </c>
     </row>
@@ -9375,19 +9462,22 @@
       <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="n">
         <v>18.0426847358</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>19.1592619146</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>19.3296632512</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>24.5730325927</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>25.7735477298</v>
       </c>
     </row>
@@ -9395,19 +9485,22 @@
       <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="n">
         <v>14.9161801683</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>21.8982364257</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>18.9444634339</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>16.1780928389</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>17.6075300276</v>
       </c>
     </row>
@@ -9415,19 +9508,22 @@
       <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="n">
         <v>17.1472586838</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>16.6528527612</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>18.7150856495</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>21.0958147553</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>19.6667814454</v>
       </c>
     </row>
@@ -9435,17 +9531,20 @@
       <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="n">
         <v>11.0331078729</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>11.7251239092</v>
       </c>
-      <c r="D33"/>
-      <c r="E33" t="n">
+      <c r="E33"/>
+      <c r="F33" t="n">
         <v>11.8387895348</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>11.7052602915</v>
       </c>
     </row>
@@ -9453,19 +9552,22 @@
       <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
         <v>16.7735551438</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>15.0842185433</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>16.7933484512</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>15.7503093526</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>16.466775237</v>
       </c>
     </row>
@@ -9473,19 +9575,22 @@
       <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="n">
         <v>9.0362725228</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>8.210962453</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>9.1901235833</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>7.8513069671</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>7.8622347976</v>
       </c>
     </row>
@@ -9493,19 +9598,22 @@
       <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="n">
         <v>13.2798804844</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>16.5305775591</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>15.2676375908</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>12.633092256</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>12.343950199</v>
       </c>
     </row>
@@ -9513,19 +9621,22 @@
       <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="n">
         <v>12.3043418834</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>16.5680361222</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>17.8816197446</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>16.2485594082</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>16.5744367382</v>
       </c>
     </row>
@@ -9533,19 +9644,22 @@
       <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="n">
         <v>9.7414060845</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>10.4135912116</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>12.3542296612</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>10.2911186361</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>11.5703749586</v>
       </c>
     </row>
@@ -9553,19 +9667,22 @@
       <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="n">
         <v>13.2157174631</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>14.7556900747</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>16.8507991116</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>13.3626705861</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>13.9869096532</v>
       </c>
     </row>
@@ -9573,19 +9690,22 @@
       <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="n">
         <v>13.704833125</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>15.4934044982</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>14.9075016256</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>14.8614017516</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>15.072473604</v>
       </c>
     </row>
@@ -9593,19 +9713,22 @@
       <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="n">
         <v>10.4246623206</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>14.4932496224</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>14.4351216984</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>12.342786175</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>12.9586508543</v>
       </c>
     </row>
@@ -9613,19 +9736,22 @@
       <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="n">
         <v>11.2917982944</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>14.5545271433</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>15.6654992323</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>17.4692599921</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>17.2722444469</v>
       </c>
     </row>
@@ -9633,19 +9759,22 @@
       <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="n">
         <v>9.8855343971</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>10.083747044</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>9.3924234309</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>8.776914271</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>10.3911245584</v>
       </c>
     </row>
@@ -9653,19 +9782,22 @@
       <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="n">
         <v>13.0695519454</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>13.1004362888</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>21.2068256894</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>18.5390589743</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>18.554336871</v>
       </c>
     </row>
@@ -9673,19 +9805,22 @@
       <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="n">
         <v>18.528362619</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>14.8164639389</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>15.7166903688</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>14.4081580544</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>14.4710230842</v>
       </c>
     </row>
@@ -9693,19 +9828,22 @@
       <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="n">
         <v>10.5123769495</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>11.8536174952</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>13.1475640935</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>14.916245933</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>15.3420453938</v>
       </c>
     </row>
@@ -9713,19 +9851,22 @@
       <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="n">
         <v>13.5743261227</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>12.5396089104</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>13.3173232256</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>11.0036759224</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>11.3616306399</v>
       </c>
     </row>
@@ -9733,19 +9874,22 @@
       <c r="A48" t="s">
         <v>52</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="n">
         <v>11.1184979504</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>12.6682258983</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>13.9057637628</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>10.8992920903</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>11.0728394688</v>
       </c>
     </row>
@@ -9753,19 +9897,22 @@
       <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="n">
         <v>10.7113921281</v>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>10.1125160442</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>14.2281715283</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>15.1711257165</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>17.4462671658</v>
       </c>
     </row>
@@ -9773,19 +9920,22 @@
       <c r="A50" t="s">
         <v>54</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="n">
         <v>5.1602407716</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>8.0409206553</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>10.7344193915</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>10.9150494907</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>10.4825618023</v>
       </c>
     </row>
@@ -9793,19 +9943,22 @@
       <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="n">
         <v>9.1252846858</v>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>9.0368116168</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>10.9607676131</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>8.9057273637</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>9.7082451904</v>
       </c>
     </row>
@@ -9813,19 +9966,22 @@
       <c r="A52" t="s">
         <v>56</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="n">
         <v>10.5521737776</v>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>10.8901864216</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>15.5273828422</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>14.5554762752</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>15.4710073898</v>
       </c>
     </row>
@@ -9833,37 +9989,43 @@
       <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="n">
         <v>8.858863083</v>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>9.2436613841</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>10.4257214247</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>8.4162992217</v>
       </c>
-      <c r="F53"/>
+      <c r="G53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="n">
         <v>5.3083918983</v>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>8.6090126489</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>11.0251911148</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>11.7043136045</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>12.2943311364</v>
       </c>
     </row>
@@ -9871,19 +10033,22 @@
       <c r="A55" t="s">
         <v>59</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="n">
         <v>14.9616870097</v>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>13.5102338276</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>15.1781080837</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>14.4761382016</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>14.5702849323</v>
       </c>
     </row>
@@ -9891,19 +10056,22 @@
       <c r="A56" t="s">
         <v>60</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="n">
         <v>9.5864535563</v>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>11.7544247402</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>13.9663616139</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>12.2871009613</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>12.5361209647</v>
       </c>
     </row>
@@ -9911,19 +10079,22 @@
       <c r="A57" t="s">
         <v>61</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="n">
         <v>22.3852289294</v>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>29.5599234468</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>25.4034385946</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>32.2830180009</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>33.3576212766</v>
       </c>
     </row>
@@ -9931,19 +10102,22 @@
       <c r="A58" t="s">
         <v>62</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="n">
         <v>15.6625019789</v>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>14.5249812213</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>14.7782978296</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>17.3186091781</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>17.9262502561</v>
       </c>
     </row>
@@ -9951,19 +10125,22 @@
       <c r="A59" t="s">
         <v>63</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="n">
         <v>11.7725506826</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>10.0415310442</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>9.2857019864</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>10.6814431493</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>11.048879197</v>
       </c>
     </row>
@@ -9971,19 +10148,22 @@
       <c r="A60" t="s">
         <v>64</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="n">
         <v>17.516060306</v>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>12.7654171277</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>13.5165634634</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>8.9384315536</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>10.9145411064</v>
       </c>
     </row>
@@ -9991,19 +10171,22 @@
       <c r="A61" t="s">
         <v>65</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="n">
         <v>15.8542416097</v>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>11.3675566279</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>16.7137378068</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>15.7341470809</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>15.8306717875</v>
       </c>
     </row>
@@ -10011,19 +10194,22 @@
       <c r="A62" t="s">
         <v>66</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="n">
         <v>16.5649894783</v>
       </c>
-      <c r="C62" t="n">
+      <c r="D62" t="n">
         <v>20.0037837687</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>18.2498821905</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>18.6251295793</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>16.5452803926</v>
       </c>
     </row>
@@ -10031,17 +10217,20 @@
       <c r="A63" t="s">
         <v>67</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="n">
         <v>13.5931834883</v>
       </c>
-      <c r="C63" t="n">
+      <c r="D63" t="n">
         <v>9.3589983162</v>
       </c>
-      <c r="D63"/>
-      <c r="E63" t="n">
+      <c r="E63"/>
+      <c r="F63" t="n">
         <v>7.5549618306</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>8.3748132068</v>
       </c>
     </row>
@@ -10049,35 +10238,41 @@
       <c r="A64" t="s">
         <v>68</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="n">
         <v>17.8338917168</v>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>13.9934597596</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>12.4265044971</v>
       </c>
-      <c r="E64"/>
       <c r="F64"/>
+      <c r="G64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>69</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="n">
         <v>24.4581325988</v>
       </c>
-      <c r="C65" t="n">
+      <c r="D65" t="n">
         <v>26.699352301</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>27.3446589246</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>23.323778795</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>23.3417025169</v>
       </c>
     </row>
@@ -10085,19 +10280,22 @@
       <c r="A66" t="s">
         <v>70</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="n">
         <v>18.9750024024</v>
       </c>
-      <c r="C66" t="n">
+      <c r="D66" t="n">
         <v>12.2793695886</v>
-      </c>
-      <c r="D66" t="n">
-        <v>14.9873795641</v>
       </c>
       <c r="E66" t="n">
         <v>14.9873795641</v>
       </c>
       <c r="F66" t="n">
+        <v>14.9873795641</v>
+      </c>
+      <c r="G66" t="n">
         <v>15.0365322141</v>
       </c>
     </row>
@@ -10105,19 +10303,22 @@
       <c r="A67" t="s">
         <v>71</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="n">
         <v>18.6660171152</v>
       </c>
-      <c r="C67" t="n">
+      <c r="D67" t="n">
         <v>15.6003952971</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>15.6385656847</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>16.1720493682</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>15.5956617845</v>
       </c>
     </row>
@@ -10125,19 +10326,22 @@
       <c r="A68" t="s">
         <v>72</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="n">
         <v>13.0707300871</v>
       </c>
-      <c r="C68" t="n">
+      <c r="D68" t="n">
         <v>12.5673875268</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>14.5498529987</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>17.26995349</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>17.5835653931</v>
       </c>
     </row>
@@ -10145,19 +10349,22 @@
       <c r="A69" t="s">
         <v>73</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="n">
         <v>14.7997030537</v>
       </c>
-      <c r="C69" t="n">
+      <c r="D69" t="n">
         <v>18.0197075706</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>17.7257110112</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>17.0394131152</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>19.3835648698</v>
       </c>
     </row>
@@ -10165,19 +10372,22 @@
       <c r="A70" t="s">
         <v>74</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="n">
         <v>20.8236043881</v>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>20.3785568092</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>20.807007802</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>22.839362753</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>26.0251710469</v>
       </c>
     </row>
@@ -10185,19 +10395,22 @@
       <c r="A71" t="s">
         <v>75</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="n">
         <v>12.9565988875</v>
       </c>
-      <c r="C71" t="n">
+      <c r="D71" t="n">
         <v>14.5959916312</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>13.0521513895</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>13.8804398621</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>14.1709623289</v>
       </c>
     </row>
@@ -10205,17 +10418,20 @@
       <c r="A72" t="s">
         <v>76</v>
       </c>
-      <c r="B72"/>
-      <c r="C72" t="n">
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72" t="n">
         <v>13.5536475349</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>14.5970277562</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>16.1803329658</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>18.8070098172</v>
       </c>
     </row>
@@ -10223,17 +10439,20 @@
       <c r="A73" t="s">
         <v>77</v>
       </c>
-      <c r="B73"/>
-      <c r="C73" t="n">
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73"/>
+      <c r="D73" t="n">
         <v>8.9476830566</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>15.5763307946</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>15.0821577054</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>15.5802472807</v>
       </c>
     </row>
@@ -10241,19 +10460,22 @@
       <c r="A74" t="s">
         <v>78</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="n">
         <v>17.5209722284</v>
       </c>
-      <c r="C74" t="n">
+      <c r="D74" t="n">
         <v>15.6330157564</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>22.3861048868</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>19.4562634321</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>18.6423309304</v>
       </c>
     </row>
@@ -10261,19 +10483,22 @@
       <c r="A75" t="s">
         <v>79</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="n">
         <v>11.1215223713</v>
       </c>
-      <c r="C75" t="n">
+      <c r="D75" t="n">
         <v>13.1292600434</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>13.1972978105</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>12.789347332</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>15.0217801729</v>
       </c>
     </row>
@@ -10281,35 +10506,41 @@
       <c r="A76" t="s">
         <v>80</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="n">
         <v>15.2143605792</v>
       </c>
-      <c r="C76" t="n">
+      <c r="D76" t="n">
         <v>16.8718219222</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>17.7946538108</v>
       </c>
-      <c r="E76"/>
       <c r="F76"/>
+      <c r="G76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>81</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="n">
         <v>11.9892042529</v>
       </c>
-      <c r="C77" t="n">
+      <c r="D77" t="n">
         <v>9.4296238022</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>11.4048519114</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>13.3251308191</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>12.2713193775</v>
       </c>
     </row>
@@ -10317,17 +10548,20 @@
       <c r="A78" t="s">
         <v>82</v>
       </c>
-      <c r="B78"/>
-      <c r="C78" t="n">
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78"/>
+      <c r="D78" t="n">
         <v>16.9927470048</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>19.4916192148</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>19.3345223928</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>19.2415745948</v>
       </c>
     </row>
@@ -10335,19 +10569,22 @@
       <c r="A79" t="s">
         <v>83</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="n">
         <v>13.5001874915</v>
       </c>
-      <c r="C79" t="n">
+      <c r="D79" t="n">
         <v>14.6888280485</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>14.1137514452</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>11.5188828384</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>13.5581202055</v>
       </c>
     </row>
@@ -10355,17 +10592,20 @@
       <c r="A80" t="s">
         <v>84</v>
       </c>
-      <c r="B80"/>
-      <c r="C80" t="n">
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80" t="n">
         <v>14.7780806753</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>19.5709829816</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>19.0595181068</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>19.8037197869</v>
       </c>
     </row>
@@ -10373,19 +10613,22 @@
       <c r="A81" t="s">
         <v>85</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="n">
         <v>5.8732765791</v>
       </c>
-      <c r="C81" t="n">
+      <c r="D81" t="n">
         <v>7.9035026566</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>9.7268073099</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>15.3669908403</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>15.7743276374</v>
       </c>
     </row>
@@ -10393,19 +10636,22 @@
       <c r="A82" t="s">
         <v>86</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="n">
         <v>12.4867805919</v>
       </c>
-      <c r="C82" t="n">
+      <c r="D82" t="n">
         <v>9.8161371807</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>21.6755635237</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>12.5658673708</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>17.8144466194</v>
       </c>
     </row>
@@ -10413,19 +10659,22 @@
       <c r="A83" t="s">
         <v>87</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="n">
         <v>29.0103477879</v>
       </c>
-      <c r="C83" t="n">
+      <c r="D83" t="n">
         <v>25.3954135613</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>26.44523015</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>21.7129055623</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>24.0463017476</v>
       </c>
     </row>
@@ -10433,17 +10682,20 @@
       <c r="A84" t="s">
         <v>88</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="n">
         <v>17.3075399328</v>
       </c>
-      <c r="C84"/>
-      <c r="D84" t="n">
+      <c r="D84"/>
+      <c r="E84" t="n">
         <v>9.2409598892</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>16.2327677251</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>18.9792637771</v>
       </c>
     </row>
@@ -10451,19 +10703,22 @@
       <c r="A85" t="s">
         <v>89</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="n">
         <v>17.4292777192</v>
       </c>
-      <c r="C85" t="n">
+      <c r="D85" t="n">
         <v>17.1048621882</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>21.8449647904</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>17.1398285281</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>16.8888151673</v>
       </c>
     </row>
@@ -10471,17 +10726,20 @@
       <c r="A86" t="s">
         <v>90</v>
       </c>
-      <c r="B86"/>
-      <c r="C86" t="n">
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86"/>
+      <c r="D86" t="n">
         <v>11.3072649099</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>16.0331423853</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>17.34302934</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>16.2266028899</v>
       </c>
     </row>
@@ -10489,19 +10747,22 @@
       <c r="A87" t="s">
         <v>91</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="n">
         <v>18.7051753996</v>
       </c>
-      <c r="C87" t="n">
+      <c r="D87" t="n">
         <v>24.6513322517</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>22.6889876255</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>20.2498226267</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>21.3619192524</v>
       </c>
     </row>
@@ -10509,19 +10770,22 @@
       <c r="A88" t="s">
         <v>92</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="n">
         <v>13.287313711</v>
       </c>
-      <c r="C88" t="n">
+      <c r="D88" t="n">
         <v>13.3618493108</v>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
         <v>20.051177617</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>14.6985451402</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>14.3357859405</v>
       </c>
     </row>
@@ -10529,19 +10793,22 @@
       <c r="A89" t="s">
         <v>93</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="n">
         <v>12.3176073784</v>
       </c>
-      <c r="C89" t="n">
+      <c r="D89" t="n">
         <v>16.490337186</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>14.072909499</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>11.4100542815</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>12.9795584528</v>
       </c>
     </row>
@@ -10549,17 +10816,20 @@
       <c r="A90" t="s">
         <v>94</v>
       </c>
-      <c r="B90"/>
-      <c r="C90" t="n">
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90"/>
+      <c r="D90" t="n">
         <v>11.7467451215</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>15.2989772649</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>11.6703921715</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>11.7335005825</v>
       </c>
     </row>
@@ -10567,19 +10837,22 @@
       <c r="A91" t="s">
         <v>95</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="n">
         <v>10.7547687966</v>
       </c>
-      <c r="C91" t="n">
+      <c r="D91" t="n">
         <v>10.4592843599</v>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
         <v>14.1332238528</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>12.5772191525</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>13.9218787152</v>
       </c>
     </row>
@@ -10587,19 +10860,22 @@
       <c r="A92" t="s">
         <v>96</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="n">
         <v>11.0594280479</v>
       </c>
-      <c r="C92" t="n">
+      <c r="D92" t="n">
         <v>13.1354528562</v>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
         <v>18.2891671285</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>20.0237010386</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>19.0731280884</v>
       </c>
     </row>
@@ -10607,19 +10883,22 @@
       <c r="A93" t="s">
         <v>97</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="n">
         <v>12.1262153697</v>
       </c>
-      <c r="C93" t="n">
+      <c r="D93" t="n">
         <v>13.8816391495</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>12.4039989011</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>10.4184951076</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>10.9175709255</v>
       </c>
     </row>
@@ -10627,19 +10906,22 @@
       <c r="A94" t="s">
         <v>98</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" t="n">
         <v>18.869700691</v>
       </c>
-      <c r="C94" t="n">
+      <c r="D94" t="n">
         <v>19.5691475812</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>23.0305289342</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>21.0152897845</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>21.6379659106</v>
       </c>
     </row>
@@ -10647,17 +10929,20 @@
       <c r="A95" t="s">
         <v>99</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="n">
         <v>13.7817361078</v>
       </c>
-      <c r="C95" t="n">
+      <c r="D95" t="n">
         <v>13.6433018249</v>
       </c>
-      <c r="D95"/>
-      <c r="E95" t="n">
+      <c r="E95"/>
+      <c r="F95" t="n">
         <v>13.5615456687</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>16.1713582674</v>
       </c>
     </row>
@@ -10665,17 +10950,20 @@
       <c r="A96" t="s">
         <v>100</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="n">
         <v>8.153230952</v>
       </c>
-      <c r="C96" t="n">
+      <c r="D96" t="n">
         <v>9.0015352632</v>
       </c>
-      <c r="D96"/>
-      <c r="E96" t="n">
+      <c r="E96"/>
+      <c r="F96" t="n">
         <v>7.5700496675</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>8.260970673</v>
       </c>
     </row>
@@ -10683,15 +10971,18 @@
       <c r="A97" t="s">
         <v>101</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" t="n">
         <v>14.8765406973</v>
       </c>
-      <c r="C97"/>
       <c r="D97"/>
-      <c r="E97" t="n">
+      <c r="E97"/>
+      <c r="F97" t="n">
         <v>13.5570773892</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>13.5547496597</v>
       </c>
     </row>
@@ -10699,17 +10990,20 @@
       <c r="A98" t="s">
         <v>102</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="n">
         <v>15.0086674414</v>
       </c>
-      <c r="C98" t="n">
+      <c r="D98" t="n">
         <v>16.4867291347</v>
       </c>
-      <c r="D98"/>
-      <c r="E98" t="n">
+      <c r="E98"/>
+      <c r="F98" t="n">
         <v>14.0201316564</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>14.2416387057</v>
       </c>
     </row>
@@ -10717,19 +11011,22 @@
       <c r="A99" t="s">
         <v>103</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="n">
         <v>12.864885338</v>
       </c>
-      <c r="C99" t="n">
+      <c r="D99" t="n">
         <v>10.98952128</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>13.6865458756</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>10.3450147811</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>11.2630590719</v>
       </c>
     </row>
@@ -10737,19 +11034,22 @@
       <c r="A100" t="s">
         <v>104</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="n">
         <v>17.3939352745</v>
       </c>
-      <c r="C100" t="n">
+      <c r="D100" t="n">
         <v>18.6920665998</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>21.8752550113</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>17.5215679824</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>18.0629793974</v>
       </c>
     </row>
@@ -10757,19 +11057,22 @@
       <c r="A101" t="s">
         <v>105</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="n">
         <v>12.7481740973</v>
       </c>
-      <c r="C101" t="n">
+      <c r="D101" t="n">
         <v>16.9848503229</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>16.1478106368</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>13.6190847289</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>16.6912279035</v>
       </c>
     </row>
@@ -10777,19 +11080,22 @@
       <c r="A102" t="s">
         <v>106</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="n">
         <v>10.1534823048</v>
       </c>
-      <c r="C102" t="n">
+      <c r="D102" t="n">
         <v>9.5156409262</v>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
         <v>10.6980926333</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>16.1819671918</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>19.7984604737</v>
       </c>
     </row>
@@ -10797,19 +11103,22 @@
       <c r="A103" t="s">
         <v>107</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="n">
         <v>10.5955544916</v>
       </c>
-      <c r="C103" t="n">
+      <c r="D103" t="n">
         <v>15.0530868113</v>
       </c>
-      <c r="D103" t="n">
+      <c r="E103" t="n">
         <v>14.7762403688</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>13.3941829767</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>14.1255030197</v>
       </c>
     </row>
@@ -10817,19 +11126,22 @@
       <c r="A104" t="s">
         <v>108</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="n">
         <v>14.7660995912</v>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
         <v>12.8157453811</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>15.7410062536</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>12.377152542</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>12.7553211564</v>
       </c>
     </row>
@@ -10837,19 +11149,22 @@
       <c r="A105" t="s">
         <v>109</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="n">
         <v>16.1815170383</v>
       </c>
-      <c r="C105" t="n">
+      <c r="D105" t="n">
         <v>14.6415825688</v>
       </c>
-      <c r="D105" t="n">
+      <c r="E105" t="n">
         <v>17.9138421329</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>17.8794747307</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>18.2632343707</v>
       </c>
     </row>
@@ -10857,19 +11172,22 @@
       <c r="A106" t="s">
         <v>110</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" t="n">
         <v>11.2638065469</v>
       </c>
-      <c r="C106" t="n">
+      <c r="D106" t="n">
         <v>11.6433467307</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>11.5025785054</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>10.7887460008</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>11.3472399812</v>
       </c>
     </row>
@@ -10877,19 +11195,22 @@
       <c r="A107" t="s">
         <v>111</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" t="n">
         <v>16.5085886529</v>
       </c>
-      <c r="C107" t="n">
+      <c r="D107" t="n">
         <v>15.9726660689</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>15.1889347201</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>12.0880527923</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>13.35702364</v>
       </c>
     </row>
@@ -10897,19 +11218,22 @@
       <c r="A108" t="s">
         <v>112</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" t="n">
         <v>15.3294952959</v>
       </c>
-      <c r="C108" t="n">
+      <c r="D108" t="n">
         <v>10.0731819105</v>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
         <v>16.1931628898</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>16.4001954639</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>17.2479856612</v>
       </c>
     </row>
@@ -10917,19 +11241,22 @@
       <c r="A109" t="s">
         <v>113</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" t="n">
         <v>7.4071702653</v>
       </c>
-      <c r="C109" t="n">
+      <c r="D109" t="n">
         <v>7.2291877703</v>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
         <v>8.8939842372</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>7.3932820285</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>7.9080642566</v>
       </c>
     </row>
@@ -10937,19 +11264,22 @@
       <c r="A110" t="s">
         <v>114</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" t="n">
         <v>9.9366320408</v>
       </c>
-      <c r="C110" t="n">
+      <c r="D110" t="n">
         <v>14.3668656036</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>19.1390684205</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>18.8833016042</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>19.4185625293</v>
       </c>
     </row>
@@ -10957,19 +11287,22 @@
       <c r="A111" t="s">
         <v>115</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" t="n">
         <v>8.145049024</v>
       </c>
-      <c r="C111" t="n">
+      <c r="D111" t="n">
         <v>8.7686873141</v>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
         <v>11.080855376</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>9.9485336719</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>10.3461533861</v>
       </c>
     </row>
@@ -10977,17 +11310,20 @@
       <c r="A112" t="s">
         <v>116</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" t="n">
         <v>12.0978676696</v>
       </c>
-      <c r="C112" t="n">
+      <c r="D112" t="n">
         <v>11.6011857495</v>
       </c>
-      <c r="D112"/>
-      <c r="E112" t="n">
+      <c r="E112"/>
+      <c r="F112" t="n">
         <v>12.3012471993</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>12.3365102484</v>
       </c>
     </row>

--- a/user-data/uganda-health-percent/uganda-health-percent.xlsx
+++ b/user-data/uganda-health-percent/uganda-health-percent.xlsx
@@ -8812,21 +8812,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8834,22 +8831,19 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="B2" t="n">
+        <v>27.9128102619</v>
       </c>
       <c r="C2" t="n">
-        <v>27.9128102619</v>
+        <v>33.5462561839</v>
       </c>
       <c r="D2" t="n">
-        <v>33.5462561839</v>
+        <v>33.2840217719</v>
       </c>
       <c r="E2" t="n">
-        <v>33.2840217719</v>
+        <v>34.1080351761</v>
       </c>
       <c r="F2" t="n">
-        <v>34.1080351761</v>
-      </c>
-      <c r="G2" t="n">
         <v>37.3582282409</v>
       </c>
     </row>
@@ -8857,22 +8851,19 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
+      <c r="B3" t="n">
+        <v>16.6039112015</v>
       </c>
       <c r="C3" t="n">
-        <v>16.6039112015</v>
+        <v>16.3715264298</v>
       </c>
       <c r="D3" t="n">
-        <v>16.3715264298</v>
+        <v>14.8272584878</v>
       </c>
       <c r="E3" t="n">
-        <v>14.8272584878</v>
+        <v>19.1114799007</v>
       </c>
       <c r="F3" t="n">
-        <v>19.1114799007</v>
-      </c>
-      <c r="G3" t="n">
         <v>16.892219007</v>
       </c>
     </row>
@@ -8880,22 +8871,19 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="B4" t="n">
+        <v>12.238556424</v>
       </c>
       <c r="C4" t="n">
-        <v>12.238556424</v>
+        <v>14.7960260411</v>
       </c>
       <c r="D4" t="n">
-        <v>14.7960260411</v>
+        <v>13.4123867044</v>
       </c>
       <c r="E4" t="n">
-        <v>13.4123867044</v>
+        <v>12.6777077407</v>
       </c>
       <c r="F4" t="n">
-        <v>12.6777077407</v>
-      </c>
-      <c r="G4" t="n">
         <v>12.4042269604</v>
       </c>
     </row>
@@ -8903,20 +8891,17 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
+      <c r="B5" t="n">
+        <v>11.9455617701</v>
       </c>
       <c r="C5" t="n">
-        <v>11.9455617701</v>
-      </c>
-      <c r="D5" t="n">
         <v>12.0396835267</v>
       </c>
-      <c r="E5"/>
+      <c r="D5"/>
+      <c r="E5" t="n">
+        <v>9.2466719634</v>
+      </c>
       <c r="F5" t="n">
-        <v>9.2466719634</v>
-      </c>
-      <c r="G5" t="n">
         <v>10.1851748546</v>
       </c>
     </row>
@@ -8924,22 +8909,19 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
+      <c r="B6" t="n">
+        <v>13.5135097743</v>
       </c>
       <c r="C6" t="n">
-        <v>13.5135097743</v>
+        <v>14.6316161502</v>
       </c>
       <c r="D6" t="n">
-        <v>14.6316161502</v>
+        <v>14.1928162094</v>
       </c>
       <c r="E6" t="n">
-        <v>14.1928162094</v>
+        <v>13.2275299369</v>
       </c>
       <c r="F6" t="n">
-        <v>13.2275299369</v>
-      </c>
-      <c r="G6" t="n">
         <v>13.6719099379</v>
       </c>
     </row>
@@ -8947,22 +8929,19 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
+      <c r="B7" t="n">
+        <v>14.8529405254</v>
       </c>
       <c r="C7" t="n">
-        <v>14.8529405254</v>
+        <v>12.3790974302</v>
       </c>
       <c r="D7" t="n">
-        <v>12.3790974302</v>
+        <v>14.1337183407</v>
       </c>
       <c r="E7" t="n">
-        <v>14.1337183407</v>
+        <v>12.7268848452</v>
       </c>
       <c r="F7" t="n">
-        <v>12.7268848452</v>
-      </c>
-      <c r="G7" t="n">
         <v>13.1983850246</v>
       </c>
     </row>
@@ -8970,18 +8949,15 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="n">
         <v>8.3883421492</v>
       </c>
+      <c r="C8"/>
       <c r="D8"/>
-      <c r="E8"/>
+      <c r="E8" t="n">
+        <v>10.7332478326</v>
+      </c>
       <c r="F8" t="n">
-        <v>10.7332478326</v>
-      </c>
-      <c r="G8" t="n">
         <v>3.0554042406</v>
       </c>
     </row>
@@ -8989,20 +8965,17 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
+      <c r="B9" t="n">
+        <v>17.1557645942</v>
       </c>
       <c r="C9" t="n">
-        <v>17.1557645942</v>
-      </c>
-      <c r="D9" t="n">
         <v>16.5722050798</v>
       </c>
-      <c r="E9"/>
+      <c r="D9"/>
+      <c r="E9" t="n">
+        <v>14.9176424627</v>
+      </c>
       <c r="F9" t="n">
-        <v>14.9176424627</v>
-      </c>
-      <c r="G9" t="n">
         <v>14.7105585037</v>
       </c>
     </row>
@@ -9010,22 +8983,19 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
+      <c r="B10" t="n">
+        <v>17.051211299</v>
       </c>
       <c r="C10" t="n">
-        <v>17.051211299</v>
+        <v>18.7951029908</v>
       </c>
       <c r="D10" t="n">
-        <v>18.7951029908</v>
+        <v>18.2557681473</v>
       </c>
       <c r="E10" t="n">
-        <v>18.2557681473</v>
+        <v>18.830849925</v>
       </c>
       <c r="F10" t="n">
-        <v>18.830849925</v>
-      </c>
-      <c r="G10" t="n">
         <v>19.2868706743</v>
       </c>
     </row>
@@ -9033,22 +9003,19 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
+      <c r="B11" t="n">
+        <v>11.2548437443</v>
       </c>
       <c r="C11" t="n">
-        <v>11.2548437443</v>
+        <v>12.410895285</v>
       </c>
       <c r="D11" t="n">
-        <v>12.410895285</v>
+        <v>12.0026429348</v>
       </c>
       <c r="E11" t="n">
-        <v>12.0026429348</v>
+        <v>8.9503774837</v>
       </c>
       <c r="F11" t="n">
-        <v>8.9503774837</v>
-      </c>
-      <c r="G11" t="n">
         <v>9.3258410032</v>
       </c>
     </row>
@@ -9056,22 +9023,19 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
+      <c r="B12" t="n">
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>15.9138776245</v>
       </c>
       <c r="D12" t="n">
-        <v>15.9138776245</v>
+        <v>16.5673555922</v>
       </c>
       <c r="E12" t="n">
-        <v>16.5673555922</v>
+        <v>14.2348428</v>
       </c>
       <c r="F12" t="n">
-        <v>14.2348428</v>
-      </c>
-      <c r="G12" t="n">
         <v>16.56306747</v>
       </c>
     </row>
@@ -9079,22 +9043,19 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
+      <c r="B13" t="n">
+        <v>10.9627674452</v>
       </c>
       <c r="C13" t="n">
-        <v>10.9627674452</v>
+        <v>12.4575090713</v>
       </c>
       <c r="D13" t="n">
-        <v>12.4575090713</v>
+        <v>12.4694801462</v>
       </c>
       <c r="E13" t="n">
-        <v>12.4694801462</v>
+        <v>11.0889737029</v>
       </c>
       <c r="F13" t="n">
-        <v>11.0889737029</v>
-      </c>
-      <c r="G13" t="n">
         <v>11.2283767846</v>
       </c>
     </row>
@@ -9102,22 +9063,19 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
+      <c r="B14" t="n">
+        <v>22.461260653</v>
       </c>
       <c r="C14" t="n">
-        <v>22.461260653</v>
+        <v>23.4461613176</v>
       </c>
       <c r="D14" t="n">
-        <v>23.4461613176</v>
+        <v>27.5578519246</v>
       </c>
       <c r="E14" t="n">
-        <v>27.5578519246</v>
+        <v>23.859408024</v>
       </c>
       <c r="F14" t="n">
-        <v>23.859408024</v>
-      </c>
-      <c r="G14" t="n">
         <v>23.7233956479</v>
       </c>
     </row>
@@ -9125,22 +9083,19 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
+      <c r="B15" t="n">
+        <v>16.9404255362</v>
       </c>
       <c r="C15" t="n">
-        <v>16.9404255362</v>
+        <v>17.893003092</v>
       </c>
       <c r="D15" t="n">
-        <v>17.893003092</v>
+        <v>21.5641475166</v>
       </c>
       <c r="E15" t="n">
-        <v>21.5641475166</v>
+        <v>20.7978538558</v>
       </c>
       <c r="F15" t="n">
-        <v>20.7978538558</v>
-      </c>
-      <c r="G15" t="n">
         <v>21.431308875</v>
       </c>
     </row>
@@ -9148,22 +9103,19 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
+      <c r="B16" t="n">
+        <v>14.9969772285</v>
       </c>
       <c r="C16" t="n">
-        <v>14.9969772285</v>
+        <v>16.7329483868</v>
       </c>
       <c r="D16" t="n">
-        <v>16.7329483868</v>
+        <v>15.6482086613</v>
       </c>
       <c r="E16" t="n">
-        <v>15.6482086613</v>
+        <v>17.920609906</v>
       </c>
       <c r="F16" t="n">
-        <v>17.920609906</v>
-      </c>
-      <c r="G16" t="n">
         <v>17.9966773881</v>
       </c>
     </row>
@@ -9171,22 +9123,19 @@
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
-        <v>6</v>
+      <c r="B17" t="n">
+        <v>10.7127334957</v>
       </c>
       <c r="C17" t="n">
-        <v>10.7127334957</v>
+        <v>16.3767815842</v>
       </c>
       <c r="D17" t="n">
-        <v>16.3767815842</v>
+        <v>15.3917095498</v>
       </c>
       <c r="E17" t="n">
-        <v>15.3917095498</v>
+        <v>14.5595852096</v>
       </c>
       <c r="F17" t="n">
-        <v>14.5595852096</v>
-      </c>
-      <c r="G17" t="n">
         <v>14.908173864</v>
       </c>
     </row>
@@ -9194,43 +9143,37 @@
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
+      <c r="B18" t="n">
+        <v>7.6689455359</v>
       </c>
       <c r="C18" t="n">
-        <v>7.6689455359</v>
+        <v>8.5579990553</v>
       </c>
       <c r="D18" t="n">
-        <v>8.5579990553</v>
+        <v>13.0615850791</v>
       </c>
       <c r="E18" t="n">
-        <v>13.0615850791</v>
-      </c>
-      <c r="F18" t="n">
         <v>12.7050930428</v>
       </c>
-      <c r="G18"/>
+      <c r="F18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
+      <c r="B19" t="n">
+        <v>11.8327961091</v>
       </c>
       <c r="C19" t="n">
-        <v>11.8327961091</v>
+        <v>13.1046229342</v>
       </c>
       <c r="D19" t="n">
-        <v>13.1046229342</v>
+        <v>13.8566961653</v>
       </c>
       <c r="E19" t="n">
-        <v>13.8566961653</v>
+        <v>12.3955657759</v>
       </c>
       <c r="F19" t="n">
-        <v>12.3955657759</v>
-      </c>
-      <c r="G19" t="n">
         <v>12.849397366</v>
       </c>
     </row>
@@ -9238,20 +9181,17 @@
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20"/>
+      <c r="B20"/>
+      <c r="C20" t="n">
+        <v>18.2463799789</v>
+      </c>
       <c r="D20" t="n">
-        <v>18.2463799789</v>
+        <v>22.6368075674</v>
       </c>
       <c r="E20" t="n">
-        <v>22.6368075674</v>
+        <v>20.1269004892</v>
       </c>
       <c r="F20" t="n">
-        <v>20.1269004892</v>
-      </c>
-      <c r="G20" t="n">
         <v>24.1946424313</v>
       </c>
     </row>
@@ -9259,22 +9199,19 @@
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
-        <v>6</v>
+      <c r="B21" t="n">
+        <v>8.5073488398</v>
       </c>
       <c r="C21" t="n">
-        <v>8.5073488398</v>
+        <v>7.2064433166</v>
       </c>
       <c r="D21" t="n">
-        <v>7.2064433166</v>
+        <v>9.5560610076</v>
       </c>
       <c r="E21" t="n">
-        <v>9.5560610076</v>
+        <v>8.6902701741</v>
       </c>
       <c r="F21" t="n">
-        <v>8.6902701741</v>
-      </c>
-      <c r="G21" t="n">
         <v>8.7656270519</v>
       </c>
     </row>
@@ -9282,22 +9219,19 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="s">
-        <v>6</v>
+      <c r="B22" t="n">
+        <v>11.0257767658</v>
       </c>
       <c r="C22" t="n">
-        <v>11.0257767658</v>
+        <v>12.6038058257</v>
       </c>
       <c r="D22" t="n">
-        <v>12.6038058257</v>
+        <v>16.3376005635</v>
       </c>
       <c r="E22" t="n">
-        <v>16.3376005635</v>
+        <v>16.1485480743</v>
       </c>
       <c r="F22" t="n">
-        <v>16.1485480743</v>
-      </c>
-      <c r="G22" t="n">
         <v>16.7798166627</v>
       </c>
     </row>
@@ -9305,22 +9239,19 @@
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
-        <v>6</v>
+      <c r="B23" t="n">
+        <v>5.1550833548</v>
       </c>
       <c r="C23" t="n">
-        <v>5.1550833548</v>
+        <v>5.2092702906</v>
       </c>
       <c r="D23" t="n">
-        <v>5.2092702906</v>
+        <v>10.750772444</v>
       </c>
       <c r="E23" t="n">
-        <v>10.750772444</v>
+        <v>12.2304697051</v>
       </c>
       <c r="F23" t="n">
-        <v>12.2304697051</v>
-      </c>
-      <c r="G23" t="n">
         <v>12.331115244</v>
       </c>
     </row>
@@ -9328,22 +9259,19 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
-        <v>6</v>
+      <c r="B24" t="n">
+        <v>8.347829495</v>
       </c>
       <c r="C24" t="n">
-        <v>8.347829495</v>
+        <v>10.3891572141</v>
       </c>
       <c r="D24" t="n">
-        <v>10.3891572141</v>
+        <v>11.4592301027</v>
       </c>
       <c r="E24" t="n">
-        <v>11.4592301027</v>
+        <v>11.9548730112</v>
       </c>
       <c r="F24" t="n">
-        <v>11.9548730112</v>
-      </c>
-      <c r="G24" t="n">
         <v>11.6832970099</v>
       </c>
     </row>
@@ -9351,22 +9279,19 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
-        <v>6</v>
+      <c r="B25" t="n">
+        <v>10.9697764013</v>
       </c>
       <c r="C25" t="n">
-        <v>10.9697764013</v>
+        <v>13.2072107723</v>
       </c>
       <c r="D25" t="n">
-        <v>13.2072107723</v>
+        <v>14.0831898385</v>
       </c>
       <c r="E25" t="n">
-        <v>14.0831898385</v>
+        <v>12.9042106499</v>
       </c>
       <c r="F25" t="n">
-        <v>12.9042106499</v>
-      </c>
-      <c r="G25" t="n">
         <v>15.8484969473</v>
       </c>
     </row>
@@ -9374,22 +9299,19 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
-        <v>6</v>
+      <c r="B26" t="n">
+        <v>10.3058611582</v>
       </c>
       <c r="C26" t="n">
-        <v>10.3058611582</v>
+        <v>9.5708552697</v>
       </c>
       <c r="D26" t="n">
-        <v>9.5708552697</v>
+        <v>8.7425463827</v>
       </c>
       <c r="E26" t="n">
-        <v>8.7425463827</v>
+        <v>8.3504704734</v>
       </c>
       <c r="F26" t="n">
-        <v>8.3504704734</v>
-      </c>
-      <c r="G26" t="n">
         <v>9.7275685545</v>
       </c>
     </row>
@@ -9397,20 +9319,17 @@
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="s">
-        <v>6</v>
+      <c r="B27" t="n">
+        <v>12.8765353903</v>
       </c>
       <c r="C27" t="n">
-        <v>12.8765353903</v>
-      </c>
-      <c r="D27" t="n">
         <v>15.8089383496</v>
       </c>
-      <c r="E27"/>
+      <c r="D27"/>
+      <c r="E27" t="n">
+        <v>16.8107671375</v>
+      </c>
       <c r="F27" t="n">
-        <v>16.8107671375</v>
-      </c>
-      <c r="G27" t="n">
         <v>17.1545376949</v>
       </c>
     </row>
@@ -9418,20 +9337,17 @@
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="s">
-        <v>6</v>
+      <c r="B28" t="n">
+        <v>8.8402607899</v>
       </c>
       <c r="C28" t="n">
-        <v>8.8402607899</v>
-      </c>
-      <c r="D28" t="n">
         <v>14.6879930711</v>
       </c>
-      <c r="E28"/>
+      <c r="D28"/>
+      <c r="E28" t="n">
+        <v>15.0574023146</v>
+      </c>
       <c r="F28" t="n">
-        <v>15.0574023146</v>
-      </c>
-      <c r="G28" t="n">
         <v>18.3376908935</v>
       </c>
     </row>
@@ -9439,22 +9355,19 @@
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
-        <v>6</v>
+      <c r="B29" t="n">
+        <v>13.5495244523</v>
       </c>
       <c r="C29" t="n">
-        <v>13.5495244523</v>
+        <v>16.8417343021</v>
       </c>
       <c r="D29" t="n">
-        <v>16.8417343021</v>
+        <v>17.0177456902</v>
       </c>
       <c r="E29" t="n">
-        <v>17.0177456902</v>
+        <v>16.304296938</v>
       </c>
       <c r="F29" t="n">
-        <v>16.304296938</v>
-      </c>
-      <c r="G29" t="n">
         <v>14.1113708666</v>
       </c>
     </row>
@@ -9462,22 +9375,19 @@
       <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" t="s">
-        <v>6</v>
+      <c r="B30" t="n">
+        <v>18.0426847358</v>
       </c>
       <c r="C30" t="n">
-        <v>18.0426847358</v>
+        <v>19.1592619146</v>
       </c>
       <c r="D30" t="n">
-        <v>19.1592619146</v>
+        <v>19.3296632512</v>
       </c>
       <c r="E30" t="n">
-        <v>19.3296632512</v>
+        <v>24.5730325927</v>
       </c>
       <c r="F30" t="n">
-        <v>24.5730325927</v>
-      </c>
-      <c r="G30" t="n">
         <v>25.7735477298</v>
       </c>
     </row>
@@ -9485,22 +9395,19 @@
       <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31" t="s">
-        <v>6</v>
+      <c r="B31" t="n">
+        <v>14.9161801683</v>
       </c>
       <c r="C31" t="n">
-        <v>14.9161801683</v>
+        <v>21.8982364257</v>
       </c>
       <c r="D31" t="n">
-        <v>21.8982364257</v>
+        <v>18.9444634339</v>
       </c>
       <c r="E31" t="n">
-        <v>18.9444634339</v>
+        <v>16.1780928389</v>
       </c>
       <c r="F31" t="n">
-        <v>16.1780928389</v>
-      </c>
-      <c r="G31" t="n">
         <v>17.6075300276</v>
       </c>
     </row>
@@ -9508,22 +9415,19 @@
       <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" t="s">
-        <v>6</v>
+      <c r="B32" t="n">
+        <v>17.1472586838</v>
       </c>
       <c r="C32" t="n">
-        <v>17.1472586838</v>
+        <v>16.6528527612</v>
       </c>
       <c r="D32" t="n">
-        <v>16.6528527612</v>
+        <v>18.7150856495</v>
       </c>
       <c r="E32" t="n">
-        <v>18.7150856495</v>
+        <v>21.0958147553</v>
       </c>
       <c r="F32" t="n">
-        <v>21.0958147553</v>
-      </c>
-      <c r="G32" t="n">
         <v>19.6667814454</v>
       </c>
     </row>
@@ -9531,20 +9435,17 @@
       <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33" t="s">
-        <v>6</v>
+      <c r="B33" t="n">
+        <v>11.0331078729</v>
       </c>
       <c r="C33" t="n">
-        <v>11.0331078729</v>
-      </c>
-      <c r="D33" t="n">
         <v>11.7251239092</v>
       </c>
-      <c r="E33"/>
+      <c r="D33"/>
+      <c r="E33" t="n">
+        <v>11.8387895348</v>
+      </c>
       <c r="F33" t="n">
-        <v>11.8387895348</v>
-      </c>
-      <c r="G33" t="n">
         <v>11.7052602915</v>
       </c>
     </row>
@@ -9552,22 +9453,19 @@
       <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" t="s">
-        <v>6</v>
+      <c r="B34" t="n">
+        <v>16.7735551438</v>
       </c>
       <c r="C34" t="n">
-        <v>16.7735551438</v>
+        <v>15.0842185433</v>
       </c>
       <c r="D34" t="n">
-        <v>15.0842185433</v>
+        <v>16.7933484512</v>
       </c>
       <c r="E34" t="n">
-        <v>16.7933484512</v>
+        <v>15.7503093526</v>
       </c>
       <c r="F34" t="n">
-        <v>15.7503093526</v>
-      </c>
-      <c r="G34" t="n">
         <v>16.466775237</v>
       </c>
     </row>
@@ -9575,22 +9473,19 @@
       <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B35" t="s">
-        <v>6</v>
+      <c r="B35" t="n">
+        <v>9.0362725228</v>
       </c>
       <c r="C35" t="n">
-        <v>9.0362725228</v>
+        <v>8.210962453</v>
       </c>
       <c r="D35" t="n">
-        <v>8.210962453</v>
+        <v>9.1901235833</v>
       </c>
       <c r="E35" t="n">
-        <v>9.1901235833</v>
+        <v>7.8513069671</v>
       </c>
       <c r="F35" t="n">
-        <v>7.8513069671</v>
-      </c>
-      <c r="G35" t="n">
         <v>7.8622347976</v>
       </c>
     </row>
@@ -9598,22 +9493,19 @@
       <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B36" t="s">
-        <v>6</v>
+      <c r="B36" t="n">
+        <v>13.2798804844</v>
       </c>
       <c r="C36" t="n">
-        <v>13.2798804844</v>
+        <v>16.5305775591</v>
       </c>
       <c r="D36" t="n">
-        <v>16.5305775591</v>
+        <v>15.2676375908</v>
       </c>
       <c r="E36" t="n">
-        <v>15.2676375908</v>
+        <v>12.633092256</v>
       </c>
       <c r="F36" t="n">
-        <v>12.633092256</v>
-      </c>
-      <c r="G36" t="n">
         <v>12.343950199</v>
       </c>
     </row>
@@ -9621,22 +9513,19 @@
       <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B37" t="s">
-        <v>6</v>
+      <c r="B37" t="n">
+        <v>12.3043418834</v>
       </c>
       <c r="C37" t="n">
-        <v>12.3043418834</v>
+        <v>16.5680361222</v>
       </c>
       <c r="D37" t="n">
-        <v>16.5680361222</v>
+        <v>17.8816197446</v>
       </c>
       <c r="E37" t="n">
-        <v>17.8816197446</v>
+        <v>16.2485594082</v>
       </c>
       <c r="F37" t="n">
-        <v>16.2485594082</v>
-      </c>
-      <c r="G37" t="n">
         <v>16.5744367382</v>
       </c>
     </row>
@@ -9644,22 +9533,19 @@
       <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="B38" t="s">
-        <v>6</v>
+      <c r="B38" t="n">
+        <v>9.7414060845</v>
       </c>
       <c r="C38" t="n">
-        <v>9.7414060845</v>
+        <v>10.4135912116</v>
       </c>
       <c r="D38" t="n">
-        <v>10.4135912116</v>
+        <v>12.3542296612</v>
       </c>
       <c r="E38" t="n">
-        <v>12.3542296612</v>
+        <v>10.2911186361</v>
       </c>
       <c r="F38" t="n">
-        <v>10.2911186361</v>
-      </c>
-      <c r="G38" t="n">
         <v>11.5703749586</v>
       </c>
     </row>
@@ -9667,22 +9553,19 @@
       <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B39" t="s">
-        <v>6</v>
+      <c r="B39" t="n">
+        <v>13.2157174631</v>
       </c>
       <c r="C39" t="n">
-        <v>13.2157174631</v>
+        <v>14.7556900747</v>
       </c>
       <c r="D39" t="n">
-        <v>14.7556900747</v>
+        <v>16.8507991116</v>
       </c>
       <c r="E39" t="n">
-        <v>16.8507991116</v>
+        <v>13.3626705861</v>
       </c>
       <c r="F39" t="n">
-        <v>13.3626705861</v>
-      </c>
-      <c r="G39" t="n">
         <v>13.9869096532</v>
       </c>
     </row>
@@ -9690,22 +9573,19 @@
       <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="B40" t="s">
-        <v>6</v>
+      <c r="B40" t="n">
+        <v>13.704833125</v>
       </c>
       <c r="C40" t="n">
-        <v>13.704833125</v>
+        <v>15.4934044982</v>
       </c>
       <c r="D40" t="n">
-        <v>15.4934044982</v>
+        <v>14.9075016256</v>
       </c>
       <c r="E40" t="n">
-        <v>14.9075016256</v>
+        <v>14.8614017516</v>
       </c>
       <c r="F40" t="n">
-        <v>14.8614017516</v>
-      </c>
-      <c r="G40" t="n">
         <v>15.072473604</v>
       </c>
     </row>
@@ -9713,22 +9593,19 @@
       <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B41" t="s">
-        <v>6</v>
+      <c r="B41" t="n">
+        <v>10.4246623206</v>
       </c>
       <c r="C41" t="n">
-        <v>10.4246623206</v>
+        <v>14.4932496224</v>
       </c>
       <c r="D41" t="n">
-        <v>14.4932496224</v>
+        <v>14.4351216984</v>
       </c>
       <c r="E41" t="n">
-        <v>14.4351216984</v>
+        <v>12.342786175</v>
       </c>
       <c r="F41" t="n">
-        <v>12.342786175</v>
-      </c>
-      <c r="G41" t="n">
         <v>12.9586508543</v>
       </c>
     </row>
@@ -9736,22 +9613,19 @@
       <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B42" t="s">
-        <v>6</v>
+      <c r="B42" t="n">
+        <v>11.2917982944</v>
       </c>
       <c r="C42" t="n">
-        <v>11.2917982944</v>
+        <v>14.5545271433</v>
       </c>
       <c r="D42" t="n">
-        <v>14.5545271433</v>
+        <v>15.6654992323</v>
       </c>
       <c r="E42" t="n">
-        <v>15.6654992323</v>
+        <v>17.4692599921</v>
       </c>
       <c r="F42" t="n">
-        <v>17.4692599921</v>
-      </c>
-      <c r="G42" t="n">
         <v>17.2722444469</v>
       </c>
     </row>
@@ -9759,22 +9633,19 @@
       <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B43" t="s">
-        <v>6</v>
+      <c r="B43" t="n">
+        <v>9.8855343971</v>
       </c>
       <c r="C43" t="n">
-        <v>9.8855343971</v>
+        <v>10.083747044</v>
       </c>
       <c r="D43" t="n">
-        <v>10.083747044</v>
+        <v>9.3924234309</v>
       </c>
       <c r="E43" t="n">
-        <v>9.3924234309</v>
+        <v>8.776914271</v>
       </c>
       <c r="F43" t="n">
-        <v>8.776914271</v>
-      </c>
-      <c r="G43" t="n">
         <v>10.3911245584</v>
       </c>
     </row>
@@ -9782,22 +9653,19 @@
       <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B44" t="s">
-        <v>6</v>
+      <c r="B44" t="n">
+        <v>13.0695519454</v>
       </c>
       <c r="C44" t="n">
-        <v>13.0695519454</v>
+        <v>13.1004362888</v>
       </c>
       <c r="D44" t="n">
-        <v>13.1004362888</v>
+        <v>21.2068256894</v>
       </c>
       <c r="E44" t="n">
-        <v>21.2068256894</v>
+        <v>18.5390589743</v>
       </c>
       <c r="F44" t="n">
-        <v>18.5390589743</v>
-      </c>
-      <c r="G44" t="n">
         <v>18.554336871</v>
       </c>
     </row>
@@ -9805,22 +9673,19 @@
       <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B45" t="s">
-        <v>6</v>
+      <c r="B45" t="n">
+        <v>18.528362619</v>
       </c>
       <c r="C45" t="n">
-        <v>18.528362619</v>
+        <v>14.8164639389</v>
       </c>
       <c r="D45" t="n">
-        <v>14.8164639389</v>
+        <v>15.7166903688</v>
       </c>
       <c r="E45" t="n">
-        <v>15.7166903688</v>
+        <v>14.4081580544</v>
       </c>
       <c r="F45" t="n">
-        <v>14.4081580544</v>
-      </c>
-      <c r="G45" t="n">
         <v>14.4710230842</v>
       </c>
     </row>
@@ -9828,22 +9693,19 @@
       <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="B46" t="s">
-        <v>6</v>
+      <c r="B46" t="n">
+        <v>10.5123769495</v>
       </c>
       <c r="C46" t="n">
-        <v>10.5123769495</v>
+        <v>11.8536174952</v>
       </c>
       <c r="D46" t="n">
-        <v>11.8536174952</v>
+        <v>13.1475640935</v>
       </c>
       <c r="E46" t="n">
-        <v>13.1475640935</v>
+        <v>14.916245933</v>
       </c>
       <c r="F46" t="n">
-        <v>14.916245933</v>
-      </c>
-      <c r="G46" t="n">
         <v>15.3420453938</v>
       </c>
     </row>
@@ -9851,22 +9713,19 @@
       <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B47" t="s">
-        <v>6</v>
+      <c r="B47" t="n">
+        <v>13.5743261227</v>
       </c>
       <c r="C47" t="n">
-        <v>13.5743261227</v>
+        <v>12.5396089104</v>
       </c>
       <c r="D47" t="n">
-        <v>12.5396089104</v>
+        <v>13.3173232256</v>
       </c>
       <c r="E47" t="n">
-        <v>13.3173232256</v>
+        <v>11.0036759224</v>
       </c>
       <c r="F47" t="n">
-        <v>11.0036759224</v>
-      </c>
-      <c r="G47" t="n">
         <v>11.3616306399</v>
       </c>
     </row>
@@ -9874,22 +9733,19 @@
       <c r="A48" t="s">
         <v>52</v>
       </c>
-      <c r="B48" t="s">
-        <v>6</v>
+      <c r="B48" t="n">
+        <v>11.1184979504</v>
       </c>
       <c r="C48" t="n">
-        <v>11.1184979504</v>
+        <v>12.6682258983</v>
       </c>
       <c r="D48" t="n">
-        <v>12.6682258983</v>
+        <v>13.9057637628</v>
       </c>
       <c r="E48" t="n">
-        <v>13.9057637628</v>
+        <v>10.8992920903</v>
       </c>
       <c r="F48" t="n">
-        <v>10.8992920903</v>
-      </c>
-      <c r="G48" t="n">
         <v>11.0728394688</v>
       </c>
     </row>
@@ -9897,22 +9753,19 @@
       <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="B49" t="s">
-        <v>6</v>
+      <c r="B49" t="n">
+        <v>10.7113921281</v>
       </c>
       <c r="C49" t="n">
-        <v>10.7113921281</v>
+        <v>10.1125160442</v>
       </c>
       <c r="D49" t="n">
-        <v>10.1125160442</v>
+        <v>14.2281715283</v>
       </c>
       <c r="E49" t="n">
-        <v>14.2281715283</v>
+        <v>15.1711257165</v>
       </c>
       <c r="F49" t="n">
-        <v>15.1711257165</v>
-      </c>
-      <c r="G49" t="n">
         <v>17.4462671658</v>
       </c>
     </row>
@@ -9920,22 +9773,19 @@
       <c r="A50" t="s">
         <v>54</v>
       </c>
-      <c r="B50" t="s">
-        <v>6</v>
+      <c r="B50" t="n">
+        <v>5.1602407716</v>
       </c>
       <c r="C50" t="n">
-        <v>5.1602407716</v>
+        <v>8.0409206553</v>
       </c>
       <c r="D50" t="n">
-        <v>8.0409206553</v>
+        <v>10.7344193915</v>
       </c>
       <c r="E50" t="n">
-        <v>10.7344193915</v>
+        <v>10.9150494907</v>
       </c>
       <c r="F50" t="n">
-        <v>10.9150494907</v>
-      </c>
-      <c r="G50" t="n">
         <v>10.4825618023</v>
       </c>
     </row>
@@ -9943,22 +9793,19 @@
       <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="B51" t="s">
-        <v>6</v>
+      <c r="B51" t="n">
+        <v>9.1252846858</v>
       </c>
       <c r="C51" t="n">
-        <v>9.1252846858</v>
+        <v>9.0368116168</v>
       </c>
       <c r="D51" t="n">
-        <v>9.0368116168</v>
+        <v>10.9607676131</v>
       </c>
       <c r="E51" t="n">
-        <v>10.9607676131</v>
+        <v>8.9057273637</v>
       </c>
       <c r="F51" t="n">
-        <v>8.9057273637</v>
-      </c>
-      <c r="G51" t="n">
         <v>9.7082451904</v>
       </c>
     </row>
@@ -9966,22 +9813,19 @@
       <c r="A52" t="s">
         <v>56</v>
       </c>
-      <c r="B52" t="s">
-        <v>6</v>
+      <c r="B52" t="n">
+        <v>10.5521737776</v>
       </c>
       <c r="C52" t="n">
-        <v>10.5521737776</v>
+        <v>10.8901864216</v>
       </c>
       <c r="D52" t="n">
-        <v>10.8901864216</v>
+        <v>15.5273828422</v>
       </c>
       <c r="E52" t="n">
-        <v>15.5273828422</v>
+        <v>14.5554762752</v>
       </c>
       <c r="F52" t="n">
-        <v>14.5554762752</v>
-      </c>
-      <c r="G52" t="n">
         <v>15.4710073898</v>
       </c>
     </row>
@@ -9989,43 +9833,37 @@
       <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="B53" t="s">
-        <v>6</v>
+      <c r="B53" t="n">
+        <v>8.858863083</v>
       </c>
       <c r="C53" t="n">
-        <v>8.858863083</v>
+        <v>9.2436613841</v>
       </c>
       <c r="D53" t="n">
-        <v>9.2436613841</v>
+        <v>10.4257214247</v>
       </c>
       <c r="E53" t="n">
-        <v>10.4257214247</v>
-      </c>
-      <c r="F53" t="n">
         <v>8.4162992217</v>
       </c>
-      <c r="G53"/>
+      <c r="F53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="B54" t="s">
-        <v>6</v>
+      <c r="B54" t="n">
+        <v>5.3083918983</v>
       </c>
       <c r="C54" t="n">
-        <v>5.3083918983</v>
+        <v>8.6090126489</v>
       </c>
       <c r="D54" t="n">
-        <v>8.6090126489</v>
+        <v>11.0251911148</v>
       </c>
       <c r="E54" t="n">
-        <v>11.0251911148</v>
+        <v>11.7043136045</v>
       </c>
       <c r="F54" t="n">
-        <v>11.7043136045</v>
-      </c>
-      <c r="G54" t="n">
         <v>12.2943311364</v>
       </c>
     </row>
@@ -10033,22 +9871,19 @@
       <c r="A55" t="s">
         <v>59</v>
       </c>
-      <c r="B55" t="s">
-        <v>6</v>
+      <c r="B55" t="n">
+        <v>14.9616870097</v>
       </c>
       <c r="C55" t="n">
-        <v>14.9616870097</v>
+        <v>13.5102338276</v>
       </c>
       <c r="D55" t="n">
-        <v>13.5102338276</v>
+        <v>15.1781080837</v>
       </c>
       <c r="E55" t="n">
-        <v>15.1781080837</v>
+        <v>14.4761382016</v>
       </c>
       <c r="F55" t="n">
-        <v>14.4761382016</v>
-      </c>
-      <c r="G55" t="n">
         <v>14.5702849323</v>
       </c>
     </row>
@@ -10056,22 +9891,19 @@
       <c r="A56" t="s">
         <v>60</v>
       </c>
-      <c r="B56" t="s">
-        <v>6</v>
+      <c r="B56" t="n">
+        <v>9.5864535563</v>
       </c>
       <c r="C56" t="n">
-        <v>9.5864535563</v>
+        <v>11.7544247402</v>
       </c>
       <c r="D56" t="n">
-        <v>11.7544247402</v>
+        <v>13.9663616139</v>
       </c>
       <c r="E56" t="n">
-        <v>13.9663616139</v>
+        <v>12.2871009613</v>
       </c>
       <c r="F56" t="n">
-        <v>12.2871009613</v>
-      </c>
-      <c r="G56" t="n">
         <v>12.5361209647</v>
       </c>
     </row>
@@ -10079,22 +9911,19 @@
       <c r="A57" t="s">
         <v>61</v>
       </c>
-      <c r="B57" t="s">
-        <v>6</v>
+      <c r="B57" t="n">
+        <v>22.3852289294</v>
       </c>
       <c r="C57" t="n">
-        <v>22.3852289294</v>
+        <v>29.5599234468</v>
       </c>
       <c r="D57" t="n">
-        <v>29.5599234468</v>
+        <v>25.4034385946</v>
       </c>
       <c r="E57" t="n">
-        <v>25.4034385946</v>
+        <v>32.2830180009</v>
       </c>
       <c r="F57" t="n">
-        <v>32.2830180009</v>
-      </c>
-      <c r="G57" t="n">
         <v>33.3576212766</v>
       </c>
     </row>
@@ -10102,22 +9931,19 @@
       <c r="A58" t="s">
         <v>62</v>
       </c>
-      <c r="B58" t="s">
-        <v>6</v>
+      <c r="B58" t="n">
+        <v>15.6625019789</v>
       </c>
       <c r="C58" t="n">
-        <v>15.6625019789</v>
+        <v>14.5249812213</v>
       </c>
       <c r="D58" t="n">
-        <v>14.5249812213</v>
+        <v>14.7782978296</v>
       </c>
       <c r="E58" t="n">
-        <v>14.7782978296</v>
+        <v>17.3186091781</v>
       </c>
       <c r="F58" t="n">
-        <v>17.3186091781</v>
-      </c>
-      <c r="G58" t="n">
         <v>17.9262502561</v>
       </c>
     </row>
@@ -10125,22 +9951,19 @@
       <c r="A59" t="s">
         <v>63</v>
       </c>
-      <c r="B59" t="s">
-        <v>6</v>
+      <c r="B59" t="n">
+        <v>11.7725506826</v>
       </c>
       <c r="C59" t="n">
-        <v>11.7725506826</v>
+        <v>10.0415310442</v>
       </c>
       <c r="D59" t="n">
-        <v>10.0415310442</v>
+        <v>9.2857019864</v>
       </c>
       <c r="E59" t="n">
-        <v>9.2857019864</v>
+        <v>10.6814431493</v>
       </c>
       <c r="F59" t="n">
-        <v>10.6814431493</v>
-      </c>
-      <c r="G59" t="n">
         <v>11.048879197</v>
       </c>
     </row>
@@ -10148,22 +9971,19 @@
       <c r="A60" t="s">
         <v>64</v>
       </c>
-      <c r="B60" t="s">
-        <v>6</v>
+      <c r="B60" t="n">
+        <v>17.516060306</v>
       </c>
       <c r="C60" t="n">
-        <v>17.516060306</v>
+        <v>12.7654171277</v>
       </c>
       <c r="D60" t="n">
-        <v>12.7654171277</v>
+        <v>13.5165634634</v>
       </c>
       <c r="E60" t="n">
-        <v>13.5165634634</v>
+        <v>8.9384315536</v>
       </c>
       <c r="F60" t="n">
-        <v>8.9384315536</v>
-      </c>
-      <c r="G60" t="n">
         <v>10.9145411064</v>
       </c>
     </row>
@@ -10171,22 +9991,19 @@
       <c r="A61" t="s">
         <v>65</v>
       </c>
-      <c r="B61" t="s">
-        <v>6</v>
+      <c r="B61" t="n">
+        <v>15.8542416097</v>
       </c>
       <c r="C61" t="n">
-        <v>15.8542416097</v>
+        <v>11.3675566279</v>
       </c>
       <c r="D61" t="n">
-        <v>11.3675566279</v>
+        <v>16.7137378068</v>
       </c>
       <c r="E61" t="n">
-        <v>16.7137378068</v>
+        <v>15.7341470809</v>
       </c>
       <c r="F61" t="n">
-        <v>15.7341470809</v>
-      </c>
-      <c r="G61" t="n">
         <v>15.8306717875</v>
       </c>
     </row>
@@ -10194,22 +10011,19 @@
       <c r="A62" t="s">
         <v>66</v>
       </c>
-      <c r="B62" t="s">
-        <v>6</v>
+      <c r="B62" t="n">
+        <v>16.5649894783</v>
       </c>
       <c r="C62" t="n">
-        <v>16.5649894783</v>
+        <v>20.0037837687</v>
       </c>
       <c r="D62" t="n">
-        <v>20.0037837687</v>
+        <v>18.2498821905</v>
       </c>
       <c r="E62" t="n">
-        <v>18.2498821905</v>
+        <v>18.6251295793</v>
       </c>
       <c r="F62" t="n">
-        <v>18.6251295793</v>
-      </c>
-      <c r="G62" t="n">
         <v>16.5452803926</v>
       </c>
     </row>
@@ -10217,20 +10031,17 @@
       <c r="A63" t="s">
         <v>67</v>
       </c>
-      <c r="B63" t="s">
-        <v>6</v>
+      <c r="B63" t="n">
+        <v>13.5931834883</v>
       </c>
       <c r="C63" t="n">
-        <v>13.5931834883</v>
-      </c>
-      <c r="D63" t="n">
         <v>9.3589983162</v>
       </c>
-      <c r="E63"/>
+      <c r="D63"/>
+      <c r="E63" t="n">
+        <v>7.5549618306</v>
+      </c>
       <c r="F63" t="n">
-        <v>7.5549618306</v>
-      </c>
-      <c r="G63" t="n">
         <v>8.3748132068</v>
       </c>
     </row>
@@ -10238,41 +10049,35 @@
       <c r="A64" t="s">
         <v>68</v>
       </c>
-      <c r="B64" t="s">
-        <v>6</v>
+      <c r="B64" t="n">
+        <v>17.8338917168</v>
       </c>
       <c r="C64" t="n">
-        <v>17.8338917168</v>
+        <v>13.9934597596</v>
       </c>
       <c r="D64" t="n">
-        <v>13.9934597596</v>
-      </c>
-      <c r="E64" t="n">
         <v>12.4265044971</v>
       </c>
+      <c r="E64"/>
       <c r="F64"/>
-      <c r="G64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>69</v>
       </c>
-      <c r="B65" t="s">
-        <v>6</v>
+      <c r="B65" t="n">
+        <v>24.4581325988</v>
       </c>
       <c r="C65" t="n">
-        <v>24.4581325988</v>
+        <v>26.699352301</v>
       </c>
       <c r="D65" t="n">
-        <v>26.699352301</v>
+        <v>27.3446589246</v>
       </c>
       <c r="E65" t="n">
-        <v>27.3446589246</v>
+        <v>23.323778795</v>
       </c>
       <c r="F65" t="n">
-        <v>23.323778795</v>
-      </c>
-      <c r="G65" t="n">
         <v>23.3417025169</v>
       </c>
     </row>
@@ -10280,22 +10085,19 @@
       <c r="A66" t="s">
         <v>70</v>
       </c>
-      <c r="B66" t="s">
-        <v>6</v>
+      <c r="B66" t="n">
+        <v>18.9750024024</v>
       </c>
       <c r="C66" t="n">
-        <v>18.9750024024</v>
+        <v>12.2793695886</v>
       </c>
       <c r="D66" t="n">
-        <v>12.2793695886</v>
+        <v>14.9873795641</v>
       </c>
       <c r="E66" t="n">
         <v>14.9873795641</v>
       </c>
       <c r="F66" t="n">
-        <v>14.9873795641</v>
-      </c>
-      <c r="G66" t="n">
         <v>15.0365322141</v>
       </c>
     </row>
@@ -10303,22 +10105,19 @@
       <c r="A67" t="s">
         <v>71</v>
       </c>
-      <c r="B67" t="s">
-        <v>6</v>
+      <c r="B67" t="n">
+        <v>18.6660171152</v>
       </c>
       <c r="C67" t="n">
-        <v>18.6660171152</v>
+        <v>15.6003952971</v>
       </c>
       <c r="D67" t="n">
-        <v>15.6003952971</v>
+        <v>15.6385656847</v>
       </c>
       <c r="E67" t="n">
-        <v>15.6385656847</v>
+        <v>16.1720493682</v>
       </c>
       <c r="F67" t="n">
-        <v>16.1720493682</v>
-      </c>
-      <c r="G67" t="n">
         <v>15.5956617845</v>
       </c>
     </row>
@@ -10326,22 +10125,19 @@
       <c r="A68" t="s">
         <v>72</v>
       </c>
-      <c r="B68" t="s">
-        <v>6</v>
+      <c r="B68" t="n">
+        <v>13.0707300871</v>
       </c>
       <c r="C68" t="n">
-        <v>13.0707300871</v>
+        <v>12.5673875268</v>
       </c>
       <c r="D68" t="n">
-        <v>12.5673875268</v>
+        <v>14.5498529987</v>
       </c>
       <c r="E68" t="n">
-        <v>14.5498529987</v>
+        <v>17.26995349</v>
       </c>
       <c r="F68" t="n">
-        <v>17.26995349</v>
-      </c>
-      <c r="G68" t="n">
         <v>17.5835653931</v>
       </c>
     </row>
@@ -10349,22 +10145,19 @@
       <c r="A69" t="s">
         <v>73</v>
       </c>
-      <c r="B69" t="s">
-        <v>6</v>
+      <c r="B69" t="n">
+        <v>14.7997030537</v>
       </c>
       <c r="C69" t="n">
-        <v>14.7997030537</v>
+        <v>18.0197075706</v>
       </c>
       <c r="D69" t="n">
-        <v>18.0197075706</v>
+        <v>17.7257110112</v>
       </c>
       <c r="E69" t="n">
-        <v>17.7257110112</v>
+        <v>17.0394131152</v>
       </c>
       <c r="F69" t="n">
-        <v>17.0394131152</v>
-      </c>
-      <c r="G69" t="n">
         <v>19.3835648698</v>
       </c>
     </row>
@@ -10372,22 +10165,19 @@
       <c r="A70" t="s">
         <v>74</v>
       </c>
-      <c r="B70" t="s">
-        <v>6</v>
+      <c r="B70" t="n">
+        <v>20.8236043881</v>
       </c>
       <c r="C70" t="n">
-        <v>20.8236043881</v>
+        <v>20.3785568092</v>
       </c>
       <c r="D70" t="n">
-        <v>20.3785568092</v>
+        <v>20.807007802</v>
       </c>
       <c r="E70" t="n">
-        <v>20.807007802</v>
+        <v>22.839362753</v>
       </c>
       <c r="F70" t="n">
-        <v>22.839362753</v>
-      </c>
-      <c r="G70" t="n">
         <v>26.0251710469</v>
       </c>
     </row>
@@ -10395,22 +10185,19 @@
       <c r="A71" t="s">
         <v>75</v>
       </c>
-      <c r="B71" t="s">
-        <v>6</v>
+      <c r="B71" t="n">
+        <v>12.9565988875</v>
       </c>
       <c r="C71" t="n">
-        <v>12.9565988875</v>
+        <v>14.5959916312</v>
       </c>
       <c r="D71" t="n">
-        <v>14.5959916312</v>
+        <v>13.0521513895</v>
       </c>
       <c r="E71" t="n">
-        <v>13.0521513895</v>
+        <v>13.8804398621</v>
       </c>
       <c r="F71" t="n">
-        <v>13.8804398621</v>
-      </c>
-      <c r="G71" t="n">
         <v>14.1709623289</v>
       </c>
     </row>
@@ -10418,20 +10205,17 @@
       <c r="A72" t="s">
         <v>76</v>
       </c>
-      <c r="B72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72"/>
+      <c r="B72"/>
+      <c r="C72" t="n">
+        <v>13.5536475349</v>
+      </c>
       <c r="D72" t="n">
-        <v>13.5536475349</v>
+        <v>14.5970277562</v>
       </c>
       <c r="E72" t="n">
-        <v>14.5970277562</v>
+        <v>16.1803329658</v>
       </c>
       <c r="F72" t="n">
-        <v>16.1803329658</v>
-      </c>
-      <c r="G72" t="n">
         <v>18.8070098172</v>
       </c>
     </row>
@@ -10439,20 +10223,17 @@
       <c r="A73" t="s">
         <v>77</v>
       </c>
-      <c r="B73" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73"/>
+      <c r="B73"/>
+      <c r="C73" t="n">
+        <v>8.9476830566</v>
+      </c>
       <c r="D73" t="n">
-        <v>8.9476830566</v>
+        <v>15.5763307946</v>
       </c>
       <c r="E73" t="n">
-        <v>15.5763307946</v>
+        <v>15.0821577054</v>
       </c>
       <c r="F73" t="n">
-        <v>15.0821577054</v>
-      </c>
-      <c r="G73" t="n">
         <v>15.5802472807</v>
       </c>
     </row>
@@ -10460,22 +10241,19 @@
       <c r="A74" t="s">
         <v>78</v>
       </c>
-      <c r="B74" t="s">
-        <v>6</v>
+      <c r="B74" t="n">
+        <v>17.5209722284</v>
       </c>
       <c r="C74" t="n">
-        <v>17.5209722284</v>
+        <v>15.6330157564</v>
       </c>
       <c r="D74" t="n">
-        <v>15.6330157564</v>
+        <v>22.3861048868</v>
       </c>
       <c r="E74" t="n">
-        <v>22.3861048868</v>
+        <v>19.4562634321</v>
       </c>
       <c r="F74" t="n">
-        <v>19.4562634321</v>
-      </c>
-      <c r="G74" t="n">
         <v>18.6423309304</v>
       </c>
     </row>
@@ -10483,22 +10261,19 @@
       <c r="A75" t="s">
         <v>79</v>
       </c>
-      <c r="B75" t="s">
-        <v>6</v>
+      <c r="B75" t="n">
+        <v>11.1215223713</v>
       </c>
       <c r="C75" t="n">
-        <v>11.1215223713</v>
+        <v>13.1292600434</v>
       </c>
       <c r="D75" t="n">
-        <v>13.1292600434</v>
+        <v>13.1972978105</v>
       </c>
       <c r="E75" t="n">
-        <v>13.1972978105</v>
+        <v>12.789347332</v>
       </c>
       <c r="F75" t="n">
-        <v>12.789347332</v>
-      </c>
-      <c r="G75" t="n">
         <v>15.0217801729</v>
       </c>
     </row>
@@ -10506,41 +10281,35 @@
       <c r="A76" t="s">
         <v>80</v>
       </c>
-      <c r="B76" t="s">
-        <v>6</v>
+      <c r="B76" t="n">
+        <v>15.2143605792</v>
       </c>
       <c r="C76" t="n">
-        <v>15.2143605792</v>
+        <v>16.8718219222</v>
       </c>
       <c r="D76" t="n">
-        <v>16.8718219222</v>
-      </c>
-      <c r="E76" t="n">
         <v>17.7946538108</v>
       </c>
+      <c r="E76"/>
       <c r="F76"/>
-      <c r="G76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>81</v>
       </c>
-      <c r="B77" t="s">
-        <v>6</v>
+      <c r="B77" t="n">
+        <v>11.9892042529</v>
       </c>
       <c r="C77" t="n">
-        <v>11.9892042529</v>
+        <v>9.4296238022</v>
       </c>
       <c r="D77" t="n">
-        <v>9.4296238022</v>
+        <v>11.4048519114</v>
       </c>
       <c r="E77" t="n">
-        <v>11.4048519114</v>
+        <v>13.3251308191</v>
       </c>
       <c r="F77" t="n">
-        <v>13.3251308191</v>
-      </c>
-      <c r="G77" t="n">
         <v>12.2713193775</v>
       </c>
     </row>
@@ -10548,20 +10317,17 @@
       <c r="A78" t="s">
         <v>82</v>
       </c>
-      <c r="B78" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78"/>
+      <c r="B78"/>
+      <c r="C78" t="n">
+        <v>16.9927470048</v>
+      </c>
       <c r="D78" t="n">
-        <v>16.9927470048</v>
+        <v>19.4916192148</v>
       </c>
       <c r="E78" t="n">
-        <v>19.4916192148</v>
+        <v>19.3345223928</v>
       </c>
       <c r="F78" t="n">
-        <v>19.3345223928</v>
-      </c>
-      <c r="G78" t="n">
         <v>19.2415745948</v>
       </c>
     </row>
@@ -10569,22 +10335,19 @@
       <c r="A79" t="s">
         <v>83</v>
       </c>
-      <c r="B79" t="s">
-        <v>6</v>
+      <c r="B79" t="n">
+        <v>13.5001874915</v>
       </c>
       <c r="C79" t="n">
-        <v>13.5001874915</v>
+        <v>14.6888280485</v>
       </c>
       <c r="D79" t="n">
-        <v>14.6888280485</v>
+        <v>14.1137514452</v>
       </c>
       <c r="E79" t="n">
-        <v>14.1137514452</v>
+        <v>11.5188828384</v>
       </c>
       <c r="F79" t="n">
-        <v>11.5188828384</v>
-      </c>
-      <c r="G79" t="n">
         <v>13.5581202055</v>
       </c>
     </row>
@@ -10592,20 +10355,17 @@
       <c r="A80" t="s">
         <v>84</v>
       </c>
-      <c r="B80" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80"/>
+      <c r="B80"/>
+      <c r="C80" t="n">
+        <v>14.7780806753</v>
+      </c>
       <c r="D80" t="n">
-        <v>14.7780806753</v>
+        <v>19.5709829816</v>
       </c>
       <c r="E80" t="n">
-        <v>19.5709829816</v>
+        <v>19.0595181068</v>
       </c>
       <c r="F80" t="n">
-        <v>19.0595181068</v>
-      </c>
-      <c r="G80" t="n">
         <v>19.8037197869</v>
       </c>
     </row>
@@ -10613,22 +10373,19 @@
       <c r="A81" t="s">
         <v>85</v>
       </c>
-      <c r="B81" t="s">
-        <v>6</v>
+      <c r="B81" t="n">
+        <v>5.8732765791</v>
       </c>
       <c r="C81" t="n">
-        <v>5.8732765791</v>
+        <v>7.9035026566</v>
       </c>
       <c r="D81" t="n">
-        <v>7.9035026566</v>
+        <v>9.7268073099</v>
       </c>
       <c r="E81" t="n">
-        <v>9.7268073099</v>
+        <v>15.3669908403</v>
       </c>
       <c r="F81" t="n">
-        <v>15.3669908403</v>
-      </c>
-      <c r="G81" t="n">
         <v>15.7743276374</v>
       </c>
     </row>
@@ -10636,22 +10393,19 @@
       <c r="A82" t="s">
         <v>86</v>
       </c>
-      <c r="B82" t="s">
-        <v>6</v>
+      <c r="B82" t="n">
+        <v>12.4867805919</v>
       </c>
       <c r="C82" t="n">
-        <v>12.4867805919</v>
+        <v>9.8161371807</v>
       </c>
       <c r="D82" t="n">
-        <v>9.8161371807</v>
+        <v>21.6755635237</v>
       </c>
       <c r="E82" t="n">
-        <v>21.6755635237</v>
+        <v>12.5658673708</v>
       </c>
       <c r="F82" t="n">
-        <v>12.5658673708</v>
-      </c>
-      <c r="G82" t="n">
         <v>17.8144466194</v>
       </c>
     </row>
@@ -10659,22 +10413,19 @@
       <c r="A83" t="s">
         <v>87</v>
       </c>
-      <c r="B83" t="s">
-        <v>6</v>
+      <c r="B83" t="n">
+        <v>29.0103477879</v>
       </c>
       <c r="C83" t="n">
-        <v>29.0103477879</v>
+        <v>25.3954135613</v>
       </c>
       <c r="D83" t="n">
-        <v>25.3954135613</v>
+        <v>26.44523015</v>
       </c>
       <c r="E83" t="n">
-        <v>26.44523015</v>
+        <v>21.7129055623</v>
       </c>
       <c r="F83" t="n">
-        <v>21.7129055623</v>
-      </c>
-      <c r="G83" t="n">
         <v>24.0463017476</v>
       </c>
     </row>
@@ -10682,20 +10433,17 @@
       <c r="A84" t="s">
         <v>88</v>
       </c>
-      <c r="B84" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" t="n">
+      <c r="B84" t="n">
         <v>17.3075399328</v>
       </c>
-      <c r="D84"/>
+      <c r="C84"/>
+      <c r="D84" t="n">
+        <v>9.2409598892</v>
+      </c>
       <c r="E84" t="n">
-        <v>9.2409598892</v>
+        <v>16.2327677251</v>
       </c>
       <c r="F84" t="n">
-        <v>16.2327677251</v>
-      </c>
-      <c r="G84" t="n">
         <v>18.9792637771</v>
       </c>
     </row>
@@ -10703,22 +10451,19 @@
       <c r="A85" t="s">
         <v>89</v>
       </c>
-      <c r="B85" t="s">
-        <v>6</v>
+      <c r="B85" t="n">
+        <v>17.4292777192</v>
       </c>
       <c r="C85" t="n">
-        <v>17.4292777192</v>
+        <v>17.1048621882</v>
       </c>
       <c r="D85" t="n">
-        <v>17.1048621882</v>
+        <v>21.8449647904</v>
       </c>
       <c r="E85" t="n">
-        <v>21.8449647904</v>
+        <v>17.1398285281</v>
       </c>
       <c r="F85" t="n">
-        <v>17.1398285281</v>
-      </c>
-      <c r="G85" t="n">
         <v>16.8888151673</v>
       </c>
     </row>
@@ -10726,20 +10471,17 @@
       <c r="A86" t="s">
         <v>90</v>
       </c>
-      <c r="B86" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86"/>
+      <c r="B86"/>
+      <c r="C86" t="n">
+        <v>11.3072649099</v>
+      </c>
       <c r="D86" t="n">
-        <v>11.3072649099</v>
+        <v>16.0331423853</v>
       </c>
       <c r="E86" t="n">
-        <v>16.0331423853</v>
+        <v>17.34302934</v>
       </c>
       <c r="F86" t="n">
-        <v>17.34302934</v>
-      </c>
-      <c r="G86" t="n">
         <v>16.2266028899</v>
       </c>
     </row>
@@ -10747,22 +10489,19 @@
       <c r="A87" t="s">
         <v>91</v>
       </c>
-      <c r="B87" t="s">
-        <v>6</v>
+      <c r="B87" t="n">
+        <v>18.7051753996</v>
       </c>
       <c r="C87" t="n">
-        <v>18.7051753996</v>
+        <v>24.6513322517</v>
       </c>
       <c r="D87" t="n">
-        <v>24.6513322517</v>
+        <v>22.6889876255</v>
       </c>
       <c r="E87" t="n">
-        <v>22.6889876255</v>
+        <v>20.2498226267</v>
       </c>
       <c r="F87" t="n">
-        <v>20.2498226267</v>
-      </c>
-      <c r="G87" t="n">
         <v>21.3619192524</v>
       </c>
     </row>
@@ -10770,22 +10509,19 @@
       <c r="A88" t="s">
         <v>92</v>
       </c>
-      <c r="B88" t="s">
-        <v>6</v>
+      <c r="B88" t="n">
+        <v>13.287313711</v>
       </c>
       <c r="C88" t="n">
-        <v>13.287313711</v>
+        <v>13.3618493108</v>
       </c>
       <c r="D88" t="n">
-        <v>13.3618493108</v>
+        <v>20.051177617</v>
       </c>
       <c r="E88" t="n">
-        <v>20.051177617</v>
+        <v>14.6985451402</v>
       </c>
       <c r="F88" t="n">
-        <v>14.6985451402</v>
-      </c>
-      <c r="G88" t="n">
         <v>14.3357859405</v>
       </c>
     </row>
@@ -10793,22 +10529,19 @@
       <c r="A89" t="s">
         <v>93</v>
       </c>
-      <c r="B89" t="s">
-        <v>6</v>
+      <c r="B89" t="n">
+        <v>12.3176073784</v>
       </c>
       <c r="C89" t="n">
-        <v>12.3176073784</v>
+        <v>16.490337186</v>
       </c>
       <c r="D89" t="n">
-        <v>16.490337186</v>
+        <v>14.072909499</v>
       </c>
       <c r="E89" t="n">
-        <v>14.072909499</v>
+        <v>11.4100542815</v>
       </c>
       <c r="F89" t="n">
-        <v>11.4100542815</v>
-      </c>
-      <c r="G89" t="n">
         <v>12.9795584528</v>
       </c>
     </row>
@@ -10816,20 +10549,17 @@
       <c r="A90" t="s">
         <v>94</v>
       </c>
-      <c r="B90" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90"/>
+      <c r="B90"/>
+      <c r="C90" t="n">
+        <v>11.7467451215</v>
+      </c>
       <c r="D90" t="n">
-        <v>11.7467451215</v>
+        <v>15.2989772649</v>
       </c>
       <c r="E90" t="n">
-        <v>15.2989772649</v>
+        <v>11.6703921715</v>
       </c>
       <c r="F90" t="n">
-        <v>11.6703921715</v>
-      </c>
-      <c r="G90" t="n">
         <v>11.7335005825</v>
       </c>
     </row>
@@ -10837,22 +10567,19 @@
       <c r="A91" t="s">
         <v>95</v>
       </c>
-      <c r="B91" t="s">
-        <v>6</v>
+      <c r="B91" t="n">
+        <v>10.7547687966</v>
       </c>
       <c r="C91" t="n">
-        <v>10.7547687966</v>
+        <v>10.4592843599</v>
       </c>
       <c r="D91" t="n">
-        <v>10.4592843599</v>
+        <v>14.1332238528</v>
       </c>
       <c r="E91" t="n">
-        <v>14.1332238528</v>
+        <v>12.5772191525</v>
       </c>
       <c r="F91" t="n">
-        <v>12.5772191525</v>
-      </c>
-      <c r="G91" t="n">
         <v>13.9218787152</v>
       </c>
     </row>
@@ -10860,22 +10587,19 @@
       <c r="A92" t="s">
         <v>96</v>
       </c>
-      <c r="B92" t="s">
-        <v>6</v>
+      <c r="B92" t="n">
+        <v>11.0594280479</v>
       </c>
       <c r="C92" t="n">
-        <v>11.0594280479</v>
+        <v>13.1354528562</v>
       </c>
       <c r="D92" t="n">
-        <v>13.1354528562</v>
+        <v>18.2891671285</v>
       </c>
       <c r="E92" t="n">
-        <v>18.2891671285</v>
+        <v>20.0237010386</v>
       </c>
       <c r="F92" t="n">
-        <v>20.0237010386</v>
-      </c>
-      <c r="G92" t="n">
         <v>19.0731280884</v>
       </c>
     </row>
@@ -10883,22 +10607,19 @@
       <c r="A93" t="s">
         <v>97</v>
       </c>
-      <c r="B93" t="s">
-        <v>6</v>
+      <c r="B93" t="n">
+        <v>12.1262153697</v>
       </c>
       <c r="C93" t="n">
-        <v>12.1262153697</v>
+        <v>13.8816391495</v>
       </c>
       <c r="D93" t="n">
-        <v>13.8816391495</v>
+        <v>12.4039989011</v>
       </c>
       <c r="E93" t="n">
-        <v>12.4039989011</v>
+        <v>10.4184951076</v>
       </c>
       <c r="F93" t="n">
-        <v>10.4184951076</v>
-      </c>
-      <c r="G93" t="n">
         <v>10.9175709255</v>
       </c>
     </row>
@@ -10906,22 +10627,19 @@
       <c r="A94" t="s">
         <v>98</v>
       </c>
-      <c r="B94" t="s">
-        <v>6</v>
+      <c r="B94" t="n">
+        <v>18.869700691</v>
       </c>
       <c r="C94" t="n">
-        <v>18.869700691</v>
+        <v>19.5691475812</v>
       </c>
       <c r="D94" t="n">
-        <v>19.5691475812</v>
+        <v>23.0305289342</v>
       </c>
       <c r="E94" t="n">
-        <v>23.0305289342</v>
+        <v>21.0152897845</v>
       </c>
       <c r="F94" t="n">
-        <v>21.0152897845</v>
-      </c>
-      <c r="G94" t="n">
         <v>21.6379659106</v>
       </c>
     </row>
@@ -10929,20 +10647,17 @@
       <c r="A95" t="s">
         <v>99</v>
       </c>
-      <c r="B95" t="s">
-        <v>6</v>
+      <c r="B95" t="n">
+        <v>13.7817361078</v>
       </c>
       <c r="C95" t="n">
-        <v>13.7817361078</v>
-      </c>
-      <c r="D95" t="n">
         <v>13.6433018249</v>
       </c>
-      <c r="E95"/>
+      <c r="D95"/>
+      <c r="E95" t="n">
+        <v>13.5615456687</v>
+      </c>
       <c r="F95" t="n">
-        <v>13.5615456687</v>
-      </c>
-      <c r="G95" t="n">
         <v>16.1713582674</v>
       </c>
     </row>
@@ -10950,20 +10665,17 @@
       <c r="A96" t="s">
         <v>100</v>
       </c>
-      <c r="B96" t="s">
-        <v>6</v>
+      <c r="B96" t="n">
+        <v>8.153230952</v>
       </c>
       <c r="C96" t="n">
-        <v>8.153230952</v>
-      </c>
-      <c r="D96" t="n">
         <v>9.0015352632</v>
       </c>
-      <c r="E96"/>
+      <c r="D96"/>
+      <c r="E96" t="n">
+        <v>7.5700496675</v>
+      </c>
       <c r="F96" t="n">
-        <v>7.5700496675</v>
-      </c>
-      <c r="G96" t="n">
         <v>8.260970673</v>
       </c>
     </row>
@@ -10971,18 +10683,15 @@
       <c r="A97" t="s">
         <v>101</v>
       </c>
-      <c r="B97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" t="n">
+      <c r="B97" t="n">
         <v>14.8765406973</v>
       </c>
+      <c r="C97"/>
       <c r="D97"/>
-      <c r="E97"/>
+      <c r="E97" t="n">
+        <v>13.5570773892</v>
+      </c>
       <c r="F97" t="n">
-        <v>13.5570773892</v>
-      </c>
-      <c r="G97" t="n">
         <v>13.5547496597</v>
       </c>
     </row>
@@ -10990,20 +10699,17 @@
       <c r="A98" t="s">
         <v>102</v>
       </c>
-      <c r="B98" t="s">
-        <v>6</v>
+      <c r="B98" t="n">
+        <v>15.0086674414</v>
       </c>
       <c r="C98" t="n">
-        <v>15.0086674414</v>
-      </c>
-      <c r="D98" t="n">
         <v>16.4867291347</v>
       </c>
-      <c r="E98"/>
+      <c r="D98"/>
+      <c r="E98" t="n">
+        <v>14.0201316564</v>
+      </c>
       <c r="F98" t="n">
-        <v>14.0201316564</v>
-      </c>
-      <c r="G98" t="n">
         <v>14.2416387057</v>
       </c>
     </row>
@@ -11011,22 +10717,19 @@
       <c r="A99" t="s">
         <v>103</v>
       </c>
-      <c r="B99" t="s">
-        <v>6</v>
+      <c r="B99" t="n">
+        <v>12.864885338</v>
       </c>
       <c r="C99" t="n">
-        <v>12.864885338</v>
+        <v>10.98952128</v>
       </c>
       <c r="D99" t="n">
-        <v>10.98952128</v>
+        <v>13.6865458756</v>
       </c>
       <c r="E99" t="n">
-        <v>13.6865458756</v>
+        <v>10.3450147811</v>
       </c>
       <c r="F99" t="n">
-        <v>10.3450147811</v>
-      </c>
-      <c r="G99" t="n">
         <v>11.2630590719</v>
       </c>
     </row>
@@ -11034,22 +10737,19 @@
       <c r="A100" t="s">
         <v>104</v>
       </c>
-      <c r="B100" t="s">
-        <v>6</v>
+      <c r="B100" t="n">
+        <v>17.3939352745</v>
       </c>
       <c r="C100" t="n">
-        <v>17.3939352745</v>
+        <v>18.6920665998</v>
       </c>
       <c r="D100" t="n">
-        <v>18.6920665998</v>
+        <v>21.8752550113</v>
       </c>
       <c r="E100" t="n">
-        <v>21.8752550113</v>
+        <v>17.5215679824</v>
       </c>
       <c r="F100" t="n">
-        <v>17.5215679824</v>
-      </c>
-      <c r="G100" t="n">
         <v>18.0629793974</v>
       </c>
     </row>
@@ -11057,22 +10757,19 @@
       <c r="A101" t="s">
         <v>105</v>
       </c>
-      <c r="B101" t="s">
-        <v>6</v>
+      <c r="B101" t="n">
+        <v>12.7481740973</v>
       </c>
       <c r="C101" t="n">
-        <v>12.7481740973</v>
+        <v>16.9848503229</v>
       </c>
       <c r="D101" t="n">
-        <v>16.9848503229</v>
+        <v>16.1478106368</v>
       </c>
       <c r="E101" t="n">
-        <v>16.1478106368</v>
+        <v>13.6190847289</v>
       </c>
       <c r="F101" t="n">
-        <v>13.6190847289</v>
-      </c>
-      <c r="G101" t="n">
         <v>16.6912279035</v>
       </c>
     </row>
@@ -11080,22 +10777,19 @@
       <c r="A102" t="s">
         <v>106</v>
       </c>
-      <c r="B102" t="s">
-        <v>6</v>
+      <c r="B102" t="n">
+        <v>10.1534823048</v>
       </c>
       <c r="C102" t="n">
-        <v>10.1534823048</v>
+        <v>9.5156409262</v>
       </c>
       <c r="D102" t="n">
-        <v>9.5156409262</v>
+        <v>10.6980926333</v>
       </c>
       <c r="E102" t="n">
-        <v>10.6980926333</v>
+        <v>16.1819671918</v>
       </c>
       <c r="F102" t="n">
-        <v>16.1819671918</v>
-      </c>
-      <c r="G102" t="n">
         <v>19.7984604737</v>
       </c>
     </row>
@@ -11103,22 +10797,19 @@
       <c r="A103" t="s">
         <v>107</v>
       </c>
-      <c r="B103" t="s">
-        <v>6</v>
+      <c r="B103" t="n">
+        <v>10.5955544916</v>
       </c>
       <c r="C103" t="n">
-        <v>10.5955544916</v>
+        <v>15.0530868113</v>
       </c>
       <c r="D103" t="n">
-        <v>15.0530868113</v>
+        <v>14.7762403688</v>
       </c>
       <c r="E103" t="n">
-        <v>14.7762403688</v>
+        <v>13.3941829767</v>
       </c>
       <c r="F103" t="n">
-        <v>13.3941829767</v>
-      </c>
-      <c r="G103" t="n">
         <v>14.1255030197</v>
       </c>
     </row>
@@ -11126,22 +10817,19 @@
       <c r="A104" t="s">
         <v>108</v>
       </c>
-      <c r="B104" t="s">
-        <v>6</v>
+      <c r="B104" t="n">
+        <v>14.7660995912</v>
       </c>
       <c r="C104" t="n">
-        <v>14.7660995912</v>
+        <v>12.8157453811</v>
       </c>
       <c r="D104" t="n">
-        <v>12.8157453811</v>
+        <v>15.7410062536</v>
       </c>
       <c r="E104" t="n">
-        <v>15.7410062536</v>
+        <v>12.377152542</v>
       </c>
       <c r="F104" t="n">
-        <v>12.377152542</v>
-      </c>
-      <c r="G104" t="n">
         <v>12.7553211564</v>
       </c>
     </row>
@@ -11149,22 +10837,19 @@
       <c r="A105" t="s">
         <v>109</v>
       </c>
-      <c r="B105" t="s">
-        <v>6</v>
+      <c r="B105" t="n">
+        <v>16.1815170383</v>
       </c>
       <c r="C105" t="n">
-        <v>16.1815170383</v>
+        <v>14.6415825688</v>
       </c>
       <c r="D105" t="n">
-        <v>14.6415825688</v>
+        <v>17.9138421329</v>
       </c>
       <c r="E105" t="n">
-        <v>17.9138421329</v>
+        <v>17.8794747307</v>
       </c>
       <c r="F105" t="n">
-        <v>17.8794747307</v>
-      </c>
-      <c r="G105" t="n">
         <v>18.2632343707</v>
       </c>
     </row>
@@ -11172,22 +10857,19 @@
       <c r="A106" t="s">
         <v>110</v>
       </c>
-      <c r="B106" t="s">
-        <v>6</v>
+      <c r="B106" t="n">
+        <v>11.2638065469</v>
       </c>
       <c r="C106" t="n">
-        <v>11.2638065469</v>
+        <v>11.6433467307</v>
       </c>
       <c r="D106" t="n">
-        <v>11.6433467307</v>
+        <v>11.5025785054</v>
       </c>
       <c r="E106" t="n">
-        <v>11.5025785054</v>
+        <v>10.7887460008</v>
       </c>
       <c r="F106" t="n">
-        <v>10.7887460008</v>
-      </c>
-      <c r="G106" t="n">
         <v>11.3472399812</v>
       </c>
     </row>
@@ -11195,22 +10877,19 @@
       <c r="A107" t="s">
         <v>111</v>
       </c>
-      <c r="B107" t="s">
-        <v>6</v>
+      <c r="B107" t="n">
+        <v>16.5085886529</v>
       </c>
       <c r="C107" t="n">
-        <v>16.5085886529</v>
+        <v>15.9726660689</v>
       </c>
       <c r="D107" t="n">
-        <v>15.9726660689</v>
+        <v>15.1889347201</v>
       </c>
       <c r="E107" t="n">
-        <v>15.1889347201</v>
+        <v>12.0880527923</v>
       </c>
       <c r="F107" t="n">
-        <v>12.0880527923</v>
-      </c>
-      <c r="G107" t="n">
         <v>13.35702364</v>
       </c>
     </row>
@@ -11218,22 +10897,19 @@
       <c r="A108" t="s">
         <v>112</v>
       </c>
-      <c r="B108" t="s">
-        <v>6</v>
+      <c r="B108" t="n">
+        <v>15.3294952959</v>
       </c>
       <c r="C108" t="n">
-        <v>15.3294952959</v>
+        <v>10.0731819105</v>
       </c>
       <c r="D108" t="n">
-        <v>10.0731819105</v>
+        <v>16.1931628898</v>
       </c>
       <c r="E108" t="n">
-        <v>16.1931628898</v>
+        <v>16.4001954639</v>
       </c>
       <c r="F108" t="n">
-        <v>16.4001954639</v>
-      </c>
-      <c r="G108" t="n">
         <v>17.2479856612</v>
       </c>
     </row>
@@ -11241,22 +10917,19 @@
       <c r="A109" t="s">
         <v>113</v>
       </c>
-      <c r="B109" t="s">
-        <v>6</v>
+      <c r="B109" t="n">
+        <v>7.4071702653</v>
       </c>
       <c r="C109" t="n">
-        <v>7.4071702653</v>
+        <v>7.2291877703</v>
       </c>
       <c r="D109" t="n">
-        <v>7.2291877703</v>
+        <v>8.8939842372</v>
       </c>
       <c r="E109" t="n">
-        <v>8.8939842372</v>
+        <v>7.3932820285</v>
       </c>
       <c r="F109" t="n">
-        <v>7.3932820285</v>
-      </c>
-      <c r="G109" t="n">
         <v>7.9080642566</v>
       </c>
     </row>
@@ -11264,22 +10937,19 @@
       <c r="A110" t="s">
         <v>114</v>
       </c>
-      <c r="B110" t="s">
-        <v>6</v>
+      <c r="B110" t="n">
+        <v>9.9366320408</v>
       </c>
       <c r="C110" t="n">
-        <v>9.9366320408</v>
+        <v>14.3668656036</v>
       </c>
       <c r="D110" t="n">
-        <v>14.3668656036</v>
+        <v>19.1390684205</v>
       </c>
       <c r="E110" t="n">
-        <v>19.1390684205</v>
+        <v>18.8833016042</v>
       </c>
       <c r="F110" t="n">
-        <v>18.8833016042</v>
-      </c>
-      <c r="G110" t="n">
         <v>19.4185625293</v>
       </c>
     </row>
@@ -11287,22 +10957,19 @@
       <c r="A111" t="s">
         <v>115</v>
       </c>
-      <c r="B111" t="s">
-        <v>6</v>
+      <c r="B111" t="n">
+        <v>8.145049024</v>
       </c>
       <c r="C111" t="n">
-        <v>8.145049024</v>
+        <v>8.7686873141</v>
       </c>
       <c r="D111" t="n">
-        <v>8.7686873141</v>
+        <v>11.080855376</v>
       </c>
       <c r="E111" t="n">
-        <v>11.080855376</v>
+        <v>9.9485336719</v>
       </c>
       <c r="F111" t="n">
-        <v>9.9485336719</v>
-      </c>
-      <c r="G111" t="n">
         <v>10.3461533861</v>
       </c>
     </row>
@@ -11310,20 +10977,17 @@
       <c r="A112" t="s">
         <v>116</v>
       </c>
-      <c r="B112" t="s">
-        <v>6</v>
+      <c r="B112" t="n">
+        <v>12.0978676696</v>
       </c>
       <c r="C112" t="n">
-        <v>12.0978676696</v>
-      </c>
-      <c r="D112" t="n">
         <v>11.6011857495</v>
       </c>
-      <c r="E112"/>
+      <c r="D112"/>
+      <c r="E112" t="n">
+        <v>12.3012471993</v>
+      </c>
       <c r="F112" t="n">
-        <v>12.3012471993</v>
-      </c>
-      <c r="G112" t="n">
         <v>12.3365102484</v>
       </c>
     </row>

--- a/user-data/uganda-health-percent/uganda-health-percent.xlsx
+++ b/user-data/uganda-health-percent/uganda-health-percent.xlsx
@@ -739,7 +739,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 25</t>
+    <t xml:space="preserve">Source: 26</t>
   </si>
   <si>
     <t xml:space="preserve"/>
